--- a/src/main/resources/初级工题库.xlsx
+++ b/src/main/resources/初级工题库.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4086" uniqueCount="1905">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4109" uniqueCount="1928">
   <si>
     <t>题型</t>
   </si>
@@ -5776,6 +5776,75 @@
   </si>
   <si>
     <t>您一共做了: 100题	您的得分： 43.0	做题时长约为38.81666666666667Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 100题	您的得分： 36.0	做题时长约为53.96666666666667Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 99题	您的得分： 60.60606060606061	做题时长约为15.966666666666667Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 269题	您的得分： 50.92936802973978	做题时长约为1781.5Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 132题	您的得分： 36.36363636363637	做题时长约为59.11666666666667Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 84题	您的得分： 50.0	做题时长约为290.0833333333333Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 42题	您的得分： 30.952380952380953	做题时长约为4256.283333333334Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 29题	您的得分： 13.793103448275861	做题时长约为26.383333333333333Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 25题	您的得分： 44.0	做题时长约为14.966666666666667Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 14题	您的得分： 35.714285714285715	做题时长约为19.016666666666666Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 9题	您的得分： 100.0	做题时长约为3.966666666666667Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 25题	您的得分： 72.0	做题时长约为5.533333333333333Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 1题	您的得分： 100.0	做题时长约为0.13333333333333333Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 1题	您的得分： 100.0	做题时长约为0.05Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 25题	您的得分： 80.0	做题时长约为17.8Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 1题	您的得分： 0.0	做题时长约为0.1Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 19题	您的得分： 94.73684210526315	做题时长约为1.2333333333333334Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 19题	您的得分： 94.73684210526315	做题时长约为2.15Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 84题	您的得分： 63.095238095238095	做题时长约为42.35Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 3题	您的得分： 66.66666666666666	做题时长约为2.0833333333333335Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 64题	您的得分： 70.3125	做题时长约为119.23333333333333Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 2题	您的得分： 100.0	做题时长约为0.7166666666666667Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 2题	您的得分： 100.0	做题时长约为0.06666666666666667Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 2题	您的得分： 100.0	做题时长约为0.16666666666666666Min</t>
   </si>
 </sst>
 </file>
@@ -5835,238 +5904,1289 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="302">
+  <cellXfs count="1353">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -6498,10 +7618,10 @@
         <v>1573</v>
       </c>
       <c r="R2" t="n">
-        <v>1.0</v>
+        <v>0.65</v>
       </c>
       <c r="T2" t="n">
-        <v>1.721699866395E12</v>
+        <v>1.721785896631E12</v>
       </c>
       <c r="AA2" t="s">
         <v>1903</v>
@@ -6533,10 +7653,10 @@
         <v>1574</v>
       </c>
       <c r="R3" t="n">
-        <v>1.0</v>
+        <v>0.65</v>
       </c>
       <c r="T3" t="n">
-        <v>1.721699892528E12</v>
+        <v>1.721786173552E12</v>
       </c>
       <c r="AA3" t="s">
         <v>1904</v>
@@ -6568,13 +7688,16 @@
         <v>1575</v>
       </c>
       <c r="R4" t="n">
-        <v>1.0</v>
+        <v>3.3</v>
       </c>
       <c r="T4" t="n">
-        <v>1.721699901893E12</v>
+        <v>1.722840436831E12</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>1905</v>
       </c>
       <c r="AB4" t="n">
-        <v>301.0</v>
+        <v>401.0</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -6603,10 +7726,13 @@
         <v>1576</v>
       </c>
       <c r="R5" t="n">
-        <v>1.0</v>
+        <v>1.65</v>
       </c>
       <c r="T5" t="n">
-        <v>1.721699909411E12</v>
+        <v>1.721961315938E12</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>1906</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -6640,6 +7766,9 @@
       <c r="T6" t="n">
         <v>1.721699922394E12</v>
       </c>
+      <c r="AA6" t="s">
+        <v>1907</v>
+      </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1">
@@ -6667,10 +7796,13 @@
         <v>997</v>
       </c>
       <c r="R7" t="n">
-        <v>1.0</v>
+        <v>0.65</v>
       </c>
       <c r="T7" t="n">
-        <v>1.721699934788E12</v>
+        <v>1.721786747234E12</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>1908</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -6699,10 +7831,13 @@
         <v>1296</v>
       </c>
       <c r="R8" t="n">
-        <v>1.0</v>
+        <v>1.65</v>
       </c>
       <c r="T8" t="n">
-        <v>1.721699942264E12</v>
+        <v>1.7219613199E12</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>1909</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -6731,10 +7866,13 @@
         <v>551</v>
       </c>
       <c r="R9" t="n">
-        <v>1.0</v>
+        <v>0.65</v>
       </c>
       <c r="T9" t="n">
-        <v>1.721700126099E12</v>
+        <v>1.721786821633E12</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>1910</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -6768,6 +7906,9 @@
       <c r="T10" t="n">
         <v>1.721700132699E12</v>
       </c>
+      <c r="AA10" t="s">
+        <v>1911</v>
+      </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1">
@@ -6795,10 +7936,13 @@
         <v>1579</v>
       </c>
       <c r="R11" t="n">
-        <v>1.0</v>
+        <v>0.65</v>
       </c>
       <c r="T11" t="n">
-        <v>1.721700139928E12</v>
+        <v>1.721786849834E12</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>1912</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -6827,10 +7971,13 @@
         <v>1580</v>
       </c>
       <c r="R12" t="n">
-        <v>1.0</v>
+        <v>0.65</v>
       </c>
       <c r="T12" t="n">
-        <v>1.72170015111E12</v>
+        <v>1.721786946731E12</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>1913</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -6864,6 +8011,9 @@
       <c r="T13" t="n">
         <v>1.721700156285E12</v>
       </c>
+      <c r="AA13" t="s">
+        <v>1914</v>
+      </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1">
@@ -6891,10 +8041,13 @@
         <v>1582</v>
       </c>
       <c r="R14" t="n">
-        <v>1.0</v>
+        <v>0.65</v>
       </c>
       <c r="T14" t="n">
-        <v>1.721700172734E12</v>
+        <v>1.721786951244E12</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>1915</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -6928,6 +8081,9 @@
       <c r="T15" t="n">
         <v>1.721700181709E12</v>
       </c>
+      <c r="AA15" t="s">
+        <v>1916</v>
+      </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1">
@@ -6960,6 +8116,9 @@
       <c r="T16" t="n">
         <v>1.721700188223E12</v>
       </c>
+      <c r="AA16" t="s">
+        <v>1917</v>
+      </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1">
@@ -6987,10 +8146,13 @@
         <v>1584</v>
       </c>
       <c r="R17" t="n">
-        <v>1.0</v>
+        <v>0.65</v>
       </c>
       <c r="T17" t="n">
-        <v>1.721700198159E12</v>
+        <v>1.721786956993E12</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>1918</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -7019,10 +8181,13 @@
         <v>1585</v>
       </c>
       <c r="R18" t="n">
-        <v>1.0</v>
+        <v>0.65</v>
       </c>
       <c r="T18" t="n">
-        <v>1.721700225817E12</v>
+        <v>1.721787104757E12</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>1919</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -7051,10 +8216,13 @@
         <v>1586</v>
       </c>
       <c r="R19" t="n">
-        <v>1.0</v>
+        <v>0.65</v>
       </c>
       <c r="T19" t="n">
-        <v>1.721700266522E12</v>
+        <v>1.721787123595E12</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>1920</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -7083,10 +8251,13 @@
         <v>1587</v>
       </c>
       <c r="R20" t="n">
-        <v>1.0</v>
+        <v>1.65</v>
       </c>
       <c r="T20" t="n">
-        <v>1.721700332854E12</v>
+        <v>1.721961357952E12</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>1921</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -7120,6 +8291,9 @@
       <c r="T21" t="n">
         <v>1.72170033747E12</v>
       </c>
+      <c r="AA21" t="s">
+        <v>1922</v>
+      </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1">
@@ -7147,10 +8321,13 @@
         <v>1589</v>
       </c>
       <c r="R22" t="n">
-        <v>1.0</v>
+        <v>0.65</v>
       </c>
       <c r="T22" t="n">
-        <v>1.721700343946E12</v>
+        <v>1.721787148558E12</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>1923</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -7179,10 +8356,13 @@
         <v>1590</v>
       </c>
       <c r="R23" t="n">
-        <v>1.0</v>
+        <v>1.65</v>
       </c>
       <c r="T23" t="n">
-        <v>1.721700419287E12</v>
+        <v>1.721961378795E12</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>1924</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -7216,6 +8396,9 @@
       <c r="T24" t="n">
         <v>1.721700430031E12</v>
       </c>
+      <c r="AA24" t="s">
+        <v>1925</v>
+      </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1">
@@ -7243,10 +8426,13 @@
         <v>1591</v>
       </c>
       <c r="R25" t="n">
-        <v>1.0</v>
+        <v>4.300000000000001</v>
       </c>
       <c r="T25" t="n">
-        <v>1.721700435204E12</v>
+        <v>1.72284043954E12</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>1926</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -7275,10 +8461,13 @@
         <v>1592</v>
       </c>
       <c r="R26" t="n">
-        <v>1.0</v>
+        <v>0.65</v>
       </c>
       <c r="T26" t="n">
-        <v>1.721700449543E12</v>
+        <v>1.721787264832E12</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>1927</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -7307,10 +8496,10 @@
         <v>1592</v>
       </c>
       <c r="R27" t="n">
-        <v>1.0</v>
+        <v>3.3</v>
       </c>
       <c r="T27" t="n">
-        <v>1.721700458432E12</v>
+        <v>1.722840446128E12</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -7499,10 +8688,10 @@
         <v>997</v>
       </c>
       <c r="R33" t="n">
-        <v>1.0</v>
+        <v>0.65</v>
       </c>
       <c r="T33" t="n">
-        <v>1.721700724314E12</v>
+        <v>1.721787284709E12</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -7531,10 +8720,10 @@
         <v>1596</v>
       </c>
       <c r="R34" t="n">
-        <v>1.0</v>
+        <v>0.65</v>
       </c>
       <c r="T34" t="n">
-        <v>1.721700735179E12</v>
+        <v>1.721787291106E12</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -7563,10 +8752,10 @@
         <v>1597</v>
       </c>
       <c r="R35" t="n">
-        <v>1.0</v>
+        <v>0.65</v>
       </c>
       <c r="T35" t="n">
-        <v>1.721700843093E12</v>
+        <v>1.721787294922E12</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -7627,10 +8816,10 @@
         <v>1599</v>
       </c>
       <c r="R37" t="n">
-        <v>1.0</v>
+        <v>4.250000000000002</v>
       </c>
       <c r="T37" t="n">
-        <v>1.721700856464E12</v>
+        <v>1.722840449829E12</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -7659,10 +8848,10 @@
         <v>1600</v>
       </c>
       <c r="R38" t="n">
-        <v>1.0</v>
+        <v>0.65</v>
       </c>
       <c r="T38" t="n">
-        <v>1.721700892698E12</v>
+        <v>1.721787495644E12</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -7723,10 +8912,10 @@
         <v>1563</v>
       </c>
       <c r="R40" t="n">
-        <v>1.0</v>
+        <v>2.9499999999999997</v>
       </c>
       <c r="T40" t="n">
-        <v>1.721700930514E12</v>
+        <v>1.722840453938E12</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -7787,10 +8976,10 @@
         <v>997</v>
       </c>
       <c r="R42" t="n">
-        <v>1.0</v>
+        <v>1.65</v>
       </c>
       <c r="T42" t="n">
-        <v>1.721700943078E12</v>
+        <v>1.721961467772E12</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -7851,10 +9040,10 @@
         <v>1602</v>
       </c>
       <c r="R44" t="n">
-        <v>1.0</v>
+        <v>0.65</v>
       </c>
       <c r="T44" t="n">
-        <v>1.721700952393E12</v>
+        <v>1.721787532745E12</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -7883,10 +9072,10 @@
         <v>1603</v>
       </c>
       <c r="R45" t="n">
-        <v>1.0</v>
+        <v>0.65</v>
       </c>
       <c r="T45" t="n">
-        <v>1.721700957396E12</v>
+        <v>1.721788126722E12</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -7947,10 +9136,10 @@
         <v>1605</v>
       </c>
       <c r="R47" t="n">
-        <v>1.0</v>
+        <v>2.3</v>
       </c>
       <c r="T47" t="n">
-        <v>1.721701135119E12</v>
+        <v>1.722588138181E12</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -7979,10 +9168,10 @@
         <v>1606</v>
       </c>
       <c r="R48" t="n">
-        <v>1.0</v>
+        <v>0.65</v>
       </c>
       <c r="T48" t="n">
-        <v>1.721701141553E12</v>
+        <v>1.721788134896E12</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -8011,10 +9200,10 @@
         <v>1607</v>
       </c>
       <c r="R49" t="n">
-        <v>1.0</v>
+        <v>0.65</v>
       </c>
       <c r="T49" t="n">
-        <v>1.721701160245E12</v>
+        <v>1.721788139041E12</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -8043,10 +9232,10 @@
         <v>1608</v>
       </c>
       <c r="R50" t="n">
-        <v>1.0</v>
+        <v>0.65</v>
       </c>
       <c r="T50" t="n">
-        <v>1.721701166774E12</v>
+        <v>1.721788146141E12</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -8107,10 +9296,10 @@
         <v>1610</v>
       </c>
       <c r="R52" t="n">
-        <v>1.0</v>
+        <v>0.65</v>
       </c>
       <c r="T52" t="n">
-        <v>1.721701193722E12</v>
+        <v>1.721788221404E12</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -8139,10 +9328,10 @@
         <v>1611</v>
       </c>
       <c r="R53" t="n">
-        <v>1.0</v>
+        <v>1.65</v>
       </c>
       <c r="T53" t="n">
-        <v>1.721701206178E12</v>
+        <v>1.721961484711E12</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -8235,10 +9424,10 @@
         <v>1614</v>
       </c>
       <c r="R56" t="n">
-        <v>1.0</v>
+        <v>0.65</v>
       </c>
       <c r="T56" t="n">
-        <v>1.721701277993E12</v>
+        <v>1.721788241276E12</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -8299,10 +9488,10 @@
         <v>1584</v>
       </c>
       <c r="R58" t="n">
-        <v>1.0</v>
+        <v>0.65</v>
       </c>
       <c r="T58" t="n">
-        <v>1.721701317691E12</v>
+        <v>1.721788410778E12</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -8395,10 +9584,10 @@
         <v>1618</v>
       </c>
       <c r="R61" t="n">
-        <v>1.0</v>
+        <v>0.65</v>
       </c>
       <c r="T61" t="n">
-        <v>1.721701372865E12</v>
+        <v>1.721788413099E12</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -8459,10 +9648,10 @@
         <v>1620</v>
       </c>
       <c r="R63" t="n">
-        <v>1.0</v>
+        <v>0.65</v>
       </c>
       <c r="T63" t="n">
-        <v>1.721701398033E12</v>
+        <v>1.721788416484E12</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -8555,10 +9744,10 @@
         <v>1623</v>
       </c>
       <c r="R66" t="n">
-        <v>1.0</v>
+        <v>0.65</v>
       </c>
       <c r="T66" t="n">
-        <v>1.721701415067E12</v>
+        <v>1.721788419336E12</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -8651,10 +9840,10 @@
         <v>1626</v>
       </c>
       <c r="R69" t="n">
-        <v>1.0</v>
+        <v>4.65</v>
       </c>
       <c r="T69" t="n">
-        <v>1.721701459854E12</v>
+        <v>1.722840516955E12</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -8683,10 +9872,10 @@
         <v>1297</v>
       </c>
       <c r="R70" t="n">
-        <v>1.0</v>
+        <v>0.65</v>
       </c>
       <c r="T70" t="n">
-        <v>1.721701547233E12</v>
+        <v>1.721788501846E12</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -8747,10 +9936,10 @@
         <v>1628</v>
       </c>
       <c r="R72" t="n">
-        <v>1.0</v>
+        <v>1.65</v>
       </c>
       <c r="T72" t="n">
-        <v>1.721701566188E12</v>
+        <v>1.721961501167E12</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -8811,10 +10000,10 @@
         <v>1630</v>
       </c>
       <c r="R74" t="n">
-        <v>1.0</v>
+        <v>0.65</v>
       </c>
       <c r="T74" t="n">
-        <v>1.721701580868E12</v>
+        <v>1.721788509811E12</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -8875,10 +10064,10 @@
         <v>1632</v>
       </c>
       <c r="R76" t="n">
-        <v>1.0</v>
+        <v>2.3</v>
       </c>
       <c r="T76" t="n">
-        <v>1.72170164767E12</v>
+        <v>1.722588175018E12</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -9003,10 +10192,10 @@
         <v>1636</v>
       </c>
       <c r="R80" t="n">
-        <v>1.0</v>
+        <v>3.3</v>
       </c>
       <c r="T80" t="n">
-        <v>1.72170167639E12</v>
+        <v>1.722844396499E12</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -9035,10 +10224,10 @@
         <v>1637</v>
       </c>
       <c r="R81" t="n">
-        <v>1.0</v>
+        <v>4.65</v>
       </c>
       <c r="T81" t="n">
-        <v>1.721701682182E12</v>
+        <v>1.722844409723E12</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -9099,10 +10288,10 @@
         <v>1638</v>
       </c>
       <c r="R83" t="n">
-        <v>1.0</v>
+        <v>1.65</v>
       </c>
       <c r="T83" t="n">
-        <v>1.721701694761E12</v>
+        <v>1.721961688777E12</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -9195,10 +10384,10 @@
         <v>1641</v>
       </c>
       <c r="R86" t="n">
-        <v>1.0</v>
+        <v>0.65</v>
       </c>
       <c r="T86" t="n">
-        <v>1.721701815789E12</v>
+        <v>1.721789222251E12</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -9323,10 +10512,10 @@
         <v>1645</v>
       </c>
       <c r="R90" t="n">
-        <v>1.0</v>
+        <v>0.65</v>
       </c>
       <c r="T90" t="n">
-        <v>1.721701912593E12</v>
+        <v>1.721789228613E12</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -9387,10 +10576,10 @@
         <v>1647</v>
       </c>
       <c r="R92" t="n">
-        <v>1.0</v>
+        <v>1.65</v>
       </c>
       <c r="T92" t="n">
-        <v>1.721701931009E12</v>
+        <v>1.721961692348E12</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -9451,10 +10640,10 @@
         <v>1649</v>
       </c>
       <c r="R94" t="n">
-        <v>1.0</v>
+        <v>1.65</v>
       </c>
       <c r="T94" t="n">
-        <v>1.721702044166E12</v>
+        <v>1.721961698176E12</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -9483,10 +10672,10 @@
         <v>1650</v>
       </c>
       <c r="R95" t="n">
-        <v>1.0</v>
+        <v>1.65</v>
       </c>
       <c r="T95" t="n">
-        <v>1.721702053789E12</v>
+        <v>1.721961701833E12</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -9547,10 +10736,10 @@
         <v>1652</v>
       </c>
       <c r="R97" t="n">
-        <v>1.0</v>
+        <v>0.65</v>
       </c>
       <c r="T97" t="n">
-        <v>1.721702086905E12</v>
+        <v>1.721789279864E12</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -9579,10 +10768,10 @@
         <v>1653</v>
       </c>
       <c r="R98" t="n">
-        <v>1.0</v>
+        <v>0.65</v>
       </c>
       <c r="T98" t="n">
-        <v>1.721702093389E12</v>
+        <v>1.721789780753E12</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -9643,10 +10832,10 @@
         <v>1655</v>
       </c>
       <c r="R100" t="n">
-        <v>1.0</v>
+        <v>2.9499999999999997</v>
       </c>
       <c r="T100" t="n">
-        <v>1.721702105713E12</v>
+        <v>1.722844956241E12</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -9739,10 +10928,10 @@
         <v>607</v>
       </c>
       <c r="R103" t="n">
-        <v>1.0</v>
+        <v>3.3</v>
       </c>
       <c r="T103" t="n">
-        <v>1.721703406918E12</v>
+        <v>1.722844961412E12</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -9771,10 +10960,10 @@
         <v>1657</v>
       </c>
       <c r="R104" t="n">
-        <v>1.0</v>
+        <v>0.65</v>
       </c>
       <c r="T104" t="n">
-        <v>1.721703412564E12</v>
+        <v>1.721789993515E12</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -9803,10 +10992,10 @@
         <v>1658</v>
       </c>
       <c r="R105" t="n">
-        <v>1.0</v>
+        <v>1.65</v>
       </c>
       <c r="T105" t="n">
-        <v>1.721703419533E12</v>
+        <v>1.721961867025E12</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -9899,10 +11088,10 @@
         <v>1661</v>
       </c>
       <c r="R108" t="n">
-        <v>1.0</v>
+        <v>0.65</v>
       </c>
       <c r="T108" t="n">
-        <v>1.721703474529E12</v>
+        <v>1.721790149804E12</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -9963,10 +11152,10 @@
         <v>1663</v>
       </c>
       <c r="R110" t="n">
-        <v>1.0</v>
+        <v>0.65</v>
       </c>
       <c r="T110" t="n">
-        <v>1.721703514075E12</v>
+        <v>1.721790154489E12</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -9995,10 +11184,10 @@
         <v>1662</v>
       </c>
       <c r="R111" t="n">
-        <v>1.0</v>
+        <v>0.65</v>
       </c>
       <c r="T111" t="n">
-        <v>1.721703525076E12</v>
+        <v>1.721790159592E12</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -10091,10 +11280,10 @@
         <v>1665</v>
       </c>
       <c r="R114" t="n">
-        <v>1.0</v>
+        <v>1.65</v>
       </c>
       <c r="T114" t="n">
-        <v>1.721703608028E12</v>
+        <v>1.721961878327E12</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -10251,10 +11440,10 @@
         <v>1670</v>
       </c>
       <c r="R119" t="n">
-        <v>1.0</v>
+        <v>4.65</v>
       </c>
       <c r="T119" t="n">
-        <v>1.721703645741E12</v>
+        <v>1.722845013282E12</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -10283,10 +11472,10 @@
         <v>1263</v>
       </c>
       <c r="R120" t="n">
-        <v>1.0</v>
+        <v>0.65</v>
       </c>
       <c r="T120" t="n">
-        <v>1.72170365168E12</v>
+        <v>1.721790273646E12</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -10315,10 +11504,10 @@
         <v>1671</v>
       </c>
       <c r="R121" t="n">
-        <v>1.0</v>
+        <v>1.65</v>
       </c>
       <c r="T121" t="n">
-        <v>1.721703656904E12</v>
+        <v>1.721961986802E12</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -10347,10 +11536,10 @@
         <v>1672</v>
       </c>
       <c r="R122" t="n">
-        <v>1.0</v>
+        <v>0.65</v>
       </c>
       <c r="T122" t="n">
-        <v>1.721703666889E12</v>
+        <v>1.721790282576E12</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -10379,10 +11568,10 @@
         <v>1673</v>
       </c>
       <c r="R123" t="n">
-        <v>1.0</v>
+        <v>2.3</v>
       </c>
       <c r="T123" t="n">
-        <v>1.721703677486E12</v>
+        <v>1.722588305231E12</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -10411,10 +11600,10 @@
         <v>1674</v>
       </c>
       <c r="R124" t="n">
-        <v>1.0</v>
+        <v>3.9500000000000006</v>
       </c>
       <c r="T124" t="n">
-        <v>1.721703683374E12</v>
+        <v>1.722845083644E12</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -10443,10 +11632,10 @@
         <v>1675</v>
       </c>
       <c r="R125" t="n">
-        <v>1.0</v>
+        <v>0.65</v>
       </c>
       <c r="T125" t="n">
-        <v>1.721703692374E12</v>
+        <v>1.721790677023E12</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -10507,10 +11696,10 @@
         <v>1676</v>
       </c>
       <c r="R127" t="n">
-        <v>1.0</v>
+        <v>6.250000000000002</v>
       </c>
       <c r="T127" t="n">
-        <v>1.721703717152E12</v>
+        <v>1.722845089295E12</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -10539,10 +11728,10 @@
         <v>1677</v>
       </c>
       <c r="R128" t="n">
-        <v>1.0</v>
+        <v>2.3</v>
       </c>
       <c r="T128" t="n">
-        <v>1.721703786271E12</v>
+        <v>1.722588313604E12</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -10571,10 +11760,10 @@
         <v>1678</v>
       </c>
       <c r="R129" t="n">
-        <v>1.0</v>
+        <v>0.65</v>
       </c>
       <c r="T129" t="n">
-        <v>1.721703805666E12</v>
+        <v>1.721790775023E12</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -10603,10 +11792,10 @@
         <v>1679</v>
       </c>
       <c r="R130" t="n">
-        <v>1.0</v>
+        <v>0.65</v>
       </c>
       <c r="T130" t="n">
-        <v>1.72170381409E12</v>
+        <v>1.721790983348E12</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -10635,10 +11824,10 @@
         <v>1680</v>
       </c>
       <c r="R131" t="n">
-        <v>1.0</v>
+        <v>2.3</v>
       </c>
       <c r="T131" t="n">
-        <v>1.721703823261E12</v>
+        <v>1.722588320503E12</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -10699,10 +11888,10 @@
         <v>1682</v>
       </c>
       <c r="R133" t="n">
-        <v>1.0</v>
+        <v>0.65</v>
       </c>
       <c r="T133" t="n">
-        <v>1.721704038544E12</v>
+        <v>1.721791053432E12</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -10859,10 +12048,10 @@
         <v>1685</v>
       </c>
       <c r="R138" t="n">
-        <v>1.0</v>
+        <v>0.65</v>
       </c>
       <c r="T138" t="n">
-        <v>1.721704075499E12</v>
+        <v>1.721791064306E12</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -10891,10 +12080,10 @@
         <v>1686</v>
       </c>
       <c r="R139" t="n">
-        <v>1.0</v>
+        <v>0.65</v>
       </c>
       <c r="T139" t="n">
-        <v>1.721704087019E12</v>
+        <v>1.721791068609E12</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -10955,10 +12144,10 @@
         <v>1688</v>
       </c>
       <c r="R141" t="n">
-        <v>1.0</v>
+        <v>0.65</v>
       </c>
       <c r="T141" t="n">
-        <v>1.721704096067E12</v>
+        <v>1.721791231636E12</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -11051,10 +12240,10 @@
         <v>1691</v>
       </c>
       <c r="R144" t="n">
-        <v>1.0</v>
+        <v>1.65</v>
       </c>
       <c r="T144" t="n">
-        <v>1.721704164772E12</v>
+        <v>1.721962234029E12</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -11083,10 +12272,10 @@
         <v>1176</v>
       </c>
       <c r="R145" t="n">
-        <v>1.0</v>
+        <v>0.65</v>
       </c>
       <c r="T145" t="n">
-        <v>1.721704177963E12</v>
+        <v>1.721791242549E12</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -11275,10 +12464,10 @@
         <v>1340</v>
       </c>
       <c r="R151" t="n">
-        <v>1.0</v>
+        <v>0.65</v>
       </c>
       <c r="T151" t="n">
-        <v>1.721704263879E12</v>
+        <v>1.721791247157E12</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -11339,10 +12528,10 @@
         <v>1698</v>
       </c>
       <c r="R153" t="n">
-        <v>1.0</v>
+        <v>2.3</v>
       </c>
       <c r="T153" t="n">
-        <v>1.721704400844E12</v>
+        <v>1.722588324175E12</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -11371,10 +12560,10 @@
         <v>1699</v>
       </c>
       <c r="R154" t="n">
-        <v>1.0</v>
+        <v>0.65</v>
       </c>
       <c r="T154" t="n">
-        <v>1.721704405841E12</v>
+        <v>1.721803111423E12</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -11435,10 +12624,10 @@
         <v>1701</v>
       </c>
       <c r="R156" t="n">
-        <v>1.0</v>
+        <v>0.65</v>
       </c>
       <c r="T156" t="n">
-        <v>1.721704418681E12</v>
+        <v>1.721803115763E12</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -11467,10 +12656,10 @@
         <v>1702</v>
       </c>
       <c r="R157" t="n">
-        <v>1.0</v>
+        <v>2.3</v>
       </c>
       <c r="T157" t="n">
-        <v>1.721704424023E12</v>
+        <v>1.722588359671E12</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -11531,10 +12720,10 @@
         <v>1703</v>
       </c>
       <c r="R159" t="n">
-        <v>1.0</v>
+        <v>0.65</v>
       </c>
       <c r="T159" t="n">
-        <v>1.721704542266E12</v>
+        <v>1.721803127849E12</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -11627,10 +12816,10 @@
         <v>1706</v>
       </c>
       <c r="R162" t="n">
-        <v>1.0</v>
+        <v>2.9499999999999997</v>
       </c>
       <c r="T162" t="n">
-        <v>1.721704560218E12</v>
+        <v>1.722845095225E12</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -11659,10 +12848,10 @@
         <v>1707</v>
       </c>
       <c r="R163" t="n">
-        <v>1.0</v>
+        <v>0.65</v>
       </c>
       <c r="T163" t="n">
-        <v>1.721704565162E12</v>
+        <v>1.721803380147E12</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -11691,10 +12880,10 @@
         <v>1708</v>
       </c>
       <c r="R164" t="n">
-        <v>1.0</v>
+        <v>0.65</v>
       </c>
       <c r="T164" t="n">
-        <v>1.721704569225E12</v>
+        <v>1.721803385316E12</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -11723,10 +12912,10 @@
         <v>1709</v>
       </c>
       <c r="R165" t="n">
-        <v>1.0</v>
+        <v>0.65</v>
       </c>
       <c r="T165" t="n">
-        <v>1.721704586599E12</v>
+        <v>1.721803411178E12</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -11755,10 +12944,10 @@
         <v>1710</v>
       </c>
       <c r="R166" t="n">
-        <v>1.0</v>
+        <v>0.65</v>
       </c>
       <c r="T166" t="n">
-        <v>1.721704594011E12</v>
+        <v>1.721803442208E12</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -11787,10 +12976,10 @@
         <v>1711</v>
       </c>
       <c r="R167" t="n">
-        <v>1.0</v>
+        <v>2.3</v>
       </c>
       <c r="T167" t="n">
-        <v>1.721704598279E12</v>
+        <v>1.722588372258E12</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -11819,10 +13008,10 @@
         <v>1712</v>
       </c>
       <c r="R168" t="n">
-        <v>1.0</v>
+        <v>0.65</v>
       </c>
       <c r="T168" t="n">
-        <v>1.72170460413E12</v>
+        <v>1.721803462582E12</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -11851,10 +13040,10 @@
         <v>1713</v>
       </c>
       <c r="R169" t="n">
-        <v>1.0</v>
+        <v>0.65</v>
       </c>
       <c r="T169" t="n">
-        <v>1.721704608867E12</v>
+        <v>1.72180349574E12</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -11883,10 +13072,10 @@
         <v>1714</v>
       </c>
       <c r="R170" t="n">
-        <v>1.0</v>
+        <v>0.65</v>
       </c>
       <c r="T170" t="n">
-        <v>1.721704616795E12</v>
+        <v>1.72180350309E12</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -11979,10 +13168,10 @@
         <v>1716</v>
       </c>
       <c r="R173" t="n">
-        <v>1.0</v>
+        <v>0.65</v>
       </c>
       <c r="T173" t="n">
-        <v>1.721704662006E12</v>
+        <v>1.721803623043E12</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -12171,10 +13360,10 @@
         <v>1722</v>
       </c>
       <c r="R179" t="n">
-        <v>1.0</v>
+        <v>1.65</v>
       </c>
       <c r="T179" t="n">
-        <v>1.721704730954E12</v>
+        <v>1.721962452087E12</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -12203,10 +13392,10 @@
         <v>1723</v>
       </c>
       <c r="R180" t="n">
-        <v>1.0</v>
+        <v>0.65</v>
       </c>
       <c r="T180" t="n">
-        <v>1.721704854569E12</v>
+        <v>1.721804025341E12</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -12267,10 +13456,10 @@
         <v>1699</v>
       </c>
       <c r="R182" t="n">
-        <v>1.0</v>
+        <v>2.3</v>
       </c>
       <c r="T182" t="n">
-        <v>1.721704861821E12</v>
+        <v>1.722588376675E12</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -12331,10 +13520,10 @@
         <v>1726</v>
       </c>
       <c r="R184" t="n">
-        <v>1.0</v>
+        <v>0.65</v>
       </c>
       <c r="T184" t="n">
-        <v>1.721704886182E12</v>
+        <v>1.721804062386E12</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -12363,10 +13552,10 @@
         <v>1727</v>
       </c>
       <c r="R185" t="n">
-        <v>1.0</v>
+        <v>2.3</v>
       </c>
       <c r="T185" t="n">
-        <v>1.721704897709E12</v>
+        <v>1.722588382895E12</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -12395,10 +13584,10 @@
         <v>1727</v>
       </c>
       <c r="R186" t="n">
-        <v>1.0</v>
+        <v>0.65</v>
       </c>
       <c r="T186" t="n">
-        <v>1.721704904845E12</v>
+        <v>1.721804084013E12</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -12523,10 +13712,10 @@
         <v>1729</v>
       </c>
       <c r="R190" t="n">
-        <v>1.0</v>
+        <v>1.65</v>
       </c>
       <c r="T190" t="n">
-        <v>1.721704937533E12</v>
+        <v>1.721962500467E12</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -12555,10 +13744,10 @@
         <v>1729</v>
       </c>
       <c r="R191" t="n">
-        <v>1.0</v>
+        <v>1.65</v>
       </c>
       <c r="T191" t="n">
-        <v>1.721704947383E12</v>
+        <v>1.721962507632E12</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -12587,10 +13776,10 @@
         <v>1385</v>
       </c>
       <c r="R192" t="n">
-        <v>1.0</v>
+        <v>0.65</v>
       </c>
       <c r="T192" t="n">
-        <v>1.721704954566E12</v>
+        <v>1.721804131999E12</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -12651,10 +13840,10 @@
         <v>1729</v>
       </c>
       <c r="R194" t="n">
-        <v>1.0</v>
+        <v>3.3</v>
       </c>
       <c r="T194" t="n">
-        <v>1.721704969977E12</v>
+        <v>1.722845099598E12</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -12683,10 +13872,10 @@
         <v>1729</v>
       </c>
       <c r="R195" t="n">
-        <v>1.0</v>
+        <v>1.65</v>
       </c>
       <c r="T195" t="n">
-        <v>1.721704975205E12</v>
+        <v>1.721962777274E12</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -12811,10 +14000,10 @@
         <v>1732</v>
       </c>
       <c r="R199" t="n">
-        <v>1.0</v>
+        <v>1.65</v>
       </c>
       <c r="T199" t="n">
-        <v>1.721705040584E12</v>
+        <v>1.721962779183E12</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -12875,10 +14064,10 @@
         <v>1729</v>
       </c>
       <c r="R201" t="n">
-        <v>1.0</v>
+        <v>3.9500000000000006</v>
       </c>
       <c r="T201" t="n">
-        <v>1.721705056256E12</v>
+        <v>1.722845102532E12</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -12939,10 +14128,10 @@
         <v>1734</v>
       </c>
       <c r="R203" t="n">
-        <v>1.0</v>
+        <v>0.65</v>
       </c>
       <c r="T203" t="n">
-        <v>1.721716781438E12</v>
+        <v>1.72180451521E12</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -13003,10 +14192,10 @@
         <v>1735</v>
       </c>
       <c r="R205" t="n">
-        <v>1.0</v>
+        <v>1.65</v>
       </c>
       <c r="T205" t="n">
-        <v>1.72171679806E12</v>
+        <v>1.721962823061E12</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -13067,10 +14256,10 @@
         <v>1736</v>
       </c>
       <c r="R207" t="n">
-        <v>1.0</v>
+        <v>0.65</v>
       </c>
       <c r="T207" t="n">
-        <v>1.721716816743E12</v>
+        <v>1.721804592168E12</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -13195,10 +14384,10 @@
         <v>1740</v>
       </c>
       <c r="R211" t="n">
-        <v>1.0</v>
+        <v>0.65</v>
       </c>
       <c r="T211" t="n">
-        <v>1.721716841147E12</v>
+        <v>1.721804594427E12</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -13291,10 +14480,10 @@
         <v>1743</v>
       </c>
       <c r="R214" t="n">
-        <v>1.0</v>
+        <v>0.65</v>
       </c>
       <c r="T214" t="n">
-        <v>1.72171688102E12</v>
+        <v>1.721804612789E12</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -13419,10 +14608,10 @@
         <v>1747</v>
       </c>
       <c r="R218" t="n">
-        <v>1.0</v>
+        <v>4.65</v>
       </c>
       <c r="T218" t="n">
-        <v>1.721716922342E12</v>
+        <v>1.722845109021E12</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -13451,10 +14640,10 @@
         <v>1748</v>
       </c>
       <c r="R219" t="n">
-        <v>1.0</v>
+        <v>0.65</v>
       </c>
       <c r="T219" t="n">
-        <v>1.721716929446E12</v>
+        <v>1.721804667852E12</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -13515,10 +14704,10 @@
         <v>1750</v>
       </c>
       <c r="R221" t="n">
-        <v>1.0</v>
+        <v>3.9500000000000006</v>
       </c>
       <c r="T221" t="n">
-        <v>1.721716956803E12</v>
+        <v>1.722845194563E12</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -13547,10 +14736,10 @@
         <v>1751</v>
       </c>
       <c r="R222" t="n">
-        <v>1.0</v>
+        <v>0.65</v>
       </c>
       <c r="T222" t="n">
-        <v>1.721716964333E12</v>
+        <v>1.721804718347E12</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -13611,10 +14800,10 @@
         <v>1752</v>
       </c>
       <c r="R224" t="n">
-        <v>1.0</v>
+        <v>0.65</v>
       </c>
       <c r="T224" t="n">
-        <v>1.721717015603E12</v>
+        <v>1.721804832255E12</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -13643,10 +14832,10 @@
         <v>1753</v>
       </c>
       <c r="R225" t="n">
-        <v>1.0</v>
+        <v>2.3</v>
       </c>
       <c r="T225" t="n">
-        <v>1.721717031359E12</v>
+        <v>1.722588482294E12</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -13675,10 +14864,10 @@
         <v>1190</v>
       </c>
       <c r="R226" t="n">
-        <v>1.0</v>
+        <v>0.65</v>
       </c>
       <c r="T226" t="n">
-        <v>1.721717059042E12</v>
+        <v>1.721805756097E12</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -13707,10 +14896,10 @@
         <v>1754</v>
       </c>
       <c r="R227" t="n">
-        <v>1.0</v>
+        <v>0.65</v>
       </c>
       <c r="T227" t="n">
-        <v>1.721717072687E12</v>
+        <v>1.721805773321E12</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -13739,10 +14928,10 @@
         <v>1755</v>
       </c>
       <c r="R228" t="n">
-        <v>1.0</v>
+        <v>4.300000000000001</v>
       </c>
       <c r="T228" t="n">
-        <v>1.721717094282E12</v>
+        <v>1.722845198513E12</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -13803,10 +14992,10 @@
         <v>1757</v>
       </c>
       <c r="R230" t="n">
-        <v>1.0</v>
+        <v>0.65</v>
       </c>
       <c r="T230" t="n">
-        <v>1.72171711205E12</v>
+        <v>1.721805803198E12</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -13931,10 +15120,10 @@
         <v>1761</v>
       </c>
       <c r="R234" t="n">
-        <v>1.0</v>
+        <v>0.65</v>
       </c>
       <c r="T234" t="n">
-        <v>1.721717158083E12</v>
+        <v>1.721805807845E12</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -13963,10 +15152,10 @@
         <v>1762</v>
       </c>
       <c r="R235" t="n">
-        <v>1.0</v>
+        <v>0.65</v>
       </c>
       <c r="T235" t="n">
-        <v>1.721717188771E12</v>
+        <v>1.721805819454E12</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -14027,10 +15216,10 @@
         <v>1764</v>
       </c>
       <c r="R237" t="n">
-        <v>1.0</v>
+        <v>1.65</v>
       </c>
       <c r="T237" t="n">
-        <v>1.721717205483E12</v>
+        <v>1.721963056092E12</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -14091,10 +15280,10 @@
         <v>1766</v>
       </c>
       <c r="R239" t="n">
-        <v>1.0</v>
+        <v>1.65</v>
       </c>
       <c r="T239" t="n">
-        <v>1.721717225831E12</v>
+        <v>1.721963063097E12</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -14219,10 +15408,10 @@
         <v>1770</v>
       </c>
       <c r="R243" t="n">
-        <v>1.0</v>
+        <v>0.65</v>
       </c>
       <c r="T243" t="n">
-        <v>1.721717305289E12</v>
+        <v>1.721805863043E12</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -14283,10 +15472,10 @@
         <v>1772</v>
       </c>
       <c r="R245" t="n">
-        <v>1.0</v>
+        <v>0.65</v>
       </c>
       <c r="T245" t="n">
-        <v>1.721717340816E12</v>
+        <v>1.721805870602E12</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -14315,10 +15504,10 @@
         <v>1773</v>
       </c>
       <c r="R246" t="n">
-        <v>1.0</v>
+        <v>0.65</v>
       </c>
       <c r="T246" t="n">
-        <v>1.721717355653E12</v>
+        <v>1.721805877329E12</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -14411,10 +15600,10 @@
         <v>1776</v>
       </c>
       <c r="R249" t="n">
-        <v>1.0</v>
+        <v>0.65</v>
       </c>
       <c r="T249" t="n">
-        <v>1.721717403647E12</v>
+        <v>1.721805887257E12</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -14443,10 +15632,10 @@
         <v>1777</v>
       </c>
       <c r="R250" t="n">
-        <v>1.0</v>
+        <v>1.65</v>
       </c>
       <c r="T250" t="n">
-        <v>1.721717466012E12</v>
+        <v>1.721963093574E12</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -14475,10 +15664,10 @@
         <v>825</v>
       </c>
       <c r="R251" t="n">
-        <v>1.0</v>
+        <v>1.65</v>
       </c>
       <c r="T251" t="n">
-        <v>1.721717477897E12</v>
+        <v>1.721963099671E12</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -14507,10 +15696,10 @@
         <v>1778</v>
       </c>
       <c r="R252" t="n">
-        <v>1.0</v>
+        <v>0.65</v>
       </c>
       <c r="T252" t="n">
-        <v>1.721717987302E12</v>
+        <v>1.721805974801E12</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -14539,10 +15728,10 @@
         <v>1779</v>
       </c>
       <c r="R253" t="n">
-        <v>1.0</v>
+        <v>0.65</v>
       </c>
       <c r="T253" t="n">
-        <v>1.721718009004E12</v>
+        <v>1.721806030778E12</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -14571,10 +15760,10 @@
         <v>1780</v>
       </c>
       <c r="R254" t="n">
-        <v>1.0</v>
+        <v>0.65</v>
       </c>
       <c r="T254" t="n">
-        <v>1.721718120513E12</v>
+        <v>1.721806032901E12</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -14603,10 +15792,10 @@
         <v>1763</v>
       </c>
       <c r="R255" t="n">
-        <v>1.0</v>
+        <v>0.65</v>
       </c>
       <c r="T255" t="n">
-        <v>1.721718126302E12</v>
+        <v>1.721806036108E12</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -14667,10 +15856,10 @@
         <v>1782</v>
       </c>
       <c r="R257" t="n">
-        <v>1.0</v>
+        <v>5.65</v>
       </c>
       <c r="T257" t="n">
-        <v>1.721718140508E12</v>
+        <v>1.72284521689E12</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -14699,10 +15888,10 @@
         <v>1783</v>
       </c>
       <c r="R258" t="n">
-        <v>1.0</v>
+        <v>1.65</v>
       </c>
       <c r="T258" t="n">
-        <v>1.721718146332E12</v>
+        <v>1.721963509327E12</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -14856,10 +16045,10 @@
         <v>1787</v>
       </c>
       <c r="R263" t="n">
-        <v>1.0</v>
+        <v>4.65</v>
       </c>
       <c r="T263" t="n">
-        <v>1.72171820745E12</v>
+        <v>1.722845341796E12</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -14888,10 +16077,10 @@
         <v>1788</v>
       </c>
       <c r="R264" t="n">
-        <v>1.0</v>
+        <v>3.3</v>
       </c>
       <c r="T264" t="n">
-        <v>1.721718233153E12</v>
+        <v>1.722845388728E12</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -14920,10 +16109,10 @@
         <v>1789</v>
       </c>
       <c r="R265" t="n">
-        <v>1.0</v>
+        <v>1.65</v>
       </c>
       <c r="T265" t="n">
-        <v>1.721718259436E12</v>
+        <v>1.721963593515E12</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -14952,10 +16141,10 @@
         <v>1790</v>
       </c>
       <c r="R266" t="n">
-        <v>1.0</v>
+        <v>7.200000000000003</v>
       </c>
       <c r="T266" t="n">
-        <v>1.721718267693E12</v>
+        <v>1.722845391318E12</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -14984,10 +16173,10 @@
         <v>1791</v>
       </c>
       <c r="R267" t="n">
-        <v>1.0</v>
+        <v>0.65</v>
       </c>
       <c r="T267" t="n">
-        <v>1.721718270876E12</v>
+        <v>1.721806215381E12</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -15016,10 +16205,10 @@
         <v>1792</v>
       </c>
       <c r="R268" t="n">
-        <v>1.0</v>
+        <v>0.65</v>
       </c>
       <c r="T268" t="n">
-        <v>1.721718291344E12</v>
+        <v>1.721806220322E12</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -15048,10 +16237,10 @@
         <v>1793</v>
       </c>
       <c r="R269" t="n">
-        <v>1.0</v>
+        <v>1.65</v>
       </c>
       <c r="T269" t="n">
-        <v>1.721718294489E12</v>
+        <v>1.721963611424E12</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -15112,10 +16301,10 @@
         <v>1383</v>
       </c>
       <c r="R271" t="n">
-        <v>1.0</v>
+        <v>0.65</v>
       </c>
       <c r="T271" t="n">
-        <v>1.721718411817E12</v>
+        <v>1.721806255476E12</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -15176,10 +16365,10 @@
         <v>1795</v>
       </c>
       <c r="R273" t="n">
-        <v>1.0</v>
+        <v>0.65</v>
       </c>
       <c r="T273" t="n">
-        <v>1.721718490701E12</v>
+        <v>1.72180626737E12</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -15208,10 +16397,10 @@
         <v>1796</v>
       </c>
       <c r="R274" t="n">
-        <v>1.0</v>
+        <v>0.65</v>
       </c>
       <c r="T274" t="n">
-        <v>1.721718498786E12</v>
+        <v>1.721806272513E12</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -15240,10 +16429,10 @@
         <v>1797</v>
       </c>
       <c r="R275" t="n">
-        <v>1.0</v>
+        <v>0.65</v>
       </c>
       <c r="T275" t="n">
-        <v>1.721718504062E12</v>
+        <v>1.721806283372E12</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -15368,10 +16557,10 @@
         <v>1801</v>
       </c>
       <c r="R279" t="n">
-        <v>1.0</v>
+        <v>1.65</v>
       </c>
       <c r="T279" t="n">
-        <v>1.72171852819E12</v>
+        <v>1.721963615014E12</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -15400,10 +16589,10 @@
         <v>1802</v>
       </c>
       <c r="R280" t="n">
-        <v>1.0</v>
+        <v>1.65</v>
       </c>
       <c r="T280" t="n">
-        <v>1.721718575407E12</v>
+        <v>1.72196361728E12</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -15432,10 +16621,10 @@
         <v>1803</v>
       </c>
       <c r="R281" t="n">
-        <v>1.0</v>
+        <v>1.65</v>
       </c>
       <c r="T281" t="n">
-        <v>1.721718583156E12</v>
+        <v>1.721963623329E12</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -15464,10 +16653,10 @@
         <v>1804</v>
       </c>
       <c r="R282" t="n">
-        <v>1.0</v>
+        <v>3.3</v>
       </c>
       <c r="T282" t="n">
-        <v>1.721718590758E12</v>
+        <v>1.722845394115E12</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -15496,10 +16685,10 @@
         <v>1805</v>
       </c>
       <c r="R283" t="n">
-        <v>1.0</v>
+        <v>0.65</v>
       </c>
       <c r="T283" t="n">
-        <v>1.721718595823E12</v>
+        <v>1.72180728959E12</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -15528,10 +16717,10 @@
         <v>1806</v>
       </c>
       <c r="R284" t="n">
-        <v>1.0</v>
+        <v>1.65</v>
       </c>
       <c r="T284" t="n">
-        <v>1.721718603814E12</v>
+        <v>1.721963675349E12</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -15560,10 +16749,10 @@
         <v>1807</v>
       </c>
       <c r="R285" t="n">
-        <v>1.0</v>
+        <v>2.3</v>
       </c>
       <c r="T285" t="n">
-        <v>1.721718646811E12</v>
+        <v>1.722588533555E12</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -15592,10 +16781,10 @@
         <v>1808</v>
       </c>
       <c r="R286" t="n">
-        <v>1.0</v>
+        <v>6.900000000000002</v>
       </c>
       <c r="T286" t="n">
-        <v>1.721718946016E12</v>
+        <v>1.7228466423E12</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -15624,10 +16813,10 @@
         <v>1809</v>
       </c>
       <c r="R287" t="n">
-        <v>1.0</v>
+        <v>5.65</v>
       </c>
       <c r="T287" t="n">
-        <v>1.721718959133E12</v>
+        <v>1.722846652837E12</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -15656,10 +16845,10 @@
         <v>1810</v>
       </c>
       <c r="R288" t="n">
-        <v>1.0</v>
+        <v>2.9499999999999997</v>
       </c>
       <c r="T288" t="n">
-        <v>1.721718965478E12</v>
+        <v>1.7228467469E12</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -15784,10 +16973,10 @@
         <v>1814</v>
       </c>
       <c r="R292" t="n">
-        <v>1.0</v>
+        <v>4.3</v>
       </c>
       <c r="T292" t="n">
-        <v>1.72171898837E12</v>
+        <v>1.722846779502E12</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -15816,10 +17005,10 @@
         <v>1815</v>
       </c>
       <c r="R293" t="n">
-        <v>1.0</v>
+        <v>2.3</v>
       </c>
       <c r="T293" t="n">
-        <v>1.721719054611E12</v>
+        <v>1.722588638679E12</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -15848,10 +17037,10 @@
         <v>1816</v>
       </c>
       <c r="R294" t="n">
-        <v>1.0</v>
+        <v>5.600000000000001</v>
       </c>
       <c r="T294" t="n">
-        <v>1.721719060146E12</v>
+        <v>1.722846783933E12</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -15880,10 +17069,10 @@
         <v>1817</v>
       </c>
       <c r="R295" t="n">
-        <v>1.0</v>
+        <v>0.65</v>
       </c>
       <c r="T295" t="n">
-        <v>1.721719064431E12</v>
+        <v>1.721808748144E12</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -16072,10 +17261,10 @@
         <v>1823</v>
       </c>
       <c r="R301" t="n">
-        <v>1.0</v>
+        <v>3.3</v>
       </c>
       <c r="T301" t="n">
-        <v>1.721719091251E12</v>
+        <v>1.722846787622E12</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -16103,11 +17292,11 @@
       <c r="H302" t="s">
         <v>1824</v>
       </c>
-      <c r="R302" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T302" t="s">
-        <v>1901</v>
+      <c r="R302" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T302" t="n">
+        <v>1.721722202135E12</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -16135,11 +17324,11 @@
       <c r="H303" t="s">
         <v>1825</v>
       </c>
-      <c r="R303" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T303" t="s">
-        <v>1901</v>
+      <c r="R303" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T303" t="n">
+        <v>1.721722225437E12</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -16167,11 +17356,11 @@
       <c r="H304" t="s">
         <v>1826</v>
       </c>
-      <c r="R304" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T304" t="s">
-        <v>1901</v>
+      <c r="R304" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="T304" t="n">
+        <v>1.721808963236E12</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -16199,11 +17388,11 @@
       <c r="H305" t="s">
         <v>1827</v>
       </c>
-      <c r="R305" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T305" t="s">
-        <v>1901</v>
+      <c r="R305" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T305" t="n">
+        <v>1.722846790328E12</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -16231,11 +17420,11 @@
       <c r="H306" t="s">
         <v>1493</v>
       </c>
-      <c r="R306" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T306" t="s">
-        <v>1901</v>
+      <c r="R306" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="T306" t="n">
+        <v>1.72180905778E12</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -16263,11 +17452,11 @@
       <c r="H307" t="s">
         <v>1828</v>
       </c>
-      <c r="R307" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T307" t="s">
-        <v>1901</v>
+      <c r="R307" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T307" t="n">
+        <v>1.721722638287E12</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -16295,11 +17484,11 @@
       <c r="H308" t="s">
         <v>1829</v>
       </c>
-      <c r="R308" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T308" t="s">
-        <v>1901</v>
+      <c r="R308" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T308" t="n">
+        <v>1.721722661318E12</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -16327,11 +17516,11 @@
       <c r="H309" t="s">
         <v>1830</v>
       </c>
-      <c r="R309" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T309" t="s">
-        <v>1901</v>
+      <c r="R309" t="n">
+        <v>4.5500000000000025</v>
+      </c>
+      <c r="T309" t="n">
+        <v>1.722846793976E12</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -16359,11 +17548,11 @@
       <c r="H310" t="s">
         <v>1831</v>
       </c>
-      <c r="R310" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T310" t="s">
-        <v>1901</v>
+      <c r="R310" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T310" t="n">
+        <v>1.721722696774E12</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -16391,11 +17580,11 @@
       <c r="H311" t="s">
         <v>1832</v>
       </c>
-      <c r="R311" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T311" t="s">
-        <v>1901</v>
+      <c r="R311" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T311" t="n">
+        <v>1.721722700112E12</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -16423,11 +17612,11 @@
       <c r="H312" t="s">
         <v>1833</v>
       </c>
-      <c r="R312" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T312" t="s">
-        <v>1901</v>
+      <c r="R312" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="T312" t="n">
+        <v>1.721809119809E12</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -16455,11 +17644,11 @@
       <c r="H313" t="s">
         <v>1834</v>
       </c>
-      <c r="R313" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T313" t="s">
-        <v>1901</v>
+      <c r="R313" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="T313" t="n">
+        <v>1.721963917148E12</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -16487,11 +17676,11 @@
       <c r="H314" t="s">
         <v>1835</v>
       </c>
-      <c r="R314" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T314" t="s">
-        <v>1901</v>
+      <c r="R314" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T314" t="n">
+        <v>1.721722730405E12</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -16519,11 +17708,11 @@
       <c r="H315" t="s">
         <v>1836</v>
       </c>
-      <c r="R315" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T315" t="s">
-        <v>1901</v>
+      <c r="R315" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T315" t="n">
+        <v>1.721722779484E12</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -16551,11 +17740,11 @@
       <c r="H316" t="s">
         <v>1837</v>
       </c>
-      <c r="R316" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T316" t="s">
-        <v>1901</v>
+      <c r="R316" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T316" t="n">
+        <v>1.722846800912E12</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -16583,11 +17772,11 @@
       <c r="H317" t="s">
         <v>1838</v>
       </c>
-      <c r="R317" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T317" t="s">
-        <v>1901</v>
+      <c r="R317" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="T317" t="n">
+        <v>1.721810385642E12</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -16615,11 +17804,11 @@
       <c r="H318" t="s">
         <v>1173</v>
       </c>
-      <c r="R318" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T318" t="s">
-        <v>1901</v>
+      <c r="R318" t="n">
+        <v>4.250000000000002</v>
+      </c>
+      <c r="T318" t="n">
+        <v>1.72284687872E12</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -16647,11 +17836,11 @@
       <c r="H319" t="s">
         <v>1839</v>
       </c>
-      <c r="R319" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T319" t="s">
-        <v>1901</v>
+      <c r="R319" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="T319" t="n">
+        <v>1.722589292297E12</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -16679,11 +17868,11 @@
       <c r="H320" t="s">
         <v>1840</v>
       </c>
-      <c r="R320" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T320" t="s">
-        <v>1901</v>
+      <c r="R320" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="T320" t="n">
+        <v>1.722846908246E12</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -16711,11 +17900,11 @@
       <c r="H321" t="s">
         <v>1841</v>
       </c>
-      <c r="R321" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T321" t="s">
-        <v>1901</v>
+      <c r="R321" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="T321" t="n">
+        <v>1.721810562846E12</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -16743,11 +17932,11 @@
       <c r="H322" t="s">
         <v>1842</v>
       </c>
-      <c r="R322" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T322" t="s">
-        <v>1901</v>
+      <c r="R322" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="T322" t="n">
+        <v>1.722846916236E12</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -16775,11 +17964,11 @@
       <c r="H323" t="s">
         <v>1843</v>
       </c>
-      <c r="R323" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T323" t="s">
-        <v>1901</v>
+      <c r="R323" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T323" t="n">
+        <v>1.721723468311E12</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -16807,11 +17996,11 @@
       <c r="H324" t="s">
         <v>1844</v>
       </c>
-      <c r="R324" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T324" t="s">
-        <v>1901</v>
+      <c r="R324" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="T324" t="n">
+        <v>1.721964080217E12</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -16839,11 +18028,11 @@
       <c r="H325" t="s">
         <v>1845</v>
       </c>
-      <c r="R325" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T325" t="s">
-        <v>1901</v>
+      <c r="R325" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="T325" t="n">
+        <v>1.721810692389E12</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -16871,11 +18060,11 @@
       <c r="H326" t="s">
         <v>1846</v>
       </c>
-      <c r="R326" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T326" t="s">
-        <v>1901</v>
+      <c r="R326" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="T326" t="n">
+        <v>1.721810697728E12</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -16903,11 +18092,11 @@
       <c r="H327" t="s">
         <v>1847</v>
       </c>
-      <c r="R327" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T327" t="s">
-        <v>1901</v>
+      <c r="R327" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="T327" t="n">
+        <v>1.72196408453E12</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -16935,11 +18124,11 @@
       <c r="H328" t="s">
         <v>1848</v>
       </c>
-      <c r="R328" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T328" t="s">
-        <v>1901</v>
+      <c r="R328" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T328" t="n">
+        <v>1.721723544401E12</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -16967,11 +18156,11 @@
       <c r="H329" t="s">
         <v>1849</v>
       </c>
-      <c r="R329" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T329" t="s">
-        <v>1901</v>
+      <c r="R329" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T329" t="n">
+        <v>1.721723550135E12</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -16999,11 +18188,11 @@
       <c r="H330" t="s">
         <v>1850</v>
       </c>
-      <c r="R330" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T330" t="s">
-        <v>1901</v>
+      <c r="R330" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T330" t="n">
+        <v>1.721723554028E12</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -17031,11 +18220,11 @@
       <c r="H331" t="s">
         <v>1851</v>
       </c>
-      <c r="R331" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T331" t="s">
-        <v>1901</v>
+      <c r="R331" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T331" t="n">
+        <v>1.721723560515E12</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -17063,11 +18252,11 @@
       <c r="H332" t="s">
         <v>1852</v>
       </c>
-      <c r="R332" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T332" t="s">
-        <v>1901</v>
+      <c r="R332" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T332" t="n">
+        <v>1.721723573721E12</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -17095,11 +18284,11 @@
       <c r="H333" t="s">
         <v>1853</v>
       </c>
-      <c r="R333" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T333" t="s">
-        <v>1901</v>
+      <c r="R333" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T333" t="n">
+        <v>1.721723606902E12</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -17127,11 +18316,11 @@
       <c r="H334" t="s">
         <v>1527</v>
       </c>
-      <c r="R334" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T334" t="s">
-        <v>1901</v>
+      <c r="R334" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T334" t="n">
+        <v>1.721723640768E12</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -17159,11 +18348,11 @@
       <c r="H335" t="s">
         <v>1854</v>
       </c>
-      <c r="R335" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T335" t="s">
-        <v>1901</v>
+      <c r="R335" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T335" t="n">
+        <v>1.721723645449E12</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -17191,11 +18380,11 @@
       <c r="H336" t="s">
         <v>1855</v>
       </c>
-      <c r="R336" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T336" t="s">
-        <v>1901</v>
+      <c r="R336" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="T336" t="n">
+        <v>1.721964093025E12</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -17223,11 +18412,11 @@
       <c r="H337" t="s">
         <v>1856</v>
       </c>
-      <c r="R337" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T337" t="s">
-        <v>1901</v>
+      <c r="R337" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="T337" t="n">
+        <v>1.722589393801E12</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -17255,11 +18444,11 @@
       <c r="H338" t="s">
         <v>1857</v>
       </c>
-      <c r="R338" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T338" t="s">
-        <v>1901</v>
+      <c r="R338" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="T338" t="n">
+        <v>1.721964127348E12</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -17287,11 +18476,11 @@
       <c r="H339" t="s">
         <v>1643</v>
       </c>
-      <c r="R339" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T339" t="s">
-        <v>1901</v>
+      <c r="R339" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="T339" t="n">
+        <v>1.722846940661E12</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -17319,11 +18508,11 @@
       <c r="H340" t="s">
         <v>1858</v>
       </c>
-      <c r="R340" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T340" t="s">
-        <v>1901</v>
+      <c r="R340" t="n">
+        <v>4.5500000000000025</v>
+      </c>
+      <c r="T340" t="n">
+        <v>1.72284694632E12</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -17351,11 +18540,11 @@
       <c r="H341" t="s">
         <v>1859</v>
       </c>
-      <c r="R341" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T341" t="s">
-        <v>1901</v>
+      <c r="R341" t="n">
+        <v>7.5500000000000025</v>
+      </c>
+      <c r="T341" t="n">
+        <v>1.722847669553E12</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -17383,11 +18572,11 @@
       <c r="H342" t="s">
         <v>1860</v>
       </c>
-      <c r="R342" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T342" t="s">
-        <v>1901</v>
+      <c r="R342" t="n">
+        <v>5.5500000000000025</v>
+      </c>
+      <c r="T342" t="n">
+        <v>1.722847012786E12</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -17415,11 +18604,11 @@
       <c r="H343" t="s">
         <v>1861</v>
       </c>
-      <c r="R343" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T343" t="s">
-        <v>1901</v>
+      <c r="R343" t="n">
+        <v>5.900000000000002</v>
+      </c>
+      <c r="T343" t="n">
+        <v>1.722847094471E12</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -17447,11 +18636,11 @@
       <c r="H344" t="s">
         <v>1862</v>
       </c>
-      <c r="R344" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T344" t="s">
-        <v>1901</v>
+      <c r="R344" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T344" t="n">
+        <v>1.721723828391E12</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -17479,11 +18668,11 @@
       <c r="H345" t="s">
         <v>1863</v>
       </c>
-      <c r="R345" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T345" t="s">
-        <v>1901</v>
+      <c r="R345" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T345" t="n">
+        <v>1.721723834404E12</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -17511,11 +18700,11 @@
       <c r="H346" t="s">
         <v>1864</v>
       </c>
-      <c r="R346" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T346" t="s">
-        <v>1901</v>
+      <c r="R346" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="T346" t="n">
+        <v>1.7225900027E12</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -17543,11 +18732,11 @@
       <c r="H347" t="s">
         <v>1865</v>
       </c>
-      <c r="R347" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T347" t="s">
-        <v>1901</v>
+      <c r="R347" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T347" t="n">
+        <v>1.721723863779E12</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -17575,11 +18764,11 @@
       <c r="H348" t="s">
         <v>1866</v>
       </c>
-      <c r="R348" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T348" t="s">
-        <v>1901</v>
+      <c r="R348" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="T348" t="n">
+        <v>1.72181122415E12</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -17607,11 +18796,11 @@
       <c r="H349" t="s">
         <v>1867</v>
       </c>
-      <c r="R349" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T349" t="s">
-        <v>1901</v>
+      <c r="R349" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T349" t="n">
+        <v>1.722847133005E12</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -17639,11 +18828,11 @@
       <c r="H350" t="s">
         <v>1868</v>
       </c>
-      <c r="R350" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T350" t="s">
-        <v>1901</v>
+      <c r="R350" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T350" t="n">
+        <v>1.721724006283E12</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -17671,11 +18860,11 @@
       <c r="H351" t="s">
         <v>1536</v>
       </c>
-      <c r="R351" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T351" t="s">
-        <v>1901</v>
+      <c r="R351" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="T351" t="n">
+        <v>1.721811293318E12</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -17703,11 +18892,11 @@
       <c r="H352" t="s">
         <v>1647</v>
       </c>
-      <c r="R352" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T352" t="s">
-        <v>1901</v>
+      <c r="R352" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T352" t="n">
+        <v>1.721724117427E12</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -17735,11 +18924,11 @@
       <c r="H353" t="s">
         <v>1869</v>
       </c>
-      <c r="R353" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T353" t="s">
-        <v>1901</v>
+      <c r="R353" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="T353" t="n">
+        <v>1.722847184251E12</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -17767,11 +18956,11 @@
       <c r="H354" t="s">
         <v>1870</v>
       </c>
-      <c r="R354" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T354" t="s">
-        <v>1901</v>
+      <c r="R354" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="T354" t="n">
+        <v>1.721964203488E12</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -17799,11 +18988,11 @@
       <c r="H355" t="s">
         <v>1871</v>
       </c>
-      <c r="R355" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T355" t="s">
-        <v>1901</v>
+      <c r="R355" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="T355" t="n">
+        <v>1.721964210789E12</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -17831,11 +19020,11 @@
       <c r="H356" t="s">
         <v>1872</v>
       </c>
-      <c r="R356" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T356" t="s">
-        <v>1901</v>
+      <c r="R356" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="T356" t="n">
+        <v>1.722847192078E12</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -17863,11 +19052,11 @@
       <c r="H357" t="s">
         <v>1873</v>
       </c>
-      <c r="R357" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T357" t="s">
-        <v>1901</v>
+      <c r="R357" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T357" t="n">
+        <v>1.721724305866E12</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -17895,11 +19084,11 @@
       <c r="H358" t="s">
         <v>1874</v>
       </c>
-      <c r="R358" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T358" t="s">
-        <v>1901</v>
+      <c r="R358" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T358" t="n">
+        <v>1.722847196525E12</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -17927,11 +19116,11 @@
       <c r="H359" t="s">
         <v>870</v>
       </c>
-      <c r="R359" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T359" t="s">
-        <v>1901</v>
+      <c r="R359" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="T359" t="n">
+        <v>1.721811571116E12</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -17959,11 +19148,11 @@
       <c r="H360" t="s">
         <v>1875</v>
       </c>
-      <c r="R360" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T360" t="s">
-        <v>1901</v>
+      <c r="R360" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T360" t="n">
+        <v>1.721724346954E12</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -17991,11 +19180,11 @@
       <c r="H361" t="s">
         <v>1876</v>
       </c>
-      <c r="R361" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T361" t="s">
-        <v>1901</v>
+      <c r="R361" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="T361" t="n">
+        <v>1.721811581067E12</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -18023,11 +19212,11 @@
       <c r="H362" t="s">
         <v>1877</v>
       </c>
-      <c r="R362" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T362" t="s">
-        <v>1901</v>
+      <c r="R362" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T362" t="n">
+        <v>1.721724394051E12</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -18055,11 +19244,11 @@
       <c r="H363" t="s">
         <v>1878</v>
       </c>
-      <c r="R363" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T363" t="s">
-        <v>1901</v>
+      <c r="R363" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="T363" t="n">
+        <v>1.721964231127E12</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -18087,11 +19276,11 @@
       <c r="H364" t="s">
         <v>1879</v>
       </c>
-      <c r="R364" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T364" t="s">
-        <v>1901</v>
+      <c r="R364" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="T364" t="n">
+        <v>1.722590523096E12</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -18119,11 +19308,11 @@
       <c r="H365" t="s">
         <v>1880</v>
       </c>
-      <c r="R365" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T365" t="s">
-        <v>1901</v>
+      <c r="R365" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="T365" t="n">
+        <v>1.722590526927E12</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -18151,11 +19340,11 @@
       <c r="H366" t="s">
         <v>1881</v>
       </c>
-      <c r="R366" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T366" t="s">
-        <v>1901</v>
+      <c r="R366" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="T366" t="n">
+        <v>1.721964312578E12</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -18183,11 +19372,11 @@
       <c r="H367" t="s">
         <v>1882</v>
       </c>
-      <c r="R367" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T367" t="s">
-        <v>1901</v>
+      <c r="R367" t="n">
+        <v>6.900000000000002</v>
+      </c>
+      <c r="T367" t="n">
+        <v>1.722847221229E12</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -18215,11 +19404,11 @@
       <c r="H368" t="s">
         <v>1883</v>
       </c>
-      <c r="R368" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T368" t="s">
-        <v>1901</v>
+      <c r="R368" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T368" t="n">
+        <v>1.721724484134E12</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -18247,11 +19436,11 @@
       <c r="H369" t="s">
         <v>1884</v>
       </c>
-      <c r="R369" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T369" t="s">
-        <v>1901</v>
+      <c r="R369" t="n">
+        <v>6.250000000000002</v>
+      </c>
+      <c r="T369" t="n">
+        <v>1.722847302845E12</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -18279,11 +19468,11 @@
       <c r="H370" t="s">
         <v>1885</v>
       </c>
-      <c r="R370" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T370" t="s">
-        <v>1901</v>
+      <c r="R370" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T370" t="n">
+        <v>1.72172451612E12</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -18311,11 +19500,11 @@
       <c r="H371" t="s">
         <v>1886</v>
       </c>
-      <c r="R371" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T371" t="s">
-        <v>1901</v>
+      <c r="R371" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="T371" t="n">
+        <v>1.7218671077E12</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -18343,11 +19532,11 @@
       <c r="H372" t="s">
         <v>1887</v>
       </c>
-      <c r="R372" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T372" t="s">
-        <v>1901</v>
+      <c r="R372" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="T372" t="n">
+        <v>1.721867202931E12</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -18375,11 +19564,11 @@
       <c r="H373" t="s">
         <v>1888</v>
       </c>
-      <c r="R373" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T373" t="s">
-        <v>1901</v>
+      <c r="R373" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T373" t="n">
+        <v>1.721724538343E12</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -18407,11 +19596,11 @@
       <c r="H374" t="s">
         <v>1889</v>
       </c>
-      <c r="R374" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T374" t="s">
-        <v>1901</v>
+      <c r="R374" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T374" t="n">
+        <v>1.721724546073E12</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -18439,11 +19628,11 @@
       <c r="H375" t="s">
         <v>1292</v>
       </c>
-      <c r="R375" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T375" t="s">
-        <v>1901</v>
+      <c r="R375" t="n">
+        <v>4.250000000000002</v>
+      </c>
+      <c r="T375" t="n">
+        <v>1.722847306925E12</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -18471,11 +19660,11 @@
       <c r="H376" t="s">
         <v>1890</v>
       </c>
-      <c r="R376" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T376" t="s">
-        <v>1901</v>
+      <c r="R376" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T376" t="n">
+        <v>1.721724708494E12</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -18503,11 +19692,11 @@
       <c r="H377" t="s">
         <v>1890</v>
       </c>
-      <c r="R377" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T377" t="s">
-        <v>1901</v>
+      <c r="R377" t="n">
+        <v>6.900000000000002</v>
+      </c>
+      <c r="T377" t="n">
+        <v>1.722847336301E12</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -18535,11 +19724,11 @@
       <c r="H378" t="s">
         <v>1551</v>
       </c>
-      <c r="R378" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T378" t="s">
-        <v>1901</v>
+      <c r="R378" t="n">
+        <v>2.9499999999999997</v>
+      </c>
+      <c r="T378" t="n">
+        <v>1.722847399457E12</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -18567,11 +19756,11 @@
       <c r="H379" t="s">
         <v>1891</v>
       </c>
-      <c r="R379" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T379" t="s">
-        <v>1901</v>
+      <c r="R379" t="n">
+        <v>6.900000000000002</v>
+      </c>
+      <c r="T379" t="n">
+        <v>1.722847407947E12</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -18599,11 +19788,11 @@
       <c r="H380" t="s">
         <v>1892</v>
       </c>
-      <c r="R380" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T380" t="s">
-        <v>1901</v>
+      <c r="R380" t="n">
+        <v>6.250000000000002</v>
+      </c>
+      <c r="T380" t="n">
+        <v>1.722847504076E12</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -18631,11 +19820,11 @@
       <c r="H381" t="s">
         <v>1566</v>
       </c>
-      <c r="R381" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T381" t="s">
-        <v>1901</v>
+      <c r="R381" t="n">
+        <v>8.200000000000003</v>
+      </c>
+      <c r="T381" t="n">
+        <v>1.722847677314E12</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -18663,11 +19852,11 @@
       <c r="H382" t="s">
         <v>1893</v>
       </c>
-      <c r="R382" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T382" t="s">
-        <v>1901</v>
+      <c r="R382" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="T382" t="n">
+        <v>1.721892009361E12</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -18695,11 +19884,11 @@
       <c r="H383" t="s">
         <v>1894</v>
       </c>
-      <c r="R383" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T383" t="s">
-        <v>1901</v>
+      <c r="R383" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T383" t="n">
+        <v>1.721725288045E12</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -18727,11 +19916,11 @@
       <c r="H384" t="s">
         <v>1895</v>
       </c>
-      <c r="R384" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T384" t="s">
-        <v>1901</v>
+      <c r="R384" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="T384" t="n">
+        <v>1.721892012623E12</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -18759,11 +19948,11 @@
       <c r="H385" t="s">
         <v>1218</v>
       </c>
-      <c r="R385" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T385" t="s">
-        <v>1901</v>
+      <c r="R385" t="n">
+        <v>6.900000000000002</v>
+      </c>
+      <c r="T385" t="n">
+        <v>1.722847539349E12</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -18791,11 +19980,11 @@
       <c r="H386" t="s">
         <v>1241</v>
       </c>
-      <c r="R386" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T386" t="s">
-        <v>1901</v>
+      <c r="R386" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T386" t="n">
+        <v>1.721725298802E12</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -18823,11 +20012,11 @@
       <c r="H387" t="s">
         <v>1896</v>
       </c>
-      <c r="R387" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T387" t="s">
-        <v>1901</v>
+      <c r="R387" t="n">
+        <v>2.9499999999999997</v>
+      </c>
+      <c r="T387" t="n">
+        <v>1.722847545366E12</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -18855,11 +20044,11 @@
       <c r="H388" t="s">
         <v>1897</v>
       </c>
-      <c r="R388" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T388" t="s">
-        <v>1901</v>
+      <c r="R388" t="n">
+        <v>4.300000000000001</v>
+      </c>
+      <c r="T388" t="n">
+        <v>1.722847551795E12</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -18887,11 +20076,11 @@
       <c r="H389" t="s">
         <v>1898</v>
       </c>
-      <c r="R389" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T389" t="s">
-        <v>1901</v>
+      <c r="R389" t="n">
+        <v>6.250000000000002</v>
+      </c>
+      <c r="T389" t="n">
+        <v>1.722847556017E12</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -18919,11 +20108,11 @@
       <c r="H390" t="s">
         <v>1866</v>
       </c>
-      <c r="R390" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T390" t="s">
-        <v>1901</v>
+      <c r="R390" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="T390" t="n">
+        <v>1.721892149019E12</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -18951,11 +20140,11 @@
       <c r="H391" t="s">
         <v>1895</v>
       </c>
-      <c r="R391" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T391" t="s">
-        <v>1901</v>
+      <c r="R391" t="n">
+        <v>3.9500000000000006</v>
+      </c>
+      <c r="T391" t="n">
+        <v>1.722847560801E12</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -18983,11 +20172,11 @@
       <c r="H392" t="s">
         <v>873</v>
       </c>
-      <c r="R392" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T392" t="s">
-        <v>1901</v>
+      <c r="R392" t="n">
+        <v>5.600000000000001</v>
+      </c>
+      <c r="T392" t="n">
+        <v>1.722847566799E12</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -19015,11 +20204,11 @@
       <c r="H393" t="s">
         <v>1895</v>
       </c>
-      <c r="R393" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T393" t="s">
-        <v>1901</v>
+      <c r="R393" t="n">
+        <v>5.5500000000000025</v>
+      </c>
+      <c r="T393" t="n">
+        <v>1.72284757339E12</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -19047,11 +20236,11 @@
       <c r="H394" t="s">
         <v>1895</v>
       </c>
-      <c r="R394" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T394" t="s">
-        <v>1901</v>
+      <c r="R394" t="n">
+        <v>5.5500000000000025</v>
+      </c>
+      <c r="T394" t="n">
+        <v>1.722847575905E12</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -19079,11 +20268,11 @@
       <c r="H395" t="s">
         <v>1899</v>
       </c>
-      <c r="R395" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T395" t="s">
-        <v>1901</v>
+      <c r="R395" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T395" t="n">
+        <v>1.7217253679E12</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -19111,11 +20300,11 @@
       <c r="H396" t="s">
         <v>1900</v>
       </c>
-      <c r="R396" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T396" t="s">
-        <v>1901</v>
+      <c r="R396" t="n">
+        <v>4.250000000000002</v>
+      </c>
+      <c r="T396" t="n">
+        <v>1.722847578623E12</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -19131,11 +20320,11 @@
       <c r="D397" t="s">
         <v>3</v>
       </c>
-      <c r="R397" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T397" t="s">
-        <v>1901</v>
+      <c r="R397" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T397" t="n">
+        <v>1.721725373717E12</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -19151,11 +20340,11 @@
       <c r="D398" t="s">
         <v>3</v>
       </c>
-      <c r="R398" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T398" t="s">
-        <v>1901</v>
+      <c r="R398" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T398" t="n">
+        <v>1.721725378299E12</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -19171,11 +20360,11 @@
       <c r="D399" t="s">
         <v>4</v>
       </c>
-      <c r="R399" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T399" t="s">
-        <v>1901</v>
+      <c r="R399" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T399" t="n">
+        <v>1.721725383232E12</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -19191,11 +20380,11 @@
       <c r="D400" t="s">
         <v>4</v>
       </c>
-      <c r="R400" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T400" t="s">
-        <v>1901</v>
+      <c r="R400" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="T400" t="n">
+        <v>1.721892341014E12</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -19211,11 +20400,11 @@
       <c r="D401" t="s">
         <v>4</v>
       </c>
-      <c r="R401" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T401" t="s">
-        <v>1901</v>
+      <c r="R401" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="T401" t="n">
+        <v>1.721892343181E12</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -19231,11 +20420,11 @@
       <c r="D402" t="s">
         <v>3</v>
       </c>
-      <c r="R402" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T402" t="s">
-        <v>1901</v>
+      <c r="R402" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="T402" t="n">
+        <v>1.721892345874E12</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -19251,11 +20440,11 @@
       <c r="D403" t="s">
         <v>3</v>
       </c>
-      <c r="R403" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T403" t="s">
-        <v>1901</v>
+      <c r="R403" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T403" t="n">
+        <v>1.721725416383E12</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -19271,11 +20460,11 @@
       <c r="D404" t="s">
         <v>3</v>
       </c>
-      <c r="R404" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T404" t="s">
-        <v>1901</v>
+      <c r="R404" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T404" t="n">
+        <v>1.721725418736E12</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -19291,11 +20480,11 @@
       <c r="D405" t="s">
         <v>3</v>
       </c>
-      <c r="R405" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T405" t="s">
-        <v>1901</v>
+      <c r="R405" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T405" t="n">
+        <v>1.721725422821E12</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -19311,11 +20500,11 @@
       <c r="D406" t="s">
         <v>3</v>
       </c>
-      <c r="R406" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T406" t="s">
-        <v>1901</v>
+      <c r="R406" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T406" t="n">
+        <v>1.721725425287E12</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -19331,11 +20520,11 @@
       <c r="D407" t="s">
         <v>4</v>
       </c>
-      <c r="R407" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T407" t="s">
-        <v>1901</v>
+      <c r="R407" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="T407" t="n">
+        <v>1.721892347848E12</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -19351,11 +20540,11 @@
       <c r="D408" t="s">
         <v>4</v>
       </c>
-      <c r="R408" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T408" t="s">
-        <v>1901</v>
+      <c r="R408" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="T408" t="n">
+        <v>1.721892350125E12</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -19371,11 +20560,11 @@
       <c r="D409" t="s">
         <v>4</v>
       </c>
-      <c r="R409" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T409" t="s">
-        <v>1901</v>
+      <c r="R409" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="T409" t="n">
+        <v>1.721892352968E12</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -19391,11 +20580,11 @@
       <c r="D410" t="s">
         <v>4</v>
       </c>
-      <c r="R410" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T410" t="s">
-        <v>1901</v>
+      <c r="R410" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="T410" t="n">
+        <v>1.721892355061E12</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -19411,11 +20600,11 @@
       <c r="D411" t="s">
         <v>4</v>
       </c>
-      <c r="R411" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T411" t="s">
-        <v>1901</v>
+      <c r="R411" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T411" t="n">
+        <v>1.721725447675E12</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -19431,11 +20620,11 @@
       <c r="D412" t="s">
         <v>3</v>
       </c>
-      <c r="R412" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T412" t="s">
-        <v>1901</v>
+      <c r="R412" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T412" t="n">
+        <v>1.72172545122E12</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -19451,11 +20640,11 @@
       <c r="D413" t="s">
         <v>3</v>
       </c>
-      <c r="R413" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T413" t="s">
-        <v>1901</v>
+      <c r="R413" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T413" t="n">
+        <v>1.721725456026E12</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -19471,11 +20660,11 @@
       <c r="D414" t="s">
         <v>3</v>
       </c>
-      <c r="R414" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T414" t="s">
-        <v>1901</v>
+      <c r="R414" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T414" t="n">
+        <v>1.721725461284E12</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -19491,11 +20680,11 @@
       <c r="D415" t="s">
         <v>3</v>
       </c>
-      <c r="R415" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T415" t="s">
-        <v>1901</v>
+      <c r="R415" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T415" t="n">
+        <v>1.721725463589E12</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -19511,11 +20700,11 @@
       <c r="D416" t="s">
         <v>4</v>
       </c>
-      <c r="R416" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T416" t="s">
-        <v>1901</v>
+      <c r="R416" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="T416" t="n">
+        <v>1.721892357731E12</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -19531,11 +20720,11 @@
       <c r="D417" t="s">
         <v>3</v>
       </c>
-      <c r="R417" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T417" t="s">
-        <v>1901</v>
+      <c r="R417" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T417" t="n">
+        <v>1.721725495339E12</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -19551,11 +20740,11 @@
       <c r="D418" t="s">
         <v>4</v>
       </c>
-      <c r="R418" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T418" t="s">
-        <v>1901</v>
+      <c r="R418" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="T418" t="n">
+        <v>1.72189235964E12</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -19571,11 +20760,11 @@
       <c r="D419" t="s">
         <v>4</v>
       </c>
-      <c r="R419" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T419" t="s">
-        <v>1901</v>
+      <c r="R419" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T419" t="n">
+        <v>1.72172556396E12</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -19591,11 +20780,11 @@
       <c r="D420" t="s">
         <v>4</v>
       </c>
-      <c r="R420" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T420" t="s">
-        <v>1901</v>
+      <c r="R420" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="T420" t="n">
+        <v>1.721892361075E12</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -19611,11 +20800,11 @@
       <c r="D421" t="s">
         <v>3</v>
       </c>
-      <c r="R421" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T421" t="s">
-        <v>1901</v>
+      <c r="R421" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T421" t="n">
+        <v>1.721725572316E12</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -19631,11 +20820,11 @@
       <c r="D422" t="s">
         <v>4</v>
       </c>
-      <c r="R422" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T422" t="s">
-        <v>1901</v>
+      <c r="R422" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="T422" t="n">
+        <v>1.721892362521E12</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -19651,11 +20840,11 @@
       <c r="D423" t="s">
         <v>3</v>
       </c>
-      <c r="R423" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T423" t="s">
-        <v>1901</v>
+      <c r="R423" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T423" t="n">
+        <v>1.721725577778E12</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -19671,11 +20860,11 @@
       <c r="D424" t="s">
         <v>3</v>
       </c>
-      <c r="R424" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T424" t="s">
-        <v>1901</v>
+      <c r="R424" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T424" t="n">
+        <v>1.721725605976E12</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -19691,11 +20880,11 @@
       <c r="D425" t="s">
         <v>4</v>
       </c>
-      <c r="R425" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T425" t="s">
-        <v>1901</v>
+      <c r="R425" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="T425" t="n">
+        <v>1.721892364641E12</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -19711,11 +20900,11 @@
       <c r="D426" t="s">
         <v>4</v>
       </c>
-      <c r="R426" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T426" t="s">
-        <v>1901</v>
+      <c r="R426" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="T426" t="n">
+        <v>1.721892368266E12</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -19731,11 +20920,11 @@
       <c r="D427" t="s">
         <v>3</v>
       </c>
-      <c r="R427" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T427" t="s">
-        <v>1901</v>
+      <c r="R427" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="T427" t="n">
+        <v>1.721964518972E12</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -19751,11 +20940,11 @@
       <c r="D428" t="s">
         <v>4</v>
       </c>
-      <c r="R428" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T428" t="s">
-        <v>1901</v>
+      <c r="R428" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="T428" t="n">
+        <v>1.721892374418E12</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -19771,11 +20960,11 @@
       <c r="D429" t="s">
         <v>3</v>
       </c>
-      <c r="R429" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T429" t="s">
-        <v>1901</v>
+      <c r="R429" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T429" t="n">
+        <v>1.721725713531E12</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -19791,11 +20980,11 @@
       <c r="D430" t="s">
         <v>3</v>
       </c>
-      <c r="R430" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T430" t="s">
-        <v>1901</v>
+      <c r="R430" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T430" t="n">
+        <v>1.721725715643E12</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -19811,11 +21000,11 @@
       <c r="D431" t="s">
         <v>4</v>
       </c>
-      <c r="R431" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T431" t="s">
-        <v>1901</v>
+      <c r="R431" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T431" t="n">
+        <v>1.721725719128E12</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -19831,11 +21020,11 @@
       <c r="D432" t="s">
         <v>3</v>
       </c>
-      <c r="R432" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T432" t="s">
-        <v>1901</v>
+      <c r="R432" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="T432" t="n">
+        <v>1.721892377392E12</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -19851,11 +21040,11 @@
       <c r="D433" t="s">
         <v>4</v>
       </c>
-      <c r="R433" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T433" t="s">
-        <v>1901</v>
+      <c r="R433" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="T433" t="n">
+        <v>1.722590616568E12</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -19871,11 +21060,11 @@
       <c r="D434" t="s">
         <v>4</v>
       </c>
-      <c r="R434" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T434" t="s">
-        <v>1901</v>
+      <c r="R434" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T434" t="n">
+        <v>1.721725778792E12</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -19891,11 +21080,11 @@
       <c r="D435" t="s">
         <v>3</v>
       </c>
-      <c r="R435" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T435" t="s">
-        <v>1901</v>
+      <c r="R435" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T435" t="n">
+        <v>1.721725783374E12</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -19911,11 +21100,11 @@
       <c r="D436" t="s">
         <v>4</v>
       </c>
-      <c r="R436" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T436" t="s">
-        <v>1901</v>
+      <c r="R436" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T436" t="n">
+        <v>1.721725788084E12</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -19931,11 +21120,11 @@
       <c r="D437" t="s">
         <v>3</v>
       </c>
-      <c r="R437" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T437" t="s">
-        <v>1901</v>
+      <c r="R437" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T437" t="n">
+        <v>1.721725791187E12</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -19951,11 +21140,11 @@
       <c r="D438" t="s">
         <v>3</v>
       </c>
-      <c r="R438" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T438" t="s">
-        <v>1901</v>
+      <c r="R438" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T438" t="n">
+        <v>1.721725793855E12</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -19971,11 +21160,11 @@
       <c r="D439" t="s">
         <v>3</v>
       </c>
-      <c r="R439" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T439" t="s">
-        <v>1901</v>
+      <c r="R439" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T439" t="n">
+        <v>1.721725796434E12</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -19991,11 +21180,11 @@
       <c r="D440" t="s">
         <v>4</v>
       </c>
-      <c r="R440" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T440" t="s">
-        <v>1901</v>
+      <c r="R440" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="T440" t="n">
+        <v>1.7218925428E12</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -20011,11 +21200,11 @@
       <c r="D441" t="s">
         <v>4</v>
       </c>
-      <c r="R441" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T441" t="s">
-        <v>1901</v>
+      <c r="R441" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="T441" t="n">
+        <v>1.721892545195E12</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -20031,11 +21220,11 @@
       <c r="D442" t="s">
         <v>3</v>
       </c>
-      <c r="R442" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T442" t="s">
-        <v>1901</v>
+      <c r="R442" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T442" t="n">
+        <v>1.721725848617E12</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -20051,11 +21240,11 @@
       <c r="D443" t="s">
         <v>3</v>
       </c>
-      <c r="R443" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T443" t="s">
-        <v>1901</v>
+      <c r="R443" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T443" t="n">
+        <v>1.721725851185E12</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -20071,11 +21260,11 @@
       <c r="D444" t="s">
         <v>3</v>
       </c>
-      <c r="R444" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T444" t="s">
-        <v>1901</v>
+      <c r="R444" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T444" t="n">
+        <v>1.721725862494E12</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -20091,11 +21280,11 @@
       <c r="D445" t="s">
         <v>4</v>
       </c>
-      <c r="R445" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T445" t="s">
-        <v>1901</v>
+      <c r="R445" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="T445" t="n">
+        <v>1.721964526808E12</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -20111,11 +21300,11 @@
       <c r="D446" t="s">
         <v>4</v>
       </c>
-      <c r="R446" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T446" t="s">
-        <v>1901</v>
+      <c r="R446" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T446" t="n">
+        <v>1.721725945228E12</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -20131,11 +21320,11 @@
       <c r="D447" t="s">
         <v>3</v>
       </c>
-      <c r="R447" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T447" t="s">
-        <v>1901</v>
+      <c r="R447" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T447" t="n">
+        <v>1.721725947634E12</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -20151,11 +21340,11 @@
       <c r="D448" t="s">
         <v>3</v>
       </c>
-      <c r="R448" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T448" t="s">
-        <v>1901</v>
+      <c r="R448" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T448" t="n">
+        <v>1.72172595029E12</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -20171,11 +21360,11 @@
       <c r="D449" t="s">
         <v>3</v>
       </c>
-      <c r="R449" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T449" t="s">
-        <v>1901</v>
+      <c r="R449" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T449" t="n">
+        <v>1.72172595378E12</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -20191,11 +21380,11 @@
       <c r="D450" t="s">
         <v>4</v>
       </c>
-      <c r="R450" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T450" t="s">
-        <v>1901</v>
+      <c r="R450" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="T450" t="n">
+        <v>1.721892552476E12</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -20211,11 +21400,11 @@
       <c r="D451" t="s">
         <v>4</v>
       </c>
-      <c r="R451" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T451" t="s">
-        <v>1901</v>
+      <c r="R451" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="T451" t="n">
+        <v>1.721892555198E12</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -20231,11 +21420,11 @@
       <c r="D452" t="s">
         <v>3</v>
       </c>
-      <c r="R452" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T452" t="s">
-        <v>1901</v>
+      <c r="R452" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T452" t="n">
+        <v>1.721725977007E12</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -20251,11 +21440,11 @@
       <c r="D453" t="s">
         <v>3</v>
       </c>
-      <c r="R453" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T453" t="s">
-        <v>1901</v>
+      <c r="R453" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T453" t="n">
+        <v>1.721725979996E12</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -20271,11 +21460,11 @@
       <c r="D454" t="s">
         <v>4</v>
       </c>
-      <c r="R454" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T454" t="s">
-        <v>1901</v>
+      <c r="R454" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="T454" t="n">
+        <v>1.721892557908E12</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -20291,11 +21480,11 @@
       <c r="D455" t="s">
         <v>3</v>
       </c>
-      <c r="R455" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T455" t="s">
-        <v>1901</v>
+      <c r="R455" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T455" t="n">
+        <v>1.721725985288E12</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -20311,11 +21500,11 @@
       <c r="D456" t="s">
         <v>4</v>
       </c>
-      <c r="R456" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T456" t="s">
-        <v>1901</v>
+      <c r="R456" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="T456" t="n">
+        <v>1.721892560041E12</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -20331,11 +21520,11 @@
       <c r="D457" t="s">
         <v>4</v>
       </c>
-      <c r="R457" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T457" t="s">
-        <v>1901</v>
+      <c r="R457" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="T457" t="n">
+        <v>1.721964528708E12</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -20351,11 +21540,11 @@
       <c r="D458" t="s">
         <v>3</v>
       </c>
-      <c r="R458" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T458" t="s">
-        <v>1901</v>
+      <c r="R458" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T458" t="n">
+        <v>1.721725996588E12</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -20371,11 +21560,11 @@
       <c r="D459" t="s">
         <v>3</v>
       </c>
-      <c r="R459" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T459" t="s">
-        <v>1901</v>
+      <c r="R459" t="n">
+        <v>4.5500000000000025</v>
+      </c>
+      <c r="T459" t="n">
+        <v>1.722847580088E12</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -20391,11 +21580,11 @@
       <c r="D460" t="s">
         <v>3</v>
       </c>
-      <c r="R460" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T460" t="s">
-        <v>1901</v>
+      <c r="R460" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T460" t="n">
+        <v>1.721726002629E12</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -20411,11 +21600,11 @@
       <c r="D461" t="s">
         <v>4</v>
       </c>
-      <c r="R461" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T461" t="s">
-        <v>1901</v>
+      <c r="R461" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T461" t="n">
+        <v>1.721726004473E12</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -20431,11 +21620,11 @@
       <c r="D462" t="s">
         <v>4</v>
       </c>
-      <c r="R462" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T462" t="s">
-        <v>1901</v>
+      <c r="R462" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="T462" t="n">
+        <v>1.721892566551E12</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -20451,11 +21640,11 @@
       <c r="D463" t="s">
         <v>4</v>
       </c>
-      <c r="R463" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T463" t="s">
-        <v>1901</v>
+      <c r="R463" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="T463" t="n">
+        <v>1.72189256945E12</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -20471,11 +21660,11 @@
       <c r="D464" t="s">
         <v>3</v>
       </c>
-      <c r="R464" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T464" t="s">
-        <v>1901</v>
+      <c r="R464" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T464" t="n">
+        <v>1.721726027232E12</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -20491,11 +21680,11 @@
       <c r="D465" t="s">
         <v>3</v>
       </c>
-      <c r="R465" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T465" t="s">
-        <v>1901</v>
+      <c r="R465" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T465" t="n">
+        <v>1.721726029834E12</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -20511,11 +21700,11 @@
       <c r="D466" t="s">
         <v>4</v>
       </c>
-      <c r="R466" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T466" t="s">
-        <v>1901</v>
+      <c r="R466" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T466" t="n">
+        <v>1.721726032198E12</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -20531,11 +21720,11 @@
       <c r="D467" t="s">
         <v>4</v>
       </c>
-      <c r="R467" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T467" t="s">
-        <v>1901</v>
+      <c r="R467" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="T467" t="n">
+        <v>1.721892571513E12</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -20551,11 +21740,11 @@
       <c r="D468" t="s">
         <v>4</v>
       </c>
-      <c r="R468" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T468" t="s">
-        <v>1901</v>
+      <c r="R468" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T468" t="n">
+        <v>1.721726037649E12</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -20571,11 +21760,11 @@
       <c r="D469" t="s">
         <v>3</v>
       </c>
-      <c r="R469" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T469" t="s">
-        <v>1901</v>
+      <c r="R469" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T469" t="n">
+        <v>1.721726041251E12</v>
       </c>
     </row>
     <row r="470" spans="1:4">
@@ -20591,11 +21780,11 @@
       <c r="D470" t="s">
         <v>3</v>
       </c>
-      <c r="R470" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T470" t="s">
-        <v>1901</v>
+      <c r="R470" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T470" t="n">
+        <v>1.721726043481E12</v>
       </c>
     </row>
     <row r="471" spans="1:4">
@@ -20611,11 +21800,11 @@
       <c r="D471" t="s">
         <v>4</v>
       </c>
-      <c r="R471" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T471" t="s">
-        <v>1901</v>
+      <c r="R471" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="T471" t="n">
+        <v>1.721892573901E12</v>
       </c>
     </row>
     <row r="472" spans="1:4">
@@ -20631,11 +21820,11 @@
       <c r="D472" t="s">
         <v>4</v>
       </c>
-      <c r="R472" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T472" t="s">
-        <v>1901</v>
+      <c r="R472" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="T472" t="n">
+        <v>1.721964534087E12</v>
       </c>
     </row>
     <row r="473" spans="1:4">
@@ -20651,11 +21840,11 @@
       <c r="D473" t="s">
         <v>3</v>
       </c>
-      <c r="R473" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T473" t="s">
-        <v>1901</v>
+      <c r="R473" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T473" t="n">
+        <v>1.721726054886E12</v>
       </c>
     </row>
     <row r="474" spans="1:4">
@@ -20671,11 +21860,11 @@
       <c r="D474" t="s">
         <v>4</v>
       </c>
-      <c r="R474" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T474" t="s">
-        <v>1901</v>
+      <c r="R474" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T474" t="n">
+        <v>1.721726057922E12</v>
       </c>
     </row>
     <row r="475" spans="1:4">
@@ -20691,11 +21880,11 @@
       <c r="D475" t="s">
         <v>4</v>
       </c>
-      <c r="R475" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T475" t="s">
-        <v>1901</v>
+      <c r="R475" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T475" t="n">
+        <v>1.721726059379E12</v>
       </c>
     </row>
     <row r="476" spans="1:4">
@@ -20711,11 +21900,11 @@
       <c r="D476" t="s">
         <v>3</v>
       </c>
-      <c r="R476" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T476" t="s">
-        <v>1901</v>
+      <c r="R476" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T476" t="n">
+        <v>1.721726061482E12</v>
       </c>
     </row>
     <row r="477" spans="1:4">
@@ -20731,11 +21920,11 @@
       <c r="D477" t="s">
         <v>3</v>
       </c>
-      <c r="R477" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T477" t="s">
-        <v>1901</v>
+      <c r="R477" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T477" t="n">
+        <v>1.721726112303E12</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -20751,11 +21940,11 @@
       <c r="D478" t="s">
         <v>3</v>
       </c>
-      <c r="R478" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T478" t="s">
-        <v>1901</v>
+      <c r="R478" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T478" t="n">
+        <v>1.721726152893E12</v>
       </c>
     </row>
     <row r="479" spans="1:4">
@@ -20771,11 +21960,11 @@
       <c r="D479" t="s">
         <v>3</v>
       </c>
-      <c r="R479" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T479" t="s">
-        <v>1901</v>
+      <c r="R479" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T479" t="n">
+        <v>1.721726154601E12</v>
       </c>
     </row>
     <row r="480" spans="1:4">
@@ -20791,11 +21980,11 @@
       <c r="D480" t="s">
         <v>4</v>
       </c>
-      <c r="R480" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T480" t="s">
-        <v>1901</v>
+      <c r="R480" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T480" t="n">
+        <v>1.721726156818E12</v>
       </c>
     </row>
     <row r="481" spans="1:4">
@@ -20811,11 +22000,11 @@
       <c r="D481" t="s">
         <v>4</v>
       </c>
-      <c r="R481" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T481" t="s">
-        <v>1901</v>
+      <c r="R481" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="T481" t="n">
+        <v>1.721892577616E12</v>
       </c>
     </row>
     <row r="482" spans="1:4">
@@ -20831,11 +22020,11 @@
       <c r="D482" t="s">
         <v>4</v>
       </c>
-      <c r="R482" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T482" t="s">
-        <v>1901</v>
+      <c r="R482" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T482" t="n">
+        <v>1.72172616074E12</v>
       </c>
     </row>
     <row r="483" spans="1:4">
@@ -20851,11 +22040,11 @@
       <c r="D483" t="s">
         <v>3</v>
       </c>
-      <c r="R483" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T483" t="s">
-        <v>1901</v>
+      <c r="R483" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="T483" t="n">
+        <v>1.721964536027E12</v>
       </c>
     </row>
     <row r="484" spans="1:4">
@@ -20871,11 +22060,11 @@
       <c r="D484" t="s">
         <v>4</v>
       </c>
-      <c r="R484" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T484" t="s">
-        <v>1901</v>
+      <c r="R484" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="T484" t="n">
+        <v>1.721964538537E12</v>
       </c>
     </row>
     <row r="485" spans="1:4">
@@ -20891,11 +22080,11 @@
       <c r="D485" t="s">
         <v>4</v>
       </c>
-      <c r="R485" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T485" t="s">
-        <v>1901</v>
+      <c r="R485" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T485" t="n">
+        <v>1.721726169451E12</v>
       </c>
     </row>
     <row r="486" spans="1:4">
@@ -20911,11 +22100,11 @@
       <c r="D486" t="s">
         <v>4</v>
       </c>
-      <c r="R486" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T486" t="s">
-        <v>1901</v>
+      <c r="R486" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T486" t="n">
+        <v>1.721726171273E12</v>
       </c>
     </row>
     <row r="487" spans="1:4">
@@ -20931,11 +22120,11 @@
       <c r="D487" t="s">
         <v>3</v>
       </c>
-      <c r="R487" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T487" t="s">
-        <v>1901</v>
+      <c r="R487" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T487" t="n">
+        <v>1.721726173224E12</v>
       </c>
     </row>
     <row r="488" spans="1:4">
@@ -20951,11 +22140,11 @@
       <c r="D488" t="s">
         <v>4</v>
       </c>
-      <c r="R488" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T488" t="s">
-        <v>1901</v>
+      <c r="R488" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T488" t="n">
+        <v>1.721726175418E12</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -20971,11 +22160,11 @@
       <c r="D489" t="s">
         <v>4</v>
       </c>
-      <c r="R489" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T489" t="s">
-        <v>1901</v>
+      <c r="R489" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="T489" t="n">
+        <v>1.721892585968E12</v>
       </c>
     </row>
     <row r="490" spans="1:4">
@@ -20991,11 +22180,11 @@
       <c r="D490" t="s">
         <v>3</v>
       </c>
-      <c r="R490" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T490" t="s">
-        <v>1901</v>
+      <c r="R490" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T490" t="n">
+        <v>1.721726205613E12</v>
       </c>
     </row>
     <row r="491" spans="1:4">
@@ -21011,11 +22200,11 @@
       <c r="D491" t="s">
         <v>4</v>
       </c>
-      <c r="R491" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T491" t="s">
-        <v>1901</v>
+      <c r="R491" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T491" t="n">
+        <v>1.722847581919E12</v>
       </c>
     </row>
     <row r="492" spans="1:4">
@@ -21031,11 +22220,11 @@
       <c r="D492" t="s">
         <v>3</v>
       </c>
-      <c r="R492" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T492" t="s">
-        <v>1901</v>
+      <c r="R492" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="T492" t="n">
+        <v>1.722590622719E12</v>
       </c>
     </row>
     <row r="493" spans="1:4">
@@ -21051,11 +22240,11 @@
       <c r="D493" t="s">
         <v>3</v>
       </c>
-      <c r="R493" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T493" t="s">
-        <v>1901</v>
+      <c r="R493" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T493" t="n">
+        <v>1.721726219124E12</v>
       </c>
     </row>
     <row r="494" spans="1:4">
@@ -21071,11 +22260,11 @@
       <c r="D494" t="s">
         <v>4</v>
       </c>
-      <c r="R494" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T494" t="s">
-        <v>1901</v>
+      <c r="R494" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T494" t="n">
+        <v>1.721726221607E12</v>
       </c>
     </row>
     <row r="495" spans="1:4">
@@ -21091,11 +22280,11 @@
       <c r="D495" t="s">
         <v>3</v>
       </c>
-      <c r="R495" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T495" t="s">
-        <v>1901</v>
+      <c r="R495" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="T495" t="n">
+        <v>1.721964546563E12</v>
       </c>
     </row>
     <row r="496" spans="1:4">
@@ -21111,11 +22300,11 @@
       <c r="D496" t="s">
         <v>4</v>
       </c>
-      <c r="R496" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T496" t="s">
-        <v>1901</v>
+      <c r="R496" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="T496" t="n">
+        <v>1.72189260275E12</v>
       </c>
     </row>
     <row r="497" spans="1:4">
@@ -21131,11 +22320,11 @@
       <c r="D497" t="s">
         <v>4</v>
       </c>
-      <c r="R497" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T497" t="s">
-        <v>1901</v>
+      <c r="R497" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="T497" t="n">
+        <v>1.721892606706E12</v>
       </c>
     </row>
     <row r="498" spans="1:4">
@@ -21151,11 +22340,11 @@
       <c r="D498" t="s">
         <v>3</v>
       </c>
-      <c r="R498" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T498" t="s">
-        <v>1901</v>
+      <c r="R498" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T498" t="n">
+        <v>1.721726362868E12</v>
       </c>
     </row>
     <row r="499" spans="1:4">
@@ -21171,11 +22360,11 @@
       <c r="D499" t="s">
         <v>4</v>
       </c>
-      <c r="R499" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T499" t="s">
-        <v>1901</v>
+      <c r="R499" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="T499" t="n">
+        <v>1.721892608378E12</v>
       </c>
     </row>
     <row r="500" spans="1:4">
@@ -21191,11 +22380,11 @@
       <c r="D500" t="s">
         <v>3</v>
       </c>
-      <c r="R500" t="s">
-        <v>1901</v>
-      </c>
-      <c r="T500" t="s">
-        <v>1901</v>
+      <c r="R500" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T500" t="n">
+        <v>1.721726368742E12</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/初级工题库.xlsx
+++ b/src/main/resources/初级工题库.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4109" uniqueCount="1928">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4138" uniqueCount="1954">
   <si>
     <t>题型</t>
   </si>
@@ -5845,6 +5845,84 @@
   </si>
   <si>
     <t>您一共做了: 2题	您的得分： 100.0	做题时长约为0.16666666666666666Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 99题	您的得分： 58.58585858585859	做题时长约为12.6Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 100题	您的得分： 56.00000000000001	做题时长约为1008.7333333333333Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 100题	您的得分： 59.0	做题时长约为266.45Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 100题	您的得分： 60.0	做题时长约为21.7Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 100题	您的得分： 54.0	做题时长约为48.75Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 54题	您的得分： 79.62962962962963	做题时长约为12.066666666666666Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 8题	您的得分： 62.5	做题时长约为422.1Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 3题	您的得分： 66.66666666666666	做题时长约为13.466666666666667Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 3题	您的得分： 100.0	做题时长约为0.2Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 3题	您的得分： 66.66666666666666	做题时长约为0.1Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 2题	您的得分： 100.0	做题时长约为0.11666666666666667Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 5题	您的得分： 60.0	做题时长约为0.43333333333333335Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 3题	您的得分： 100.0	做题时长约为0.13333333333333333Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 2题	您的得分： 100.0	做题时长约为1.1Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 3题	您的得分： 100.0	做题时长约为0.21666666666666667Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 27题	您的得分： 81.48148148148148	做题时长约为24.716666666666665Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 62题	您的得分： 87.09677419354838	做题时长约为14.116666666666667Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 5题	您的得分： 100.0	做题时长约为4.266666666666667Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 7题	您的得分： 100.0	做题时长约为0.6166666666666667Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 11题	您的得分： 100.0	做题时长约为0.7333333333333333Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 274题	您的得分： 79.56204379562044	做题时长约为988.65Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 61题	您的得分： 85.24590163934425	做题时长约为7.583333333333333Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 7题	您的得分： 85.71428571428571	做题时长约为1.4833333333333334Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 1题	您的得分： 100.0	做题时长约为0.03333333333333333Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 3题	您的得分： 100.0	做题时长约为0.15Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 143题	您的得分： 74.82517482517483	做题时长约为41.63333333333333Min</t>
   </si>
 </sst>
 </file>
@@ -5904,7 +5982,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1353">
+  <cellXfs count="2546">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -7187,6 +7265,1199 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -7618,10 +8889,10 @@
         <v>1573</v>
       </c>
       <c r="R2" t="n">
-        <v>0.65</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T2" t="n">
-        <v>1.721785896631E12</v>
+        <v>1.723021653529E12</v>
       </c>
       <c r="AA2" t="s">
         <v>1903</v>
@@ -7653,10 +8924,10 @@
         <v>1574</v>
       </c>
       <c r="R3" t="n">
-        <v>0.65</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T3" t="n">
-        <v>1.721786173552E12</v>
+        <v>1.723021689222E12</v>
       </c>
       <c r="AA3" t="s">
         <v>1904</v>
@@ -7688,16 +8959,16 @@
         <v>1575</v>
       </c>
       <c r="R4" t="n">
-        <v>3.3</v>
+        <v>3.5999999999999996</v>
       </c>
       <c r="T4" t="n">
-        <v>1.722840436831E12</v>
+        <v>1.7234525345E12</v>
       </c>
       <c r="AA4" t="s">
         <v>1905</v>
       </c>
       <c r="AB4" t="n">
-        <v>401.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -7726,10 +8997,10 @@
         <v>1576</v>
       </c>
       <c r="R5" t="n">
-        <v>1.65</v>
+        <v>1.9499999999999997</v>
       </c>
       <c r="T5" t="n">
-        <v>1.721961315938E12</v>
+        <v>1.723452547354E12</v>
       </c>
       <c r="AA5" t="s">
         <v>1906</v>
@@ -7764,7 +9035,7 @@
         <v>0.0</v>
       </c>
       <c r="T6" t="n">
-        <v>1.721699922394E12</v>
+        <v>1.722848848459E12</v>
       </c>
       <c r="AA6" t="s">
         <v>1907</v>
@@ -7796,10 +9067,10 @@
         <v>997</v>
       </c>
       <c r="R7" t="n">
-        <v>0.65</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T7" t="n">
-        <v>1.721786747234E12</v>
+        <v>1.723021703275E12</v>
       </c>
       <c r="AA7" t="s">
         <v>1908</v>
@@ -7831,10 +9102,10 @@
         <v>1296</v>
       </c>
       <c r="R8" t="n">
-        <v>1.65</v>
+        <v>1.9499999999999997</v>
       </c>
       <c r="T8" t="n">
-        <v>1.7219613199E12</v>
+        <v>1.723452552792E12</v>
       </c>
       <c r="AA8" t="s">
         <v>1909</v>
@@ -7866,10 +9137,10 @@
         <v>551</v>
       </c>
       <c r="R9" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T9" t="n">
-        <v>1.721786821633E12</v>
+        <v>1.722849083416E12</v>
       </c>
       <c r="AA9" t="s">
         <v>1910</v>
@@ -7901,10 +9172,10 @@
         <v>1578</v>
       </c>
       <c r="R10" t="n">
-        <v>0.0</v>
+        <v>0.65</v>
       </c>
       <c r="T10" t="n">
-        <v>1.721700132699E12</v>
+        <v>1.723021711394E12</v>
       </c>
       <c r="AA10" t="s">
         <v>1911</v>
@@ -7936,10 +9207,10 @@
         <v>1579</v>
       </c>
       <c r="R11" t="n">
-        <v>0.65</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T11" t="n">
-        <v>1.721786849834E12</v>
+        <v>1.723021795982E12</v>
       </c>
       <c r="AA11" t="s">
         <v>1912</v>
@@ -7971,10 +9242,10 @@
         <v>1580</v>
       </c>
       <c r="R12" t="n">
-        <v>0.65</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T12" t="n">
-        <v>1.721786946731E12</v>
+        <v>1.723021801821E12</v>
       </c>
       <c r="AA12" t="s">
         <v>1913</v>
@@ -8009,7 +9280,7 @@
         <v>0.0</v>
       </c>
       <c r="T13" t="n">
-        <v>1.721700156285E12</v>
+        <v>1.722849303932E12</v>
       </c>
       <c r="AA13" t="s">
         <v>1914</v>
@@ -8041,10 +9312,10 @@
         <v>1582</v>
       </c>
       <c r="R14" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T14" t="n">
-        <v>1.721786951244E12</v>
+        <v>1.72284932789E12</v>
       </c>
       <c r="AA14" t="s">
         <v>1915</v>
@@ -8076,10 +9347,10 @@
         <v>902</v>
       </c>
       <c r="R15" t="n">
-        <v>0.0</v>
+        <v>0.65</v>
       </c>
       <c r="T15" t="n">
-        <v>1.721700181709E12</v>
+        <v>1.723021805415E12</v>
       </c>
       <c r="AA15" t="s">
         <v>1916</v>
@@ -8114,7 +9385,7 @@
         <v>0.0</v>
       </c>
       <c r="T16" t="n">
-        <v>1.721700188223E12</v>
+        <v>1.722849416941E12</v>
       </c>
       <c r="AA16" t="s">
         <v>1917</v>
@@ -8146,10 +9417,10 @@
         <v>1584</v>
       </c>
       <c r="R17" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T17" t="n">
-        <v>1.721786956993E12</v>
+        <v>1.722849425765E12</v>
       </c>
       <c r="AA17" t="s">
         <v>1918</v>
@@ -8181,10 +9452,10 @@
         <v>1585</v>
       </c>
       <c r="R18" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T18" t="n">
-        <v>1.721787104757E12</v>
+        <v>1.722849429072E12</v>
       </c>
       <c r="AA18" t="s">
         <v>1919</v>
@@ -8216,10 +9487,10 @@
         <v>1586</v>
       </c>
       <c r="R19" t="n">
-        <v>0.65</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T19" t="n">
-        <v>1.721787123595E12</v>
+        <v>1.723021807575E12</v>
       </c>
       <c r="AA19" t="s">
         <v>1920</v>
@@ -8251,10 +9522,10 @@
         <v>1587</v>
       </c>
       <c r="R20" t="n">
-        <v>1.65</v>
+        <v>1.9499999999999997</v>
       </c>
       <c r="T20" t="n">
-        <v>1.721961357952E12</v>
+        <v>1.72345255759E12</v>
       </c>
       <c r="AA20" t="s">
         <v>1921</v>
@@ -8289,7 +9560,7 @@
         <v>0.0</v>
       </c>
       <c r="T21" t="n">
-        <v>1.72170033747E12</v>
+        <v>1.722849453859E12</v>
       </c>
       <c r="AA21" t="s">
         <v>1922</v>
@@ -8321,10 +9592,10 @@
         <v>1589</v>
       </c>
       <c r="R22" t="n">
-        <v>0.65</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T22" t="n">
-        <v>1.721787148558E12</v>
+        <v>1.72302181486E12</v>
       </c>
       <c r="AA22" t="s">
         <v>1923</v>
@@ -8356,10 +9627,10 @@
         <v>1590</v>
       </c>
       <c r="R23" t="n">
-        <v>1.65</v>
+        <v>1.9499999999999997</v>
       </c>
       <c r="T23" t="n">
-        <v>1.721961378795E12</v>
+        <v>1.723452562014E12</v>
       </c>
       <c r="AA23" t="s">
         <v>1924</v>
@@ -8394,7 +9665,7 @@
         <v>0.0</v>
       </c>
       <c r="T24" t="n">
-        <v>1.721700430031E12</v>
+        <v>1.722849497812E12</v>
       </c>
       <c r="AA24" t="s">
         <v>1925</v>
@@ -8426,10 +9697,10 @@
         <v>1591</v>
       </c>
       <c r="R25" t="n">
-        <v>4.300000000000001</v>
+        <v>2.5500000000000003</v>
       </c>
       <c r="T25" t="n">
-        <v>1.72284043954E12</v>
+        <v>1.723452565426E12</v>
       </c>
       <c r="AA25" t="s">
         <v>1926</v>
@@ -8461,10 +9732,10 @@
         <v>1592</v>
       </c>
       <c r="R26" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T26" t="n">
-        <v>1.721787264832E12</v>
+        <v>1.722849505112E12</v>
       </c>
       <c r="AA26" t="s">
         <v>1927</v>
@@ -8496,10 +9767,13 @@
         <v>1592</v>
       </c>
       <c r="R27" t="n">
-        <v>3.3</v>
+        <v>2.8999999999999995</v>
       </c>
       <c r="T27" t="n">
-        <v>1.722840446128E12</v>
+        <v>1.723452584857E12</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>1928</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -8531,7 +9805,10 @@
         <v>0.0</v>
       </c>
       <c r="T28" t="n">
-        <v>1.721700660066E12</v>
+        <v>1.722849745397E12</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>1929</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -8560,10 +9837,13 @@
         <v>1594</v>
       </c>
       <c r="R29" t="n">
-        <v>0.0</v>
+        <v>1.65</v>
       </c>
       <c r="T29" t="n">
-        <v>1.721700666174E12</v>
+        <v>1.723452587306E12</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>1930</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -8595,7 +9875,10 @@
         <v>0.0</v>
       </c>
       <c r="T30" t="n">
-        <v>1.721700671292E12</v>
+        <v>1.722849761704E12</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>1931</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -8627,7 +9910,10 @@
         <v>0.0</v>
       </c>
       <c r="T31" t="n">
-        <v>1.721700675885E12</v>
+        <v>1.722849771015E12</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>1932</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -8659,7 +9945,10 @@
         <v>0.0</v>
       </c>
       <c r="T32" t="n">
-        <v>1.721700682307E12</v>
+        <v>1.722849861788E12</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>1933</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -8688,10 +9977,13 @@
         <v>997</v>
       </c>
       <c r="R33" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T33" t="n">
-        <v>1.721787284709E12</v>
+        <v>1.722849864834E12</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>1934</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -8720,10 +10012,13 @@
         <v>1596</v>
       </c>
       <c r="R34" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T34" t="n">
-        <v>1.721787291106E12</v>
+        <v>1.72284987129E12</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>1935</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -8752,10 +10047,13 @@
         <v>1597</v>
       </c>
       <c r="R35" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T35" t="n">
-        <v>1.721787294922E12</v>
+        <v>1.722849876852E12</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>1936</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -8787,7 +10085,10 @@
         <v>0.0</v>
       </c>
       <c r="T36" t="n">
-        <v>1.721700850735E12</v>
+        <v>1.722849924659E12</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>1926</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -8816,10 +10117,13 @@
         <v>1599</v>
       </c>
       <c r="R37" t="n">
-        <v>4.250000000000002</v>
+        <v>2.5000000000000013</v>
       </c>
       <c r="T37" t="n">
-        <v>1.722840449829E12</v>
+        <v>1.723452599205E12</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>1937</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -8848,10 +10152,13 @@
         <v>1600</v>
       </c>
       <c r="R38" t="n">
-        <v>0.65</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T38" t="n">
-        <v>1.721787495644E12</v>
+        <v>1.723021929391E12</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>1938</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -8880,10 +10187,13 @@
         <v>1563</v>
       </c>
       <c r="R39" t="n">
-        <v>0.0</v>
+        <v>1.65</v>
       </c>
       <c r="T39" t="n">
-        <v>1.72170092437E12</v>
+        <v>1.723452604272E12</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>1939</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -8912,10 +10222,13 @@
         <v>1563</v>
       </c>
       <c r="R40" t="n">
-        <v>2.9499999999999997</v>
+        <v>2.5499999999999994</v>
       </c>
       <c r="T40" t="n">
-        <v>1.722840453938E12</v>
+        <v>1.723452606592E12</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>1938</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -8944,10 +10257,13 @@
         <v>997</v>
       </c>
       <c r="R41" t="n">
-        <v>0.0</v>
+        <v>0.65</v>
       </c>
       <c r="T41" t="n">
-        <v>1.721700937156E12</v>
+        <v>1.723021944453E12</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>1940</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -8976,10 +10292,13 @@
         <v>997</v>
       </c>
       <c r="R42" t="n">
-        <v>1.65</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T42" t="n">
-        <v>1.721961467772E12</v>
+        <v>1.723021947933E12</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>1941</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -9011,7 +10330,10 @@
         <v>0.0</v>
       </c>
       <c r="T43" t="n">
-        <v>1.721700949359E12</v>
+        <v>1.722850022776E12</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>1942</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -9040,10 +10362,13 @@
         <v>1602</v>
       </c>
       <c r="R44" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T44" t="n">
-        <v>1.721787532745E12</v>
+        <v>1.722850025377E12</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>1943</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -9072,10 +10397,13 @@
         <v>1603</v>
       </c>
       <c r="R45" t="n">
-        <v>0.65</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T45" t="n">
-        <v>1.721788126722E12</v>
+        <v>1.723021949534E12</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>1944</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -9104,10 +10432,13 @@
         <v>1604</v>
       </c>
       <c r="R46" t="n">
-        <v>0.0</v>
+        <v>0.65</v>
       </c>
       <c r="T46" t="n">
-        <v>1.721701126332E12</v>
+        <v>1.723021952053E12</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>1945</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -9136,10 +10467,13 @@
         <v>1605</v>
       </c>
       <c r="R47" t="n">
-        <v>2.3</v>
+        <v>1.5999999999999996</v>
       </c>
       <c r="T47" t="n">
-        <v>1.722588138181E12</v>
+        <v>1.723021955107E12</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>1946</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -9168,10 +10502,13 @@
         <v>1606</v>
       </c>
       <c r="R48" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T48" t="n">
-        <v>1.721788134896E12</v>
+        <v>1.722850046313E12</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>1947</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -9200,10 +10537,13 @@
         <v>1607</v>
       </c>
       <c r="R49" t="n">
-        <v>0.65</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T49" t="n">
-        <v>1.721788139041E12</v>
+        <v>1.723021957043E12</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>1948</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -9232,10 +10572,13 @@
         <v>1608</v>
       </c>
       <c r="R50" t="n">
-        <v>0.65</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T50" t="n">
-        <v>1.721788146141E12</v>
+        <v>1.723021965527E12</v>
+      </c>
+      <c r="AA50" t="s">
+        <v>1949</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -9264,10 +10607,13 @@
         <v>1609</v>
       </c>
       <c r="R51" t="n">
-        <v>0.0</v>
+        <v>0.65</v>
       </c>
       <c r="T51" t="n">
-        <v>1.721701180106E12</v>
+        <v>1.723021968161E12</v>
+      </c>
+      <c r="AA51" t="s">
+        <v>1950</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -9296,10 +10642,13 @@
         <v>1610</v>
       </c>
       <c r="R52" t="n">
-        <v>0.65</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T52" t="n">
-        <v>1.721788221404E12</v>
+        <v>1.723021972072E12</v>
+      </c>
+      <c r="AA52" t="s">
+        <v>1951</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -9328,10 +10677,13 @@
         <v>1611</v>
       </c>
       <c r="R53" t="n">
-        <v>1.65</v>
+        <v>5.65</v>
       </c>
       <c r="T53" t="n">
-        <v>1.721961484711E12</v>
+        <v>1.723452612258E12</v>
+      </c>
+      <c r="AA53" t="s">
+        <v>1936</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -9360,10 +10712,13 @@
         <v>1612</v>
       </c>
       <c r="R54" t="n">
-        <v>0.0</v>
+        <v>0.65</v>
       </c>
       <c r="T54" t="n">
-        <v>1.72170121565E12</v>
+        <v>1.723021996753E12</v>
+      </c>
+      <c r="AA54" t="s">
+        <v>1952</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -9392,10 +10747,13 @@
         <v>1613</v>
       </c>
       <c r="R55" t="n">
-        <v>0.0</v>
+        <v>0.65</v>
       </c>
       <c r="T55" t="n">
-        <v>1.721701271431E12</v>
+        <v>1.723021998746E12</v>
+      </c>
+      <c r="AA55" t="s">
+        <v>1953</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -9424,10 +10782,10 @@
         <v>1614</v>
       </c>
       <c r="R56" t="n">
-        <v>0.65</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T56" t="n">
-        <v>1.721788241276E12</v>
+        <v>1.723022001881E12</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -9459,7 +10817,7 @@
         <v>0.0</v>
       </c>
       <c r="T57" t="n">
-        <v>1.721701285858E12</v>
+        <v>1.722906719884E12</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -9488,10 +10846,10 @@
         <v>1584</v>
       </c>
       <c r="R58" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T58" t="n">
-        <v>1.721788410778E12</v>
+        <v>1.722906727604E12</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -9523,7 +10881,7 @@
         <v>0.0</v>
       </c>
       <c r="T59" t="n">
-        <v>1.721701352067E12</v>
+        <v>1.722906733643E12</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -9555,7 +10913,7 @@
         <v>0.0</v>
       </c>
       <c r="T60" t="n">
-        <v>1.721701369194E12</v>
+        <v>1.722906737162E12</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -9584,10 +10942,10 @@
         <v>1618</v>
       </c>
       <c r="R61" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T61" t="n">
-        <v>1.721788413099E12</v>
+        <v>1.722906741677E12</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -9619,7 +10977,7 @@
         <v>0.0</v>
       </c>
       <c r="T62" t="n">
-        <v>1.721701387274E12</v>
+        <v>1.722906814398E12</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -9648,10 +11006,10 @@
         <v>1620</v>
       </c>
       <c r="R63" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T63" t="n">
-        <v>1.721788416484E12</v>
+        <v>1.722906828806E12</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -9683,7 +11041,7 @@
         <v>0.0</v>
       </c>
       <c r="T64" t="n">
-        <v>1.721701405238E12</v>
+        <v>1.722906835688E12</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -9712,10 +11070,10 @@
         <v>1622</v>
       </c>
       <c r="R65" t="n">
-        <v>0.0</v>
+        <v>0.65</v>
       </c>
       <c r="T65" t="n">
-        <v>1.721701410279E12</v>
+        <v>1.723022047096E12</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -9744,10 +11102,10 @@
         <v>1623</v>
       </c>
       <c r="R66" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T66" t="n">
-        <v>1.721788419336E12</v>
+        <v>1.722906906684E12</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -9779,7 +11137,7 @@
         <v>0.0</v>
       </c>
       <c r="T67" t="n">
-        <v>1.721701423956E12</v>
+        <v>1.722906912301E12</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -9811,7 +11169,7 @@
         <v>0.0</v>
       </c>
       <c r="T68" t="n">
-        <v>1.721701452737E12</v>
+        <v>1.722906917154E12</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -9840,10 +11198,10 @@
         <v>1626</v>
       </c>
       <c r="R69" t="n">
-        <v>4.65</v>
+        <v>2.9000000000000004</v>
       </c>
       <c r="T69" t="n">
-        <v>1.722840516955E12</v>
+        <v>1.723452637767E12</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -9872,10 +11230,10 @@
         <v>1297</v>
       </c>
       <c r="R70" t="n">
-        <v>0.65</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T70" t="n">
-        <v>1.721788501846E12</v>
+        <v>1.723022097957E12</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -9907,7 +11265,7 @@
         <v>0.0</v>
       </c>
       <c r="T71" t="n">
-        <v>1.721701559583E12</v>
+        <v>1.722906977013E12</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -9936,10 +11294,10 @@
         <v>1628</v>
       </c>
       <c r="R72" t="n">
-        <v>1.65</v>
+        <v>1.9499999999999997</v>
       </c>
       <c r="T72" t="n">
-        <v>1.721961501167E12</v>
+        <v>1.723452640472E12</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -9971,7 +11329,7 @@
         <v>0.0</v>
       </c>
       <c r="T73" t="n">
-        <v>1.721701577192E12</v>
+        <v>1.722908798483E12</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -10000,10 +11358,10 @@
         <v>1630</v>
       </c>
       <c r="R74" t="n">
-        <v>0.65</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T74" t="n">
-        <v>1.721788509811E12</v>
+        <v>1.723022103769E12</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -10035,7 +11393,7 @@
         <v>0.0</v>
       </c>
       <c r="T75" t="n">
-        <v>1.721701584467E12</v>
+        <v>1.722908818652E12</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -10064,10 +11422,10 @@
         <v>1632</v>
       </c>
       <c r="R76" t="n">
-        <v>2.3</v>
+        <v>2.2499999999999996</v>
       </c>
       <c r="T76" t="n">
-        <v>1.722588175018E12</v>
+        <v>1.723452646686E12</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -10099,7 +11457,7 @@
         <v>0.0</v>
       </c>
       <c r="T77" t="n">
-        <v>1.721701655858E12</v>
+        <v>1.722908862145E12</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -10131,7 +11489,7 @@
         <v>0.0</v>
       </c>
       <c r="T78" t="n">
-        <v>1.721701659015E12</v>
+        <v>1.722908866221E12</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -10163,7 +11521,7 @@
         <v>0.0</v>
       </c>
       <c r="T79" t="n">
-        <v>1.721701668954E12</v>
+        <v>1.722908875586E12</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -10192,10 +11550,10 @@
         <v>1636</v>
       </c>
       <c r="R80" t="n">
-        <v>3.3</v>
+        <v>2.2499999999999996</v>
       </c>
       <c r="T80" t="n">
-        <v>1.722844396499E12</v>
+        <v>1.723452714884E12</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -10224,10 +11582,10 @@
         <v>1637</v>
       </c>
       <c r="R81" t="n">
-        <v>4.65</v>
+        <v>2.9000000000000004</v>
       </c>
       <c r="T81" t="n">
-        <v>1.722844409723E12</v>
+        <v>1.723452718332E12</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -10256,10 +11614,10 @@
         <v>566</v>
       </c>
       <c r="R82" t="n">
-        <v>0.0</v>
+        <v>1.65</v>
       </c>
       <c r="T82" t="n">
-        <v>1.721701688041E12</v>
+        <v>1.723452862932E12</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -10288,10 +11646,10 @@
         <v>1638</v>
       </c>
       <c r="R83" t="n">
-        <v>1.65</v>
+        <v>3.3</v>
       </c>
       <c r="T83" t="n">
-        <v>1.721961688777E12</v>
+        <v>1.723452867236E12</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -10323,7 +11681,7 @@
         <v>0.0</v>
       </c>
       <c r="T84" t="n">
-        <v>1.721701803815E12</v>
+        <v>1.722909093282E12</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -10355,7 +11713,7 @@
         <v>0.0</v>
       </c>
       <c r="T85" t="n">
-        <v>1.721701810023E12</v>
+        <v>1.722909106699E12</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -10384,10 +11742,10 @@
         <v>1641</v>
       </c>
       <c r="R86" t="n">
-        <v>0.65</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T86" t="n">
-        <v>1.721789222251E12</v>
+        <v>1.72302242146E12</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -10419,7 +11777,7 @@
         <v>0.0</v>
       </c>
       <c r="T87" t="n">
-        <v>1.721701895882E12</v>
+        <v>1.72290912116E12</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -10451,7 +11809,7 @@
         <v>0.0</v>
       </c>
       <c r="T88" t="n">
-        <v>1.72170190017E12</v>
+        <v>1.722909127284E12</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -10480,10 +11838,10 @@
         <v>1644</v>
       </c>
       <c r="R89" t="n">
-        <v>0.0</v>
+        <v>1.65</v>
       </c>
       <c r="T89" t="n">
-        <v>1.721701908069E12</v>
+        <v>1.72345292299E12</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -10512,10 +11870,10 @@
         <v>1645</v>
       </c>
       <c r="R90" t="n">
-        <v>0.65</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T90" t="n">
-        <v>1.721789228613E12</v>
+        <v>1.723022435874E12</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -10547,7 +11905,7 @@
         <v>0.0</v>
       </c>
       <c r="T91" t="n">
-        <v>1.721701917847E12</v>
+        <v>1.722909177906E12</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -10576,10 +11934,10 @@
         <v>1647</v>
       </c>
       <c r="R92" t="n">
-        <v>1.65</v>
+        <v>1.9499999999999997</v>
       </c>
       <c r="T92" t="n">
-        <v>1.721961692348E12</v>
+        <v>1.723453562455E12</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -10611,7 +11969,7 @@
         <v>0.0</v>
       </c>
       <c r="T93" t="n">
-        <v>1.72170204006E12</v>
+        <v>1.722909191584E12</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -10640,10 +11998,10 @@
         <v>1649</v>
       </c>
       <c r="R94" t="n">
-        <v>1.65</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T94" t="n">
-        <v>1.721961698176E12</v>
+        <v>1.723022444656E12</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -10672,10 +12030,10 @@
         <v>1650</v>
       </c>
       <c r="R95" t="n">
-        <v>1.65</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T95" t="n">
-        <v>1.721961701833E12</v>
+        <v>1.723022446327E12</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -10707,7 +12065,7 @@
         <v>0.0</v>
       </c>
       <c r="T96" t="n">
-        <v>1.721702082865E12</v>
+        <v>1.722909237658E12</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -10736,10 +12094,10 @@
         <v>1652</v>
       </c>
       <c r="R97" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T97" t="n">
-        <v>1.721789279864E12</v>
+        <v>1.722909241446E12</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -10768,10 +12126,10 @@
         <v>1653</v>
       </c>
       <c r="R98" t="n">
-        <v>0.65</v>
+        <v>3.65</v>
       </c>
       <c r="T98" t="n">
-        <v>1.721789780753E12</v>
+        <v>1.723453575933E12</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -10800,10 +12158,10 @@
         <v>1654</v>
       </c>
       <c r="R99" t="n">
-        <v>0.0</v>
+        <v>1.65</v>
       </c>
       <c r="T99" t="n">
-        <v>1.721702100417E12</v>
+        <v>1.723453586313E12</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -10832,10 +12190,10 @@
         <v>1655</v>
       </c>
       <c r="R100" t="n">
-        <v>2.9499999999999997</v>
+        <v>2.5499999999999994</v>
       </c>
       <c r="T100" t="n">
-        <v>1.722844956241E12</v>
+        <v>1.723453593284E12</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -10864,10 +12222,10 @@
         <v>1628</v>
       </c>
       <c r="R101" t="n">
-        <v>0.0</v>
+        <v>0.65</v>
       </c>
       <c r="T101" t="n">
-        <v>1.721702119366E12</v>
+        <v>1.723022578266E12</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -10899,7 +12257,7 @@
         <v>0.0</v>
       </c>
       <c r="T102" t="n">
-        <v>1.721703294625E12</v>
+        <v>1.722914612665E12</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -10928,10 +12286,10 @@
         <v>607</v>
       </c>
       <c r="R103" t="n">
-        <v>3.3</v>
+        <v>2.2499999999999996</v>
       </c>
       <c r="T103" t="n">
-        <v>1.722844961412E12</v>
+        <v>1.723453626889E12</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -10960,10 +12318,10 @@
         <v>1657</v>
       </c>
       <c r="R104" t="n">
-        <v>0.65</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T104" t="n">
-        <v>1.721789993515E12</v>
+        <v>1.723022585713E12</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -10992,10 +12350,10 @@
         <v>1658</v>
       </c>
       <c r="R105" t="n">
-        <v>1.65</v>
+        <v>1.9499999999999997</v>
       </c>
       <c r="T105" t="n">
-        <v>1.721961867025E12</v>
+        <v>1.723453635783E12</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -11027,7 +12385,7 @@
         <v>0.0</v>
       </c>
       <c r="T106" t="n">
-        <v>1.721703424531E12</v>
+        <v>1.722914662199E12</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -11056,10 +12414,10 @@
         <v>1660</v>
       </c>
       <c r="R107" t="n">
-        <v>0.0</v>
+        <v>0.65</v>
       </c>
       <c r="T107" t="n">
-        <v>1.721703428576E12</v>
+        <v>1.723022595159E12</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -11088,10 +12446,10 @@
         <v>1661</v>
       </c>
       <c r="R108" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T108" t="n">
-        <v>1.721790149804E12</v>
+        <v>1.722914714561E12</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -11120,10 +12478,10 @@
         <v>1662</v>
       </c>
       <c r="R109" t="n">
-        <v>0.0</v>
+        <v>0.65</v>
       </c>
       <c r="T109" t="n">
-        <v>1.721703498057E12</v>
+        <v>1.72302259885E12</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -11152,10 +12510,10 @@
         <v>1663</v>
       </c>
       <c r="R110" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T110" t="n">
-        <v>1.721790154489E12</v>
+        <v>1.722914856395E12</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -11184,10 +12542,10 @@
         <v>1662</v>
       </c>
       <c r="R111" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T111" t="n">
-        <v>1.721790159592E12</v>
+        <v>1.722914860273E12</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -11216,10 +12574,10 @@
         <v>1067</v>
       </c>
       <c r="R112" t="n">
-        <v>0.0</v>
+        <v>1.65</v>
       </c>
       <c r="T112" t="n">
-        <v>1.721703541575E12</v>
+        <v>1.723453639501E12</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -11248,10 +12606,10 @@
         <v>1664</v>
       </c>
       <c r="R113" t="n">
-        <v>0.0</v>
+        <v>1.65</v>
       </c>
       <c r="T113" t="n">
-        <v>1.721703597411E12</v>
+        <v>1.72345365582E12</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -11280,10 +12638,10 @@
         <v>1665</v>
       </c>
       <c r="R114" t="n">
-        <v>1.65</v>
+        <v>1.9499999999999997</v>
       </c>
       <c r="T114" t="n">
-        <v>1.721961878327E12</v>
+        <v>1.723453660992E12</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -11315,7 +12673,7 @@
         <v>0.0</v>
       </c>
       <c r="T115" t="n">
-        <v>1.721703614183E12</v>
+        <v>1.722914941533E12</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -11347,7 +12705,7 @@
         <v>0.0</v>
       </c>
       <c r="T116" t="n">
-        <v>1.721703617711E12</v>
+        <v>1.722914946742E12</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -11379,7 +12737,7 @@
         <v>0.0</v>
       </c>
       <c r="T117" t="n">
-        <v>1.721703630662E12</v>
+        <v>1.722915053823E12</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -11411,7 +12769,7 @@
         <v>0.0</v>
       </c>
       <c r="T118" t="n">
-        <v>1.721703638135E12</v>
+        <v>1.722927007237E12</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -11440,10 +12798,10 @@
         <v>1670</v>
       </c>
       <c r="R119" t="n">
-        <v>4.65</v>
+        <v>2.9000000000000004</v>
       </c>
       <c r="T119" t="n">
-        <v>1.722845013282E12</v>
+        <v>1.723453666741E12</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -11472,10 +12830,10 @@
         <v>1263</v>
       </c>
       <c r="R120" t="n">
-        <v>0.65</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T120" t="n">
-        <v>1.721790273646E12</v>
+        <v>1.723077481403E12</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -11504,10 +12862,10 @@
         <v>1671</v>
       </c>
       <c r="R121" t="n">
-        <v>1.65</v>
+        <v>1.9499999999999997</v>
       </c>
       <c r="T121" t="n">
-        <v>1.721961986802E12</v>
+        <v>1.723453668422E12</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -11536,10 +12894,10 @@
         <v>1672</v>
       </c>
       <c r="R122" t="n">
-        <v>0.65</v>
+        <v>3.65</v>
       </c>
       <c r="T122" t="n">
-        <v>1.721790282576E12</v>
+        <v>1.72345372524E12</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -11568,10 +12926,10 @@
         <v>1673</v>
       </c>
       <c r="R123" t="n">
-        <v>2.3</v>
+        <v>1.5999999999999996</v>
       </c>
       <c r="T123" t="n">
-        <v>1.722588305231E12</v>
+        <v>1.723077496384E12</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -11600,10 +12958,10 @@
         <v>1674</v>
       </c>
       <c r="R124" t="n">
-        <v>3.9500000000000006</v>
+        <v>2.5500000000000003</v>
       </c>
       <c r="T124" t="n">
-        <v>1.722845083644E12</v>
+        <v>1.723453732188E12</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -11632,10 +12990,10 @@
         <v>1675</v>
       </c>
       <c r="R125" t="n">
-        <v>0.65</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T125" t="n">
-        <v>1.721790677023E12</v>
+        <v>1.723077523263E12</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -11664,10 +13022,10 @@
         <v>1173</v>
       </c>
       <c r="R126" t="n">
-        <v>0.0</v>
+        <v>0.65</v>
       </c>
       <c r="T126" t="n">
-        <v>1.721703706411E12</v>
+        <v>1.723077528827E12</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -11696,10 +13054,10 @@
         <v>1676</v>
       </c>
       <c r="R127" t="n">
-        <v>6.250000000000002</v>
+        <v>4.150000000000004</v>
       </c>
       <c r="T127" t="n">
-        <v>1.722845089295E12</v>
+        <v>1.723453735267E12</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -11728,10 +13086,10 @@
         <v>1677</v>
       </c>
       <c r="R128" t="n">
-        <v>2.3</v>
+        <v>1.5999999999999996</v>
       </c>
       <c r="T128" t="n">
-        <v>1.722588313604E12</v>
+        <v>1.7230775337E12</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -11760,10 +13118,10 @@
         <v>1678</v>
       </c>
       <c r="R129" t="n">
-        <v>0.65</v>
+        <v>3.65</v>
       </c>
       <c r="T129" t="n">
-        <v>1.721790775023E12</v>
+        <v>1.723453742199E12</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -11792,10 +13150,10 @@
         <v>1679</v>
       </c>
       <c r="R130" t="n">
-        <v>0.65</v>
+        <v>2.3</v>
       </c>
       <c r="T130" t="n">
-        <v>1.721790983348E12</v>
+        <v>1.723453753149E12</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -11824,10 +13182,10 @@
         <v>1680</v>
       </c>
       <c r="R131" t="n">
-        <v>2.3</v>
+        <v>2.2499999999999996</v>
       </c>
       <c r="T131" t="n">
-        <v>1.722588320503E12</v>
+        <v>1.72345379592E12</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -11859,7 +13217,7 @@
         <v>0.0</v>
       </c>
       <c r="T132" t="n">
-        <v>1.721704033553E12</v>
+        <v>1.722928462352E12</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -11888,10 +13246,10 @@
         <v>1682</v>
       </c>
       <c r="R133" t="n">
-        <v>0.65</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T133" t="n">
-        <v>1.721791053432E12</v>
+        <v>1.723077622969E12</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -11923,7 +13281,7 @@
         <v>0.0</v>
       </c>
       <c r="T134" t="n">
-        <v>1.721704045021E12</v>
+        <v>1.722928537322E12</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -11955,7 +13313,7 @@
         <v>0.0</v>
       </c>
       <c r="T135" t="n">
-        <v>1.721704052366E12</v>
+        <v>1.722928540592E12</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -11984,10 +13342,10 @@
         <v>1684</v>
       </c>
       <c r="R136" t="n">
-        <v>0.0</v>
+        <v>1.65</v>
       </c>
       <c r="T136" t="n">
-        <v>1.721704059933E12</v>
+        <v>1.723453799755E12</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -12019,7 +13377,7 @@
         <v>0.0</v>
       </c>
       <c r="T137" t="n">
-        <v>1.721704066748E12</v>
+        <v>1.72292856462E12</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -12048,10 +13406,10 @@
         <v>1685</v>
       </c>
       <c r="R138" t="n">
-        <v>0.65</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T138" t="n">
-        <v>1.721791064306E12</v>
+        <v>1.723077645622E12</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -12080,10 +13438,10 @@
         <v>1686</v>
       </c>
       <c r="R139" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T139" t="n">
-        <v>1.721791068609E12</v>
+        <v>1.722928608445E12</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -12112,10 +13470,10 @@
         <v>1687</v>
       </c>
       <c r="R140" t="n">
-        <v>0.0</v>
+        <v>0.65</v>
       </c>
       <c r="T140" t="n">
-        <v>1.721704090364E12</v>
+        <v>1.723077648132E12</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -12144,10 +13502,10 @@
         <v>1688</v>
       </c>
       <c r="R141" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T141" t="n">
-        <v>1.721791231636E12</v>
+        <v>1.722928945157E12</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -12179,7 +13537,7 @@
         <v>0.0</v>
       </c>
       <c r="T142" t="n">
-        <v>1.721704140855E12</v>
+        <v>1.722928948396E12</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -12211,7 +13569,7 @@
         <v>0.0</v>
       </c>
       <c r="T143" t="n">
-        <v>1.721704158265E12</v>
+        <v>1.722928958393E12</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -12240,10 +13598,10 @@
         <v>1691</v>
       </c>
       <c r="R144" t="n">
-        <v>1.65</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T144" t="n">
-        <v>1.721962234029E12</v>
+        <v>1.723077650619E12</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -12272,10 +13630,10 @@
         <v>1176</v>
       </c>
       <c r="R145" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T145" t="n">
-        <v>1.721791242549E12</v>
+        <v>1.722928967882E12</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -12307,7 +13665,7 @@
         <v>0.0</v>
       </c>
       <c r="T146" t="n">
-        <v>1.721704183708E12</v>
+        <v>1.722928976223E12</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -12336,10 +13694,10 @@
         <v>1693</v>
       </c>
       <c r="R147" t="n">
-        <v>0.0</v>
+        <v>0.65</v>
       </c>
       <c r="T147" t="n">
-        <v>1.721704236828E12</v>
+        <v>1.723077666007E12</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -12368,10 +13726,10 @@
         <v>1694</v>
       </c>
       <c r="R148" t="n">
-        <v>0.0</v>
+        <v>0.65</v>
       </c>
       <c r="T148" t="n">
-        <v>1.721704241718E12</v>
+        <v>1.723077670969E12</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -12400,10 +13758,10 @@
         <v>1695</v>
       </c>
       <c r="R149" t="n">
-        <v>0.0</v>
+        <v>0.65</v>
       </c>
       <c r="T149" t="n">
-        <v>1.721704244732E12</v>
+        <v>1.723077675213E12</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -12435,7 +13793,7 @@
         <v>0.0</v>
       </c>
       <c r="T150" t="n">
-        <v>1.721704253423E12</v>
+        <v>1.722929292474E12</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -12464,10 +13822,10 @@
         <v>1340</v>
       </c>
       <c r="R151" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T151" t="n">
-        <v>1.721791247157E12</v>
+        <v>1.722929296577E12</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -12499,7 +13857,7 @@
         <v>0.0</v>
       </c>
       <c r="T152" t="n">
-        <v>1.72170438777E12</v>
+        <v>1.722929588873E12</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -12528,10 +13886,10 @@
         <v>1698</v>
       </c>
       <c r="R153" t="n">
-        <v>2.3</v>
+        <v>1.5999999999999996</v>
       </c>
       <c r="T153" t="n">
-        <v>1.722588324175E12</v>
+        <v>1.723077678434E12</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -12560,10 +13918,10 @@
         <v>1699</v>
       </c>
       <c r="R154" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T154" t="n">
-        <v>1.721803111423E12</v>
+        <v>1.722929597378E12</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -12592,10 +13950,10 @@
         <v>1700</v>
       </c>
       <c r="R155" t="n">
-        <v>0.0</v>
+        <v>0.65</v>
       </c>
       <c r="T155" t="n">
-        <v>1.721704415477E12</v>
+        <v>1.723077682382E12</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -12624,10 +13982,10 @@
         <v>1701</v>
       </c>
       <c r="R156" t="n">
-        <v>0.65</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T156" t="n">
-        <v>1.721803115763E12</v>
+        <v>1.723077684198E12</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -12656,10 +14014,10 @@
         <v>1702</v>
       </c>
       <c r="R157" t="n">
-        <v>2.3</v>
+        <v>1.5999999999999996</v>
       </c>
       <c r="T157" t="n">
-        <v>1.722588359671E12</v>
+        <v>1.723077685793E12</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -12688,10 +14046,10 @@
         <v>1700</v>
       </c>
       <c r="R158" t="n">
-        <v>0.0</v>
+        <v>0.65</v>
       </c>
       <c r="T158" t="n">
-        <v>1.721704430282E12</v>
+        <v>1.723077689758E12</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -12720,10 +14078,10 @@
         <v>1703</v>
       </c>
       <c r="R159" t="n">
-        <v>0.65</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T159" t="n">
-        <v>1.721803127849E12</v>
+        <v>1.723077727902E12</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -12755,7 +14113,7 @@
         <v>0.0</v>
       </c>
       <c r="T160" t="n">
-        <v>1.721704546719E12</v>
+        <v>1.722930087883E12</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -12787,7 +14145,7 @@
         <v>0.0</v>
       </c>
       <c r="T161" t="n">
-        <v>1.721704552177E12</v>
+        <v>1.722930091969E12</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -12816,10 +14174,10 @@
         <v>1706</v>
       </c>
       <c r="R162" t="n">
-        <v>2.9499999999999997</v>
+        <v>3.2499999999999996</v>
       </c>
       <c r="T162" t="n">
-        <v>1.722845095225E12</v>
+        <v>1.723453840252E12</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -12848,10 +14206,10 @@
         <v>1707</v>
       </c>
       <c r="R163" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T163" t="n">
-        <v>1.721803380147E12</v>
+        <v>1.72293010591E12</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -12880,10 +14238,10 @@
         <v>1708</v>
       </c>
       <c r="R164" t="n">
-        <v>0.65</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T164" t="n">
-        <v>1.721803385316E12</v>
+        <v>1.723077737062E12</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -12912,10 +14270,10 @@
         <v>1709</v>
       </c>
       <c r="R165" t="n">
-        <v>0.65</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T165" t="n">
-        <v>1.721803411178E12</v>
+        <v>1.723077756448E12</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -12944,10 +14302,10 @@
         <v>1710</v>
       </c>
       <c r="R166" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T166" t="n">
-        <v>1.721803442208E12</v>
+        <v>1.722930156439E12</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -12976,10 +14334,10 @@
         <v>1711</v>
       </c>
       <c r="R167" t="n">
-        <v>2.3</v>
+        <v>1.5999999999999996</v>
       </c>
       <c r="T167" t="n">
-        <v>1.722588372258E12</v>
+        <v>1.723077759429E12</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -13008,10 +14366,10 @@
         <v>1712</v>
       </c>
       <c r="R168" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T168" t="n">
-        <v>1.721803462582E12</v>
+        <v>1.722930163494E12</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -13040,10 +14398,10 @@
         <v>1713</v>
       </c>
       <c r="R169" t="n">
-        <v>0.65</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T169" t="n">
-        <v>1.72180349574E12</v>
+        <v>1.723077763394E12</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -13072,10 +14430,10 @@
         <v>1714</v>
       </c>
       <c r="R170" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T170" t="n">
-        <v>1.72180350309E12</v>
+        <v>1.722930222462E12</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -13107,7 +14465,7 @@
         <v>0.0</v>
       </c>
       <c r="T171" t="n">
-        <v>1.721704635852E12</v>
+        <v>1.722930241933E12</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -13136,10 +14494,10 @@
         <v>1711</v>
       </c>
       <c r="R172" t="n">
-        <v>0.0</v>
+        <v>0.65</v>
       </c>
       <c r="T172" t="n">
-        <v>1.721704652079E12</v>
+        <v>1.723077767078E12</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -13168,10 +14526,10 @@
         <v>1716</v>
       </c>
       <c r="R173" t="n">
-        <v>0.65</v>
+        <v>2.3</v>
       </c>
       <c r="T173" t="n">
-        <v>1.721803623043E12</v>
+        <v>1.72345386041E12</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -13203,7 +14561,7 @@
         <v>0.0</v>
       </c>
       <c r="T174" t="n">
-        <v>1.721704685167E12</v>
+        <v>1.722930279599E12</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -13235,7 +14593,7 @@
         <v>0.0</v>
       </c>
       <c r="T175" t="n">
-        <v>1.721704696026E12</v>
+        <v>1.722930334252E12</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -13267,7 +14625,7 @@
         <v>0.0</v>
       </c>
       <c r="T176" t="n">
-        <v>1.721704705726E12</v>
+        <v>1.72293034339E12</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -13296,10 +14654,10 @@
         <v>1720</v>
       </c>
       <c r="R177" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="T177" t="n">
-        <v>1.72170471209E12</v>
+        <v>1.723453865394E12</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -13331,7 +14689,7 @@
         <v>0.0</v>
       </c>
       <c r="T178" t="n">
-        <v>1.721704722896E12</v>
+        <v>1.722930353647E12</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -13360,10 +14718,10 @@
         <v>1722</v>
       </c>
       <c r="R179" t="n">
-        <v>1.65</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T179" t="n">
-        <v>1.721962452087E12</v>
+        <v>1.723077793879E12</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -13392,10 +14750,10 @@
         <v>1723</v>
       </c>
       <c r="R180" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T180" t="n">
-        <v>1.721804025341E12</v>
+        <v>1.722930368662E12</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -13427,7 +14785,7 @@
         <v>0.0</v>
       </c>
       <c r="T181" t="n">
-        <v>1.721704858965E12</v>
+        <v>1.722930372153E12</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -13456,10 +14814,10 @@
         <v>1699</v>
       </c>
       <c r="R182" t="n">
-        <v>2.3</v>
+        <v>3.2499999999999996</v>
       </c>
       <c r="T182" t="n">
-        <v>1.722588376675E12</v>
+        <v>1.723454097571E12</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -13491,7 +14849,7 @@
         <v>0.0</v>
       </c>
       <c r="T183" t="n">
-        <v>1.721704874988E12</v>
+        <v>1.722930390945E12</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -13520,10 +14878,10 @@
         <v>1726</v>
       </c>
       <c r="R184" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T184" t="n">
-        <v>1.721804062386E12</v>
+        <v>1.722930443364E12</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -13552,10 +14910,10 @@
         <v>1727</v>
       </c>
       <c r="R185" t="n">
-        <v>2.3</v>
+        <v>3.2499999999999996</v>
       </c>
       <c r="T185" t="n">
-        <v>1.722588382895E12</v>
+        <v>1.723454102213E12</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -13584,10 +14942,10 @@
         <v>1727</v>
       </c>
       <c r="R186" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T186" t="n">
-        <v>1.721804084013E12</v>
+        <v>1.72293045576E12</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -13616,10 +14974,10 @@
         <v>1727</v>
       </c>
       <c r="R187" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="T187" t="n">
-        <v>1.721704916364E12</v>
+        <v>1.723454115802E12</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -13651,7 +15009,7 @@
         <v>0.0</v>
       </c>
       <c r="T188" t="n">
-        <v>1.721704924673E12</v>
+        <v>1.722930470255E12</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -13683,7 +15041,7 @@
         <v>0.0</v>
       </c>
       <c r="T189" t="n">
-        <v>1.721704931019E12</v>
+        <v>1.722930479339E12</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -13712,10 +15070,10 @@
         <v>1729</v>
       </c>
       <c r="R190" t="n">
-        <v>1.65</v>
+        <v>3.3</v>
       </c>
       <c r="T190" t="n">
-        <v>1.721962500467E12</v>
+        <v>1.723454154091E12</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -13744,10 +15102,10 @@
         <v>1729</v>
       </c>
       <c r="R191" t="n">
-        <v>1.65</v>
+        <v>3.3</v>
       </c>
       <c r="T191" t="n">
-        <v>1.721962507632E12</v>
+        <v>1.72345416303E12</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -13776,10 +15134,10 @@
         <v>1385</v>
       </c>
       <c r="R192" t="n">
-        <v>0.65</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T192" t="n">
-        <v>1.721804131999E12</v>
+        <v>1.723077825416E12</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -13808,10 +15166,10 @@
         <v>1729</v>
       </c>
       <c r="R193" t="n">
-        <v>0.0</v>
+        <v>0.65</v>
       </c>
       <c r="T193" t="n">
-        <v>1.72170496246E12</v>
+        <v>1.723077925792E12</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -13840,10 +15198,10 @@
         <v>1729</v>
       </c>
       <c r="R194" t="n">
-        <v>3.3</v>
+        <v>6.6000000000000005</v>
       </c>
       <c r="T194" t="n">
-        <v>1.722845099598E12</v>
+        <v>1.723454173943E12</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -13872,10 +15230,10 @@
         <v>1729</v>
       </c>
       <c r="R195" t="n">
-        <v>1.65</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T195" t="n">
-        <v>1.721962777274E12</v>
+        <v>1.723077936279E12</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -13907,7 +15265,7 @@
         <v>0.0</v>
       </c>
       <c r="T196" t="n">
-        <v>1.72170498266E12</v>
+        <v>1.722930530852E12</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -13936,10 +15294,10 @@
         <v>1730</v>
       </c>
       <c r="R197" t="n">
-        <v>0.0</v>
+        <v>0.65</v>
       </c>
       <c r="T197" t="n">
-        <v>1.721704984762E12</v>
+        <v>1.723077939777E12</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -13971,7 +15329,7 @@
         <v>0.0</v>
       </c>
       <c r="T198" t="n">
-        <v>1.721705038547E12</v>
+        <v>1.722930564525E12</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -14000,10 +15358,10 @@
         <v>1732</v>
       </c>
       <c r="R199" t="n">
-        <v>1.65</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T199" t="n">
-        <v>1.721962779183E12</v>
+        <v>1.723077942171E12</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -14035,7 +15393,7 @@
         <v>0.0</v>
       </c>
       <c r="T200" t="n">
-        <v>1.721705046788E12</v>
+        <v>1.722930572484E12</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -14064,10 +15422,10 @@
         <v>1729</v>
       </c>
       <c r="R201" t="n">
-        <v>3.9500000000000006</v>
+        <v>2.5500000000000003</v>
       </c>
       <c r="T201" t="n">
-        <v>1.722845102532E12</v>
+        <v>1.723454208124E12</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -14099,7 +15457,7 @@
         <v>0.0</v>
       </c>
       <c r="T202" t="n">
-        <v>1.721716771397E12</v>
+        <v>1.7229319497E12</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -14128,10 +15486,10 @@
         <v>1734</v>
       </c>
       <c r="R203" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T203" t="n">
-        <v>1.72180451521E12</v>
+        <v>1.722931955194E12</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -14163,7 +15521,7 @@
         <v>0.0</v>
       </c>
       <c r="T204" t="n">
-        <v>1.721716792333E12</v>
+        <v>1.722932007575E12</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -14192,10 +15550,10 @@
         <v>1735</v>
       </c>
       <c r="R205" t="n">
-        <v>1.65</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T205" t="n">
-        <v>1.721962823061E12</v>
+        <v>1.723077950887E12</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -14227,7 +15585,7 @@
         <v>0.0</v>
       </c>
       <c r="T206" t="n">
-        <v>1.721716811334E12</v>
+        <v>1.722932019396E12</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -14256,10 +15614,10 @@
         <v>1736</v>
       </c>
       <c r="R207" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T207" t="n">
-        <v>1.721804592168E12</v>
+        <v>1.722932026222E12</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -14291,7 +15649,7 @@
         <v>0.0</v>
       </c>
       <c r="T208" t="n">
-        <v>1.721716822919E12</v>
+        <v>1.7229320369E12</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -14323,7 +15681,7 @@
         <v>0.0</v>
       </c>
       <c r="T209" t="n">
-        <v>1.721716829536E12</v>
+        <v>1.722932044011E12</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -14352,10 +15710,10 @@
         <v>1739</v>
       </c>
       <c r="R210" t="n">
-        <v>0.0</v>
+        <v>0.65</v>
       </c>
       <c r="T210" t="n">
-        <v>1.721716831984E12</v>
+        <v>1.723077954118E12</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -14384,10 +15742,10 @@
         <v>1740</v>
       </c>
       <c r="R211" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T211" t="n">
-        <v>1.721804594427E12</v>
+        <v>1.72293206643E12</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -14416,10 +15774,10 @@
         <v>1741</v>
       </c>
       <c r="R212" t="n">
-        <v>0.0</v>
+        <v>0.65</v>
       </c>
       <c r="T212" t="n">
-        <v>1.72171685142E12</v>
+        <v>1.723077958253E12</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -14451,7 +15809,7 @@
         <v>0.0</v>
       </c>
       <c r="T213" t="n">
-        <v>1.721716857021E12</v>
+        <v>1.722932086737E12</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -14480,10 +15838,10 @@
         <v>1743</v>
       </c>
       <c r="R214" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T214" t="n">
-        <v>1.721804612789E12</v>
+        <v>1.722932108312E12</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -14515,7 +15873,7 @@
         <v>0.0</v>
       </c>
       <c r="T215" t="n">
-        <v>1.721716886514E12</v>
+        <v>1.722932110158E12</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -14547,7 +15905,7 @@
         <v>0.0</v>
       </c>
       <c r="T216" t="n">
-        <v>1.721716891984E12</v>
+        <v>1.722932152668E12</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -14579,7 +15937,7 @@
         <v>0.0</v>
       </c>
       <c r="T217" t="n">
-        <v>1.72171689581E12</v>
+        <v>1.722932156675E12</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -14608,10 +15966,10 @@
         <v>1747</v>
       </c>
       <c r="R218" t="n">
-        <v>4.65</v>
+        <v>3.9000000000000017</v>
       </c>
       <c r="T218" t="n">
-        <v>1.722845109021E12</v>
+        <v>1.723454214929E12</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -14640,10 +15998,10 @@
         <v>1748</v>
       </c>
       <c r="R219" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T219" t="n">
-        <v>1.721804667852E12</v>
+        <v>1.722932182755E12</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -14675,7 +16033,7 @@
         <v>0.0</v>
       </c>
       <c r="T220" t="n">
-        <v>1.721716948148E12</v>
+        <v>1.722932188848E12</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -14704,10 +16062,10 @@
         <v>1750</v>
       </c>
       <c r="R221" t="n">
-        <v>3.9500000000000006</v>
+        <v>2.5500000000000003</v>
       </c>
       <c r="T221" t="n">
-        <v>1.722845194563E12</v>
+        <v>1.723454218734E12</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -14736,10 +16094,10 @@
         <v>1751</v>
       </c>
       <c r="R222" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T222" t="n">
-        <v>1.721804718347E12</v>
+        <v>1.722932199935E12</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -14771,7 +16129,7 @@
         <v>0.0</v>
       </c>
       <c r="T223" t="n">
-        <v>1.721716982037E12</v>
+        <v>1.722932204956E12</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -14800,10 +16158,10 @@
         <v>1752</v>
       </c>
       <c r="R224" t="n">
-        <v>0.65</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T224" t="n">
-        <v>1.721804832255E12</v>
+        <v>1.723078045372E12</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -14832,10 +16190,10 @@
         <v>1753</v>
       </c>
       <c r="R225" t="n">
-        <v>2.3</v>
+        <v>1.5999999999999996</v>
       </c>
       <c r="T225" t="n">
-        <v>1.722588482294E12</v>
+        <v>1.723078047287E12</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -14864,10 +16222,10 @@
         <v>1190</v>
       </c>
       <c r="R226" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T226" t="n">
-        <v>1.721805756097E12</v>
+        <v>1.722932327035E12</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -14896,10 +16254,10 @@
         <v>1754</v>
       </c>
       <c r="R227" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T227" t="n">
-        <v>1.721805773321E12</v>
+        <v>1.722932333598E12</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -14928,10 +16286,10 @@
         <v>1755</v>
       </c>
       <c r="R228" t="n">
-        <v>4.300000000000001</v>
+        <v>4.900000000000002</v>
       </c>
       <c r="T228" t="n">
-        <v>1.722845198513E12</v>
+        <v>1.723454270841E12</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -14963,7 +16321,7 @@
         <v>0.0</v>
       </c>
       <c r="T229" t="n">
-        <v>1.721717108508E12</v>
+        <v>1.722932348993E12</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -14992,10 +16350,10 @@
         <v>1757</v>
       </c>
       <c r="R230" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T230" t="n">
-        <v>1.721805803198E12</v>
+        <v>1.722932353252E12</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -15027,7 +16385,7 @@
         <v>0.0</v>
       </c>
       <c r="T231" t="n">
-        <v>1.721717122139E12</v>
+        <v>1.722932358984E12</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -15059,7 +16417,7 @@
         <v>0.0</v>
       </c>
       <c r="T232" t="n">
-        <v>1.721717134827E12</v>
+        <v>1.722932362665E12</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -15088,10 +16446,10 @@
         <v>1760</v>
       </c>
       <c r="R233" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="T233" t="n">
-        <v>1.721717147435E12</v>
+        <v>1.72345430344E12</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -15120,10 +16478,10 @@
         <v>1761</v>
       </c>
       <c r="R234" t="n">
-        <v>0.65</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T234" t="n">
-        <v>1.721805807845E12</v>
+        <v>1.723078099231E12</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -15152,10 +16510,10 @@
         <v>1762</v>
       </c>
       <c r="R235" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T235" t="n">
-        <v>1.721805819454E12</v>
+        <v>1.722932508747E12</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -15187,7 +16545,7 @@
         <v>0.0</v>
       </c>
       <c r="T236" t="n">
-        <v>1.721717200257E12</v>
+        <v>1.722932512672E12</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -15216,10 +16574,10 @@
         <v>1764</v>
       </c>
       <c r="R237" t="n">
-        <v>1.65</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T237" t="n">
-        <v>1.721963056092E12</v>
+        <v>1.723078103066E12</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -15248,10 +16606,10 @@
         <v>1765</v>
       </c>
       <c r="R238" t="n">
-        <v>0.0</v>
+        <v>0.65</v>
       </c>
       <c r="T238" t="n">
-        <v>1.721717209988E12</v>
+        <v>1.723078105871E12</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -15280,10 +16638,10 @@
         <v>1766</v>
       </c>
       <c r="R239" t="n">
-        <v>1.65</v>
+        <v>1.9499999999999997</v>
       </c>
       <c r="T239" t="n">
-        <v>1.721963063097E12</v>
+        <v>1.723454322398E12</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -15312,10 +16670,10 @@
         <v>1767</v>
       </c>
       <c r="R240" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="T240" t="n">
-        <v>1.721717242332E12</v>
+        <v>1.723454328068E12</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -15344,10 +16702,10 @@
         <v>1768</v>
       </c>
       <c r="R241" t="n">
-        <v>0.0</v>
+        <v>1.65</v>
       </c>
       <c r="T241" t="n">
-        <v>1.721717277457E12</v>
+        <v>1.723454366008E12</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -15376,10 +16734,10 @@
         <v>1769</v>
       </c>
       <c r="R242" t="n">
-        <v>0.0</v>
+        <v>0.65</v>
       </c>
       <c r="T242" t="n">
-        <v>1.721717290766E12</v>
+        <v>1.723078147283E12</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -15408,10 +16766,10 @@
         <v>1770</v>
       </c>
       <c r="R243" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T243" t="n">
-        <v>1.721805863043E12</v>
+        <v>1.722932592774E12</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -15443,7 +16801,7 @@
         <v>0.0</v>
       </c>
       <c r="T244" t="n">
-        <v>1.721717332197E12</v>
+        <v>1.722932601595E12</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -15472,10 +16830,10 @@
         <v>1772</v>
       </c>
       <c r="R245" t="n">
-        <v>0.65</v>
+        <v>3.65</v>
       </c>
       <c r="T245" t="n">
-        <v>1.721805870602E12</v>
+        <v>1.7234543711E12</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -15504,10 +16862,10 @@
         <v>1773</v>
       </c>
       <c r="R246" t="n">
-        <v>0.65</v>
+        <v>3.65</v>
       </c>
       <c r="T246" t="n">
-        <v>1.721805877329E12</v>
+        <v>1.723454374802E12</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -15539,7 +16897,7 @@
         <v>0.0</v>
       </c>
       <c r="T247" t="n">
-        <v>1.721717385361E12</v>
+        <v>1.722932633456E12</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -15571,7 +16929,7 @@
         <v>0.0</v>
       </c>
       <c r="T248" t="n">
-        <v>1.721717392483E12</v>
+        <v>1.722932638385E12</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -15600,10 +16958,10 @@
         <v>1776</v>
       </c>
       <c r="R249" t="n">
-        <v>0.65</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T249" t="n">
-        <v>1.721805887257E12</v>
+        <v>1.72307824473E12</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -15632,10 +16990,10 @@
         <v>1777</v>
       </c>
       <c r="R250" t="n">
-        <v>1.65</v>
+        <v>2.9499999999999997</v>
       </c>
       <c r="T250" t="n">
-        <v>1.721963093574E12</v>
+        <v>1.723454383336E12</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -15664,10 +17022,10 @@
         <v>825</v>
       </c>
       <c r="R251" t="n">
-        <v>1.65</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T251" t="n">
-        <v>1.721963099671E12</v>
+        <v>1.723078261971E12</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -15696,10 +17054,10 @@
         <v>1778</v>
       </c>
       <c r="R252" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T252" t="n">
-        <v>1.721805974801E12</v>
+        <v>1.722932676292E12</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -15728,10 +17086,10 @@
         <v>1779</v>
       </c>
       <c r="R253" t="n">
-        <v>0.65</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T253" t="n">
-        <v>1.721806030778E12</v>
+        <v>1.723078270213E12</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -15760,10 +17118,10 @@
         <v>1780</v>
       </c>
       <c r="R254" t="n">
-        <v>0.65</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T254" t="n">
-        <v>1.721806032901E12</v>
+        <v>1.723078273397E12</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -15792,10 +17150,10 @@
         <v>1763</v>
       </c>
       <c r="R255" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T255" t="n">
-        <v>1.721806036108E12</v>
+        <v>1.722932708765E12</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -15824,10 +17182,10 @@
         <v>1781</v>
       </c>
       <c r="R256" t="n">
-        <v>0.0</v>
+        <v>0.65</v>
       </c>
       <c r="T256" t="n">
-        <v>1.721718136174E12</v>
+        <v>1.723078276477E12</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -15856,10 +17214,10 @@
         <v>1782</v>
       </c>
       <c r="R257" t="n">
-        <v>5.65</v>
+        <v>5.200000000000003</v>
       </c>
       <c r="T257" t="n">
-        <v>1.72284521689E12</v>
+        <v>1.723454390094E12</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -15888,10 +17246,10 @@
         <v>1783</v>
       </c>
       <c r="R258" t="n">
-        <v>1.65</v>
+        <v>1.9499999999999997</v>
       </c>
       <c r="T258" t="n">
-        <v>1.721963509327E12</v>
+        <v>1.72345439406E12</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -15920,7 +17278,7 @@
         <v>0.0</v>
       </c>
       <c r="T259" t="n">
-        <v>1.721718151599E12</v>
+        <v>1.722932765271E12</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -15949,10 +17307,10 @@
         <v>1784</v>
       </c>
       <c r="R260" t="n">
-        <v>0.0</v>
+        <v>1.65</v>
       </c>
       <c r="T260" t="n">
-        <v>1.721718154932E12</v>
+        <v>1.723454396322E12</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -15984,7 +17342,7 @@
         <v>0.0</v>
       </c>
       <c r="T261" t="n">
-        <v>1.721718200259E12</v>
+        <v>1.722932780668E12</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -16013,10 +17371,10 @@
         <v>1786</v>
       </c>
       <c r="R262" t="n">
-        <v>0.0</v>
+        <v>0.65</v>
       </c>
       <c r="T262" t="n">
-        <v>1.72171820476E12</v>
+        <v>1.723078301408E12</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -16045,10 +17403,10 @@
         <v>1787</v>
       </c>
       <c r="R263" t="n">
-        <v>4.65</v>
+        <v>3.9000000000000017</v>
       </c>
       <c r="T263" t="n">
-        <v>1.722845341796E12</v>
+        <v>1.723454401731E12</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -16077,10 +17435,10 @@
         <v>1788</v>
       </c>
       <c r="R264" t="n">
-        <v>3.3</v>
+        <v>2.2499999999999996</v>
       </c>
       <c r="T264" t="n">
-        <v>1.722845388728E12</v>
+        <v>1.723454406444E12</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -16109,10 +17467,10 @@
         <v>1789</v>
       </c>
       <c r="R265" t="n">
-        <v>1.65</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T265" t="n">
-        <v>1.721963593515E12</v>
+        <v>1.72307834885E12</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -16141,10 +17499,10 @@
         <v>1790</v>
       </c>
       <c r="R266" t="n">
-        <v>7.200000000000003</v>
+        <v>5.250000000000009</v>
       </c>
       <c r="T266" t="n">
-        <v>1.722845391318E12</v>
+        <v>1.723454411128E12</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -16173,10 +17531,10 @@
         <v>1791</v>
       </c>
       <c r="R267" t="n">
-        <v>0.65</v>
+        <v>3.65</v>
       </c>
       <c r="T267" t="n">
-        <v>1.721806215381E12</v>
+        <v>1.723454417087E12</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -16205,10 +17563,10 @@
         <v>1792</v>
       </c>
       <c r="R268" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T268" t="n">
-        <v>1.721806220322E12</v>
+        <v>1.722932905294E12</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -16237,10 +17595,10 @@
         <v>1793</v>
       </c>
       <c r="R269" t="n">
-        <v>1.65</v>
+        <v>1.9499999999999997</v>
       </c>
       <c r="T269" t="n">
-        <v>1.721963611424E12</v>
+        <v>1.723454482754E12</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -16269,10 +17627,10 @@
         <v>945</v>
       </c>
       <c r="R270" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="T270" t="n">
-        <v>1.721718406019E12</v>
+        <v>1.723454494635E12</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -16301,10 +17659,10 @@
         <v>1383</v>
       </c>
       <c r="R271" t="n">
-        <v>0.65</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T271" t="n">
-        <v>1.721806255476E12</v>
+        <v>1.723078374453E12</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -16333,10 +17691,10 @@
         <v>1794</v>
       </c>
       <c r="R272" t="n">
-        <v>0.0</v>
+        <v>0.65</v>
       </c>
       <c r="T272" t="n">
-        <v>1.721718426294E12</v>
+        <v>1.723078379014E12</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -16365,10 +17723,10 @@
         <v>1795</v>
       </c>
       <c r="R273" t="n">
-        <v>0.65</v>
+        <v>3.65</v>
       </c>
       <c r="T273" t="n">
-        <v>1.72180626737E12</v>
+        <v>1.723454500591E12</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -16397,10 +17755,10 @@
         <v>1796</v>
       </c>
       <c r="R274" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T274" t="n">
-        <v>1.721806272513E12</v>
+        <v>1.72293298318E12</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -16429,10 +17787,10 @@
         <v>1797</v>
       </c>
       <c r="R275" t="n">
-        <v>0.65</v>
+        <v>2.3</v>
       </c>
       <c r="T275" t="n">
-        <v>1.721806283372E12</v>
+        <v>1.723454507855E12</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -16461,10 +17819,10 @@
         <v>1798</v>
       </c>
       <c r="R276" t="n">
-        <v>0.0</v>
+        <v>0.65</v>
       </c>
       <c r="T276" t="n">
-        <v>1.721718512226E12</v>
+        <v>1.7230784086E12</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -16496,7 +17854,7 @@
         <v>0.0</v>
       </c>
       <c r="T277" t="n">
-        <v>1.721718519326E12</v>
+        <v>1.722933006408E12</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -16528,7 +17886,7 @@
         <v>0.0</v>
       </c>
       <c r="T278" t="n">
-        <v>1.721718523818E12</v>
+        <v>1.722933010478E12</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -16557,10 +17915,10 @@
         <v>1801</v>
       </c>
       <c r="R279" t="n">
-        <v>1.65</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T279" t="n">
-        <v>1.721963615014E12</v>
+        <v>1.723078413945E12</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -16589,10 +17947,10 @@
         <v>1802</v>
       </c>
       <c r="R280" t="n">
-        <v>1.65</v>
+        <v>1.9499999999999997</v>
       </c>
       <c r="T280" t="n">
-        <v>1.72196361728E12</v>
+        <v>1.723454511224E12</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -16621,10 +17979,10 @@
         <v>1803</v>
       </c>
       <c r="R281" t="n">
-        <v>1.65</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T281" t="n">
-        <v>1.721963623329E12</v>
+        <v>1.723078424215E12</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -16653,10 +18011,10 @@
         <v>1804</v>
       </c>
       <c r="R282" t="n">
-        <v>3.3</v>
+        <v>2.2499999999999996</v>
       </c>
       <c r="T282" t="n">
-        <v>1.722845394115E12</v>
+        <v>1.72345451347E12</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -16685,10 +18043,10 @@
         <v>1805</v>
       </c>
       <c r="R283" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T283" t="n">
-        <v>1.72180728959E12</v>
+        <v>1.722933029443E12</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -16717,10 +18075,10 @@
         <v>1806</v>
       </c>
       <c r="R284" t="n">
-        <v>1.65</v>
+        <v>4.3</v>
       </c>
       <c r="T284" t="n">
-        <v>1.721963675349E12</v>
+        <v>1.723454519241E12</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -16749,10 +18107,10 @@
         <v>1807</v>
       </c>
       <c r="R285" t="n">
-        <v>2.3</v>
+        <v>4.6</v>
       </c>
       <c r="T285" t="n">
-        <v>1.722588533555E12</v>
+        <v>1.723454569338E12</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -16781,10 +18139,10 @@
         <v>1808</v>
       </c>
       <c r="R286" t="n">
-        <v>6.900000000000002</v>
+        <v>4.800000000000004</v>
       </c>
       <c r="T286" t="n">
-        <v>1.7228466423E12</v>
+        <v>1.723454581293E12</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -16813,10 +18171,10 @@
         <v>1809</v>
       </c>
       <c r="R287" t="n">
-        <v>5.65</v>
+        <v>4.900000000000002</v>
       </c>
       <c r="T287" t="n">
-        <v>1.722846652837E12</v>
+        <v>1.723454588542E12</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -16845,10 +18203,10 @@
         <v>1810</v>
       </c>
       <c r="R288" t="n">
-        <v>2.9499999999999997</v>
+        <v>1.8999999999999995</v>
       </c>
       <c r="T288" t="n">
-        <v>1.7228467469E12</v>
+        <v>1.723454593022E12</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -16877,10 +18235,10 @@
         <v>1811</v>
       </c>
       <c r="R289" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="T289" t="n">
-        <v>1.721718971759E12</v>
+        <v>1.723454599349E12</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -16912,7 +18270,7 @@
         <v>0.0</v>
       </c>
       <c r="T290" t="n">
-        <v>1.721718977297E12</v>
+        <v>1.722933104729E12</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -16944,7 +18302,7 @@
         <v>0.0</v>
       </c>
       <c r="T291" t="n">
-        <v>1.721718981809E12</v>
+        <v>1.722933109872E12</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -16973,10 +18331,10 @@
         <v>1814</v>
       </c>
       <c r="R292" t="n">
-        <v>4.3</v>
+        <v>5.200000000000002</v>
       </c>
       <c r="T292" t="n">
-        <v>1.722846779502E12</v>
+        <v>1.723454609112E12</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -17005,10 +18363,10 @@
         <v>1815</v>
       </c>
       <c r="R293" t="n">
-        <v>2.3</v>
+        <v>3.2499999999999996</v>
       </c>
       <c r="T293" t="n">
-        <v>1.722588638679E12</v>
+        <v>1.723454612641E12</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -17037,10 +18395,10 @@
         <v>1816</v>
       </c>
       <c r="R294" t="n">
-        <v>5.600000000000001</v>
+        <v>3.5000000000000027</v>
       </c>
       <c r="T294" t="n">
-        <v>1.722846783933E12</v>
+        <v>1.723454615231E12</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -17069,10 +18427,10 @@
         <v>1817</v>
       </c>
       <c r="R295" t="n">
-        <v>0.65</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T295" t="n">
-        <v>1.721808748144E12</v>
+        <v>1.723078519435E12</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -17101,10 +18459,10 @@
         <v>1818</v>
       </c>
       <c r="R296" t="n">
-        <v>0.0</v>
+        <v>0.65</v>
       </c>
       <c r="T296" t="n">
-        <v>1.721719070575E12</v>
+        <v>1.723078525597E12</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -17136,7 +18494,7 @@
         <v>0.0</v>
       </c>
       <c r="T297" t="n">
-        <v>1.721719074144E12</v>
+        <v>1.72293322029E12</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -17168,7 +18526,7 @@
         <v>0.0</v>
       </c>
       <c r="T298" t="n">
-        <v>1.721719080178E12</v>
+        <v>1.722933224652E12</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -17200,7 +18558,7 @@
         <v>0.0</v>
       </c>
       <c r="T299" t="n">
-        <v>1.721719083128E12</v>
+        <v>1.722933227402E12</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -17232,7 +18590,7 @@
         <v>0.0</v>
       </c>
       <c r="T300" t="n">
-        <v>1.721719087091E12</v>
+        <v>1.722933231677E12</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -17261,10 +18619,10 @@
         <v>1823</v>
       </c>
       <c r="R301" t="n">
-        <v>3.3</v>
+        <v>2.2499999999999996</v>
       </c>
       <c r="T301" t="n">
-        <v>1.722846787622E12</v>
+        <v>1.723454618443E12</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -17293,10 +18651,10 @@
         <v>1824</v>
       </c>
       <c r="R302" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="T302" t="n">
-        <v>1.721722202135E12</v>
+        <v>1.723454626249E12</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -17325,10 +18683,10 @@
         <v>1825</v>
       </c>
       <c r="R303" t="n">
-        <v>0.0</v>
+        <v>0.65</v>
       </c>
       <c r="T303" t="n">
-        <v>1.721722225437E12</v>
+        <v>1.723078539867E12</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -17357,10 +18715,10 @@
         <v>1826</v>
       </c>
       <c r="R304" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T304" t="n">
-        <v>1.721808963236E12</v>
+        <v>1.722933520275E12</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -17389,10 +18747,10 @@
         <v>1827</v>
       </c>
       <c r="R305" t="n">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="T305" t="n">
-        <v>1.722846790328E12</v>
+        <v>1.723454630641E12</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -17421,10 +18779,10 @@
         <v>1493</v>
       </c>
       <c r="R306" t="n">
-        <v>0.65</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T306" t="n">
-        <v>1.72180905778E12</v>
+        <v>1.723078549307E12</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -17456,7 +18814,7 @@
         <v>0.0</v>
       </c>
       <c r="T307" t="n">
-        <v>1.721722638287E12</v>
+        <v>1.722933638346E12</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -17488,7 +18846,7 @@
         <v>0.0</v>
       </c>
       <c r="T308" t="n">
-        <v>1.721722661318E12</v>
+        <v>1.722933675942E12</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -17517,10 +18875,10 @@
         <v>1830</v>
       </c>
       <c r="R309" t="n">
-        <v>4.5500000000000025</v>
+        <v>2.8000000000000025</v>
       </c>
       <c r="T309" t="n">
-        <v>1.722846793976E12</v>
+        <v>1.723454633273E12</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -17549,10 +18907,10 @@
         <v>1831</v>
       </c>
       <c r="R310" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="T310" t="n">
-        <v>1.721722696774E12</v>
+        <v>1.723454639822E12</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -17584,7 +18942,7 @@
         <v>0.0</v>
       </c>
       <c r="T311" t="n">
-        <v>1.721722700112E12</v>
+        <v>1.722933718644E12</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -17613,10 +18971,10 @@
         <v>1833</v>
       </c>
       <c r="R312" t="n">
-        <v>0.65</v>
+        <v>2.3</v>
       </c>
       <c r="T312" t="n">
-        <v>1.721809119809E12</v>
+        <v>1.723454646057E12</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -17645,10 +19003,10 @@
         <v>1834</v>
       </c>
       <c r="R313" t="n">
-        <v>1.65</v>
+        <v>1.9499999999999997</v>
       </c>
       <c r="T313" t="n">
-        <v>1.721963917148E12</v>
+        <v>1.723454649607E12</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -17677,10 +19035,10 @@
         <v>1835</v>
       </c>
       <c r="R314" t="n">
-        <v>0.0</v>
+        <v>1.65</v>
       </c>
       <c r="T314" t="n">
-        <v>1.721722730405E12</v>
+        <v>1.723454656616E12</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -17712,7 +19070,7 @@
         <v>0.0</v>
       </c>
       <c r="T315" t="n">
-        <v>1.721722779484E12</v>
+        <v>1.722934081441E12</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -17741,10 +19099,10 @@
         <v>1837</v>
       </c>
       <c r="R316" t="n">
-        <v>3.3</v>
+        <v>2.2499999999999996</v>
       </c>
       <c r="T316" t="n">
-        <v>1.722846800912E12</v>
+        <v>1.723454659475E12</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -17773,10 +19131,10 @@
         <v>1838</v>
       </c>
       <c r="R317" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T317" t="n">
-        <v>1.721810385642E12</v>
+        <v>1.722934113728E12</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -17805,10 +19163,10 @@
         <v>1173</v>
       </c>
       <c r="R318" t="n">
-        <v>4.250000000000002</v>
+        <v>2.5000000000000013</v>
       </c>
       <c r="T318" t="n">
-        <v>1.72284687872E12</v>
+        <v>1.723454662484E12</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -17837,10 +19195,10 @@
         <v>1839</v>
       </c>
       <c r="R319" t="n">
-        <v>2.3</v>
+        <v>1.5999999999999996</v>
       </c>
       <c r="T319" t="n">
-        <v>1.722589292297E12</v>
+        <v>1.723078620504E12</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -17869,10 +19227,10 @@
         <v>1840</v>
       </c>
       <c r="R320" t="n">
-        <v>4.65</v>
+        <v>3.9000000000000017</v>
       </c>
       <c r="T320" t="n">
-        <v>1.722846908246E12</v>
+        <v>1.723454664621E12</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -17901,10 +19259,10 @@
         <v>1841</v>
       </c>
       <c r="R321" t="n">
-        <v>0.65</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T321" t="n">
-        <v>1.721810562846E12</v>
+        <v>1.723078628619E12</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -17933,10 +19291,10 @@
         <v>1842</v>
       </c>
       <c r="R322" t="n">
-        <v>4.65</v>
+        <v>4.250000000000002</v>
       </c>
       <c r="T322" t="n">
-        <v>1.722846916236E12</v>
+        <v>1.723454669413E12</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -17965,10 +19323,10 @@
         <v>1843</v>
       </c>
       <c r="R323" t="n">
-        <v>0.0</v>
+        <v>0.65</v>
       </c>
       <c r="T323" t="n">
-        <v>1.721723468311E12</v>
+        <v>1.72307865403E12</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -17997,10 +19355,10 @@
         <v>1844</v>
       </c>
       <c r="R324" t="n">
-        <v>1.65</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T324" t="n">
-        <v>1.721964080217E12</v>
+        <v>1.72307865577E12</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -18029,10 +19387,10 @@
         <v>1845</v>
       </c>
       <c r="R325" t="n">
-        <v>0.65</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T325" t="n">
-        <v>1.721810692389E12</v>
+        <v>1.723078663599E12</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -18061,10 +19419,10 @@
         <v>1846</v>
       </c>
       <c r="R326" t="n">
-        <v>0.65</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T326" t="n">
-        <v>1.721810697728E12</v>
+        <v>1.723078667883E12</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -18093,10 +19451,10 @@
         <v>1847</v>
       </c>
       <c r="R327" t="n">
-        <v>1.65</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T327" t="n">
-        <v>1.72196408453E12</v>
+        <v>1.723078672393E12</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -18128,7 +19486,7 @@
         <v>0.0</v>
       </c>
       <c r="T328" t="n">
-        <v>1.721723544401E12</v>
+        <v>1.722934355983E12</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -18160,7 +19518,7 @@
         <v>0.0</v>
       </c>
       <c r="T329" t="n">
-        <v>1.721723550135E12</v>
+        <v>1.722934362488E12</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -18189,10 +19547,10 @@
         <v>1850</v>
       </c>
       <c r="R330" t="n">
-        <v>0.0</v>
+        <v>0.65</v>
       </c>
       <c r="T330" t="n">
-        <v>1.721723554028E12</v>
+        <v>1.723078674772E12</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -18221,10 +19579,10 @@
         <v>1851</v>
       </c>
       <c r="R331" t="n">
-        <v>0.0</v>
+        <v>0.65</v>
       </c>
       <c r="T331" t="n">
-        <v>1.721723560515E12</v>
+        <v>1.723078684057E12</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -18256,7 +19614,7 @@
         <v>0.0</v>
       </c>
       <c r="T332" t="n">
-        <v>1.721723573721E12</v>
+        <v>1.722934437974E12</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -18285,10 +19643,10 @@
         <v>1853</v>
       </c>
       <c r="R333" t="n">
-        <v>0.0</v>
+        <v>0.65</v>
       </c>
       <c r="T333" t="n">
-        <v>1.721723606902E12</v>
+        <v>1.723078918179E12</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -18317,10 +19675,10 @@
         <v>1527</v>
       </c>
       <c r="R334" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="T334" t="n">
-        <v>1.721723640768E12</v>
+        <v>1.723454673616E12</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -18349,10 +19707,10 @@
         <v>1854</v>
       </c>
       <c r="R335" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="T335" t="n">
-        <v>1.721723645449E12</v>
+        <v>1.723454723942E12</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -18381,10 +19739,10 @@
         <v>1855</v>
       </c>
       <c r="R336" t="n">
-        <v>1.65</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T336" t="n">
-        <v>1.721964093025E12</v>
+        <v>1.723079886972E12</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -18413,10 +19771,10 @@
         <v>1856</v>
       </c>
       <c r="R337" t="n">
-        <v>2.3</v>
+        <v>1.5999999999999996</v>
       </c>
       <c r="T337" t="n">
-        <v>1.722589393801E12</v>
+        <v>1.723079889099E12</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -18445,10 +19803,10 @@
         <v>1857</v>
       </c>
       <c r="R338" t="n">
-        <v>1.65</v>
+        <v>1.9499999999999997</v>
       </c>
       <c r="T338" t="n">
-        <v>1.721964127348E12</v>
+        <v>1.723454735817E12</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -18477,10 +19835,10 @@
         <v>1643</v>
       </c>
       <c r="R339" t="n">
-        <v>4.65</v>
+        <v>4.250000000000002</v>
       </c>
       <c r="T339" t="n">
-        <v>1.722846940661E12</v>
+        <v>1.723454747362E12</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -18509,10 +19867,10 @@
         <v>1858</v>
       </c>
       <c r="R340" t="n">
-        <v>4.5500000000000025</v>
+        <v>2.8000000000000025</v>
       </c>
       <c r="T340" t="n">
-        <v>1.72284694632E12</v>
+        <v>1.723454758876E12</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -18541,10 +19899,10 @@
         <v>1859</v>
       </c>
       <c r="R341" t="n">
-        <v>7.5500000000000025</v>
+        <v>4.750000000000005</v>
       </c>
       <c r="T341" t="n">
-        <v>1.722847669553E12</v>
+        <v>1.723454767812E12</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -18573,10 +19931,10 @@
         <v>1860</v>
       </c>
       <c r="R342" t="n">
-        <v>5.5500000000000025</v>
+        <v>4.800000000000004</v>
       </c>
       <c r="T342" t="n">
-        <v>1.722847012786E12</v>
+        <v>1.723454781778E12</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -18605,10 +19963,10 @@
         <v>1861</v>
       </c>
       <c r="R343" t="n">
-        <v>5.900000000000002</v>
+        <v>4.800000000000004</v>
       </c>
       <c r="T343" t="n">
-        <v>1.722847094471E12</v>
+        <v>1.723454789175E12</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -18640,7 +19998,7 @@
         <v>0.0</v>
       </c>
       <c r="T344" t="n">
-        <v>1.721723828391E12</v>
+        <v>1.72293580765E12</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -18672,7 +20030,7 @@
         <v>0.0</v>
       </c>
       <c r="T345" t="n">
-        <v>1.721723834404E12</v>
+        <v>1.722935811632E12</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -18701,10 +20059,10 @@
         <v>1864</v>
       </c>
       <c r="R346" t="n">
-        <v>2.3</v>
+        <v>1.5999999999999996</v>
       </c>
       <c r="T346" t="n">
-        <v>1.7225900027E12</v>
+        <v>1.723079931761E12</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -18733,10 +20091,10 @@
         <v>1865</v>
       </c>
       <c r="R347" t="n">
-        <v>0.0</v>
+        <v>1.65</v>
       </c>
       <c r="T347" t="n">
-        <v>1.721723863779E12</v>
+        <v>1.723454793551E12</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -18765,10 +20123,10 @@
         <v>1866</v>
       </c>
       <c r="R348" t="n">
-        <v>0.65</v>
+        <v>2.3</v>
       </c>
       <c r="T348" t="n">
-        <v>1.72181122415E12</v>
+        <v>1.723454797487E12</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -18797,10 +20155,10 @@
         <v>1867</v>
       </c>
       <c r="R349" t="n">
-        <v>3.3</v>
+        <v>5.250000000000001</v>
       </c>
       <c r="T349" t="n">
-        <v>1.722847133005E12</v>
+        <v>1.723454799886E12</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -18832,7 +20190,7 @@
         <v>0.0</v>
       </c>
       <c r="T350" t="n">
-        <v>1.721724006283E12</v>
+        <v>1.722935862905E12</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -18861,10 +20219,10 @@
         <v>1536</v>
       </c>
       <c r="R351" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T351" t="n">
-        <v>1.721811293318E12</v>
+        <v>1.722935866902E12</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -18896,7 +20254,7 @@
         <v>0.0</v>
       </c>
       <c r="T352" t="n">
-        <v>1.721724117427E12</v>
+        <v>1.722935871894E12</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -18925,10 +20283,10 @@
         <v>1869</v>
       </c>
       <c r="R353" t="n">
-        <v>4.65</v>
+        <v>4.900000000000002</v>
       </c>
       <c r="T353" t="n">
-        <v>1.722847184251E12</v>
+        <v>1.723454803221E12</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -18957,10 +20315,10 @@
         <v>1870</v>
       </c>
       <c r="R354" t="n">
-        <v>1.65</v>
+        <v>5.65</v>
       </c>
       <c r="T354" t="n">
-        <v>1.721964203488E12</v>
+        <v>1.723454815036E12</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -18989,10 +20347,10 @@
         <v>1871</v>
       </c>
       <c r="R355" t="n">
-        <v>1.65</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T355" t="n">
-        <v>1.721964210789E12</v>
+        <v>1.723079981816E12</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -19021,10 +20379,10 @@
         <v>1872</v>
       </c>
       <c r="R356" t="n">
-        <v>4.3</v>
+        <v>5.25</v>
       </c>
       <c r="T356" t="n">
-        <v>1.722847192078E12</v>
+        <v>1.723454821807E12</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -19053,10 +20411,10 @@
         <v>1873</v>
       </c>
       <c r="R357" t="n">
-        <v>0.0</v>
+        <v>0.65</v>
       </c>
       <c r="T357" t="n">
-        <v>1.721724305866E12</v>
+        <v>1.72308040751E12</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -19085,10 +20443,10 @@
         <v>1874</v>
       </c>
       <c r="R358" t="n">
-        <v>3.3</v>
+        <v>2.2499999999999996</v>
       </c>
       <c r="T358" t="n">
-        <v>1.722847196525E12</v>
+        <v>1.723454863264E12</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -19117,10 +20475,10 @@
         <v>870</v>
       </c>
       <c r="R359" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T359" t="n">
-        <v>1.721811571116E12</v>
+        <v>1.722935929953E12</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -19152,7 +20510,7 @@
         <v>0.0</v>
       </c>
       <c r="T360" t="n">
-        <v>1.721724346954E12</v>
+        <v>1.722935933048E12</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -19181,10 +20539,10 @@
         <v>1876</v>
       </c>
       <c r="R361" t="n">
-        <v>0.65</v>
+        <v>2.3</v>
       </c>
       <c r="T361" t="n">
-        <v>1.721811581067E12</v>
+        <v>1.723454871723E12</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -19213,10 +20571,10 @@
         <v>1877</v>
       </c>
       <c r="R362" t="n">
-        <v>0.0</v>
+        <v>0.65</v>
       </c>
       <c r="T362" t="n">
-        <v>1.721724394051E12</v>
+        <v>1.72308046996E12</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -19245,10 +20603,10 @@
         <v>1878</v>
       </c>
       <c r="R363" t="n">
-        <v>1.65</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T363" t="n">
-        <v>1.721964231127E12</v>
+        <v>1.723080472349E12</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -19277,10 +20635,10 @@
         <v>1879</v>
       </c>
       <c r="R364" t="n">
-        <v>2.3</v>
+        <v>3.2499999999999996</v>
       </c>
       <c r="T364" t="n">
-        <v>1.722590523096E12</v>
+        <v>1.72345487976E12</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -19309,10 +20667,10 @@
         <v>1880</v>
       </c>
       <c r="R365" t="n">
-        <v>2.3</v>
+        <v>1.5999999999999996</v>
       </c>
       <c r="T365" t="n">
-        <v>1.722590526927E12</v>
+        <v>1.723080482766E12</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -19341,10 +20699,10 @@
         <v>1881</v>
       </c>
       <c r="R366" t="n">
-        <v>1.65</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T366" t="n">
-        <v>1.721964312578E12</v>
+        <v>1.723080506279E12</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -19373,10 +20731,10 @@
         <v>1882</v>
       </c>
       <c r="R367" t="n">
-        <v>6.900000000000002</v>
+        <v>5.950000000000008</v>
       </c>
       <c r="T367" t="n">
-        <v>1.722847221229E12</v>
+        <v>1.723454883461E12</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -19408,7 +20766,7 @@
         <v>0.0</v>
       </c>
       <c r="T368" t="n">
-        <v>1.721724484134E12</v>
+        <v>1.722936077826E12</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -19437,10 +20795,10 @@
         <v>1884</v>
       </c>
       <c r="R369" t="n">
-        <v>6.250000000000002</v>
+        <v>4.800000000000004</v>
       </c>
       <c r="T369" t="n">
-        <v>1.722847302845E12</v>
+        <v>1.723454887156E12</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -19469,10 +20827,10 @@
         <v>1885</v>
       </c>
       <c r="R370" t="n">
-        <v>0.0</v>
+        <v>0.65</v>
       </c>
       <c r="T370" t="n">
-        <v>1.72172451612E12</v>
+        <v>1.723080516534E12</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -19501,10 +20859,10 @@
         <v>1886</v>
       </c>
       <c r="R371" t="n">
-        <v>0.65</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T371" t="n">
-        <v>1.7218671077E12</v>
+        <v>1.723080520472E12</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -19533,10 +20891,10 @@
         <v>1887</v>
       </c>
       <c r="R372" t="n">
-        <v>0.65</v>
+        <v>3.65</v>
       </c>
       <c r="T372" t="n">
-        <v>1.721867202931E12</v>
+        <v>1.72345489178E12</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -19568,7 +20926,7 @@
         <v>0.0</v>
       </c>
       <c r="T373" t="n">
-        <v>1.721724538343E12</v>
+        <v>1.722936126771E12</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -19600,7 +20958,7 @@
         <v>0.0</v>
       </c>
       <c r="T374" t="n">
-        <v>1.721724546073E12</v>
+        <v>1.722936129816E12</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -19629,10 +20987,10 @@
         <v>1292</v>
       </c>
       <c r="R375" t="n">
-        <v>4.250000000000002</v>
+        <v>3.850000000000001</v>
       </c>
       <c r="T375" t="n">
-        <v>1.722847306925E12</v>
+        <v>1.723454899779E12</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -19664,7 +21022,7 @@
         <v>0.0</v>
       </c>
       <c r="T376" t="n">
-        <v>1.721724708494E12</v>
+        <v>1.722936138362E12</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -19693,10 +21051,10 @@
         <v>1890</v>
       </c>
       <c r="R377" t="n">
-        <v>6.900000000000002</v>
+        <v>4.750000000000005</v>
       </c>
       <c r="T377" t="n">
-        <v>1.722847336301E12</v>
+        <v>1.723454908281E12</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -19725,10 +21083,10 @@
         <v>1551</v>
       </c>
       <c r="R378" t="n">
-        <v>2.9499999999999997</v>
+        <v>1.8999999999999995</v>
       </c>
       <c r="T378" t="n">
-        <v>1.722847399457E12</v>
+        <v>1.723454913303E12</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -19757,10 +21115,10 @@
         <v>1891</v>
       </c>
       <c r="R379" t="n">
-        <v>6.900000000000002</v>
+        <v>6.150000000000004</v>
       </c>
       <c r="T379" t="n">
-        <v>1.722847407947E12</v>
+        <v>1.723454921319E12</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -19789,10 +21147,10 @@
         <v>1892</v>
       </c>
       <c r="R380" t="n">
-        <v>6.250000000000002</v>
+        <v>4.800000000000004</v>
       </c>
       <c r="T380" t="n">
-        <v>1.722847504076E12</v>
+        <v>1.723454927841E12</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -19821,10 +21179,10 @@
         <v>1566</v>
       </c>
       <c r="R381" t="n">
-        <v>8.200000000000003</v>
+        <v>5.250000000000009</v>
       </c>
       <c r="T381" t="n">
-        <v>1.722847677314E12</v>
+        <v>1.723454931475E12</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -19853,10 +21211,10 @@
         <v>1893</v>
       </c>
       <c r="R382" t="n">
-        <v>0.65</v>
+        <v>3.65</v>
       </c>
       <c r="T382" t="n">
-        <v>1.721892009361E12</v>
+        <v>1.723454937498E12</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -19888,7 +21246,7 @@
         <v>0.0</v>
       </c>
       <c r="T383" t="n">
-        <v>1.721725288045E12</v>
+        <v>1.722936209124E12</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -19917,10 +21275,10 @@
         <v>1895</v>
       </c>
       <c r="R384" t="n">
-        <v>0.65</v>
+        <v>3.65</v>
       </c>
       <c r="T384" t="n">
-        <v>1.721892012623E12</v>
+        <v>1.723454941568E12</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -19949,10 +21307,10 @@
         <v>1218</v>
       </c>
       <c r="R385" t="n">
-        <v>6.900000000000002</v>
+        <v>6.100000000000005</v>
       </c>
       <c r="T385" t="n">
-        <v>1.722847539349E12</v>
+        <v>1.723454950393E12</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -19984,7 +21342,7 @@
         <v>0.0</v>
       </c>
       <c r="T386" t="n">
-        <v>1.721725298802E12</v>
+        <v>1.722936237418E12</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -20013,10 +21371,10 @@
         <v>1896</v>
       </c>
       <c r="R387" t="n">
-        <v>2.9499999999999997</v>
+        <v>1.8999999999999995</v>
       </c>
       <c r="T387" t="n">
-        <v>1.722847545366E12</v>
+        <v>1.723454955669E12</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -20045,10 +21403,10 @@
         <v>1897</v>
       </c>
       <c r="R388" t="n">
-        <v>4.300000000000001</v>
+        <v>3.5500000000000016</v>
       </c>
       <c r="T388" t="n">
-        <v>1.722847551795E12</v>
+        <v>1.723454960547E12</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -20077,10 +21435,10 @@
         <v>1898</v>
       </c>
       <c r="R389" t="n">
-        <v>6.250000000000002</v>
+        <v>4.150000000000004</v>
       </c>
       <c r="T389" t="n">
-        <v>1.722847556017E12</v>
+        <v>1.723454964999E12</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -20109,10 +21467,10 @@
         <v>1866</v>
       </c>
       <c r="R390" t="n">
-        <v>0.65</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T390" t="n">
-        <v>1.721892149019E12</v>
+        <v>1.723080661238E12</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -20141,10 +21499,10 @@
         <v>1895</v>
       </c>
       <c r="R391" t="n">
-        <v>3.9500000000000006</v>
+        <v>3.5500000000000016</v>
       </c>
       <c r="T391" t="n">
-        <v>1.722847560801E12</v>
+        <v>1.723454970882E12</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -20173,10 +21531,10 @@
         <v>873</v>
       </c>
       <c r="R392" t="n">
-        <v>5.600000000000001</v>
+        <v>5.150000000000004</v>
       </c>
       <c r="T392" t="n">
-        <v>1.722847566799E12</v>
+        <v>1.723454974727E12</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -20205,10 +21563,10 @@
         <v>1895</v>
       </c>
       <c r="R393" t="n">
-        <v>5.5500000000000025</v>
+        <v>4.800000000000004</v>
       </c>
       <c r="T393" t="n">
-        <v>1.72284757339E12</v>
+        <v>1.7234549803E12</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -20237,10 +21595,10 @@
         <v>1895</v>
       </c>
       <c r="R394" t="n">
-        <v>5.5500000000000025</v>
+        <v>3.4500000000000037</v>
       </c>
       <c r="T394" t="n">
-        <v>1.722847575905E12</v>
+        <v>1.723454981888E12</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -20272,7 +21630,7 @@
         <v>0.0</v>
       </c>
       <c r="T395" t="n">
-        <v>1.7217253679E12</v>
+        <v>1.722936290132E12</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -20301,10 +21659,10 @@
         <v>1900</v>
       </c>
       <c r="R396" t="n">
-        <v>4.250000000000002</v>
+        <v>2.5000000000000013</v>
       </c>
       <c r="T396" t="n">
-        <v>1.722847578623E12</v>
+        <v>1.7234549849E12</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -20324,7 +21682,7 @@
         <v>0.0</v>
       </c>
       <c r="T397" t="n">
-        <v>1.721725373717E12</v>
+        <v>1.722936296496E12</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -20344,7 +21702,7 @@
         <v>0.0</v>
       </c>
       <c r="T398" t="n">
-        <v>1.721725378299E12</v>
+        <v>1.722936300748E12</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -20361,10 +21719,10 @@
         <v>4</v>
       </c>
       <c r="R399" t="n">
-        <v>0.0</v>
+        <v>1.65</v>
       </c>
       <c r="T399" t="n">
-        <v>1.721725383232E12</v>
+        <v>1.723454987459E12</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -20381,10 +21739,10 @@
         <v>4</v>
       </c>
       <c r="R400" t="n">
-        <v>0.65</v>
+        <v>2.3</v>
       </c>
       <c r="T400" t="n">
-        <v>1.721892341014E12</v>
+        <v>1.723454989679E12</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -20401,10 +21759,10 @@
         <v>4</v>
       </c>
       <c r="R401" t="n">
-        <v>0.65</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T401" t="n">
-        <v>1.721892343181E12</v>
+        <v>1.723080705873E12</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -20421,10 +21779,10 @@
         <v>3</v>
       </c>
       <c r="R402" t="n">
-        <v>0.65</v>
+        <v>0.0</v>
       </c>
       <c r="T402" t="n">
-        <v>1.721892345874E12</v>
+        <v>1.722990308959E12</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -20444,7 +21802,7 @@
         <v>0.0</v>
       </c>
       <c r="T403" t="n">
-        <v>1.721725416383E12</v>
+        <v>1.722848014541E12</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -20464,7 +21822,7 @@
         <v>0.0</v>
       </c>
       <c r="T404" t="n">
-        <v>1.721725418736E12</v>
+        <v>1.722848017107E12</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -20484,7 +21842,7 @@
         <v>0.0</v>
       </c>
       <c r="T405" t="n">
-        <v>1.721725422821E12</v>
+        <v>1.722848021385E12</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -20501,10 +21859,10 @@
         <v>3</v>
       </c>
       <c r="R406" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="T406" t="n">
-        <v>1.721725425287E12</v>
+        <v>1.723454992596E12</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -20521,10 +21879,10 @@
         <v>4</v>
       </c>
       <c r="R407" t="n">
-        <v>0.65</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T407" t="n">
-        <v>1.721892347848E12</v>
+        <v>1.723080709579E12</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -20541,10 +21899,10 @@
         <v>4</v>
       </c>
       <c r="R408" t="n">
-        <v>0.65</v>
+        <v>0.0</v>
       </c>
       <c r="T408" t="n">
-        <v>1.721892350125E12</v>
+        <v>1.722990323177E12</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -20561,10 +21919,10 @@
         <v>4</v>
       </c>
       <c r="R409" t="n">
-        <v>0.65</v>
+        <v>1.9499999999999997</v>
       </c>
       <c r="T409" t="n">
-        <v>1.721892352968E12</v>
+        <v>1.723454994405E12</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -20581,10 +21939,10 @@
         <v>4</v>
       </c>
       <c r="R410" t="n">
-        <v>0.65</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T410" t="n">
-        <v>1.721892355061E12</v>
+        <v>1.723080715067E12</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -20601,10 +21959,10 @@
         <v>4</v>
       </c>
       <c r="R411" t="n">
-        <v>0.0</v>
+        <v>0.65</v>
       </c>
       <c r="T411" t="n">
-        <v>1.721725447675E12</v>
+        <v>1.722990337303E12</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -20624,7 +21982,7 @@
         <v>0.0</v>
       </c>
       <c r="T412" t="n">
-        <v>1.72172545122E12</v>
+        <v>1.722848052438E12</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -20644,7 +22002,7 @@
         <v>0.0</v>
       </c>
       <c r="T413" t="n">
-        <v>1.721725456026E12</v>
+        <v>1.722848070349E12</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -20664,7 +22022,7 @@
         <v>0.0</v>
       </c>
       <c r="T414" t="n">
-        <v>1.721725461284E12</v>
+        <v>1.722848076146E12</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -20684,7 +22042,7 @@
         <v>0.0</v>
       </c>
       <c r="T415" t="n">
-        <v>1.721725463589E12</v>
+        <v>1.722848099748E12</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -20701,10 +22059,10 @@
         <v>4</v>
       </c>
       <c r="R416" t="n">
-        <v>0.65</v>
+        <v>1.9499999999999997</v>
       </c>
       <c r="T416" t="n">
-        <v>1.721892357731E12</v>
+        <v>1.723454996537E12</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -20721,10 +22079,10 @@
         <v>3</v>
       </c>
       <c r="R417" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="T417" t="n">
-        <v>1.721725495339E12</v>
+        <v>1.723454998525E12</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -20741,10 +22099,10 @@
         <v>4</v>
       </c>
       <c r="R418" t="n">
-        <v>0.65</v>
+        <v>0.0</v>
       </c>
       <c r="T418" t="n">
-        <v>1.72189235964E12</v>
+        <v>1.722990351746E12</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -20764,7 +22122,7 @@
         <v>0.0</v>
       </c>
       <c r="T419" t="n">
-        <v>1.72172556396E12</v>
+        <v>1.722848109976E12</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -20781,10 +22139,10 @@
         <v>4</v>
       </c>
       <c r="R420" t="n">
-        <v>0.65</v>
+        <v>0.0</v>
       </c>
       <c r="T420" t="n">
-        <v>1.721892361075E12</v>
+        <v>1.722990354486E12</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -20804,7 +22162,7 @@
         <v>0.0</v>
       </c>
       <c r="T421" t="n">
-        <v>1.721725572316E12</v>
+        <v>1.7228481159E12</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -20821,10 +22179,10 @@
         <v>4</v>
       </c>
       <c r="R422" t="n">
-        <v>0.65</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T422" t="n">
-        <v>1.721892362521E12</v>
+        <v>1.723080721357E12</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -20844,7 +22202,7 @@
         <v>0.0</v>
       </c>
       <c r="T423" t="n">
-        <v>1.721725577778E12</v>
+        <v>1.722848120157E12</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -20864,7 +22222,7 @@
         <v>0.0</v>
       </c>
       <c r="T424" t="n">
-        <v>1.721725605976E12</v>
+        <v>1.722848124919E12</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -20881,10 +22239,10 @@
         <v>4</v>
       </c>
       <c r="R425" t="n">
-        <v>0.65</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T425" t="n">
-        <v>1.721892364641E12</v>
+        <v>1.723080723312E12</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -20901,10 +22259,10 @@
         <v>4</v>
       </c>
       <c r="R426" t="n">
-        <v>0.65</v>
+        <v>1.9499999999999997</v>
       </c>
       <c r="T426" t="n">
-        <v>1.721892368266E12</v>
+        <v>1.723455002362E12</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -20921,10 +22279,10 @@
         <v>3</v>
       </c>
       <c r="R427" t="n">
-        <v>1.65</v>
+        <v>1.9499999999999997</v>
       </c>
       <c r="T427" t="n">
-        <v>1.721964518972E12</v>
+        <v>1.723080728088E12</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -20941,10 +22299,10 @@
         <v>4</v>
       </c>
       <c r="R428" t="n">
-        <v>0.65</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T428" t="n">
-        <v>1.721892374418E12</v>
+        <v>1.723080730844E12</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -20964,7 +22322,7 @@
         <v>0.0</v>
       </c>
       <c r="T429" t="n">
-        <v>1.721725713531E12</v>
+        <v>1.722848147258E12</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -20984,7 +22342,7 @@
         <v>0.0</v>
       </c>
       <c r="T430" t="n">
-        <v>1.721725715643E12</v>
+        <v>1.722848149591E12</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -21001,10 +22359,10 @@
         <v>4</v>
       </c>
       <c r="R431" t="n">
-        <v>0.0</v>
+        <v>0.65</v>
       </c>
       <c r="T431" t="n">
-        <v>1.721725719128E12</v>
+        <v>1.722990415452E12</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -21021,10 +22379,10 @@
         <v>3</v>
       </c>
       <c r="R432" t="n">
-        <v>0.65</v>
+        <v>0.0</v>
       </c>
       <c r="T432" t="n">
-        <v>1.721892377392E12</v>
+        <v>1.722990417859E12</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -21041,10 +22399,10 @@
         <v>4</v>
       </c>
       <c r="R433" t="n">
-        <v>2.3</v>
+        <v>1.2499999999999996</v>
       </c>
       <c r="T433" t="n">
-        <v>1.722590616568E12</v>
+        <v>1.72308073805E12</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -21064,7 +22422,7 @@
         <v>0.0</v>
       </c>
       <c r="T434" t="n">
-        <v>1.721725778792E12</v>
+        <v>1.722848275298E12</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -21084,7 +22442,7 @@
         <v>0.0</v>
       </c>
       <c r="T435" t="n">
-        <v>1.721725783374E12</v>
+        <v>1.722848279533E12</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -21101,10 +22459,10 @@
         <v>4</v>
       </c>
       <c r="R436" t="n">
-        <v>0.0</v>
+        <v>0.65</v>
       </c>
       <c r="T436" t="n">
-        <v>1.721725788084E12</v>
+        <v>1.722990645107E12</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -21121,10 +22479,10 @@
         <v>3</v>
       </c>
       <c r="R437" t="n">
-        <v>0.0</v>
+        <v>1.65</v>
       </c>
       <c r="T437" t="n">
-        <v>1.721725791187E12</v>
+        <v>1.723080740253E12</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -21144,7 +22502,7 @@
         <v>0.0</v>
       </c>
       <c r="T438" t="n">
-        <v>1.721725793855E12</v>
+        <v>1.722848287699E12</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -21164,7 +22522,7 @@
         <v>0.0</v>
       </c>
       <c r="T439" t="n">
-        <v>1.721725796434E12</v>
+        <v>1.722848288952E12</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -21181,10 +22539,10 @@
         <v>4</v>
       </c>
       <c r="R440" t="n">
-        <v>0.65</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T440" t="n">
-        <v>1.7218925428E12</v>
+        <v>1.723080742042E12</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -21201,10 +22559,10 @@
         <v>4</v>
       </c>
       <c r="R441" t="n">
-        <v>0.65</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T441" t="n">
-        <v>1.721892545195E12</v>
+        <v>1.723080743946E12</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -21224,7 +22582,7 @@
         <v>0.0</v>
       </c>
       <c r="T442" t="n">
-        <v>1.721725848617E12</v>
+        <v>1.722848452689E12</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -21244,7 +22602,7 @@
         <v>0.0</v>
       </c>
       <c r="T443" t="n">
-        <v>1.721725851185E12</v>
+        <v>1.722848454605E12</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -21264,7 +22622,7 @@
         <v>0.0</v>
       </c>
       <c r="T444" t="n">
-        <v>1.721725862494E12</v>
+        <v>1.722848456977E12</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -21281,10 +22639,10 @@
         <v>4</v>
       </c>
       <c r="R445" t="n">
-        <v>1.65</v>
+        <v>1.9499999999999997</v>
       </c>
       <c r="T445" t="n">
-        <v>1.721964526808E12</v>
+        <v>1.723080746133E12</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -21304,7 +22662,7 @@
         <v>0.0</v>
       </c>
       <c r="T446" t="n">
-        <v>1.721725945228E12</v>
+        <v>1.722848480901E12</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -21324,7 +22682,7 @@
         <v>0.0</v>
       </c>
       <c r="T447" t="n">
-        <v>1.721725947634E12</v>
+        <v>1.722848482775E12</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -21344,7 +22702,7 @@
         <v>0.0</v>
       </c>
       <c r="T448" t="n">
-        <v>1.72172595029E12</v>
+        <v>1.722848484273E12</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -21364,7 +22722,7 @@
         <v>0.0</v>
       </c>
       <c r="T449" t="n">
-        <v>1.72172595378E12</v>
+        <v>1.722848485957E12</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -21381,10 +22739,10 @@
         <v>4</v>
       </c>
       <c r="R450" t="n">
-        <v>0.65</v>
+        <v>1.9499999999999997</v>
       </c>
       <c r="T450" t="n">
-        <v>1.721892552476E12</v>
+        <v>1.723455006962E12</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -21401,10 +22759,10 @@
         <v>4</v>
       </c>
       <c r="R451" t="n">
-        <v>0.65</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T451" t="n">
-        <v>1.721892555198E12</v>
+        <v>1.72308075367E12</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -21421,10 +22779,10 @@
         <v>3</v>
       </c>
       <c r="R452" t="n">
-        <v>0.0</v>
+        <v>0.65</v>
       </c>
       <c r="T452" t="n">
-        <v>1.721725977007E12</v>
+        <v>1.722990665644E12</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -21444,7 +22802,7 @@
         <v>0.0</v>
       </c>
       <c r="T453" t="n">
-        <v>1.721725979996E12</v>
+        <v>1.72284849494E12</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -21461,10 +22819,10 @@
         <v>4</v>
       </c>
       <c r="R454" t="n">
-        <v>0.65</v>
+        <v>2.9499999999999997</v>
       </c>
       <c r="T454" t="n">
-        <v>1.721892557908E12</v>
+        <v>1.723455009175E12</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -21484,7 +22842,7 @@
         <v>0.0</v>
       </c>
       <c r="T455" t="n">
-        <v>1.721725985288E12</v>
+        <v>1.722848498918E12</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -21501,10 +22859,10 @@
         <v>4</v>
       </c>
       <c r="R456" t="n">
-        <v>0.65</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T456" t="n">
-        <v>1.721892560041E12</v>
+        <v>1.723080758664E12</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -21521,10 +22879,10 @@
         <v>4</v>
       </c>
       <c r="R457" t="n">
-        <v>1.65</v>
+        <v>2.5999999999999996</v>
       </c>
       <c r="T457" t="n">
-        <v>1.721964528708E12</v>
+        <v>1.723455011275E12</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -21544,7 +22902,7 @@
         <v>0.0</v>
       </c>
       <c r="T458" t="n">
-        <v>1.721725996588E12</v>
+        <v>1.722848578878E12</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -21561,10 +22919,10 @@
         <v>3</v>
       </c>
       <c r="R459" t="n">
-        <v>4.5500000000000025</v>
+        <v>2.4500000000000024</v>
       </c>
       <c r="T459" t="n">
-        <v>1.722847580088E12</v>
+        <v>1.723455012541E12</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -21584,7 +22942,7 @@
         <v>0.0</v>
       </c>
       <c r="T460" t="n">
-        <v>1.721726002629E12</v>
+        <v>1.722848582005E12</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -21604,7 +22962,7 @@
         <v>0.0</v>
       </c>
       <c r="T461" t="n">
-        <v>1.721726004473E12</v>
+        <v>1.722848583427E12</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -21621,10 +22979,10 @@
         <v>4</v>
       </c>
       <c r="R462" t="n">
-        <v>0.65</v>
+        <v>0.0</v>
       </c>
       <c r="T462" t="n">
-        <v>1.721892566551E12</v>
+        <v>1.722990679101E12</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -21641,10 +22999,10 @@
         <v>4</v>
       </c>
       <c r="R463" t="n">
-        <v>0.65</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T463" t="n">
-        <v>1.72189256945E12</v>
+        <v>1.723080765743E12</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -21661,10 +23019,10 @@
         <v>3</v>
       </c>
       <c r="R464" t="n">
-        <v>0.0</v>
+        <v>0.65</v>
       </c>
       <c r="T464" t="n">
-        <v>1.721726027232E12</v>
+        <v>1.722990811571E12</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -21684,7 +23042,7 @@
         <v>0.0</v>
       </c>
       <c r="T465" t="n">
-        <v>1.721726029834E12</v>
+        <v>1.722848601355E12</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -21704,7 +23062,7 @@
         <v>0.0</v>
       </c>
       <c r="T466" t="n">
-        <v>1.721726032198E12</v>
+        <v>1.722848603246E12</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -21721,10 +23079,10 @@
         <v>4</v>
       </c>
       <c r="R467" t="n">
-        <v>0.65</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T467" t="n">
-        <v>1.721892571513E12</v>
+        <v>1.723080767955E12</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -21741,10 +23099,10 @@
         <v>4</v>
       </c>
       <c r="R468" t="n">
-        <v>0.0</v>
+        <v>0.65</v>
       </c>
       <c r="T468" t="n">
-        <v>1.721726037649E12</v>
+        <v>1.722990817453E12</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -21761,10 +23119,10 @@
         <v>3</v>
       </c>
       <c r="R469" t="n">
-        <v>0.0</v>
+        <v>0.65</v>
       </c>
       <c r="T469" t="n">
-        <v>1.721726041251E12</v>
+        <v>1.722990820485E12</v>
       </c>
     </row>
     <row r="470" spans="1:4">
@@ -21784,7 +23142,7 @@
         <v>0.0</v>
       </c>
       <c r="T470" t="n">
-        <v>1.721726043481E12</v>
+        <v>1.722848684509E12</v>
       </c>
     </row>
     <row r="471" spans="1:4">
@@ -21801,10 +23159,10 @@
         <v>4</v>
       </c>
       <c r="R471" t="n">
-        <v>0.65</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T471" t="n">
-        <v>1.721892573901E12</v>
+        <v>1.723080770047E12</v>
       </c>
     </row>
     <row r="472" spans="1:4">
@@ -21821,10 +23179,10 @@
         <v>4</v>
       </c>
       <c r="R472" t="n">
-        <v>1.65</v>
+        <v>2.5999999999999996</v>
       </c>
       <c r="T472" t="n">
-        <v>1.721964534087E12</v>
+        <v>1.723455014565E12</v>
       </c>
     </row>
     <row r="473" spans="1:4">
@@ -21844,7 +23202,7 @@
         <v>0.0</v>
       </c>
       <c r="T473" t="n">
-        <v>1.721726054886E12</v>
+        <v>1.722848697014E12</v>
       </c>
     </row>
     <row r="474" spans="1:4">
@@ -21861,10 +23219,10 @@
         <v>4</v>
       </c>
       <c r="R474" t="n">
-        <v>0.0</v>
+        <v>0.65</v>
       </c>
       <c r="T474" t="n">
-        <v>1.721726057922E12</v>
+        <v>1.722990925249E12</v>
       </c>
     </row>
     <row r="475" spans="1:4">
@@ -21881,10 +23239,10 @@
         <v>4</v>
       </c>
       <c r="R475" t="n">
-        <v>0.0</v>
+        <v>0.65</v>
       </c>
       <c r="T475" t="n">
-        <v>1.721726059379E12</v>
+        <v>1.722990927642E12</v>
       </c>
     </row>
     <row r="476" spans="1:4">
@@ -21904,7 +23262,7 @@
         <v>0.0</v>
       </c>
       <c r="T476" t="n">
-        <v>1.721726061482E12</v>
+        <v>1.722848701693E12</v>
       </c>
     </row>
     <row r="477" spans="1:4">
@@ -21921,10 +23279,10 @@
         <v>3</v>
       </c>
       <c r="R477" t="n">
-        <v>0.0</v>
+        <v>1.65</v>
       </c>
       <c r="T477" t="n">
-        <v>1.721726112303E12</v>
+        <v>1.72308077538E12</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -21944,7 +23302,7 @@
         <v>0.0</v>
       </c>
       <c r="T478" t="n">
-        <v>1.721726152893E12</v>
+        <v>1.722848706684E12</v>
       </c>
     </row>
     <row r="479" spans="1:4">
@@ -21964,7 +23322,7 @@
         <v>0.0</v>
       </c>
       <c r="T479" t="n">
-        <v>1.721726154601E12</v>
+        <v>1.722848708641E12</v>
       </c>
     </row>
     <row r="480" spans="1:4">
@@ -21984,7 +23342,7 @@
         <v>0.0</v>
       </c>
       <c r="T480" t="n">
-        <v>1.721726156818E12</v>
+        <v>1.722848710411E12</v>
       </c>
     </row>
     <row r="481" spans="1:4">
@@ -22001,10 +23359,10 @@
         <v>4</v>
       </c>
       <c r="R481" t="n">
-        <v>0.65</v>
+        <v>0.0</v>
       </c>
       <c r="T481" t="n">
-        <v>1.721892577616E12</v>
+        <v>1.722990933615E12</v>
       </c>
     </row>
     <row r="482" spans="1:4">
@@ -22024,7 +23382,7 @@
         <v>0.0</v>
       </c>
       <c r="T482" t="n">
-        <v>1.72172616074E12</v>
+        <v>1.722848716129E12</v>
       </c>
     </row>
     <row r="483" spans="1:4">
@@ -22041,10 +23399,10 @@
         <v>3</v>
       </c>
       <c r="R483" t="n">
-        <v>1.65</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T483" t="n">
-        <v>1.721964536027E12</v>
+        <v>1.722990936357E12</v>
       </c>
     </row>
     <row r="484" spans="1:4">
@@ -22061,10 +23419,10 @@
         <v>4</v>
       </c>
       <c r="R484" t="n">
-        <v>1.65</v>
+        <v>2.5999999999999996</v>
       </c>
       <c r="T484" t="n">
-        <v>1.721964538537E12</v>
+        <v>1.723455016481E12</v>
       </c>
     </row>
     <row r="485" spans="1:4">
@@ -22084,7 +23442,7 @@
         <v>0.0</v>
       </c>
       <c r="T485" t="n">
-        <v>1.721726169451E12</v>
+        <v>1.722848721505E12</v>
       </c>
     </row>
     <row r="486" spans="1:4">
@@ -22101,10 +23459,10 @@
         <v>4</v>
       </c>
       <c r="R486" t="n">
-        <v>0.0</v>
+        <v>0.65</v>
       </c>
       <c r="T486" t="n">
-        <v>1.721726171273E12</v>
+        <v>1.722991002658E12</v>
       </c>
     </row>
     <row r="487" spans="1:4">
@@ -22124,7 +23482,7 @@
         <v>0.0</v>
       </c>
       <c r="T487" t="n">
-        <v>1.721726173224E12</v>
+        <v>1.722848725185E12</v>
       </c>
     </row>
     <row r="488" spans="1:4">
@@ -22141,10 +23499,10 @@
         <v>4</v>
       </c>
       <c r="R488" t="n">
-        <v>0.0</v>
+        <v>0.65</v>
       </c>
       <c r="T488" t="n">
-        <v>1.721726175418E12</v>
+        <v>1.722991004721E12</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -22161,10 +23519,10 @@
         <v>4</v>
       </c>
       <c r="R489" t="n">
-        <v>0.65</v>
+        <v>0.0</v>
       </c>
       <c r="T489" t="n">
-        <v>1.721892585968E12</v>
+        <v>1.722991006481E12</v>
       </c>
     </row>
     <row r="490" spans="1:4">
@@ -22184,7 +23542,7 @@
         <v>0.0</v>
       </c>
       <c r="T490" t="n">
-        <v>1.721726205613E12</v>
+        <v>1.72284873342E12</v>
       </c>
     </row>
     <row r="491" spans="1:4">
@@ -22201,10 +23559,10 @@
         <v>4</v>
       </c>
       <c r="R491" t="n">
-        <v>3.3</v>
+        <v>2.5499999999999994</v>
       </c>
       <c r="T491" t="n">
-        <v>1.722847581919E12</v>
+        <v>1.723455017901E12</v>
       </c>
     </row>
     <row r="492" spans="1:4">
@@ -22221,10 +23579,10 @@
         <v>3</v>
       </c>
       <c r="R492" t="n">
-        <v>2.3</v>
+        <v>1.2499999999999996</v>
       </c>
       <c r="T492" t="n">
-        <v>1.722590622719E12</v>
+        <v>1.723080780789E12</v>
       </c>
     </row>
     <row r="493" spans="1:4">
@@ -22244,7 +23602,7 @@
         <v>0.0</v>
       </c>
       <c r="T493" t="n">
-        <v>1.721726219124E12</v>
+        <v>1.722848739786E12</v>
       </c>
     </row>
     <row r="494" spans="1:4">
@@ -22264,7 +23622,7 @@
         <v>0.0</v>
       </c>
       <c r="T494" t="n">
-        <v>1.721726221607E12</v>
+        <v>1.722848742926E12</v>
       </c>
     </row>
     <row r="495" spans="1:4">
@@ -22281,10 +23639,10 @@
         <v>3</v>
       </c>
       <c r="R495" t="n">
-        <v>1.65</v>
+        <v>1.9499999999999997</v>
       </c>
       <c r="T495" t="n">
-        <v>1.721964546563E12</v>
+        <v>1.723080783795E12</v>
       </c>
     </row>
     <row r="496" spans="1:4">
@@ -22301,10 +23659,10 @@
         <v>4</v>
       </c>
       <c r="R496" t="n">
-        <v>0.65</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T496" t="n">
-        <v>1.72189260275E12</v>
+        <v>1.723080785655E12</v>
       </c>
     </row>
     <row r="497" spans="1:4">
@@ -22321,10 +23679,10 @@
         <v>4</v>
       </c>
       <c r="R497" t="n">
-        <v>0.65</v>
+        <v>0.0</v>
       </c>
       <c r="T497" t="n">
-        <v>1.721892606706E12</v>
+        <v>1.722991026882E12</v>
       </c>
     </row>
     <row r="498" spans="1:4">
@@ -22344,7 +23702,7 @@
         <v>0.0</v>
       </c>
       <c r="T498" t="n">
-        <v>1.721726362868E12</v>
+        <v>1.722848756038E12</v>
       </c>
     </row>
     <row r="499" spans="1:4">
@@ -22361,10 +23719,10 @@
         <v>4</v>
       </c>
       <c r="R499" t="n">
-        <v>0.65</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T499" t="n">
-        <v>1.721892608378E12</v>
+        <v>1.723080787477E12</v>
       </c>
     </row>
     <row r="500" spans="1:4">
@@ -22384,7 +23742,7 @@
         <v>0.0</v>
       </c>
       <c r="T500" t="n">
-        <v>1.721726368742E12</v>
+        <v>1.722848759364E12</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/初级工题库.xlsx
+++ b/src/main/resources/初级工题库.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4138" uniqueCount="1954">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4207" uniqueCount="1996">
   <si>
     <t>题型</t>
   </si>
@@ -5923,6 +5923,132 @@
   </si>
   <si>
     <t>您一共做了: 143题	您的得分： 74.82517482517483	做题时长约为41.63333333333333Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 4题	您的得分： 100.0	做题时长约为17.216666666666665Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 6题	您的得分： 83.33333333333334	做题时长约为1.15Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 2题	您的得分： 100.0	做题时长约为0.2Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 2题	您的得分： 100.0	做题时长约为0.3Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 108题	您的得分： 80.55555555555556	做题时长约为22.716666666666665Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 62题	您的得分： 93.54838709677419	做题时长约为35.06666666666667Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 8题	您的得分： 75.0	做题时长约为0.8833333333333333Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 53题	您的得分： 90.56603773584906	做题时长约为3.9833333333333334Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 7题	您的得分： 100.0	做题时长约为2.65Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 3题	您的得分： 100.0	做题时长约为0.45Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 24题	您的得分： 100.0	做题时长约为1.3833333333333333Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 14题	您的得分： 92.85714285714286	做题时长约为1.15Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 1题	您的得分： 100.0	做题时长约为0.15Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 11题	您的得分： 100.0	做题时长约为0.7833333333333333Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 10题	您的得分： 70.0	做题时长约为2.3333333333333335Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 3题	您的得分： 100.0	做题时长约为0.18333333333333332Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 4题	您的得分： 75.0	做题时长约为0.5666666666666667Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 1题	您的得分： 100.0	做题时长约为0.06666666666666667Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 2题	您的得分： 100.0	做题时长约为0.15Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 50题	您的得分： 92.0	做题时长约为4.8Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 4题	您的得分： 75.0	做题时长约为0.38333333333333336Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 1题	您的得分： 100.0	做题时长约为0.08333333333333333Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 1题	您的得分： 100.0	做题时长约为0.016666666666666666Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 2题	您的得分： 100.0	做题时长约为0.08333333333333333Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 5题	您的得分： 100.0	做题时长约为0.31666666666666665Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 31题	您的得分： 87.09677419354838	做题时长约为1.9333333333333333Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 4题	您的得分： 75.0	做题时长约为0.3Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 4题	您的得分： 100.0	做题时长约为0.26666666666666666Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 41题	您的得分： 92.6829268292683	做题时长约为4.733333333333333Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 3题	您的得分： 66.66666666666666	做题时长约为0.3333333333333333Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 12题	您的得分： 91.66666666666666	做题时长约为1.05Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 6题	您的得分： 100.0	做题时长约为0.43333333333333335Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 3题	您的得分： 100.0	做题时长约为0.1Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 93题	您的得分： 91.39784946236558	做题时长约为220.26666666666668Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 8题	您的得分： 87.5	做题时长约为1.4Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 6题	您的得分： 100.0	做题时长约为0.31666666666666665Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 4题	您的得分： 100.0	做题时长约为0.2Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 81题	您的得分： 98.76543209876543	做题时长约为5.55Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 68题	您的得分： 98.52941176470588	做题时长约为12.933333333333334Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 10题	您的得分： 90.0	做题时长约为3.183333333333333Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 3题	您的得分： 66.66666666666666	做题时长约为0.18333333333333332Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 203题	您的得分： 88.17733990147784	做题时长约为2676.5Min</t>
   </si>
 </sst>
 </file>
@@ -5982,7 +6108,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2546">
+  <cellXfs count="3548">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -8374,6 +8500,1008 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -8889,10 +10017,10 @@
         <v>1573</v>
       </c>
       <c r="R2" t="n">
-        <v>1.2999999999999998</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T2" t="n">
-        <v>1.723021653529E12</v>
+        <v>1.72379408818E12</v>
       </c>
       <c r="AA2" t="s">
         <v>1903</v>
@@ -8924,10 +10052,10 @@
         <v>1574</v>
       </c>
       <c r="R3" t="n">
-        <v>1.2999999999999998</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T3" t="n">
-        <v>1.723021689222E12</v>
+        <v>1.723794095813E12</v>
       </c>
       <c r="AA3" t="s">
         <v>1904</v>
@@ -8959,10 +10087,10 @@
         <v>1575</v>
       </c>
       <c r="R4" t="n">
-        <v>3.5999999999999996</v>
+        <v>1.3999999999999995</v>
       </c>
       <c r="T4" t="n">
-        <v>1.7234525345E12</v>
+        <v>1.723794097761E12</v>
       </c>
       <c r="AA4" t="s">
         <v>1905</v>
@@ -8997,10 +10125,10 @@
         <v>1576</v>
       </c>
       <c r="R5" t="n">
-        <v>1.9499999999999997</v>
+        <v>1.5999999999999996</v>
       </c>
       <c r="T5" t="n">
-        <v>1.723452547354E12</v>
+        <v>1.723794105824E12</v>
       </c>
       <c r="AA5" t="s">
         <v>1906</v>
@@ -9067,10 +10195,10 @@
         <v>997</v>
       </c>
       <c r="R7" t="n">
-        <v>1.2999999999999998</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T7" t="n">
-        <v>1.723021703275E12</v>
+        <v>1.723794110665E12</v>
       </c>
       <c r="AA7" t="s">
         <v>1908</v>
@@ -9102,10 +10230,10 @@
         <v>1296</v>
       </c>
       <c r="R8" t="n">
-        <v>1.9499999999999997</v>
+        <v>1.5999999999999996</v>
       </c>
       <c r="T8" t="n">
-        <v>1.723452552792E12</v>
+        <v>1.723794116552E12</v>
       </c>
       <c r="AA8" t="s">
         <v>1909</v>
@@ -9207,10 +10335,10 @@
         <v>1579</v>
       </c>
       <c r="R11" t="n">
-        <v>1.2999999999999998</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T11" t="n">
-        <v>1.723021795982E12</v>
+        <v>1.723794130884E12</v>
       </c>
       <c r="AA11" t="s">
         <v>1912</v>
@@ -9242,10 +10370,10 @@
         <v>1580</v>
       </c>
       <c r="R12" t="n">
-        <v>1.2999999999999998</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T12" t="n">
-        <v>1.723021801821E12</v>
+        <v>1.72379414515E12</v>
       </c>
       <c r="AA12" t="s">
         <v>1913</v>
@@ -9487,10 +10615,10 @@
         <v>1586</v>
       </c>
       <c r="R19" t="n">
-        <v>1.2999999999999998</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T19" t="n">
-        <v>1.723021807575E12</v>
+        <v>1.72379415161E12</v>
       </c>
       <c r="AA19" t="s">
         <v>1920</v>
@@ -9522,10 +10650,10 @@
         <v>1587</v>
       </c>
       <c r="R20" t="n">
-        <v>1.9499999999999997</v>
+        <v>1.5999999999999996</v>
       </c>
       <c r="T20" t="n">
-        <v>1.72345255759E12</v>
+        <v>1.723794155873E12</v>
       </c>
       <c r="AA20" t="s">
         <v>1921</v>
@@ -9592,10 +10720,10 @@
         <v>1589</v>
       </c>
       <c r="R22" t="n">
-        <v>1.2999999999999998</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T22" t="n">
-        <v>1.72302181486E12</v>
+        <v>1.723794163215E12</v>
       </c>
       <c r="AA22" t="s">
         <v>1923</v>
@@ -9627,10 +10755,10 @@
         <v>1590</v>
       </c>
       <c r="R23" t="n">
-        <v>1.9499999999999997</v>
+        <v>1.5999999999999996</v>
       </c>
       <c r="T23" t="n">
-        <v>1.723452562014E12</v>
+        <v>1.723794168067E12</v>
       </c>
       <c r="AA23" t="s">
         <v>1924</v>
@@ -9697,10 +10825,10 @@
         <v>1591</v>
       </c>
       <c r="R25" t="n">
-        <v>2.5500000000000003</v>
+        <v>1.5</v>
       </c>
       <c r="T25" t="n">
-        <v>1.723452565426E12</v>
+        <v>1.723794170447E12</v>
       </c>
       <c r="AA25" t="s">
         <v>1926</v>
@@ -9767,10 +10895,10 @@
         <v>1592</v>
       </c>
       <c r="R27" t="n">
-        <v>2.8999999999999995</v>
+        <v>1.4499999999999988</v>
       </c>
       <c r="T27" t="n">
-        <v>1.723452584857E12</v>
+        <v>1.723794172725E12</v>
       </c>
       <c r="AA27" t="s">
         <v>1928</v>
@@ -9837,10 +10965,10 @@
         <v>1594</v>
       </c>
       <c r="R29" t="n">
-        <v>1.65</v>
+        <v>2.65</v>
       </c>
       <c r="T29" t="n">
-        <v>1.723452587306E12</v>
+        <v>1.723794175546E12</v>
       </c>
       <c r="AA29" t="s">
         <v>1930</v>
@@ -10117,10 +11245,10 @@
         <v>1599</v>
       </c>
       <c r="R37" t="n">
-        <v>2.5000000000000013</v>
+        <v>1.450000000000001</v>
       </c>
       <c r="T37" t="n">
-        <v>1.723452599205E12</v>
+        <v>1.723794797977E12</v>
       </c>
       <c r="AA37" t="s">
         <v>1937</v>
@@ -10152,10 +11280,10 @@
         <v>1600</v>
       </c>
       <c r="R38" t="n">
-        <v>1.2999999999999998</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T38" t="n">
-        <v>1.723021929391E12</v>
+        <v>1.72379480602E12</v>
       </c>
       <c r="AA38" t="s">
         <v>1938</v>
@@ -10187,10 +11315,10 @@
         <v>1563</v>
       </c>
       <c r="R39" t="n">
-        <v>1.65</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T39" t="n">
-        <v>1.723452604272E12</v>
+        <v>1.723794810951E12</v>
       </c>
       <c r="AA39" t="s">
         <v>1939</v>
@@ -10222,10 +11350,10 @@
         <v>1563</v>
       </c>
       <c r="R40" t="n">
-        <v>2.5499999999999994</v>
+        <v>1.4999999999999991</v>
       </c>
       <c r="T40" t="n">
-        <v>1.723452606592E12</v>
+        <v>1.723794813318E12</v>
       </c>
       <c r="AA40" t="s">
         <v>1938</v>
@@ -10397,10 +11525,10 @@
         <v>1603</v>
       </c>
       <c r="R45" t="n">
-        <v>1.2999999999999998</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T45" t="n">
-        <v>1.723021949534E12</v>
+        <v>1.723794815968E12</v>
       </c>
       <c r="AA45" t="s">
         <v>1944</v>
@@ -10467,10 +11595,10 @@
         <v>1605</v>
       </c>
       <c r="R47" t="n">
-        <v>1.5999999999999996</v>
+        <v>1.2499999999999996</v>
       </c>
       <c r="T47" t="n">
-        <v>1.723021955107E12</v>
+        <v>1.723794819661E12</v>
       </c>
       <c r="AA47" t="s">
         <v>1946</v>
@@ -10537,10 +11665,10 @@
         <v>1607</v>
       </c>
       <c r="R49" t="n">
-        <v>1.2999999999999998</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T49" t="n">
-        <v>1.723021957043E12</v>
+        <v>1.723794822586E12</v>
       </c>
       <c r="AA49" t="s">
         <v>1948</v>
@@ -10572,10 +11700,10 @@
         <v>1608</v>
       </c>
       <c r="R50" t="n">
-        <v>1.2999999999999998</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T50" t="n">
-        <v>1.723021965527E12</v>
+        <v>1.723794835515E12</v>
       </c>
       <c r="AA50" t="s">
         <v>1949</v>
@@ -10642,10 +11770,10 @@
         <v>1610</v>
       </c>
       <c r="R52" t="n">
-        <v>1.2999999999999998</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T52" t="n">
-        <v>1.723021972072E12</v>
+        <v>1.723794846057E12</v>
       </c>
       <c r="AA52" t="s">
         <v>1951</v>
@@ -10677,10 +11805,10 @@
         <v>1611</v>
       </c>
       <c r="R53" t="n">
-        <v>5.65</v>
+        <v>1.450000000000001</v>
       </c>
       <c r="T53" t="n">
-        <v>1.723452612258E12</v>
+        <v>1.723794850886E12</v>
       </c>
       <c r="AA53" t="s">
         <v>1936</v>
@@ -10782,10 +11910,13 @@
         <v>1614</v>
       </c>
       <c r="R56" t="n">
-        <v>1.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="T56" t="n">
-        <v>1.723022001881E12</v>
+        <v>1.723794855724E12</v>
+      </c>
+      <c r="AA56" t="s">
+        <v>1954</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -10819,6 +11950,9 @@
       <c r="T57" t="n">
         <v>1.722906719884E12</v>
       </c>
+      <c r="AA57" t="s">
+        <v>1955</v>
+      </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="1">
@@ -10851,6 +11985,9 @@
       <c r="T58" t="n">
         <v>1.722906727604E12</v>
       </c>
+      <c r="AA58" t="s">
+        <v>1956</v>
+      </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="1">
@@ -10883,6 +12020,9 @@
       <c r="T59" t="n">
         <v>1.722906733643E12</v>
       </c>
+      <c r="AA59" t="s">
+        <v>1957</v>
+      </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="1">
@@ -10915,6 +12055,9 @@
       <c r="T60" t="n">
         <v>1.722906737162E12</v>
       </c>
+      <c r="AA60" t="s">
+        <v>1958</v>
+      </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="1">
@@ -10947,6 +12090,9 @@
       <c r="T61" t="n">
         <v>1.722906741677E12</v>
       </c>
+      <c r="AA61" t="s">
+        <v>1959</v>
+      </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="1">
@@ -10979,6 +12125,9 @@
       <c r="T62" t="n">
         <v>1.722906814398E12</v>
       </c>
+      <c r="AA62" t="s">
+        <v>1960</v>
+      </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="1">
@@ -11011,6 +12160,9 @@
       <c r="T63" t="n">
         <v>1.722906828806E12</v>
       </c>
+      <c r="AA63" t="s">
+        <v>1961</v>
+      </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="1">
@@ -11043,6 +12195,9 @@
       <c r="T64" t="n">
         <v>1.722906835688E12</v>
       </c>
+      <c r="AA64" t="s">
+        <v>1951</v>
+      </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="1">
@@ -11075,6 +12230,9 @@
       <c r="T65" t="n">
         <v>1.723022047096E12</v>
       </c>
+      <c r="AA65" t="s">
+        <v>1962</v>
+      </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="1">
@@ -11107,6 +12265,9 @@
       <c r="T66" t="n">
         <v>1.722906906684E12</v>
       </c>
+      <c r="AA66" t="s">
+        <v>1963</v>
+      </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="1">
@@ -11139,6 +12300,9 @@
       <c r="T67" t="n">
         <v>1.722906912301E12</v>
       </c>
+      <c r="AA67" t="s">
+        <v>1964</v>
+      </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="1">
@@ -11171,6 +12335,9 @@
       <c r="T68" t="n">
         <v>1.722906917154E12</v>
       </c>
+      <c r="AA68" t="s">
+        <v>1965</v>
+      </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="1">
@@ -11198,10 +12365,13 @@
         <v>1626</v>
       </c>
       <c r="R69" t="n">
-        <v>2.9000000000000004</v>
+        <v>1.5</v>
       </c>
       <c r="T69" t="n">
-        <v>1.723452637767E12</v>
+        <v>1.723794859401E12</v>
+      </c>
+      <c r="AA69" t="s">
+        <v>1966</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -11230,10 +12400,13 @@
         <v>1297</v>
       </c>
       <c r="R70" t="n">
-        <v>1.2999999999999998</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T70" t="n">
-        <v>1.723022097957E12</v>
+        <v>1.723794864288E12</v>
+      </c>
+      <c r="AA70" t="s">
+        <v>1967</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -11267,6 +12440,9 @@
       <c r="T71" t="n">
         <v>1.722906977013E12</v>
       </c>
+      <c r="AA71" t="s">
+        <v>1968</v>
+      </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="1">
@@ -11294,10 +12470,13 @@
         <v>1628</v>
       </c>
       <c r="R72" t="n">
-        <v>1.9499999999999997</v>
+        <v>1.5999999999999996</v>
       </c>
       <c r="T72" t="n">
-        <v>1.723452640472E12</v>
+        <v>1.723794868356E12</v>
+      </c>
+      <c r="AA72" t="s">
+        <v>1969</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -11331,6 +12510,9 @@
       <c r="T73" t="n">
         <v>1.722908798483E12</v>
       </c>
+      <c r="AA73" t="s">
+        <v>1970</v>
+      </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="1">
@@ -11358,10 +12540,13 @@
         <v>1630</v>
       </c>
       <c r="R74" t="n">
-        <v>1.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="T74" t="n">
-        <v>1.723022103769E12</v>
+        <v>1.723794871276E12</v>
+      </c>
+      <c r="AA74" t="s">
+        <v>1971</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -11395,6 +12580,9 @@
       <c r="T75" t="n">
         <v>1.722908818652E12</v>
       </c>
+      <c r="AA75" t="s">
+        <v>1951</v>
+      </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="1">
@@ -11422,10 +12610,13 @@
         <v>1632</v>
       </c>
       <c r="R76" t="n">
-        <v>2.2499999999999996</v>
+        <v>1.3499999999999979</v>
       </c>
       <c r="T76" t="n">
-        <v>1.723452646686E12</v>
+        <v>1.723794878258E12</v>
+      </c>
+      <c r="AA76" t="s">
+        <v>1969</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -11459,6 +12650,9 @@
       <c r="T77" t="n">
         <v>1.722908862145E12</v>
       </c>
+      <c r="AA77" t="s">
+        <v>1972</v>
+      </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="1">
@@ -11491,6 +12685,9 @@
       <c r="T78" t="n">
         <v>1.722908866221E12</v>
       </c>
+      <c r="AA78" t="s">
+        <v>1973</v>
+      </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="1">
@@ -11523,6 +12720,9 @@
       <c r="T79" t="n">
         <v>1.722908875586E12</v>
       </c>
+      <c r="AA79" t="s">
+        <v>1974</v>
+      </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="1">
@@ -11550,10 +12750,13 @@
         <v>1636</v>
       </c>
       <c r="R80" t="n">
-        <v>2.2499999999999996</v>
+        <v>1.5499999999999994</v>
       </c>
       <c r="T80" t="n">
-        <v>1.723452714884E12</v>
+        <v>1.723794881556E12</v>
+      </c>
+      <c r="AA80" t="s">
+        <v>1975</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -11582,10 +12785,13 @@
         <v>1637</v>
       </c>
       <c r="R81" t="n">
-        <v>2.9000000000000004</v>
+        <v>1.5</v>
       </c>
       <c r="T81" t="n">
-        <v>1.723452718332E12</v>
+        <v>1.723794883673E12</v>
+      </c>
+      <c r="AA81" t="s">
+        <v>1976</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -11614,10 +12820,13 @@
         <v>566</v>
       </c>
       <c r="R82" t="n">
-        <v>1.65</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T82" t="n">
-        <v>1.723452862932E12</v>
+        <v>1.723794887376E12</v>
+      </c>
+      <c r="AA82" t="s">
+        <v>1976</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -11646,10 +12855,13 @@
         <v>1638</v>
       </c>
       <c r="R83" t="n">
-        <v>3.3</v>
+        <v>1.5499999999999994</v>
       </c>
       <c r="T83" t="n">
-        <v>1.723452867236E12</v>
+        <v>1.72379488949E12</v>
+      </c>
+      <c r="AA83" t="s">
+        <v>1977</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -11683,6 +12895,9 @@
       <c r="T84" t="n">
         <v>1.722909093282E12</v>
       </c>
+      <c r="AA84" t="s">
+        <v>1978</v>
+      </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="1">
@@ -11715,6 +12930,9 @@
       <c r="T85" t="n">
         <v>1.722909106699E12</v>
       </c>
+      <c r="AA85" t="s">
+        <v>1979</v>
+      </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="1">
@@ -11742,10 +12960,13 @@
         <v>1641</v>
       </c>
       <c r="R86" t="n">
-        <v>1.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="T86" t="n">
-        <v>1.72302242146E12</v>
+        <v>1.723794896591E12</v>
+      </c>
+      <c r="AA86" t="s">
+        <v>1980</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -11779,6 +13000,9 @@
       <c r="T87" t="n">
         <v>1.72290912116E12</v>
       </c>
+      <c r="AA87" t="s">
+        <v>1917</v>
+      </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="1">
@@ -11811,6 +13035,9 @@
       <c r="T88" t="n">
         <v>1.722909127284E12</v>
       </c>
+      <c r="AA88" t="s">
+        <v>1976</v>
+      </c>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="1">
@@ -11838,10 +13065,13 @@
         <v>1644</v>
       </c>
       <c r="R89" t="n">
-        <v>1.65</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T89" t="n">
-        <v>1.72345292299E12</v>
+        <v>1.723794902493E12</v>
+      </c>
+      <c r="AA89" t="s">
+        <v>1926</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -11870,10 +13100,13 @@
         <v>1645</v>
       </c>
       <c r="R90" t="n">
-        <v>1.2999999999999998</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T90" t="n">
-        <v>1.723022435874E12</v>
+        <v>1.723794905482E12</v>
+      </c>
+      <c r="AA90" t="s">
+        <v>1981</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -11907,6 +13140,9 @@
       <c r="T91" t="n">
         <v>1.722909177906E12</v>
       </c>
+      <c r="AA91" t="s">
+        <v>1982</v>
+      </c>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="1">
@@ -11934,10 +13170,13 @@
         <v>1647</v>
       </c>
       <c r="R92" t="n">
-        <v>1.9499999999999997</v>
+        <v>1.5999999999999996</v>
       </c>
       <c r="T92" t="n">
-        <v>1.723453562455E12</v>
+        <v>1.723794955307E12</v>
+      </c>
+      <c r="AA92" t="s">
+        <v>1983</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -11971,6 +13210,9 @@
       <c r="T93" t="n">
         <v>1.722909191584E12</v>
       </c>
+      <c r="AA93" t="s">
+        <v>1975</v>
+      </c>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="1">
@@ -12003,6 +13245,9 @@
       <c r="T94" t="n">
         <v>1.723022444656E12</v>
       </c>
+      <c r="AA94" t="s">
+        <v>1976</v>
+      </c>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="1">
@@ -12035,6 +13280,9 @@
       <c r="T95" t="n">
         <v>1.723022446327E12</v>
       </c>
+      <c r="AA95" t="s">
+        <v>1942</v>
+      </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="1">
@@ -12067,6 +13315,9 @@
       <c r="T96" t="n">
         <v>1.722909237658E12</v>
       </c>
+      <c r="AA96" t="s">
+        <v>1917</v>
+      </c>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="1">
@@ -12099,6 +13350,9 @@
       <c r="T97" t="n">
         <v>1.722909241446E12</v>
       </c>
+      <c r="AA97" t="s">
+        <v>1984</v>
+      </c>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="1">
@@ -12126,10 +13380,13 @@
         <v>1653</v>
       </c>
       <c r="R98" t="n">
-        <v>3.65</v>
+        <v>1.5499999999999994</v>
       </c>
       <c r="T98" t="n">
-        <v>1.723453575933E12</v>
+        <v>1.723794985929E12</v>
+      </c>
+      <c r="AA98" t="s">
+        <v>1951</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -12158,10 +13415,13 @@
         <v>1654</v>
       </c>
       <c r="R99" t="n">
-        <v>1.65</v>
+        <v>2.65</v>
       </c>
       <c r="T99" t="n">
-        <v>1.723453586313E12</v>
+        <v>1.723795041623E12</v>
+      </c>
+      <c r="AA99" t="s">
+        <v>1976</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -12190,10 +13450,13 @@
         <v>1655</v>
       </c>
       <c r="R100" t="n">
-        <v>2.5499999999999994</v>
+        <v>1.4999999999999991</v>
       </c>
       <c r="T100" t="n">
-        <v>1.723453593284E12</v>
+        <v>1.723795046135E12</v>
+      </c>
+      <c r="AA100" t="s">
+        <v>1985</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -12227,6 +13490,9 @@
       <c r="T101" t="n">
         <v>1.723022578266E12</v>
       </c>
+      <c r="AA101" t="s">
+        <v>1986</v>
+      </c>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="1">
@@ -12259,6 +13525,9 @@
       <c r="T102" t="n">
         <v>1.722914612665E12</v>
       </c>
+      <c r="AA102" t="s">
+        <v>1951</v>
+      </c>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="1">
@@ -12286,10 +13555,13 @@
         <v>607</v>
       </c>
       <c r="R103" t="n">
-        <v>2.2499999999999996</v>
+        <v>1.5499999999999994</v>
       </c>
       <c r="T103" t="n">
-        <v>1.723453626889E12</v>
+        <v>1.723795047662E12</v>
+      </c>
+      <c r="AA103" t="s">
+        <v>1987</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -12318,10 +13590,13 @@
         <v>1657</v>
       </c>
       <c r="R104" t="n">
-        <v>1.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="T104" t="n">
-        <v>1.723022585713E12</v>
+        <v>1.723795050395E12</v>
+      </c>
+      <c r="AA104" t="s">
+        <v>1988</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -12350,10 +13625,13 @@
         <v>1658</v>
       </c>
       <c r="R105" t="n">
-        <v>1.9499999999999997</v>
+        <v>1.5999999999999996</v>
       </c>
       <c r="T105" t="n">
-        <v>1.723453635783E12</v>
+        <v>1.723795055331E12</v>
+      </c>
+      <c r="AA105" t="s">
+        <v>1989</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -12387,6 +13665,9 @@
       <c r="T106" t="n">
         <v>1.722914662199E12</v>
       </c>
+      <c r="AA106" t="s">
+        <v>1990</v>
+      </c>
     </row>
     <row r="107" spans="1:8">
       <c r="A107" s="1">
@@ -12419,6 +13700,9 @@
       <c r="T107" t="n">
         <v>1.723022595159E12</v>
       </c>
+      <c r="AA107" t="s">
+        <v>1976</v>
+      </c>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="1">
@@ -12451,6 +13735,9 @@
       <c r="T108" t="n">
         <v>1.722914714561E12</v>
       </c>
+      <c r="AA108" t="s">
+        <v>1976</v>
+      </c>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="1">
@@ -12483,6 +13770,9 @@
       <c r="T109" t="n">
         <v>1.72302259885E12</v>
       </c>
+      <c r="AA109" t="s">
+        <v>1976</v>
+      </c>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="1">
@@ -12515,6 +13805,9 @@
       <c r="T110" t="n">
         <v>1.722914856395E12</v>
       </c>
+      <c r="AA110" t="s">
+        <v>1976</v>
+      </c>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="1">
@@ -12547,6 +13840,9 @@
       <c r="T111" t="n">
         <v>1.722914860273E12</v>
       </c>
+      <c r="AA111" t="s">
+        <v>1991</v>
+      </c>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="1">
@@ -12574,10 +13870,13 @@
         <v>1067</v>
       </c>
       <c r="R112" t="n">
-        <v>1.65</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T112" t="n">
-        <v>1.723453639501E12</v>
+        <v>1.723795059504E12</v>
+      </c>
+      <c r="AA112" t="s">
+        <v>1951</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -12606,10 +13905,13 @@
         <v>1664</v>
       </c>
       <c r="R113" t="n">
-        <v>1.65</v>
+        <v>2.65</v>
       </c>
       <c r="T113" t="n">
-        <v>1.72345365582E12</v>
+        <v>1.723795068365E12</v>
+      </c>
+      <c r="AA113" t="s">
+        <v>1992</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -12638,10 +13940,13 @@
         <v>1665</v>
       </c>
       <c r="R114" t="n">
-        <v>1.9499999999999997</v>
+        <v>1.5999999999999996</v>
       </c>
       <c r="T114" t="n">
-        <v>1.723453660992E12</v>
+        <v>1.723795097586E12</v>
+      </c>
+      <c r="AA114" t="s">
+        <v>1975</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -12675,6 +13980,9 @@
       <c r="T115" t="n">
         <v>1.722914941533E12</v>
       </c>
+      <c r="AA115" t="s">
+        <v>1993</v>
+      </c>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" s="1">
@@ -12707,6 +14015,9 @@
       <c r="T116" t="n">
         <v>1.722914946742E12</v>
       </c>
+      <c r="AA116" t="s">
+        <v>1994</v>
+      </c>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" s="1">
@@ -12739,6 +14050,9 @@
       <c r="T117" t="n">
         <v>1.722915053823E12</v>
       </c>
+      <c r="AA117" t="s">
+        <v>1917</v>
+      </c>
     </row>
     <row r="118" spans="1:8">
       <c r="A118" s="1">
@@ -12771,6 +14085,9 @@
       <c r="T118" t="n">
         <v>1.722927007237E12</v>
       </c>
+      <c r="AA118" t="s">
+        <v>1976</v>
+      </c>
     </row>
     <row r="119" spans="1:8">
       <c r="A119" s="1">
@@ -12798,10 +14115,13 @@
         <v>1670</v>
       </c>
       <c r="R119" t="n">
-        <v>2.9000000000000004</v>
+        <v>1.5</v>
       </c>
       <c r="T119" t="n">
-        <v>1.723453666741E12</v>
+        <v>1.72379510253E12</v>
+      </c>
+      <c r="AA119" t="s">
+        <v>1976</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -12830,10 +14150,13 @@
         <v>1263</v>
       </c>
       <c r="R120" t="n">
-        <v>1.2999999999999998</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T120" t="n">
-        <v>1.723077481403E12</v>
+        <v>1.723795105665E12</v>
+      </c>
+      <c r="AA120" t="s">
+        <v>1976</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -12862,10 +14185,13 @@
         <v>1671</v>
       </c>
       <c r="R121" t="n">
-        <v>1.9499999999999997</v>
+        <v>1.5999999999999996</v>
       </c>
       <c r="T121" t="n">
-        <v>1.723453668422E12</v>
+        <v>1.723795109304E12</v>
+      </c>
+      <c r="AA121" t="s">
+        <v>1986</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -12894,10 +14220,13 @@
         <v>1672</v>
       </c>
       <c r="R122" t="n">
-        <v>3.65</v>
+        <v>1.450000000000001</v>
       </c>
       <c r="T122" t="n">
-        <v>1.72345372524E12</v>
+        <v>1.723795111267E12</v>
+      </c>
+      <c r="AA122" t="s">
+        <v>1976</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -12926,10 +14255,13 @@
         <v>1673</v>
       </c>
       <c r="R123" t="n">
-        <v>1.5999999999999996</v>
+        <v>1.2499999999999996</v>
       </c>
       <c r="T123" t="n">
-        <v>1.723077496384E12</v>
+        <v>1.723795120179E12</v>
+      </c>
+      <c r="AA123" t="s">
+        <v>1951</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -12958,10 +14290,13 @@
         <v>1674</v>
       </c>
       <c r="R124" t="n">
-        <v>2.5500000000000003</v>
+        <v>1.5</v>
       </c>
       <c r="T124" t="n">
-        <v>1.723453732188E12</v>
+        <v>1.723795125412E12</v>
+      </c>
+      <c r="AA124" t="s">
+        <v>1995</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -12990,10 +14325,10 @@
         <v>1675</v>
       </c>
       <c r="R125" t="n">
-        <v>1.2999999999999998</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T125" t="n">
-        <v>1.723077523263E12</v>
+        <v>1.723795132509E12</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -13054,10 +14389,10 @@
         <v>1676</v>
       </c>
       <c r="R127" t="n">
-        <v>4.150000000000004</v>
+        <v>1.3500000000000032</v>
       </c>
       <c r="T127" t="n">
-        <v>1.723453735267E12</v>
+        <v>1.723795134909E12</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -13086,10 +14421,10 @@
         <v>1677</v>
       </c>
       <c r="R128" t="n">
-        <v>1.5999999999999996</v>
+        <v>1.2499999999999996</v>
       </c>
       <c r="T128" t="n">
-        <v>1.7230775337E12</v>
+        <v>1.723795169172E12</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -13118,10 +14453,10 @@
         <v>1678</v>
       </c>
       <c r="R129" t="n">
-        <v>3.65</v>
+        <v>1.5</v>
       </c>
       <c r="T129" t="n">
-        <v>1.723453742199E12</v>
+        <v>1.723795171732E12</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -13150,10 +14485,10 @@
         <v>1679</v>
       </c>
       <c r="R130" t="n">
-        <v>2.3</v>
+        <v>1.5999999999999996</v>
       </c>
       <c r="T130" t="n">
-        <v>1.723453753149E12</v>
+        <v>1.723795178455E12</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -13182,10 +14517,10 @@
         <v>1680</v>
       </c>
       <c r="R131" t="n">
-        <v>2.2499999999999996</v>
+        <v>1.5499999999999994</v>
       </c>
       <c r="T131" t="n">
-        <v>1.72345379592E12</v>
+        <v>1.723795182201E12</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -13246,10 +14581,10 @@
         <v>1682</v>
       </c>
       <c r="R133" t="n">
-        <v>1.2999999999999998</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T133" t="n">
-        <v>1.723077622969E12</v>
+        <v>1.723795186151E12</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -13342,10 +14677,10 @@
         <v>1684</v>
       </c>
       <c r="R136" t="n">
-        <v>1.65</v>
+        <v>2.65</v>
       </c>
       <c r="T136" t="n">
-        <v>1.723453799755E12</v>
+        <v>1.723795191406E12</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -13406,10 +14741,10 @@
         <v>1685</v>
       </c>
       <c r="R138" t="n">
-        <v>1.2999999999999998</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T138" t="n">
-        <v>1.723077645622E12</v>
+        <v>1.723795202645E12</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -13886,10 +15221,10 @@
         <v>1698</v>
       </c>
       <c r="R153" t="n">
-        <v>1.5999999999999996</v>
+        <v>1.2499999999999996</v>
       </c>
       <c r="T153" t="n">
-        <v>1.723077678434E12</v>
+        <v>1.723795204277E12</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -13982,10 +15317,10 @@
         <v>1701</v>
       </c>
       <c r="R156" t="n">
-        <v>1.2999999999999998</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T156" t="n">
-        <v>1.723077684198E12</v>
+        <v>1.723795206172E12</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -14014,10 +15349,10 @@
         <v>1702</v>
       </c>
       <c r="R157" t="n">
-        <v>1.5999999999999996</v>
+        <v>1.2499999999999996</v>
       </c>
       <c r="T157" t="n">
-        <v>1.723077685793E12</v>
+        <v>1.723795208499E12</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -14078,10 +15413,10 @@
         <v>1703</v>
       </c>
       <c r="R159" t="n">
-        <v>1.2999999999999998</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T159" t="n">
-        <v>1.723077727902E12</v>
+        <v>1.72379521882E12</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -14174,10 +15509,10 @@
         <v>1706</v>
       </c>
       <c r="R162" t="n">
-        <v>3.2499999999999996</v>
+        <v>1.4999999999999991</v>
       </c>
       <c r="T162" t="n">
-        <v>1.723453840252E12</v>
+        <v>1.723795223288E12</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -14238,10 +15573,10 @@
         <v>1708</v>
       </c>
       <c r="R164" t="n">
-        <v>1.2999999999999998</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T164" t="n">
-        <v>1.723077737062E12</v>
+        <v>1.723795226819E12</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -14270,10 +15605,10 @@
         <v>1709</v>
       </c>
       <c r="R165" t="n">
-        <v>1.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="T165" t="n">
-        <v>1.723077756448E12</v>
+        <v>1.723795235393E12</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -14334,10 +15669,10 @@
         <v>1711</v>
       </c>
       <c r="R167" t="n">
-        <v>1.5999999999999996</v>
+        <v>2.5999999999999996</v>
       </c>
       <c r="T167" t="n">
-        <v>1.723077759429E12</v>
+        <v>1.723795256294E12</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -14398,10 +15733,10 @@
         <v>1713</v>
       </c>
       <c r="R169" t="n">
-        <v>1.2999999999999998</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T169" t="n">
-        <v>1.723077763394E12</v>
+        <v>1.723795261081E12</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -14526,10 +15861,10 @@
         <v>1716</v>
       </c>
       <c r="R173" t="n">
-        <v>2.3</v>
+        <v>1.5999999999999996</v>
       </c>
       <c r="T173" t="n">
-        <v>1.72345386041E12</v>
+        <v>1.723795271066E12</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -14654,10 +15989,10 @@
         <v>1720</v>
       </c>
       <c r="R177" t="n">
-        <v>3.0</v>
+        <v>1.4999999999999991</v>
       </c>
       <c r="T177" t="n">
-        <v>1.723453865394E12</v>
+        <v>1.723795274116E12</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -14814,10 +16149,10 @@
         <v>1699</v>
       </c>
       <c r="R182" t="n">
-        <v>3.2499999999999996</v>
+        <v>1.4999999999999991</v>
       </c>
       <c r="T182" t="n">
-        <v>1.723454097571E12</v>
+        <v>1.723795277013E12</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -14910,10 +16245,10 @@
         <v>1727</v>
       </c>
       <c r="R185" t="n">
-        <v>3.2499999999999996</v>
+        <v>1.4999999999999991</v>
       </c>
       <c r="T185" t="n">
-        <v>1.723454102213E12</v>
+        <v>1.723795329256E12</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -14974,10 +16309,10 @@
         <v>1727</v>
       </c>
       <c r="R187" t="n">
-        <v>3.0</v>
+        <v>1.5999999999999996</v>
       </c>
       <c r="T187" t="n">
-        <v>1.723454115802E12</v>
+        <v>1.723795359353E12</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -15070,10 +16405,10 @@
         <v>1729</v>
       </c>
       <c r="R190" t="n">
-        <v>3.3</v>
+        <v>1.4999999999999991</v>
       </c>
       <c r="T190" t="n">
-        <v>1.723454154091E12</v>
+        <v>1.723795364779E12</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -15102,10 +16437,10 @@
         <v>1729</v>
       </c>
       <c r="R191" t="n">
-        <v>3.3</v>
+        <v>1.3000000000000025</v>
       </c>
       <c r="T191" t="n">
-        <v>1.72345416303E12</v>
+        <v>1.723795371909E12</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -15134,10 +16469,10 @@
         <v>1385</v>
       </c>
       <c r="R192" t="n">
-        <v>1.2999999999999998</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T192" t="n">
-        <v>1.723077825416E12</v>
+        <v>1.723795374949E12</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -15198,10 +16533,10 @@
         <v>1729</v>
       </c>
       <c r="R194" t="n">
-        <v>6.6000000000000005</v>
+        <v>1.3000000000000034</v>
       </c>
       <c r="T194" t="n">
-        <v>1.723454173943E12</v>
+        <v>1.72379538234E12</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -15422,10 +16757,10 @@
         <v>1729</v>
       </c>
       <c r="R201" t="n">
-        <v>2.5500000000000003</v>
+        <v>1.4499999999999997</v>
       </c>
       <c r="T201" t="n">
-        <v>1.723454208124E12</v>
+        <v>1.723795386132E12</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -15966,10 +17301,10 @@
         <v>1747</v>
       </c>
       <c r="R218" t="n">
-        <v>3.9000000000000017</v>
+        <v>1.450000000000001</v>
       </c>
       <c r="T218" t="n">
-        <v>1.723454214929E12</v>
+        <v>1.723795452623E12</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -16062,10 +17397,10 @@
         <v>1750</v>
       </c>
       <c r="R221" t="n">
-        <v>2.5500000000000003</v>
+        <v>1.5</v>
       </c>
       <c r="T221" t="n">
-        <v>1.723454218734E12</v>
+        <v>1.723795455315E12</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -16158,10 +17493,10 @@
         <v>1752</v>
       </c>
       <c r="R224" t="n">
-        <v>1.2999999999999998</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T224" t="n">
-        <v>1.723078045372E12</v>
+        <v>1.723795460341E12</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -16190,10 +17525,10 @@
         <v>1753</v>
       </c>
       <c r="R225" t="n">
-        <v>1.5999999999999996</v>
+        <v>1.2499999999999996</v>
       </c>
       <c r="T225" t="n">
-        <v>1.723078047287E12</v>
+        <v>1.723795463966E12</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -16286,10 +17621,10 @@
         <v>1755</v>
       </c>
       <c r="R228" t="n">
-        <v>4.900000000000002</v>
+        <v>1.4000000000000021</v>
       </c>
       <c r="T228" t="n">
-        <v>1.723454270841E12</v>
+        <v>1.723795465828E12</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -16446,10 +17781,10 @@
         <v>1760</v>
       </c>
       <c r="R233" t="n">
-        <v>3.0</v>
+        <v>1.5</v>
       </c>
       <c r="T233" t="n">
-        <v>1.72345430344E12</v>
+        <v>1.723795467126E12</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -16478,10 +17813,10 @@
         <v>1761</v>
       </c>
       <c r="R234" t="n">
-        <v>1.2999999999999998</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T234" t="n">
-        <v>1.723078099231E12</v>
+        <v>1.723795471459E12</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -16638,10 +17973,10 @@
         <v>1766</v>
       </c>
       <c r="R239" t="n">
-        <v>1.9499999999999997</v>
+        <v>1.5999999999999996</v>
       </c>
       <c r="T239" t="n">
-        <v>1.723454322398E12</v>
+        <v>1.723795478837E12</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -16670,10 +18005,10 @@
         <v>1767</v>
       </c>
       <c r="R240" t="n">
-        <v>3.0</v>
+        <v>1.5499999999999994</v>
       </c>
       <c r="T240" t="n">
-        <v>1.723454328068E12</v>
+        <v>1.723795485467E12</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -16702,10 +18037,10 @@
         <v>1768</v>
       </c>
       <c r="R241" t="n">
-        <v>1.65</v>
+        <v>2.65</v>
       </c>
       <c r="T241" t="n">
-        <v>1.723454366008E12</v>
+        <v>1.723795576436E12</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -16830,10 +18165,10 @@
         <v>1772</v>
       </c>
       <c r="R245" t="n">
-        <v>3.65</v>
+        <v>1.5499999999999994</v>
       </c>
       <c r="T245" t="n">
-        <v>1.7234543711E12</v>
+        <v>1.723795579601E12</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -16862,10 +18197,10 @@
         <v>1773</v>
       </c>
       <c r="R246" t="n">
-        <v>3.65</v>
+        <v>1.5499999999999994</v>
       </c>
       <c r="T246" t="n">
-        <v>1.723454374802E12</v>
+        <v>1.723795581369E12</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -16958,10 +18293,10 @@
         <v>1776</v>
       </c>
       <c r="R249" t="n">
-        <v>1.2999999999999998</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T249" t="n">
-        <v>1.72307824473E12</v>
+        <v>1.723795587561E12</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -16990,10 +18325,10 @@
         <v>1777</v>
       </c>
       <c r="R250" t="n">
-        <v>2.9499999999999997</v>
+        <v>1.5499999999999994</v>
       </c>
       <c r="T250" t="n">
-        <v>1.723454383336E12</v>
+        <v>1.723795589349E12</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -17086,10 +18421,10 @@
         <v>1779</v>
       </c>
       <c r="R253" t="n">
-        <v>1.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="T253" t="n">
-        <v>1.723078270213E12</v>
+        <v>1.723795594765E12</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -17118,10 +18453,10 @@
         <v>1780</v>
       </c>
       <c r="R254" t="n">
-        <v>1.2999999999999998</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T254" t="n">
-        <v>1.723078273397E12</v>
+        <v>1.723796042179E12</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -17214,10 +18549,10 @@
         <v>1782</v>
       </c>
       <c r="R257" t="n">
-        <v>5.200000000000003</v>
+        <v>1.6000000000000045</v>
       </c>
       <c r="T257" t="n">
-        <v>1.723454390094E12</v>
+        <v>1.723796045289E12</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -17246,10 +18581,10 @@
         <v>1783</v>
       </c>
       <c r="R258" t="n">
-        <v>1.9499999999999997</v>
+        <v>2.9499999999999997</v>
       </c>
       <c r="T258" t="n">
-        <v>1.72345439406E12</v>
+        <v>1.723796082002E12</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -17307,10 +18642,10 @@
         <v>1784</v>
       </c>
       <c r="R260" t="n">
-        <v>1.65</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T260" t="n">
-        <v>1.723454396322E12</v>
+        <v>1.723796085957E12</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -17403,10 +18738,10 @@
         <v>1787</v>
       </c>
       <c r="R263" t="n">
-        <v>3.9000000000000017</v>
+        <v>1.4000000000000012</v>
       </c>
       <c r="T263" t="n">
-        <v>1.723454401731E12</v>
+        <v>1.723796090841E12</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -17435,10 +18770,10 @@
         <v>1788</v>
       </c>
       <c r="R264" t="n">
-        <v>2.2499999999999996</v>
+        <v>1.5499999999999994</v>
       </c>
       <c r="T264" t="n">
-        <v>1.723454406444E12</v>
+        <v>1.723796095957E12</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -17499,10 +18834,10 @@
         <v>1790</v>
       </c>
       <c r="R266" t="n">
-        <v>5.250000000000009</v>
+        <v>1.3000000000000105</v>
       </c>
       <c r="T266" t="n">
-        <v>1.723454411128E12</v>
+        <v>1.723796098827E12</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -17531,10 +18866,10 @@
         <v>1791</v>
       </c>
       <c r="R267" t="n">
-        <v>3.65</v>
+        <v>1.5499999999999994</v>
       </c>
       <c r="T267" t="n">
-        <v>1.723454417087E12</v>
+        <v>1.72379610023E12</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -17595,10 +18930,10 @@
         <v>1793</v>
       </c>
       <c r="R269" t="n">
-        <v>1.9499999999999997</v>
+        <v>1.5999999999999996</v>
       </c>
       <c r="T269" t="n">
-        <v>1.723454482754E12</v>
+        <v>1.723796105223E12</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -17627,10 +18962,10 @@
         <v>945</v>
       </c>
       <c r="R270" t="n">
-        <v>3.0</v>
+        <v>1.5999999999999996</v>
       </c>
       <c r="T270" t="n">
-        <v>1.723454494635E12</v>
+        <v>1.723796109474E12</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -17659,10 +18994,10 @@
         <v>1383</v>
       </c>
       <c r="R271" t="n">
-        <v>1.2999999999999998</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T271" t="n">
-        <v>1.723078374453E12</v>
+        <v>1.723796114489E12</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -17723,10 +19058,10 @@
         <v>1795</v>
       </c>
       <c r="R273" t="n">
-        <v>3.65</v>
+        <v>1.4499999999999997</v>
       </c>
       <c r="T273" t="n">
-        <v>1.723454500591E12</v>
+        <v>1.723796117707E12</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -17787,10 +19122,10 @@
         <v>1797</v>
       </c>
       <c r="R275" t="n">
-        <v>2.3</v>
+        <v>1.5999999999999996</v>
       </c>
       <c r="T275" t="n">
-        <v>1.723454507855E12</v>
+        <v>1.72379613895E12</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -17947,10 +19282,10 @@
         <v>1802</v>
       </c>
       <c r="R280" t="n">
-        <v>1.9499999999999997</v>
+        <v>1.5999999999999996</v>
       </c>
       <c r="T280" t="n">
-        <v>1.723454511224E12</v>
+        <v>1.723796143195E12</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -18011,10 +19346,10 @@
         <v>1804</v>
       </c>
       <c r="R282" t="n">
-        <v>2.2499999999999996</v>
+        <v>1.5499999999999994</v>
       </c>
       <c r="T282" t="n">
-        <v>1.72345451347E12</v>
+        <v>1.723796147866E12</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -18075,10 +19410,10 @@
         <v>1806</v>
       </c>
       <c r="R284" t="n">
-        <v>4.3</v>
+        <v>1.4999999999999991</v>
       </c>
       <c r="T284" t="n">
-        <v>1.723454519241E12</v>
+        <v>1.723796149614E12</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -18107,10 +19442,10 @@
         <v>1807</v>
       </c>
       <c r="R285" t="n">
-        <v>4.6</v>
+        <v>1.3999999999999986</v>
       </c>
       <c r="T285" t="n">
-        <v>1.723454569338E12</v>
+        <v>1.723796152217E12</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -18139,10 +19474,10 @@
         <v>1808</v>
       </c>
       <c r="R286" t="n">
-        <v>4.800000000000004</v>
+        <v>1.3000000000000043</v>
       </c>
       <c r="T286" t="n">
-        <v>1.723454581293E12</v>
+        <v>1.723796196149E12</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -18171,10 +19506,10 @@
         <v>1809</v>
       </c>
       <c r="R287" t="n">
-        <v>4.900000000000002</v>
+        <v>1.4000000000000021</v>
       </c>
       <c r="T287" t="n">
-        <v>1.723454588542E12</v>
+        <v>1.72379621459E12</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -18203,10 +19538,10 @@
         <v>1810</v>
       </c>
       <c r="R288" t="n">
-        <v>1.8999999999999995</v>
+        <v>1.5499999999999994</v>
       </c>
       <c r="T288" t="n">
-        <v>1.723454593022E12</v>
+        <v>1.723796231735E12</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -18235,10 +19570,10 @@
         <v>1811</v>
       </c>
       <c r="R289" t="n">
-        <v>3.0</v>
+        <v>1.5499999999999994</v>
       </c>
       <c r="T289" t="n">
-        <v>1.723454599349E12</v>
+        <v>1.723796241748E12</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -18331,10 +19666,10 @@
         <v>1814</v>
       </c>
       <c r="R292" t="n">
-        <v>5.200000000000002</v>
+        <v>1.3500000000000023</v>
       </c>
       <c r="T292" t="n">
-        <v>1.723454609112E12</v>
+        <v>1.723796259991E12</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -18363,10 +19698,10 @@
         <v>1815</v>
       </c>
       <c r="R293" t="n">
-        <v>3.2499999999999996</v>
+        <v>1.4999999999999991</v>
       </c>
       <c r="T293" t="n">
-        <v>1.723454612641E12</v>
+        <v>1.72379628832E12</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -18395,10 +19730,10 @@
         <v>1816</v>
       </c>
       <c r="R294" t="n">
-        <v>3.5000000000000027</v>
+        <v>1.4000000000000021</v>
       </c>
       <c r="T294" t="n">
-        <v>1.723454615231E12</v>
+        <v>1.723796290897E12</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -18427,10 +19762,10 @@
         <v>1817</v>
       </c>
       <c r="R295" t="n">
-        <v>1.2999999999999998</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T295" t="n">
-        <v>1.723078519435E12</v>
+        <v>1.723796312608E12</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -18619,10 +19954,10 @@
         <v>1823</v>
       </c>
       <c r="R301" t="n">
-        <v>2.2499999999999996</v>
+        <v>1.5499999999999994</v>
       </c>
       <c r="T301" t="n">
-        <v>1.723454618443E12</v>
+        <v>1.723796316361E12</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -18651,10 +19986,10 @@
         <v>1824</v>
       </c>
       <c r="R302" t="n">
-        <v>3.0</v>
+        <v>1.5499999999999994</v>
       </c>
       <c r="T302" t="n">
-        <v>1.723454626249E12</v>
+        <v>1.723796323598E12</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -18747,10 +20082,10 @@
         <v>1827</v>
       </c>
       <c r="R305" t="n">
-        <v>5.25</v>
+        <v>1.4000000000000004</v>
       </c>
       <c r="T305" t="n">
-        <v>1.723454630641E12</v>
+        <v>1.723796326107E12</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -18779,10 +20114,10 @@
         <v>1493</v>
       </c>
       <c r="R306" t="n">
-        <v>1.2999999999999998</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T306" t="n">
-        <v>1.723078549307E12</v>
+        <v>1.72379633498E12</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -18875,10 +20210,10 @@
         <v>1830</v>
       </c>
       <c r="R309" t="n">
-        <v>2.8000000000000025</v>
+        <v>1.4000000000000021</v>
       </c>
       <c r="T309" t="n">
-        <v>1.723454633273E12</v>
+        <v>1.72379633684E12</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -18907,10 +20242,10 @@
         <v>1831</v>
       </c>
       <c r="R310" t="n">
-        <v>3.0</v>
+        <v>1.4499999999999993</v>
       </c>
       <c r="T310" t="n">
-        <v>1.723454639822E12</v>
+        <v>1.723796340202E12</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -18971,10 +20306,10 @@
         <v>1833</v>
       </c>
       <c r="R312" t="n">
-        <v>2.3</v>
+        <v>1.5999999999999996</v>
       </c>
       <c r="T312" t="n">
-        <v>1.723454646057E12</v>
+        <v>1.723796442971E12</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -19003,10 +20338,10 @@
         <v>1834</v>
       </c>
       <c r="R313" t="n">
-        <v>1.9499999999999997</v>
+        <v>1.5999999999999996</v>
       </c>
       <c r="T313" t="n">
-        <v>1.723454649607E12</v>
+        <v>1.723796447297E12</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -19035,10 +20370,10 @@
         <v>1835</v>
       </c>
       <c r="R314" t="n">
-        <v>1.65</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T314" t="n">
-        <v>1.723454656616E12</v>
+        <v>1.72379645018E12</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -19099,10 +20434,10 @@
         <v>1837</v>
       </c>
       <c r="R316" t="n">
-        <v>2.2499999999999996</v>
+        <v>1.5499999999999994</v>
       </c>
       <c r="T316" t="n">
-        <v>1.723454659475E12</v>
+        <v>1.723796452378E12</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -19163,10 +20498,10 @@
         <v>1173</v>
       </c>
       <c r="R318" t="n">
-        <v>2.5000000000000013</v>
+        <v>1.450000000000001</v>
       </c>
       <c r="T318" t="n">
-        <v>1.723454662484E12</v>
+        <v>1.723796455145E12</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -19195,10 +20530,10 @@
         <v>1839</v>
       </c>
       <c r="R319" t="n">
-        <v>1.5999999999999996</v>
+        <v>1.2499999999999996</v>
       </c>
       <c r="T319" t="n">
-        <v>1.723078620504E12</v>
+        <v>1.723796457396E12</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -19227,10 +20562,10 @@
         <v>1840</v>
       </c>
       <c r="R320" t="n">
-        <v>3.9000000000000017</v>
+        <v>1.450000000000001</v>
       </c>
       <c r="T320" t="n">
-        <v>1.723454664621E12</v>
+        <v>1.723796459033E12</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -19259,10 +20594,10 @@
         <v>1841</v>
       </c>
       <c r="R321" t="n">
-        <v>1.2999999999999998</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T321" t="n">
-        <v>1.723078628619E12</v>
+        <v>1.723796466042E12</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -19291,10 +20626,10 @@
         <v>1842</v>
       </c>
       <c r="R322" t="n">
-        <v>4.250000000000002</v>
+        <v>1.450000000000001</v>
       </c>
       <c r="T322" t="n">
-        <v>1.723454669413E12</v>
+        <v>1.723796494676E12</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -19387,10 +20722,10 @@
         <v>1845</v>
       </c>
       <c r="R325" t="n">
-        <v>1.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="T325" t="n">
-        <v>1.723078663599E12</v>
+        <v>1.723954194315E12</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -19419,10 +20754,10 @@
         <v>1846</v>
       </c>
       <c r="R326" t="n">
-        <v>1.2999999999999998</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T326" t="n">
-        <v>1.723078667883E12</v>
+        <v>1.723954203317E12</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -19675,10 +21010,10 @@
         <v>1527</v>
       </c>
       <c r="R334" t="n">
-        <v>3.0</v>
+        <v>1.3500000000000019</v>
       </c>
       <c r="T334" t="n">
-        <v>1.723454673616E12</v>
+        <v>1.723954209115E12</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -19707,10 +21042,10 @@
         <v>1854</v>
       </c>
       <c r="R335" t="n">
-        <v>3.0</v>
+        <v>1.5499999999999994</v>
       </c>
       <c r="T335" t="n">
-        <v>1.723454723942E12</v>
+        <v>1.723954210605E12</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -19771,10 +21106,10 @@
         <v>1856</v>
       </c>
       <c r="R337" t="n">
-        <v>1.5999999999999996</v>
+        <v>1.2499999999999996</v>
       </c>
       <c r="T337" t="n">
-        <v>1.723079889099E12</v>
+        <v>1.72395421568E12</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -19803,10 +21138,10 @@
         <v>1857</v>
       </c>
       <c r="R338" t="n">
-        <v>1.9499999999999997</v>
+        <v>2.9499999999999997</v>
       </c>
       <c r="T338" t="n">
-        <v>1.723454735817E12</v>
+        <v>1.723954220717E12</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -19835,10 +21170,10 @@
         <v>1643</v>
       </c>
       <c r="R339" t="n">
-        <v>4.250000000000002</v>
+        <v>1.450000000000001</v>
       </c>
       <c r="T339" t="n">
-        <v>1.723454747362E12</v>
+        <v>1.723954228746E12</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -19867,10 +21202,10 @@
         <v>1858</v>
       </c>
       <c r="R340" t="n">
-        <v>2.8000000000000025</v>
+        <v>1.4000000000000021</v>
       </c>
       <c r="T340" t="n">
-        <v>1.723454758876E12</v>
+        <v>1.72395423193E12</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -19899,10 +21234,10 @@
         <v>1859</v>
       </c>
       <c r="R341" t="n">
-        <v>4.750000000000005</v>
+        <v>1.500000000000007</v>
       </c>
       <c r="T341" t="n">
-        <v>1.723454767812E12</v>
+        <v>1.723954234462E12</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -19931,10 +21266,10 @@
         <v>1860</v>
       </c>
       <c r="R342" t="n">
-        <v>4.800000000000004</v>
+        <v>1.6000000000000054</v>
       </c>
       <c r="T342" t="n">
-        <v>1.723454781778E12</v>
+        <v>1.723954236854E12</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -19963,10 +21298,10 @@
         <v>1861</v>
       </c>
       <c r="R343" t="n">
-        <v>4.800000000000004</v>
+        <v>1.5500000000000065</v>
       </c>
       <c r="T343" t="n">
-        <v>1.723454789175E12</v>
+        <v>1.723954247853E12</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -20059,10 +21394,10 @@
         <v>1864</v>
       </c>
       <c r="R346" t="n">
-        <v>1.5999999999999996</v>
+        <v>2.5999999999999996</v>
       </c>
       <c r="T346" t="n">
-        <v>1.723079931761E12</v>
+        <v>1.723954249956E12</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -20091,10 +21426,10 @@
         <v>1865</v>
       </c>
       <c r="R347" t="n">
-        <v>1.65</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T347" t="n">
-        <v>1.723454793551E12</v>
+        <v>1.72395426013E12</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -20123,10 +21458,10 @@
         <v>1866</v>
       </c>
       <c r="R348" t="n">
-        <v>2.3</v>
+        <v>1.5999999999999996</v>
       </c>
       <c r="T348" t="n">
-        <v>1.723454797487E12</v>
+        <v>1.723954264048E12</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -20155,10 +21490,10 @@
         <v>1867</v>
       </c>
       <c r="R349" t="n">
-        <v>5.250000000000001</v>
+        <v>1.4000000000000012</v>
       </c>
       <c r="T349" t="n">
-        <v>1.723454799886E12</v>
+        <v>1.72395426571E12</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -20283,10 +21618,10 @@
         <v>1869</v>
       </c>
       <c r="R353" t="n">
-        <v>4.900000000000002</v>
+        <v>1.3500000000000032</v>
       </c>
       <c r="T353" t="n">
-        <v>1.723454803221E12</v>
+        <v>1.723954272264E12</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -20315,10 +21650,10 @@
         <v>1870</v>
       </c>
       <c r="R354" t="n">
-        <v>5.65</v>
+        <v>1.450000000000001</v>
       </c>
       <c r="T354" t="n">
-        <v>1.723454815036E12</v>
+        <v>1.72395427474E12</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -20379,10 +21714,10 @@
         <v>1872</v>
       </c>
       <c r="R356" t="n">
-        <v>5.25</v>
+        <v>1.4000000000000004</v>
       </c>
       <c r="T356" t="n">
-        <v>1.723454821807E12</v>
+        <v>1.723954277032E12</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -20443,10 +21778,10 @@
         <v>1874</v>
       </c>
       <c r="R358" t="n">
-        <v>2.2499999999999996</v>
+        <v>1.5499999999999994</v>
       </c>
       <c r="T358" t="n">
-        <v>1.723454863264E12</v>
+        <v>1.72395427885E12</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -20539,10 +21874,10 @@
         <v>1876</v>
       </c>
       <c r="R361" t="n">
-        <v>2.3</v>
+        <v>1.5999999999999996</v>
       </c>
       <c r="T361" t="n">
-        <v>1.723454871723E12</v>
+        <v>1.723954286651E12</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -20635,10 +21970,10 @@
         <v>1879</v>
       </c>
       <c r="R364" t="n">
-        <v>3.2499999999999996</v>
+        <v>1.4999999999999991</v>
       </c>
       <c r="T364" t="n">
-        <v>1.72345487976E12</v>
+        <v>1.723954288469E12</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -20667,10 +22002,10 @@
         <v>1880</v>
       </c>
       <c r="R365" t="n">
-        <v>1.5999999999999996</v>
+        <v>1.2499999999999996</v>
       </c>
       <c r="T365" t="n">
-        <v>1.723080482766E12</v>
+        <v>1.723954291968E12</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -20731,10 +22066,10 @@
         <v>1882</v>
       </c>
       <c r="R367" t="n">
-        <v>5.950000000000008</v>
+        <v>1.3000000000000096</v>
       </c>
       <c r="T367" t="n">
-        <v>1.723454883461E12</v>
+        <v>1.723954297713E12</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -20795,10 +22130,10 @@
         <v>1884</v>
       </c>
       <c r="R369" t="n">
-        <v>4.800000000000004</v>
+        <v>1.3000000000000043</v>
       </c>
       <c r="T369" t="n">
-        <v>1.723454887156E12</v>
+        <v>1.72395429952E12</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -20859,10 +22194,10 @@
         <v>1886</v>
       </c>
       <c r="R371" t="n">
-        <v>1.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="T371" t="n">
-        <v>1.723080520472E12</v>
+        <v>1.723954305022E12</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -20891,10 +22226,10 @@
         <v>1887</v>
       </c>
       <c r="R372" t="n">
-        <v>3.65</v>
+        <v>1.4500000000000002</v>
       </c>
       <c r="T372" t="n">
-        <v>1.72345489178E12</v>
+        <v>1.723954308736E12</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -20987,10 +22322,10 @@
         <v>1292</v>
       </c>
       <c r="R375" t="n">
-        <v>3.850000000000001</v>
+        <v>1.35</v>
       </c>
       <c r="T375" t="n">
-        <v>1.723454899779E12</v>
+        <v>1.723954310458E12</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -21051,10 +22386,10 @@
         <v>1890</v>
       </c>
       <c r="R377" t="n">
-        <v>4.750000000000005</v>
+        <v>1.6000000000000054</v>
       </c>
       <c r="T377" t="n">
-        <v>1.723454908281E12</v>
+        <v>1.723954313366E12</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -21083,10 +22418,10 @@
         <v>1551</v>
       </c>
       <c r="R378" t="n">
-        <v>1.8999999999999995</v>
+        <v>1.5499999999999994</v>
       </c>
       <c r="T378" t="n">
-        <v>1.723454913303E12</v>
+        <v>1.723954317931E12</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -21115,10 +22450,10 @@
         <v>1891</v>
       </c>
       <c r="R379" t="n">
-        <v>6.150000000000004</v>
+        <v>1.6000000000000054</v>
       </c>
       <c r="T379" t="n">
-        <v>1.723454921319E12</v>
+        <v>1.723954319591E12</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -21147,10 +22482,10 @@
         <v>1892</v>
       </c>
       <c r="R380" t="n">
-        <v>4.800000000000004</v>
+        <v>1.3000000000000043</v>
       </c>
       <c r="T380" t="n">
-        <v>1.723454927841E12</v>
+        <v>1.723954327585E12</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -21179,10 +22514,10 @@
         <v>1566</v>
       </c>
       <c r="R381" t="n">
-        <v>5.250000000000009</v>
+        <v>2.7500000000000093</v>
       </c>
       <c r="T381" t="n">
-        <v>1.723454931475E12</v>
+        <v>1.723954330774E12</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -21211,10 +22546,10 @@
         <v>1893</v>
       </c>
       <c r="R382" t="n">
-        <v>3.65</v>
+        <v>1.450000000000001</v>
       </c>
       <c r="T382" t="n">
-        <v>1.723454937498E12</v>
+        <v>1.723954339272E12</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -21275,10 +22610,10 @@
         <v>1895</v>
       </c>
       <c r="R384" t="n">
-        <v>3.65</v>
+        <v>2.7499999999999996</v>
       </c>
       <c r="T384" t="n">
-        <v>1.723454941568E12</v>
+        <v>1.723954343061E12</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -21307,10 +22642,10 @@
         <v>1218</v>
       </c>
       <c r="R385" t="n">
-        <v>6.100000000000005</v>
+        <v>1.4500000000000082</v>
       </c>
       <c r="T385" t="n">
-        <v>1.723454950393E12</v>
+        <v>1.72395435042E12</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -21371,10 +22706,10 @@
         <v>1896</v>
       </c>
       <c r="R387" t="n">
-        <v>1.8999999999999995</v>
+        <v>1.5499999999999994</v>
       </c>
       <c r="T387" t="n">
-        <v>1.723454955669E12</v>
+        <v>1.723954353236E12</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -21403,10 +22738,10 @@
         <v>1897</v>
       </c>
       <c r="R388" t="n">
-        <v>3.5500000000000016</v>
+        <v>1.450000000000001</v>
       </c>
       <c r="T388" t="n">
-        <v>1.723454960547E12</v>
+        <v>1.723954356638E12</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -21435,10 +22770,10 @@
         <v>1898</v>
       </c>
       <c r="R389" t="n">
-        <v>4.150000000000004</v>
+        <v>1.3500000000000032</v>
       </c>
       <c r="T389" t="n">
-        <v>1.723454964999E12</v>
+        <v>1.72395435906E12</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -21467,10 +22802,10 @@
         <v>1866</v>
       </c>
       <c r="R390" t="n">
-        <v>1.2999999999999998</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T390" t="n">
-        <v>1.723080661238E12</v>
+        <v>1.723954364346E12</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -21499,10 +22834,10 @@
         <v>1895</v>
       </c>
       <c r="R391" t="n">
-        <v>3.5500000000000016</v>
+        <v>1.4000000000000012</v>
       </c>
       <c r="T391" t="n">
-        <v>1.723454970882E12</v>
+        <v>1.723954377559E12</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -21531,10 +22866,10 @@
         <v>873</v>
       </c>
       <c r="R392" t="n">
-        <v>5.150000000000004</v>
+        <v>1.6000000000000054</v>
       </c>
       <c r="T392" t="n">
-        <v>1.723454974727E12</v>
+        <v>1.7239543811E12</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -21563,10 +22898,10 @@
         <v>1895</v>
       </c>
       <c r="R393" t="n">
-        <v>4.800000000000004</v>
+        <v>1.3000000000000043</v>
       </c>
       <c r="T393" t="n">
-        <v>1.7234549803E12</v>
+        <v>1.723954386827E12</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -21595,10 +22930,10 @@
         <v>1895</v>
       </c>
       <c r="R394" t="n">
-        <v>3.4500000000000037</v>
+        <v>1.3500000000000032</v>
       </c>
       <c r="T394" t="n">
-        <v>1.723454981888E12</v>
+        <v>1.723954389898E12</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -21659,10 +22994,10 @@
         <v>1900</v>
       </c>
       <c r="R396" t="n">
-        <v>2.5000000000000013</v>
+        <v>1.450000000000001</v>
       </c>
       <c r="T396" t="n">
-        <v>1.7234549849E12</v>
+        <v>1.723954392128E12</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -21719,10 +23054,10 @@
         <v>4</v>
       </c>
       <c r="R399" t="n">
-        <v>1.65</v>
+        <v>2.65</v>
       </c>
       <c r="T399" t="n">
-        <v>1.723454987459E12</v>
+        <v>1.72395439784E12</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -21739,10 +23074,10 @@
         <v>4</v>
       </c>
       <c r="R400" t="n">
-        <v>2.3</v>
+        <v>1.5999999999999996</v>
       </c>
       <c r="T400" t="n">
-        <v>1.723454989679E12</v>
+        <v>1.723954401939E12</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -21759,10 +23094,10 @@
         <v>4</v>
       </c>
       <c r="R401" t="n">
-        <v>1.2999999999999998</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T401" t="n">
-        <v>1.723080705873E12</v>
+        <v>1.723954403475E12</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -21859,10 +23194,10 @@
         <v>3</v>
       </c>
       <c r="R406" t="n">
-        <v>5.0</v>
+        <v>1.450000000000001</v>
       </c>
       <c r="T406" t="n">
-        <v>1.723454992596E12</v>
+        <v>1.723954405875E12</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -21919,10 +23254,10 @@
         <v>4</v>
       </c>
       <c r="R409" t="n">
-        <v>1.9499999999999997</v>
+        <v>2.9499999999999997</v>
       </c>
       <c r="T409" t="n">
-        <v>1.723454994405E12</v>
+        <v>1.723954407357E12</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -22059,10 +23394,10 @@
         <v>4</v>
       </c>
       <c r="R416" t="n">
-        <v>1.9499999999999997</v>
+        <v>2.9499999999999997</v>
       </c>
       <c r="T416" t="n">
-        <v>1.723454996537E12</v>
+        <v>1.723954410238E12</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -22079,10 +23414,10 @@
         <v>3</v>
       </c>
       <c r="R417" t="n">
-        <v>5.0</v>
+        <v>1.450000000000001</v>
       </c>
       <c r="T417" t="n">
-        <v>1.723454998525E12</v>
+        <v>1.723954411707E12</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -22259,10 +23594,10 @@
         <v>4</v>
       </c>
       <c r="R426" t="n">
-        <v>1.9499999999999997</v>
+        <v>1.5999999999999996</v>
       </c>
       <c r="T426" t="n">
-        <v>1.723455002362E12</v>
+        <v>1.723954415361E12</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -22279,10 +23614,10 @@
         <v>3</v>
       </c>
       <c r="R427" t="n">
-        <v>1.9499999999999997</v>
+        <v>1.5999999999999996</v>
       </c>
       <c r="T427" t="n">
-        <v>1.723080728088E12</v>
+        <v>1.723954417946E12</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -22399,10 +23734,10 @@
         <v>4</v>
       </c>
       <c r="R433" t="n">
-        <v>1.2499999999999996</v>
+        <v>0.8999999999999996</v>
       </c>
       <c r="T433" t="n">
-        <v>1.72308073805E12</v>
+        <v>1.723954421345E12</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -22479,10 +23814,10 @@
         <v>3</v>
       </c>
       <c r="R437" t="n">
-        <v>1.65</v>
+        <v>2.65</v>
       </c>
       <c r="T437" t="n">
-        <v>1.723080740253E12</v>
+        <v>1.723954423362E12</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -22639,10 +23974,10 @@
         <v>4</v>
       </c>
       <c r="R445" t="n">
-        <v>1.9499999999999997</v>
+        <v>2.9499999999999997</v>
       </c>
       <c r="T445" t="n">
-        <v>1.723080746133E12</v>
+        <v>1.723954428247E12</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -22739,10 +24074,10 @@
         <v>4</v>
       </c>
       <c r="R450" t="n">
-        <v>1.9499999999999997</v>
+        <v>1.5999999999999996</v>
       </c>
       <c r="T450" t="n">
-        <v>1.723455006962E12</v>
+        <v>1.723954432251E12</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -22819,10 +24154,10 @@
         <v>4</v>
       </c>
       <c r="R454" t="n">
-        <v>2.9499999999999997</v>
+        <v>1.4999999999999991</v>
       </c>
       <c r="T454" t="n">
-        <v>1.723455009175E12</v>
+        <v>1.723954434413E12</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -22879,10 +24214,10 @@
         <v>4</v>
       </c>
       <c r="R457" t="n">
-        <v>2.5999999999999996</v>
+        <v>1.5499999999999994</v>
       </c>
       <c r="T457" t="n">
-        <v>1.723455011275E12</v>
+        <v>1.723954435861E12</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -22919,10 +24254,10 @@
         <v>3</v>
       </c>
       <c r="R459" t="n">
-        <v>2.4500000000000024</v>
+        <v>1.4000000000000021</v>
       </c>
       <c r="T459" t="n">
-        <v>1.723455012541E12</v>
+        <v>1.723954437147E12</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -23179,10 +24514,10 @@
         <v>4</v>
       </c>
       <c r="R472" t="n">
-        <v>2.5999999999999996</v>
+        <v>1.4999999999999991</v>
       </c>
       <c r="T472" t="n">
-        <v>1.723455014565E12</v>
+        <v>1.723954446494E12</v>
       </c>
     </row>
     <row r="473" spans="1:4">
@@ -23279,10 +24614,10 @@
         <v>3</v>
       </c>
       <c r="R477" t="n">
-        <v>1.65</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T477" t="n">
-        <v>1.72308077538E12</v>
+        <v>1.72395445696E12</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -23419,10 +24754,10 @@
         <v>4</v>
       </c>
       <c r="R484" t="n">
-        <v>2.5999999999999996</v>
+        <v>1.5499999999999994</v>
       </c>
       <c r="T484" t="n">
-        <v>1.723455016481E12</v>
+        <v>1.723954458221E12</v>
       </c>
     </row>
     <row r="485" spans="1:4">
@@ -23559,10 +24894,10 @@
         <v>4</v>
       </c>
       <c r="R491" t="n">
-        <v>2.5499999999999994</v>
+        <v>1.4999999999999991</v>
       </c>
       <c r="T491" t="n">
-        <v>1.723455017901E12</v>
+        <v>1.723954459759E12</v>
       </c>
     </row>
     <row r="492" spans="1:4">
@@ -23579,10 +24914,10 @@
         <v>3</v>
       </c>
       <c r="R492" t="n">
-        <v>1.2499999999999996</v>
+        <v>0.8999999999999996</v>
       </c>
       <c r="T492" t="n">
-        <v>1.723080780789E12</v>
+        <v>1.723954462275E12</v>
       </c>
     </row>
     <row r="493" spans="1:4">
@@ -23639,10 +24974,10 @@
         <v>3</v>
       </c>
       <c r="R495" t="n">
-        <v>1.9499999999999997</v>
+        <v>1.5999999999999996</v>
       </c>
       <c r="T495" t="n">
-        <v>1.723080783795E12</v>
+        <v>1.723954464849E12</v>
       </c>
     </row>
     <row r="496" spans="1:4">

--- a/src/main/resources/初级工题库.xlsx
+++ b/src/main/resources/初级工题库.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4207" uniqueCount="1996">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4208" uniqueCount="1997">
   <si>
     <t>题型</t>
   </si>
@@ -6049,6 +6049,9 @@
   </si>
   <si>
     <t>您一共做了: 203题	您的得分： 88.17733990147784	做题时长约为2676.5Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 24题	您的得分： 91.66666666666666	做题时长约为2.216666666666667Min</t>
   </si>
 </sst>
 </file>
@@ -6108,7 +6111,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3548">
+  <cellXfs count="3572">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -9088,553 +9091,577 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -10965,10 +10992,10 @@
         <v>1594</v>
       </c>
       <c r="R29" t="n">
-        <v>2.65</v>
+        <v>2.15</v>
       </c>
       <c r="T29" t="n">
-        <v>1.723794175546E12</v>
+        <v>1.723956535985E12</v>
       </c>
       <c r="AA29" t="s">
         <v>1930</v>
@@ -11910,10 +11937,10 @@
         <v>1614</v>
       </c>
       <c r="R56" t="n">
-        <v>2.3</v>
+        <v>1.7999999999999998</v>
       </c>
       <c r="T56" t="n">
-        <v>1.723794855724E12</v>
+        <v>1.723956538943E12</v>
       </c>
       <c r="AA56" t="s">
         <v>1954</v>
@@ -12540,10 +12567,10 @@
         <v>1630</v>
       </c>
       <c r="R74" t="n">
-        <v>2.3</v>
+        <v>1.7999999999999998</v>
       </c>
       <c r="T74" t="n">
-        <v>1.723794871276E12</v>
+        <v>1.723956542168E12</v>
       </c>
       <c r="AA74" t="s">
         <v>1971</v>
@@ -12960,10 +12987,10 @@
         <v>1641</v>
       </c>
       <c r="R86" t="n">
-        <v>2.3</v>
+        <v>1.7999999999999998</v>
       </c>
       <c r="T86" t="n">
-        <v>1.723794896591E12</v>
+        <v>1.723956552654E12</v>
       </c>
       <c r="AA86" t="s">
         <v>1980</v>
@@ -13415,10 +13442,10 @@
         <v>1654</v>
       </c>
       <c r="R99" t="n">
-        <v>2.65</v>
+        <v>3.65</v>
       </c>
       <c r="T99" t="n">
-        <v>1.723795041623E12</v>
+        <v>1.723956559354E12</v>
       </c>
       <c r="AA99" t="s">
         <v>1976</v>
@@ -13590,10 +13617,10 @@
         <v>1657</v>
       </c>
       <c r="R104" t="n">
-        <v>2.3</v>
+        <v>1.7999999999999998</v>
       </c>
       <c r="T104" t="n">
-        <v>1.723795050395E12</v>
+        <v>1.723956568991E12</v>
       </c>
       <c r="AA104" t="s">
         <v>1988</v>
@@ -13905,10 +13932,10 @@
         <v>1664</v>
       </c>
       <c r="R113" t="n">
-        <v>2.65</v>
+        <v>2.15</v>
       </c>
       <c r="T113" t="n">
-        <v>1.723795068365E12</v>
+        <v>1.723956572787E12</v>
       </c>
       <c r="AA113" t="s">
         <v>1992</v>
@@ -14330,6 +14357,9 @@
       <c r="T125" t="n">
         <v>1.723795132509E12</v>
       </c>
+      <c r="AA125" t="s">
+        <v>1996</v>
+      </c>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" s="1">
@@ -14677,10 +14707,10 @@
         <v>1684</v>
       </c>
       <c r="R136" t="n">
-        <v>2.65</v>
+        <v>2.15</v>
       </c>
       <c r="T136" t="n">
-        <v>1.723795191406E12</v>
+        <v>1.723956580212E12</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -15605,10 +15635,10 @@
         <v>1709</v>
       </c>
       <c r="R165" t="n">
-        <v>2.3</v>
+        <v>1.7999999999999998</v>
       </c>
       <c r="T165" t="n">
-        <v>1.723795235393E12</v>
+        <v>1.723956592838E12</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -15669,10 +15699,10 @@
         <v>1711</v>
       </c>
       <c r="R167" t="n">
-        <v>2.5999999999999996</v>
+        <v>2.0999999999999996</v>
       </c>
       <c r="T167" t="n">
-        <v>1.723795256294E12</v>
+        <v>1.723956597682E12</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -18037,10 +18067,10 @@
         <v>1768</v>
       </c>
       <c r="R241" t="n">
-        <v>2.65</v>
+        <v>2.15</v>
       </c>
       <c r="T241" t="n">
-        <v>1.723795576436E12</v>
+        <v>1.723956612116E12</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -18421,10 +18451,10 @@
         <v>1779</v>
       </c>
       <c r="R253" t="n">
-        <v>2.3</v>
+        <v>1.7999999999999998</v>
       </c>
       <c r="T253" t="n">
-        <v>1.723795594765E12</v>
+        <v>1.723956620945E12</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -18581,10 +18611,10 @@
         <v>1783</v>
       </c>
       <c r="R258" t="n">
-        <v>2.9499999999999997</v>
+        <v>3.9499999999999997</v>
       </c>
       <c r="T258" t="n">
-        <v>1.723796082002E12</v>
+        <v>1.723956629734E12</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -20722,10 +20752,10 @@
         <v>1845</v>
       </c>
       <c r="R325" t="n">
-        <v>2.3</v>
+        <v>1.7999999999999998</v>
       </c>
       <c r="T325" t="n">
-        <v>1.723954194315E12</v>
+        <v>1.723956636546E12</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -21138,10 +21168,10 @@
         <v>1857</v>
       </c>
       <c r="R338" t="n">
-        <v>2.9499999999999997</v>
+        <v>2.4499999999999997</v>
       </c>
       <c r="T338" t="n">
-        <v>1.723954220717E12</v>
+        <v>1.723956639476E12</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -21394,10 +21424,10 @@
         <v>1864</v>
       </c>
       <c r="R346" t="n">
-        <v>2.5999999999999996</v>
+        <v>2.0999999999999996</v>
       </c>
       <c r="T346" t="n">
-        <v>1.723954249956E12</v>
+        <v>1.723956641904E12</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -22194,10 +22224,10 @@
         <v>1886</v>
       </c>
       <c r="R371" t="n">
-        <v>2.3</v>
+        <v>1.7999999999999998</v>
       </c>
       <c r="T371" t="n">
-        <v>1.723954305022E12</v>
+        <v>1.723956645388E12</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -22514,10 +22544,10 @@
         <v>1566</v>
       </c>
       <c r="R381" t="n">
-        <v>2.7500000000000093</v>
+        <v>2.2500000000000093</v>
       </c>
       <c r="T381" t="n">
-        <v>1.723954330774E12</v>
+        <v>1.723956649888E12</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -22610,10 +22640,10 @@
         <v>1895</v>
       </c>
       <c r="R384" t="n">
-        <v>2.7499999999999996</v>
+        <v>2.2499999999999996</v>
       </c>
       <c r="T384" t="n">
-        <v>1.723954343061E12</v>
+        <v>1.723956652102E12</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -23054,10 +23084,10 @@
         <v>4</v>
       </c>
       <c r="R399" t="n">
-        <v>2.65</v>
+        <v>2.15</v>
       </c>
       <c r="T399" t="n">
-        <v>1.72395439784E12</v>
+        <v>1.72395665497E12</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -23254,10 +23284,10 @@
         <v>4</v>
       </c>
       <c r="R409" t="n">
-        <v>2.9499999999999997</v>
+        <v>2.4499999999999997</v>
       </c>
       <c r="T409" t="n">
-        <v>1.723954407357E12</v>
+        <v>1.723956656577E12</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -23394,10 +23424,10 @@
         <v>4</v>
       </c>
       <c r="R416" t="n">
-        <v>2.9499999999999997</v>
+        <v>2.4499999999999997</v>
       </c>
       <c r="T416" t="n">
-        <v>1.723954410238E12</v>
+        <v>1.723956658981E12</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -23814,10 +23844,10 @@
         <v>3</v>
       </c>
       <c r="R437" t="n">
-        <v>2.65</v>
+        <v>2.15</v>
       </c>
       <c r="T437" t="n">
-        <v>1.723954423362E12</v>
+        <v>1.723956660858E12</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -23974,10 +24004,10 @@
         <v>4</v>
       </c>
       <c r="R445" t="n">
-        <v>2.9499999999999997</v>
+        <v>2.4499999999999997</v>
       </c>
       <c r="T445" t="n">
-        <v>1.723954428247E12</v>
+        <v>1.723956664875E12</v>
       </c>
     </row>
     <row r="446" spans="1:4">

--- a/src/main/resources/初级工题库.xlsx
+++ b/src/main/resources/初级工题库.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4208" uniqueCount="1997">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4210" uniqueCount="1999">
   <si>
     <t>题型</t>
   </si>
@@ -6052,6 +6052,12 @@
   </si>
   <si>
     <t>您一共做了: 24题	您的得分： 91.66666666666666	做题时长约为2.216666666666667Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 2题	您的得分： 50.0	做题时长约为0.18333333333333332Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 16题	您的得分： 87.5	做题时长约为4.083333333333333Min</t>
   </si>
 </sst>
 </file>
@@ -6111,7 +6117,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3572">
+  <cellXfs count="3590">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -9662,12 +9668,30 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -10992,10 +11016,10 @@
         <v>1594</v>
       </c>
       <c r="R29" t="n">
-        <v>2.15</v>
+        <v>1.7999999999999998</v>
       </c>
       <c r="T29" t="n">
-        <v>1.723956535985E12</v>
+        <v>1.724030384982E12</v>
       </c>
       <c r="AA29" t="s">
         <v>1930</v>
@@ -13442,10 +13466,10 @@
         <v>1654</v>
       </c>
       <c r="R99" t="n">
-        <v>3.65</v>
+        <v>2.9499999999999997</v>
       </c>
       <c r="T99" t="n">
-        <v>1.723956559354E12</v>
+        <v>1.72403038835E12</v>
       </c>
       <c r="AA99" t="s">
         <v>1976</v>
@@ -13932,10 +13956,10 @@
         <v>1664</v>
       </c>
       <c r="R113" t="n">
-        <v>2.15</v>
+        <v>1.7999999999999998</v>
       </c>
       <c r="T113" t="n">
-        <v>1.723956572787E12</v>
+        <v>1.724030394391E12</v>
       </c>
       <c r="AA113" t="s">
         <v>1992</v>
@@ -14392,6 +14416,9 @@
       <c r="T126" t="n">
         <v>1.723077528827E12</v>
       </c>
+      <c r="AA126" t="s">
+        <v>1997</v>
+      </c>
     </row>
     <row r="127" spans="1:8">
       <c r="A127" s="1">
@@ -14424,6 +14451,9 @@
       <c r="T127" t="n">
         <v>1.723795134909E12</v>
       </c>
+      <c r="AA127" t="s">
+        <v>1998</v>
+      </c>
     </row>
     <row r="128" spans="1:8">
       <c r="A128" s="1">
@@ -14707,10 +14737,10 @@
         <v>1684</v>
       </c>
       <c r="R136" t="n">
-        <v>2.15</v>
+        <v>1.7999999999999998</v>
       </c>
       <c r="T136" t="n">
-        <v>1.723956580212E12</v>
+        <v>1.724030400837E12</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -15699,10 +15729,10 @@
         <v>1711</v>
       </c>
       <c r="R167" t="n">
-        <v>2.0999999999999996</v>
+        <v>1.7499999999999996</v>
       </c>
       <c r="T167" t="n">
-        <v>1.723956597682E12</v>
+        <v>1.724030441617E12</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -18067,10 +18097,10 @@
         <v>1768</v>
       </c>
       <c r="R241" t="n">
-        <v>2.15</v>
+        <v>1.7999999999999998</v>
       </c>
       <c r="T241" t="n">
-        <v>1.723956612116E12</v>
+        <v>1.724030446939E12</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -18611,10 +18641,10 @@
         <v>1783</v>
       </c>
       <c r="R258" t="n">
-        <v>3.9499999999999997</v>
+        <v>4.6</v>
       </c>
       <c r="T258" t="n">
-        <v>1.723956629734E12</v>
+        <v>1.724030449116E12</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -21168,10 +21198,10 @@
         <v>1857</v>
       </c>
       <c r="R338" t="n">
-        <v>2.4499999999999997</v>
+        <v>2.0999999999999996</v>
       </c>
       <c r="T338" t="n">
-        <v>1.723956639476E12</v>
+        <v>1.724030452274E12</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -21424,10 +21454,10 @@
         <v>1864</v>
       </c>
       <c r="R346" t="n">
-        <v>2.0999999999999996</v>
+        <v>1.7499999999999996</v>
       </c>
       <c r="T346" t="n">
-        <v>1.723956641904E12</v>
+        <v>1.72403045688E12</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -22544,10 +22574,10 @@
         <v>1566</v>
       </c>
       <c r="R381" t="n">
-        <v>2.2500000000000093</v>
+        <v>1.9000000000000092</v>
       </c>
       <c r="T381" t="n">
-        <v>1.723956649888E12</v>
+        <v>1.724030463828E12</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -22640,10 +22670,10 @@
         <v>1895</v>
       </c>
       <c r="R384" t="n">
-        <v>2.2499999999999996</v>
+        <v>1.8999999999999995</v>
       </c>
       <c r="T384" t="n">
-        <v>1.723956652102E12</v>
+        <v>1.72403047116E12</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -23084,10 +23114,10 @@
         <v>4</v>
       </c>
       <c r="R399" t="n">
-        <v>2.15</v>
+        <v>1.7999999999999998</v>
       </c>
       <c r="T399" t="n">
-        <v>1.72395665497E12</v>
+        <v>1.724030479586E12</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -23284,10 +23314,10 @@
         <v>4</v>
       </c>
       <c r="R409" t="n">
-        <v>2.4499999999999997</v>
+        <v>2.0999999999999996</v>
       </c>
       <c r="T409" t="n">
-        <v>1.723956656577E12</v>
+        <v>1.724030486608E12</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -23424,10 +23454,10 @@
         <v>4</v>
       </c>
       <c r="R416" t="n">
-        <v>2.4499999999999997</v>
+        <v>3.4499999999999997</v>
       </c>
       <c r="T416" t="n">
-        <v>1.723956658981E12</v>
+        <v>1.724030488834E12</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -23844,10 +23874,10 @@
         <v>3</v>
       </c>
       <c r="R437" t="n">
-        <v>2.15</v>
+        <v>1.7999999999999998</v>
       </c>
       <c r="T437" t="n">
-        <v>1.723956660858E12</v>
+        <v>1.724030491778E12</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -24004,10 +24034,10 @@
         <v>4</v>
       </c>
       <c r="R445" t="n">
-        <v>2.4499999999999997</v>
+        <v>3.4499999999999997</v>
       </c>
       <c r="T445" t="n">
-        <v>1.723956664875E12</v>
+        <v>1.72403062808E12</v>
       </c>
     </row>
     <row r="446" spans="1:4">

--- a/src/main/resources/初级工题库.xlsx
+++ b/src/main/resources/初级工题库.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4210" uniqueCount="1999">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4226" uniqueCount="2011">
   <si>
     <t>题型</t>
   </si>
@@ -6058,6 +6058,42 @@
   </si>
   <si>
     <t>您一共做了: 16题	您的得分： 87.5	做题时长约为4.083333333333333Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 100题	您的得分： 88.0	做题时长约为49.1Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 100题	您的得分： 87.0	做题时长约为36.833333333333336Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 100题	您的得分： 86.0	做题时长约为181.78333333333333Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 100题	您的得分： 81.0	做题时长约为35.233333333333334Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 99题	您的得分： 81.81818181818183	做题时长约为31.983333333333334Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 1题	您的得分： 100.0	做题时长约为0.11666666666666667Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 24题	您的得分： 75.0	做题时长约为4.383333333333334Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 8题	您的得分： 87.5	做题时长约为0.5666666666666667Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 6题	您的得分： 100.0	做题时长约为1.05Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 12题	您的得分： 100.0	做题时长约为1.15Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 8题	您的得分： 100.0	做题时长约为0.31666666666666665Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 156题	您的得分： 89.74358974358975	做题时长约为18.766666666666666Min</t>
   </si>
 </sst>
 </file>
@@ -6117,7 +6153,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3590">
+  <cellXfs count="4308">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -9692,6 +9728,724 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -10068,10 +10822,10 @@
         <v>1573</v>
       </c>
       <c r="R2" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T2" t="n">
-        <v>1.72379408818E12</v>
+        <v>1.724205612277E12</v>
       </c>
       <c r="AA2" t="s">
         <v>1903</v>
@@ -10103,10 +10857,10 @@
         <v>1574</v>
       </c>
       <c r="R3" t="n">
-        <v>0.9499999999999998</v>
+        <v>1.7399999999999998</v>
       </c>
       <c r="T3" t="n">
-        <v>1.723794095813E12</v>
+        <v>1.72422785561E12</v>
       </c>
       <c r="AA3" t="s">
         <v>1904</v>
@@ -10138,10 +10892,10 @@
         <v>1575</v>
       </c>
       <c r="R4" t="n">
-        <v>1.3999999999999995</v>
+        <v>0.8999999999999995</v>
       </c>
       <c r="T4" t="n">
-        <v>1.723794097761E12</v>
+        <v>1.724205674324E12</v>
       </c>
       <c r="AA4" t="s">
         <v>1905</v>
@@ -10176,10 +10930,10 @@
         <v>1576</v>
       </c>
       <c r="R5" t="n">
-        <v>1.5999999999999996</v>
+        <v>0.8899999999999997</v>
       </c>
       <c r="T5" t="n">
-        <v>1.723794105824E12</v>
+        <v>1.724227868271E12</v>
       </c>
       <c r="AA5" t="s">
         <v>1906</v>
@@ -10214,7 +10968,7 @@
         <v>0.0</v>
       </c>
       <c r="T6" t="n">
-        <v>1.722848848459E12</v>
+        <v>1.724205719279E12</v>
       </c>
       <c r="AA6" t="s">
         <v>1907</v>
@@ -10246,10 +11000,10 @@
         <v>997</v>
       </c>
       <c r="R7" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T7" t="n">
-        <v>1.723794110665E12</v>
+        <v>1.724205724585E12</v>
       </c>
       <c r="AA7" t="s">
         <v>1908</v>
@@ -10281,10 +11035,10 @@
         <v>1296</v>
       </c>
       <c r="R8" t="n">
-        <v>1.5999999999999996</v>
+        <v>0.8899999999999997</v>
       </c>
       <c r="T8" t="n">
-        <v>1.723794116552E12</v>
+        <v>1.724227871202E12</v>
       </c>
       <c r="AA8" t="s">
         <v>1909</v>
@@ -10316,10 +11070,10 @@
         <v>551</v>
       </c>
       <c r="R9" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.0</v>
       </c>
       <c r="T9" t="n">
-        <v>1.722849083416E12</v>
+        <v>1.724206210452E12</v>
       </c>
       <c r="AA9" t="s">
         <v>1910</v>
@@ -10351,10 +11105,10 @@
         <v>1578</v>
       </c>
       <c r="R10" t="n">
-        <v>0.65</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="T10" t="n">
-        <v>1.723021711394E12</v>
+        <v>1.724206371646E12</v>
       </c>
       <c r="AA10" t="s">
         <v>1911</v>
@@ -10386,10 +11140,10 @@
         <v>1579</v>
       </c>
       <c r="R11" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T11" t="n">
-        <v>1.723794130884E12</v>
+        <v>1.72420638104E12</v>
       </c>
       <c r="AA11" t="s">
         <v>1912</v>
@@ -10421,10 +11175,10 @@
         <v>1580</v>
       </c>
       <c r="R12" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T12" t="n">
-        <v>1.72379414515E12</v>
+        <v>1.724206389061E12</v>
       </c>
       <c r="AA12" t="s">
         <v>1913</v>
@@ -10459,7 +11213,7 @@
         <v>0.0</v>
       </c>
       <c r="T13" t="n">
-        <v>1.722849303932E12</v>
+        <v>1.724206392869E12</v>
       </c>
       <c r="AA13" t="s">
         <v>1914</v>
@@ -10491,10 +11245,10 @@
         <v>1582</v>
       </c>
       <c r="R14" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.0</v>
       </c>
       <c r="T14" t="n">
-        <v>1.72284932789E12</v>
+        <v>1.724206435791E12</v>
       </c>
       <c r="AA14" t="s">
         <v>1915</v>
@@ -10526,10 +11280,10 @@
         <v>902</v>
       </c>
       <c r="R15" t="n">
-        <v>0.65</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="T15" t="n">
-        <v>1.723021805415E12</v>
+        <v>1.724206439296E12</v>
       </c>
       <c r="AA15" t="s">
         <v>1916</v>
@@ -10564,7 +11318,7 @@
         <v>0.0</v>
       </c>
       <c r="T16" t="n">
-        <v>1.722849416941E12</v>
+        <v>1.724206476089E12</v>
       </c>
       <c r="AA16" t="s">
         <v>1917</v>
@@ -10596,10 +11350,10 @@
         <v>1584</v>
       </c>
       <c r="R17" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.0</v>
       </c>
       <c r="T17" t="n">
-        <v>1.722849425765E12</v>
+        <v>1.724206484561E12</v>
       </c>
       <c r="AA17" t="s">
         <v>1918</v>
@@ -10631,10 +11385,10 @@
         <v>1585</v>
       </c>
       <c r="R18" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.0</v>
       </c>
       <c r="T18" t="n">
-        <v>1.722849429072E12</v>
+        <v>1.724206496264E12</v>
       </c>
       <c r="AA18" t="s">
         <v>1919</v>
@@ -10666,10 +11420,10 @@
         <v>1586</v>
       </c>
       <c r="R19" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T19" t="n">
-        <v>1.72379415161E12</v>
+        <v>1.724206502466E12</v>
       </c>
       <c r="AA19" t="s">
         <v>1920</v>
@@ -10701,10 +11455,10 @@
         <v>1587</v>
       </c>
       <c r="R20" t="n">
-        <v>1.5999999999999996</v>
+        <v>0.8899999999999997</v>
       </c>
       <c r="T20" t="n">
-        <v>1.723794155873E12</v>
+        <v>1.72422787458E12</v>
       </c>
       <c r="AA20" t="s">
         <v>1921</v>
@@ -10739,7 +11493,7 @@
         <v>0.0</v>
       </c>
       <c r="T21" t="n">
-        <v>1.722849453859E12</v>
+        <v>1.724206510886E12</v>
       </c>
       <c r="AA21" t="s">
         <v>1922</v>
@@ -10771,10 +11525,10 @@
         <v>1589</v>
       </c>
       <c r="R22" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T22" t="n">
-        <v>1.723794163215E12</v>
+        <v>1.724206515383E12</v>
       </c>
       <c r="AA22" t="s">
         <v>1923</v>
@@ -10806,10 +11560,10 @@
         <v>1590</v>
       </c>
       <c r="R23" t="n">
-        <v>1.5999999999999996</v>
+        <v>0.8899999999999997</v>
       </c>
       <c r="T23" t="n">
-        <v>1.723794168067E12</v>
+        <v>1.724227878973E12</v>
       </c>
       <c r="AA23" t="s">
         <v>1924</v>
@@ -10844,7 +11598,7 @@
         <v>0.0</v>
       </c>
       <c r="T24" t="n">
-        <v>1.722849497812E12</v>
+        <v>1.724206544342E12</v>
       </c>
       <c r="AA24" t="s">
         <v>1925</v>
@@ -10876,10 +11630,10 @@
         <v>1591</v>
       </c>
       <c r="R25" t="n">
-        <v>1.5</v>
+        <v>0.79</v>
       </c>
       <c r="T25" t="n">
-        <v>1.723794170447E12</v>
+        <v>1.724227880905E12</v>
       </c>
       <c r="AA25" t="s">
         <v>1926</v>
@@ -10911,10 +11665,10 @@
         <v>1592</v>
       </c>
       <c r="R26" t="n">
-        <v>0.30000000000000004</v>
+        <v>2.3</v>
       </c>
       <c r="T26" t="n">
-        <v>1.722849505112E12</v>
+        <v>1.724227890808E12</v>
       </c>
       <c r="AA26" t="s">
         <v>1927</v>
@@ -10946,10 +11700,10 @@
         <v>1592</v>
       </c>
       <c r="R27" t="n">
-        <v>1.4499999999999988</v>
+        <v>0.9499999999999988</v>
       </c>
       <c r="T27" t="n">
-        <v>1.723794172725E12</v>
+        <v>1.724206564663E12</v>
       </c>
       <c r="AA27" t="s">
         <v>1928</v>
@@ -10984,7 +11738,7 @@
         <v>0.0</v>
       </c>
       <c r="T28" t="n">
-        <v>1.722849745397E12</v>
+        <v>1.724206637124E12</v>
       </c>
       <c r="AA28" t="s">
         <v>1929</v>
@@ -11016,10 +11770,10 @@
         <v>1594</v>
       </c>
       <c r="R29" t="n">
-        <v>1.7999999999999998</v>
+        <v>1.0899999999999999</v>
       </c>
       <c r="T29" t="n">
-        <v>1.724030384982E12</v>
+        <v>1.72422792079E12</v>
       </c>
       <c r="AA29" t="s">
         <v>1930</v>
@@ -11054,7 +11808,7 @@
         <v>0.0</v>
       </c>
       <c r="T30" t="n">
-        <v>1.722849761704E12</v>
+        <v>1.72420664903E12</v>
       </c>
       <c r="AA30" t="s">
         <v>1931</v>
@@ -11089,7 +11843,7 @@
         <v>0.0</v>
       </c>
       <c r="T31" t="n">
-        <v>1.722849771015E12</v>
+        <v>1.724206651656E12</v>
       </c>
       <c r="AA31" t="s">
         <v>1932</v>
@@ -11124,7 +11878,7 @@
         <v>0.0</v>
       </c>
       <c r="T32" t="n">
-        <v>1.722849861788E12</v>
+        <v>1.724206659236E12</v>
       </c>
       <c r="AA32" t="s">
         <v>1933</v>
@@ -11156,10 +11910,10 @@
         <v>997</v>
       </c>
       <c r="R33" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.0</v>
       </c>
       <c r="T33" t="n">
-        <v>1.722849864834E12</v>
+        <v>1.724206663191E12</v>
       </c>
       <c r="AA33" t="s">
         <v>1934</v>
@@ -11191,10 +11945,10 @@
         <v>1596</v>
       </c>
       <c r="R34" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.0</v>
       </c>
       <c r="T34" t="n">
-        <v>1.72284987129E12</v>
+        <v>1.724206671761E12</v>
       </c>
       <c r="AA34" t="s">
         <v>1935</v>
@@ -11226,10 +11980,10 @@
         <v>1597</v>
       </c>
       <c r="R35" t="n">
-        <v>0.30000000000000004</v>
+        <v>1.09</v>
       </c>
       <c r="T35" t="n">
-        <v>1.722849876852E12</v>
+        <v>1.724227923862E12</v>
       </c>
       <c r="AA35" t="s">
         <v>1936</v>
@@ -11264,7 +12018,7 @@
         <v>0.0</v>
       </c>
       <c r="T36" t="n">
-        <v>1.722849924659E12</v>
+        <v>1.724206815753E12</v>
       </c>
       <c r="AA36" t="s">
         <v>1926</v>
@@ -11296,10 +12050,10 @@
         <v>1599</v>
       </c>
       <c r="R37" t="n">
-        <v>1.450000000000001</v>
+        <v>0.9500000000000011</v>
       </c>
       <c r="T37" t="n">
-        <v>1.723794797977E12</v>
+        <v>1.724206820291E12</v>
       </c>
       <c r="AA37" t="s">
         <v>1937</v>
@@ -11331,10 +12085,10 @@
         <v>1600</v>
       </c>
       <c r="R38" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T38" t="n">
-        <v>1.72379480602E12</v>
+        <v>1.724206826827E12</v>
       </c>
       <c r="AA38" t="s">
         <v>1938</v>
@@ -11366,10 +12120,10 @@
         <v>1563</v>
       </c>
       <c r="R39" t="n">
-        <v>1.2999999999999998</v>
+        <v>0.7999999999999998</v>
       </c>
       <c r="T39" t="n">
-        <v>1.723794810951E12</v>
+        <v>1.724206829414E12</v>
       </c>
       <c r="AA39" t="s">
         <v>1939</v>
@@ -11401,10 +12155,10 @@
         <v>1563</v>
       </c>
       <c r="R40" t="n">
-        <v>1.4999999999999991</v>
+        <v>1.7899999999999991</v>
       </c>
       <c r="T40" t="n">
-        <v>1.723794813318E12</v>
+        <v>1.724227928255E12</v>
       </c>
       <c r="AA40" t="s">
         <v>1938</v>
@@ -11436,10 +12190,10 @@
         <v>997</v>
       </c>
       <c r="R41" t="n">
-        <v>0.65</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="T41" t="n">
-        <v>1.723021944453E12</v>
+        <v>1.724206838685E12</v>
       </c>
       <c r="AA41" t="s">
         <v>1940</v>
@@ -11471,10 +12225,10 @@
         <v>997</v>
       </c>
       <c r="R42" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T42" t="n">
-        <v>1.723021947933E12</v>
+        <v>1.724206846131E12</v>
       </c>
       <c r="AA42" t="s">
         <v>1941</v>
@@ -11509,7 +12263,7 @@
         <v>0.0</v>
       </c>
       <c r="T43" t="n">
-        <v>1.722850022776E12</v>
+        <v>1.724206851651E12</v>
       </c>
       <c r="AA43" t="s">
         <v>1942</v>
@@ -11541,10 +12295,10 @@
         <v>1602</v>
       </c>
       <c r="R44" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.0</v>
       </c>
       <c r="T44" t="n">
-        <v>1.722850025377E12</v>
+        <v>1.72420685526E12</v>
       </c>
       <c r="AA44" t="s">
         <v>1943</v>
@@ -11576,10 +12330,10 @@
         <v>1603</v>
       </c>
       <c r="R45" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T45" t="n">
-        <v>1.723794815968E12</v>
+        <v>1.724206862043E12</v>
       </c>
       <c r="AA45" t="s">
         <v>1944</v>
@@ -11611,10 +12365,10 @@
         <v>1604</v>
       </c>
       <c r="R46" t="n">
-        <v>0.65</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="T46" t="n">
-        <v>1.723021952053E12</v>
+        <v>1.724206867657E12</v>
       </c>
       <c r="AA46" t="s">
         <v>1945</v>
@@ -11646,10 +12400,10 @@
         <v>1605</v>
       </c>
       <c r="R47" t="n">
-        <v>1.2499999999999996</v>
+        <v>1.5399999999999996</v>
       </c>
       <c r="T47" t="n">
-        <v>1.723794819661E12</v>
+        <v>1.724227929868E12</v>
       </c>
       <c r="AA47" t="s">
         <v>1946</v>
@@ -11681,10 +12435,10 @@
         <v>1606</v>
       </c>
       <c r="R48" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.0</v>
       </c>
       <c r="T48" t="n">
-        <v>1.722850046313E12</v>
+        <v>1.724206880987E12</v>
       </c>
       <c r="AA48" t="s">
         <v>1947</v>
@@ -11716,10 +12470,10 @@
         <v>1607</v>
       </c>
       <c r="R49" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T49" t="n">
-        <v>1.723794822586E12</v>
+        <v>1.72420688413E12</v>
       </c>
       <c r="AA49" t="s">
         <v>1948</v>
@@ -11751,10 +12505,10 @@
         <v>1608</v>
       </c>
       <c r="R50" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T50" t="n">
-        <v>1.723794835515E12</v>
+        <v>1.724206897944E12</v>
       </c>
       <c r="AA50" t="s">
         <v>1949</v>
@@ -11786,10 +12540,10 @@
         <v>1609</v>
       </c>
       <c r="R51" t="n">
-        <v>0.65</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="T51" t="n">
-        <v>1.723021968161E12</v>
+        <v>1.724206903374E12</v>
       </c>
       <c r="AA51" t="s">
         <v>1950</v>
@@ -11821,10 +12575,10 @@
         <v>1610</v>
       </c>
       <c r="R52" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T52" t="n">
-        <v>1.723794846057E12</v>
+        <v>1.724206912114E12</v>
       </c>
       <c r="AA52" t="s">
         <v>1951</v>
@@ -11856,10 +12610,10 @@
         <v>1611</v>
       </c>
       <c r="R53" t="n">
-        <v>1.450000000000001</v>
+        <v>1.740000000000001</v>
       </c>
       <c r="T53" t="n">
-        <v>1.723794850886E12</v>
+        <v>1.724227932955E12</v>
       </c>
       <c r="AA53" t="s">
         <v>1936</v>
@@ -11891,10 +12645,10 @@
         <v>1612</v>
       </c>
       <c r="R54" t="n">
-        <v>0.65</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="T54" t="n">
-        <v>1.723021996753E12</v>
+        <v>1.72420698372E12</v>
       </c>
       <c r="AA54" t="s">
         <v>1952</v>
@@ -11926,10 +12680,10 @@
         <v>1613</v>
       </c>
       <c r="R55" t="n">
-        <v>0.65</v>
+        <v>2.65</v>
       </c>
       <c r="T55" t="n">
-        <v>1.723021998746E12</v>
+        <v>1.724227939855E12</v>
       </c>
       <c r="AA55" t="s">
         <v>1953</v>
@@ -11961,10 +12715,10 @@
         <v>1614</v>
       </c>
       <c r="R56" t="n">
-        <v>1.7999999999999998</v>
+        <v>1.0899999999999999</v>
       </c>
       <c r="T56" t="n">
-        <v>1.723956538943E12</v>
+        <v>1.724227942832E12</v>
       </c>
       <c r="AA56" t="s">
         <v>1954</v>
@@ -11999,7 +12753,7 @@
         <v>0.0</v>
       </c>
       <c r="T57" t="n">
-        <v>1.722906719884E12</v>
+        <v>1.724207048393E12</v>
       </c>
       <c r="AA57" t="s">
         <v>1955</v>
@@ -12031,10 +12785,10 @@
         <v>1584</v>
       </c>
       <c r="R58" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.0</v>
       </c>
       <c r="T58" t="n">
-        <v>1.722906727604E12</v>
+        <v>1.724207073763E12</v>
       </c>
       <c r="AA58" t="s">
         <v>1956</v>
@@ -12069,7 +12823,7 @@
         <v>0.0</v>
       </c>
       <c r="T59" t="n">
-        <v>1.722906733643E12</v>
+        <v>1.724207092166E12</v>
       </c>
       <c r="AA59" t="s">
         <v>1957</v>
@@ -12104,7 +12858,7 @@
         <v>0.0</v>
       </c>
       <c r="T60" t="n">
-        <v>1.722906737162E12</v>
+        <v>1.724207111038E12</v>
       </c>
       <c r="AA60" t="s">
         <v>1958</v>
@@ -12136,10 +12890,10 @@
         <v>1618</v>
       </c>
       <c r="R61" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.0</v>
       </c>
       <c r="T61" t="n">
-        <v>1.722906741677E12</v>
+        <v>1.724207112833E12</v>
       </c>
       <c r="AA61" t="s">
         <v>1959</v>
@@ -12174,7 +12928,7 @@
         <v>0.0</v>
       </c>
       <c r="T62" t="n">
-        <v>1.722906814398E12</v>
+        <v>1.724207146572E12</v>
       </c>
       <c r="AA62" t="s">
         <v>1960</v>
@@ -12206,10 +12960,10 @@
         <v>1620</v>
       </c>
       <c r="R63" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.0</v>
       </c>
       <c r="T63" t="n">
-        <v>1.722906828806E12</v>
+        <v>1.724207159546E12</v>
       </c>
       <c r="AA63" t="s">
         <v>1961</v>
@@ -12244,7 +12998,7 @@
         <v>0.0</v>
       </c>
       <c r="T64" t="n">
-        <v>1.722906835688E12</v>
+        <v>1.724207166468E12</v>
       </c>
       <c r="AA64" t="s">
         <v>1951</v>
@@ -12276,10 +13030,10 @@
         <v>1622</v>
       </c>
       <c r="R65" t="n">
-        <v>0.65</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="T65" t="n">
-        <v>1.723022047096E12</v>
+        <v>1.724207881405E12</v>
       </c>
       <c r="AA65" t="s">
         <v>1962</v>
@@ -12311,10 +13065,10 @@
         <v>1623</v>
       </c>
       <c r="R66" t="n">
-        <v>0.30000000000000004</v>
+        <v>1.09</v>
       </c>
       <c r="T66" t="n">
-        <v>1.722906906684E12</v>
+        <v>1.72422794491E12</v>
       </c>
       <c r="AA66" t="s">
         <v>1963</v>
@@ -12349,7 +13103,7 @@
         <v>0.0</v>
       </c>
       <c r="T67" t="n">
-        <v>1.722906912301E12</v>
+        <v>1.724207909027E12</v>
       </c>
       <c r="AA67" t="s">
         <v>1964</v>
@@ -12384,7 +13138,7 @@
         <v>0.0</v>
       </c>
       <c r="T68" t="n">
-        <v>1.722906917154E12</v>
+        <v>1.724207921154E12</v>
       </c>
       <c r="AA68" t="s">
         <v>1965</v>
@@ -12416,10 +13170,10 @@
         <v>1626</v>
       </c>
       <c r="R69" t="n">
-        <v>1.5</v>
+        <v>0.79</v>
       </c>
       <c r="T69" t="n">
-        <v>1.723794859401E12</v>
+        <v>1.724227947407E12</v>
       </c>
       <c r="AA69" t="s">
         <v>1966</v>
@@ -12451,10 +13205,10 @@
         <v>1297</v>
       </c>
       <c r="R70" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T70" t="n">
-        <v>1.723794864288E12</v>
+        <v>1.724208042807E12</v>
       </c>
       <c r="AA70" t="s">
         <v>1967</v>
@@ -12489,7 +13243,7 @@
         <v>0.0</v>
       </c>
       <c r="T71" t="n">
-        <v>1.722906977013E12</v>
+        <v>1.72420806437E12</v>
       </c>
       <c r="AA71" t="s">
         <v>1968</v>
@@ -12521,10 +13275,10 @@
         <v>1628</v>
       </c>
       <c r="R72" t="n">
-        <v>1.5999999999999996</v>
+        <v>0.8899999999999997</v>
       </c>
       <c r="T72" t="n">
-        <v>1.723794868356E12</v>
+        <v>1.724227950059E12</v>
       </c>
       <c r="AA72" t="s">
         <v>1969</v>
@@ -12559,7 +13313,7 @@
         <v>0.0</v>
       </c>
       <c r="T73" t="n">
-        <v>1.722908798483E12</v>
+        <v>1.72420807226E12</v>
       </c>
       <c r="AA73" t="s">
         <v>1970</v>
@@ -12591,10 +13345,10 @@
         <v>1630</v>
       </c>
       <c r="R74" t="n">
-        <v>1.7999999999999998</v>
+        <v>1.0899999999999999</v>
       </c>
       <c r="T74" t="n">
-        <v>1.723956542168E12</v>
+        <v>1.724227955138E12</v>
       </c>
       <c r="AA74" t="s">
         <v>1971</v>
@@ -12629,7 +13383,7 @@
         <v>0.0</v>
       </c>
       <c r="T75" t="n">
-        <v>1.722908818652E12</v>
+        <v>1.724208077156E12</v>
       </c>
       <c r="AA75" t="s">
         <v>1951</v>
@@ -12661,10 +13415,10 @@
         <v>1632</v>
       </c>
       <c r="R76" t="n">
-        <v>1.3499999999999979</v>
+        <v>1.639999999999998</v>
       </c>
       <c r="T76" t="n">
-        <v>1.723794878258E12</v>
+        <v>1.724227960845E12</v>
       </c>
       <c r="AA76" t="s">
         <v>1969</v>
@@ -12699,7 +13453,7 @@
         <v>0.0</v>
       </c>
       <c r="T77" t="n">
-        <v>1.722908862145E12</v>
+        <v>1.724208145944E12</v>
       </c>
       <c r="AA77" t="s">
         <v>1972</v>
@@ -12734,7 +13488,7 @@
         <v>0.0</v>
       </c>
       <c r="T78" t="n">
-        <v>1.722908866221E12</v>
+        <v>1.724208149362E12</v>
       </c>
       <c r="AA78" t="s">
         <v>1973</v>
@@ -12769,7 +13523,7 @@
         <v>0.0</v>
       </c>
       <c r="T79" t="n">
-        <v>1.722908875586E12</v>
+        <v>1.724208195404E12</v>
       </c>
       <c r="AA79" t="s">
         <v>1974</v>
@@ -12801,10 +13555,10 @@
         <v>1636</v>
       </c>
       <c r="R80" t="n">
-        <v>1.5499999999999994</v>
+        <v>0.8399999999999994</v>
       </c>
       <c r="T80" t="n">
-        <v>1.723794881556E12</v>
+        <v>1.724227971245E12</v>
       </c>
       <c r="AA80" t="s">
         <v>1975</v>
@@ -12836,10 +13590,10 @@
         <v>1637</v>
       </c>
       <c r="R81" t="n">
-        <v>1.5</v>
+        <v>0.79</v>
       </c>
       <c r="T81" t="n">
-        <v>1.723794883673E12</v>
+        <v>1.724227974236E12</v>
       </c>
       <c r="AA81" t="s">
         <v>1976</v>
@@ -12871,10 +13625,10 @@
         <v>566</v>
       </c>
       <c r="R82" t="n">
-        <v>1.2999999999999998</v>
+        <v>1.5899999999999999</v>
       </c>
       <c r="T82" t="n">
-        <v>1.723794887376E12</v>
+        <v>1.724227980037E12</v>
       </c>
       <c r="AA82" t="s">
         <v>1976</v>
@@ -12906,10 +13660,10 @@
         <v>1638</v>
       </c>
       <c r="R83" t="n">
-        <v>1.5499999999999994</v>
+        <v>0.8399999999999994</v>
       </c>
       <c r="T83" t="n">
-        <v>1.72379488949E12</v>
+        <v>1.72422798316E12</v>
       </c>
       <c r="AA83" t="s">
         <v>1977</v>
@@ -12944,7 +13698,7 @@
         <v>0.0</v>
       </c>
       <c r="T84" t="n">
-        <v>1.722909093282E12</v>
+        <v>1.724208253802E12</v>
       </c>
       <c r="AA84" t="s">
         <v>1978</v>
@@ -12976,10 +13730,10 @@
         <v>1640</v>
       </c>
       <c r="R85" t="n">
-        <v>0.0</v>
+        <v>0.79</v>
       </c>
       <c r="T85" t="n">
-        <v>1.722909106699E12</v>
+        <v>1.724227985208E12</v>
       </c>
       <c r="AA85" t="s">
         <v>1979</v>
@@ -13011,10 +13765,10 @@
         <v>1641</v>
       </c>
       <c r="R86" t="n">
-        <v>1.7999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="T86" t="n">
-        <v>1.723956552654E12</v>
+        <v>1.724227995653E12</v>
       </c>
       <c r="AA86" t="s">
         <v>1980</v>
@@ -13049,7 +13803,7 @@
         <v>0.0</v>
       </c>
       <c r="T87" t="n">
-        <v>1.72290912116E12</v>
+        <v>1.724208277334E12</v>
       </c>
       <c r="AA87" t="s">
         <v>1917</v>
@@ -13081,10 +13835,10 @@
         <v>1643</v>
       </c>
       <c r="R88" t="n">
-        <v>0.0</v>
+        <v>0.79</v>
       </c>
       <c r="T88" t="n">
-        <v>1.722909127284E12</v>
+        <v>1.724228040447E12</v>
       </c>
       <c r="AA88" t="s">
         <v>1976</v>
@@ -13116,10 +13870,10 @@
         <v>1644</v>
       </c>
       <c r="R89" t="n">
-        <v>1.2999999999999998</v>
+        <v>0.7999999999999998</v>
       </c>
       <c r="T89" t="n">
-        <v>1.723794902493E12</v>
+        <v>1.724208309763E12</v>
       </c>
       <c r="AA89" t="s">
         <v>1926</v>
@@ -13151,10 +13905,10 @@
         <v>1645</v>
       </c>
       <c r="R90" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T90" t="n">
-        <v>1.723794905482E12</v>
+        <v>1.724208311842E12</v>
       </c>
       <c r="AA90" t="s">
         <v>1981</v>
@@ -13189,7 +13943,7 @@
         <v>0.0</v>
       </c>
       <c r="T91" t="n">
-        <v>1.722909177906E12</v>
+        <v>1.724208346911E12</v>
       </c>
       <c r="AA91" t="s">
         <v>1982</v>
@@ -13221,10 +13975,10 @@
         <v>1647</v>
       </c>
       <c r="R92" t="n">
-        <v>1.5999999999999996</v>
+        <v>0.8899999999999997</v>
       </c>
       <c r="T92" t="n">
-        <v>1.723794955307E12</v>
+        <v>1.72422805812E12</v>
       </c>
       <c r="AA92" t="s">
         <v>1983</v>
@@ -13259,7 +14013,7 @@
         <v>0.0</v>
       </c>
       <c r="T93" t="n">
-        <v>1.722909191584E12</v>
+        <v>1.724208359593E12</v>
       </c>
       <c r="AA93" t="s">
         <v>1975</v>
@@ -13291,10 +14045,10 @@
         <v>1649</v>
       </c>
       <c r="R94" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T94" t="n">
-        <v>1.723022444656E12</v>
+        <v>1.724208363021E12</v>
       </c>
       <c r="AA94" t="s">
         <v>1976</v>
@@ -13326,10 +14080,10 @@
         <v>1650</v>
       </c>
       <c r="R95" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T95" t="n">
-        <v>1.723022446327E12</v>
+        <v>1.724208398078E12</v>
       </c>
       <c r="AA95" t="s">
         <v>1942</v>
@@ -13364,7 +14118,7 @@
         <v>0.0</v>
       </c>
       <c r="T96" t="n">
-        <v>1.722909237658E12</v>
+        <v>1.724208496096E12</v>
       </c>
       <c r="AA96" t="s">
         <v>1917</v>
@@ -13396,10 +14150,10 @@
         <v>1652</v>
       </c>
       <c r="R97" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.0</v>
       </c>
       <c r="T97" t="n">
-        <v>1.722909241446E12</v>
+        <v>1.724208531244E12</v>
       </c>
       <c r="AA97" t="s">
         <v>1984</v>
@@ -13431,10 +14185,10 @@
         <v>1653</v>
       </c>
       <c r="R98" t="n">
-        <v>1.5499999999999994</v>
+        <v>0.8399999999999994</v>
       </c>
       <c r="T98" t="n">
-        <v>1.723794985929E12</v>
+        <v>1.72422807481E12</v>
       </c>
       <c r="AA98" t="s">
         <v>1951</v>
@@ -13466,10 +14220,10 @@
         <v>1654</v>
       </c>
       <c r="R99" t="n">
-        <v>2.9499999999999997</v>
+        <v>1.7399999999999998</v>
       </c>
       <c r="T99" t="n">
-        <v>1.72403038835E12</v>
+        <v>1.724228080444E12</v>
       </c>
       <c r="AA99" t="s">
         <v>1976</v>
@@ -13501,10 +14255,10 @@
         <v>1655</v>
       </c>
       <c r="R100" t="n">
-        <v>1.4999999999999991</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="T100" t="n">
-        <v>1.723795046135E12</v>
+        <v>1.724208549007E12</v>
       </c>
       <c r="AA100" t="s">
         <v>1985</v>
@@ -13536,10 +14290,10 @@
         <v>1628</v>
       </c>
       <c r="R101" t="n">
-        <v>0.65</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="T101" t="n">
-        <v>1.723022578266E12</v>
+        <v>1.724208551324E12</v>
       </c>
       <c r="AA101" t="s">
         <v>1986</v>
@@ -13574,7 +14328,7 @@
         <v>0.0</v>
       </c>
       <c r="T102" t="n">
-        <v>1.722914612665E12</v>
+        <v>1.724208798301E12</v>
       </c>
       <c r="AA102" t="s">
         <v>1951</v>
@@ -13606,10 +14360,10 @@
         <v>607</v>
       </c>
       <c r="R103" t="n">
-        <v>1.5499999999999994</v>
+        <v>0.8399999999999994</v>
       </c>
       <c r="T103" t="n">
-        <v>1.723795047662E12</v>
+        <v>1.724228084501E12</v>
       </c>
       <c r="AA103" t="s">
         <v>1987</v>
@@ -13641,10 +14395,10 @@
         <v>1657</v>
       </c>
       <c r="R104" t="n">
-        <v>1.7999999999999998</v>
+        <v>1.0899999999999999</v>
       </c>
       <c r="T104" t="n">
-        <v>1.723956568991E12</v>
+        <v>1.72422808839E12</v>
       </c>
       <c r="AA104" t="s">
         <v>1988</v>
@@ -13676,10 +14430,10 @@
         <v>1658</v>
       </c>
       <c r="R105" t="n">
-        <v>1.5999999999999996</v>
+        <v>0.8899999999999997</v>
       </c>
       <c r="T105" t="n">
-        <v>1.723795055331E12</v>
+        <v>1.724228127247E12</v>
       </c>
       <c r="AA105" t="s">
         <v>1989</v>
@@ -13714,7 +14468,7 @@
         <v>0.0</v>
       </c>
       <c r="T106" t="n">
-        <v>1.722914662199E12</v>
+        <v>1.7242089002E12</v>
       </c>
       <c r="AA106" t="s">
         <v>1990</v>
@@ -13746,10 +14500,10 @@
         <v>1660</v>
       </c>
       <c r="R107" t="n">
-        <v>0.65</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="T107" t="n">
-        <v>1.723022595159E12</v>
+        <v>1.724208904701E12</v>
       </c>
       <c r="AA107" t="s">
         <v>1976</v>
@@ -13781,10 +14535,10 @@
         <v>1661</v>
       </c>
       <c r="R108" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.0</v>
       </c>
       <c r="T108" t="n">
-        <v>1.722914714561E12</v>
+        <v>1.724208954358E12</v>
       </c>
       <c r="AA108" t="s">
         <v>1976</v>
@@ -13816,10 +14570,10 @@
         <v>1662</v>
       </c>
       <c r="R109" t="n">
-        <v>0.65</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="T109" t="n">
-        <v>1.72302259885E12</v>
+        <v>1.724209039279E12</v>
       </c>
       <c r="AA109" t="s">
         <v>1976</v>
@@ -13851,10 +14605,10 @@
         <v>1663</v>
       </c>
       <c r="R110" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.0</v>
       </c>
       <c r="T110" t="n">
-        <v>1.722914856395E12</v>
+        <v>1.724209048852E12</v>
       </c>
       <c r="AA110" t="s">
         <v>1976</v>
@@ -13886,10 +14640,10 @@
         <v>1662</v>
       </c>
       <c r="R111" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.0</v>
       </c>
       <c r="T111" t="n">
-        <v>1.722914860273E12</v>
+        <v>1.724209058354E12</v>
       </c>
       <c r="AA111" t="s">
         <v>1991</v>
@@ -13921,10 +14675,10 @@
         <v>1067</v>
       </c>
       <c r="R112" t="n">
-        <v>1.2999999999999998</v>
+        <v>0.7999999999999998</v>
       </c>
       <c r="T112" t="n">
-        <v>1.723795059504E12</v>
+        <v>1.724209067362E12</v>
       </c>
       <c r="AA112" t="s">
         <v>1951</v>
@@ -13956,10 +14710,10 @@
         <v>1664</v>
       </c>
       <c r="R113" t="n">
-        <v>1.7999999999999998</v>
+        <v>1.0899999999999999</v>
       </c>
       <c r="T113" t="n">
-        <v>1.724030394391E12</v>
+        <v>1.72422813022E12</v>
       </c>
       <c r="AA113" t="s">
         <v>1992</v>
@@ -13991,10 +14745,10 @@
         <v>1665</v>
       </c>
       <c r="R114" t="n">
-        <v>1.5999999999999996</v>
+        <v>0.8899999999999997</v>
       </c>
       <c r="T114" t="n">
-        <v>1.723795097586E12</v>
+        <v>1.724228159473E12</v>
       </c>
       <c r="AA114" t="s">
         <v>1975</v>
@@ -14029,7 +14783,7 @@
         <v>0.0</v>
       </c>
       <c r="T115" t="n">
-        <v>1.722914941533E12</v>
+        <v>1.724209177996E12</v>
       </c>
       <c r="AA115" t="s">
         <v>1993</v>
@@ -14064,7 +14818,7 @@
         <v>0.0</v>
       </c>
       <c r="T116" t="n">
-        <v>1.722914946742E12</v>
+        <v>1.724209226879E12</v>
       </c>
       <c r="AA116" t="s">
         <v>1994</v>
@@ -14099,7 +14853,7 @@
         <v>0.0</v>
       </c>
       <c r="T117" t="n">
-        <v>1.722915053823E12</v>
+        <v>1.724209260644E12</v>
       </c>
       <c r="AA117" t="s">
         <v>1917</v>
@@ -14134,7 +14888,7 @@
         <v>0.0</v>
       </c>
       <c r="T118" t="n">
-        <v>1.722927007237E12</v>
+        <v>1.7242093586E12</v>
       </c>
       <c r="AA118" t="s">
         <v>1976</v>
@@ -14166,10 +14920,10 @@
         <v>1670</v>
       </c>
       <c r="R119" t="n">
-        <v>1.5</v>
+        <v>0.79</v>
       </c>
       <c r="T119" t="n">
-        <v>1.72379510253E12</v>
+        <v>1.724228162923E12</v>
       </c>
       <c r="AA119" t="s">
         <v>1976</v>
@@ -14201,10 +14955,10 @@
         <v>1263</v>
       </c>
       <c r="R120" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T120" t="n">
-        <v>1.723795105665E12</v>
+        <v>1.724209364976E12</v>
       </c>
       <c r="AA120" t="s">
         <v>1976</v>
@@ -14236,10 +14990,10 @@
         <v>1671</v>
       </c>
       <c r="R121" t="n">
-        <v>1.5999999999999996</v>
+        <v>0.8899999999999997</v>
       </c>
       <c r="T121" t="n">
-        <v>1.723795109304E12</v>
+        <v>1.724228165263E12</v>
       </c>
       <c r="AA121" t="s">
         <v>1986</v>
@@ -14271,10 +15025,10 @@
         <v>1672</v>
       </c>
       <c r="R122" t="n">
-        <v>1.450000000000001</v>
+        <v>0.9500000000000011</v>
       </c>
       <c r="T122" t="n">
-        <v>1.723795111267E12</v>
+        <v>1.724209373516E12</v>
       </c>
       <c r="AA122" t="s">
         <v>1976</v>
@@ -14306,10 +15060,10 @@
         <v>1673</v>
       </c>
       <c r="R123" t="n">
-        <v>1.2499999999999996</v>
+        <v>0.7499999999999996</v>
       </c>
       <c r="T123" t="n">
-        <v>1.723795120179E12</v>
+        <v>1.724209409529E12</v>
       </c>
       <c r="AA123" t="s">
         <v>1951</v>
@@ -14341,10 +15095,10 @@
         <v>1674</v>
       </c>
       <c r="R124" t="n">
-        <v>1.5</v>
+        <v>0.79</v>
       </c>
       <c r="T124" t="n">
-        <v>1.723795125412E12</v>
+        <v>1.724228169228E12</v>
       </c>
       <c r="AA124" t="s">
         <v>1995</v>
@@ -14376,10 +15130,10 @@
         <v>1675</v>
       </c>
       <c r="R125" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T125" t="n">
-        <v>1.723795132509E12</v>
+        <v>1.724209497456E12</v>
       </c>
       <c r="AA125" t="s">
         <v>1996</v>
@@ -14411,10 +15165,10 @@
         <v>1173</v>
       </c>
       <c r="R126" t="n">
-        <v>0.65</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="T126" t="n">
-        <v>1.723077528827E12</v>
+        <v>1.724209505269E12</v>
       </c>
       <c r="AA126" t="s">
         <v>1997</v>
@@ -14446,10 +15200,10 @@
         <v>1676</v>
       </c>
       <c r="R127" t="n">
-        <v>1.3500000000000032</v>
+        <v>0.8500000000000032</v>
       </c>
       <c r="T127" t="n">
-        <v>1.723795134909E12</v>
+        <v>1.724209507082E12</v>
       </c>
       <c r="AA127" t="s">
         <v>1998</v>
@@ -14481,10 +15235,13 @@
         <v>1677</v>
       </c>
       <c r="R128" t="n">
-        <v>1.2499999999999996</v>
+        <v>0.7499999999999996</v>
       </c>
       <c r="T128" t="n">
-        <v>1.723795169172E12</v>
+        <v>1.724209510009E12</v>
+      </c>
+      <c r="AA128" t="s">
+        <v>1999</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -14513,10 +15270,13 @@
         <v>1678</v>
       </c>
       <c r="R129" t="n">
-        <v>1.5</v>
+        <v>0.79</v>
       </c>
       <c r="T129" t="n">
-        <v>1.723795171732E12</v>
+        <v>1.724228172342E12</v>
+      </c>
+      <c r="AA129" t="s">
+        <v>2000</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -14545,10 +15305,13 @@
         <v>1679</v>
       </c>
       <c r="R130" t="n">
-        <v>1.5999999999999996</v>
+        <v>1.3899999999999997</v>
       </c>
       <c r="T130" t="n">
-        <v>1.723795178455E12</v>
+        <v>1.7242282333E12</v>
+      </c>
+      <c r="AA130" t="s">
+        <v>2001</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -14577,10 +15340,13 @@
         <v>1680</v>
       </c>
       <c r="R131" t="n">
-        <v>1.5499999999999994</v>
+        <v>0.8399999999999994</v>
       </c>
       <c r="T131" t="n">
-        <v>1.723795182201E12</v>
+        <v>1.724228252486E12</v>
+      </c>
+      <c r="AA131" t="s">
+        <v>2002</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -14609,10 +15375,13 @@
         <v>1681</v>
       </c>
       <c r="R132" t="n">
-        <v>0.0</v>
+        <v>0.79</v>
       </c>
       <c r="T132" t="n">
-        <v>1.722928462352E12</v>
+        <v>1.724228262447E12</v>
+      </c>
+      <c r="AA132" t="s">
+        <v>2003</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -14641,10 +15410,13 @@
         <v>1682</v>
       </c>
       <c r="R133" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T133" t="n">
-        <v>1.723795186151E12</v>
+        <v>1.724209595047E12</v>
+      </c>
+      <c r="AA133" t="s">
+        <v>2004</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -14673,10 +15445,13 @@
         <v>1683</v>
       </c>
       <c r="R134" t="n">
-        <v>0.0</v>
+        <v>0.79</v>
       </c>
       <c r="T134" t="n">
-        <v>1.722928537322E12</v>
+        <v>1.724228272351E12</v>
+      </c>
+      <c r="AA134" t="s">
+        <v>2005</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -14705,10 +15480,13 @@
         <v>1683</v>
       </c>
       <c r="R135" t="n">
-        <v>0.0</v>
+        <v>0.79</v>
       </c>
       <c r="T135" t="n">
-        <v>1.722928540592E12</v>
+        <v>1.724228275297E12</v>
+      </c>
+      <c r="AA135" t="s">
+        <v>1917</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -14737,10 +15515,13 @@
         <v>1684</v>
       </c>
       <c r="R136" t="n">
-        <v>1.7999999999999998</v>
+        <v>1.0899999999999999</v>
       </c>
       <c r="T136" t="n">
-        <v>1.724030400837E12</v>
+        <v>1.724228278715E12</v>
+      </c>
+      <c r="AA136" t="s">
+        <v>1976</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -14772,7 +15553,10 @@
         <v>0.0</v>
       </c>
       <c r="T137" t="n">
-        <v>1.72292856462E12</v>
+        <v>1.72420968381E12</v>
+      </c>
+      <c r="AA137" t="s">
+        <v>2006</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -14801,10 +15585,13 @@
         <v>1685</v>
       </c>
       <c r="R138" t="n">
-        <v>0.9499999999999998</v>
+        <v>2.9499999999999997</v>
       </c>
       <c r="T138" t="n">
-        <v>1.723795202645E12</v>
+        <v>1.724228351319E12</v>
+      </c>
+      <c r="AA138" t="s">
+        <v>1951</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -14833,10 +15620,13 @@
         <v>1686</v>
       </c>
       <c r="R139" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.0</v>
       </c>
       <c r="T139" t="n">
-        <v>1.722928608445E12</v>
+        <v>1.724209700684E12</v>
+      </c>
+      <c r="AA139" t="s">
+        <v>2007</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -14865,10 +15655,13 @@
         <v>1687</v>
       </c>
       <c r="R140" t="n">
-        <v>0.65</v>
+        <v>1.44</v>
       </c>
       <c r="T140" t="n">
-        <v>1.723077648132E12</v>
+        <v>1.724228354927E12</v>
+      </c>
+      <c r="AA140" t="s">
+        <v>1917</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -14897,10 +15690,13 @@
         <v>1688</v>
       </c>
       <c r="R141" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.0</v>
       </c>
       <c r="T141" t="n">
-        <v>1.722928945157E12</v>
+        <v>1.72420971795E12</v>
+      </c>
+      <c r="AA141" t="s">
+        <v>2008</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -14932,7 +15728,10 @@
         <v>0.0</v>
       </c>
       <c r="T142" t="n">
-        <v>1.722928948396E12</v>
+        <v>1.724209720511E12</v>
+      </c>
+      <c r="AA142" t="s">
+        <v>2009</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -14964,7 +15763,10 @@
         <v>0.0</v>
       </c>
       <c r="T143" t="n">
-        <v>1.722928958393E12</v>
+        <v>1.724209731705E12</v>
+      </c>
+      <c r="AA143" t="s">
+        <v>2010</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -14993,10 +15795,10 @@
         <v>1691</v>
       </c>
       <c r="R144" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T144" t="n">
-        <v>1.723077650619E12</v>
+        <v>1.72420973682E12</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -15025,10 +15827,10 @@
         <v>1176</v>
       </c>
       <c r="R145" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.0</v>
       </c>
       <c r="T145" t="n">
-        <v>1.722928967882E12</v>
+        <v>1.724209740186E12</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -15060,7 +15862,7 @@
         <v>0.0</v>
       </c>
       <c r="T146" t="n">
-        <v>1.722928976223E12</v>
+        <v>1.724209753705E12</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -15089,10 +15891,10 @@
         <v>1693</v>
       </c>
       <c r="R147" t="n">
-        <v>0.65</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="T147" t="n">
-        <v>1.723077666007E12</v>
+        <v>1.724209761348E12</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -15121,10 +15923,10 @@
         <v>1694</v>
       </c>
       <c r="R148" t="n">
-        <v>0.65</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="T148" t="n">
-        <v>1.723077670969E12</v>
+        <v>1.724209765389E12</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -15153,10 +15955,10 @@
         <v>1695</v>
       </c>
       <c r="R149" t="n">
-        <v>0.65</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="T149" t="n">
-        <v>1.723077675213E12</v>
+        <v>1.724209769223E12</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -15188,7 +15990,7 @@
         <v>0.0</v>
       </c>
       <c r="T150" t="n">
-        <v>1.722929292474E12</v>
+        <v>1.724209793036E12</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -15217,10 +16019,10 @@
         <v>1340</v>
       </c>
       <c r="R151" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.0</v>
       </c>
       <c r="T151" t="n">
-        <v>1.722929296577E12</v>
+        <v>1.724209831846E12</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -15252,7 +16054,7 @@
         <v>0.0</v>
       </c>
       <c r="T152" t="n">
-        <v>1.722929588873E12</v>
+        <v>1.724209844496E12</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -15281,10 +16083,10 @@
         <v>1698</v>
       </c>
       <c r="R153" t="n">
-        <v>1.2499999999999996</v>
+        <v>0.7499999999999996</v>
       </c>
       <c r="T153" t="n">
-        <v>1.723795204277E12</v>
+        <v>1.72420984924E12</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -15313,10 +16115,10 @@
         <v>1699</v>
       </c>
       <c r="R154" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.0</v>
       </c>
       <c r="T154" t="n">
-        <v>1.722929597378E12</v>
+        <v>1.72420985173E12</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -15345,10 +16147,10 @@
         <v>1700</v>
       </c>
       <c r="R155" t="n">
-        <v>0.65</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="T155" t="n">
-        <v>1.723077682382E12</v>
+        <v>1.724209855277E12</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -15377,10 +16179,10 @@
         <v>1701</v>
       </c>
       <c r="R156" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T156" t="n">
-        <v>1.723795206172E12</v>
+        <v>1.724209857578E12</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -15409,10 +16211,10 @@
         <v>1702</v>
       </c>
       <c r="R157" t="n">
-        <v>1.2499999999999996</v>
+        <v>0.7499999999999996</v>
       </c>
       <c r="T157" t="n">
-        <v>1.723795208499E12</v>
+        <v>1.724209859299E12</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -15441,10 +16243,10 @@
         <v>1700</v>
       </c>
       <c r="R158" t="n">
-        <v>0.65</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="T158" t="n">
-        <v>1.723077689758E12</v>
+        <v>1.724209867752E12</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -15473,10 +16275,10 @@
         <v>1703</v>
       </c>
       <c r="R159" t="n">
-        <v>0.9499999999999998</v>
+        <v>1.7399999999999998</v>
       </c>
       <c r="T159" t="n">
-        <v>1.72379521882E12</v>
+        <v>1.724228363887E12</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -15508,7 +16310,7 @@
         <v>0.0</v>
       </c>
       <c r="T160" t="n">
-        <v>1.722930087883E12</v>
+        <v>1.724209883231E12</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -15540,7 +16342,7 @@
         <v>0.0</v>
       </c>
       <c r="T161" t="n">
-        <v>1.722930091969E12</v>
+        <v>1.724209890109E12</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -15569,10 +16371,10 @@
         <v>1706</v>
       </c>
       <c r="R162" t="n">
-        <v>1.4999999999999991</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="T162" t="n">
-        <v>1.723795223288E12</v>
+        <v>1.724209904618E12</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -15601,10 +16403,10 @@
         <v>1707</v>
       </c>
       <c r="R163" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.0</v>
       </c>
       <c r="T163" t="n">
-        <v>1.72293010591E12</v>
+        <v>1.724209909822E12</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -15633,10 +16435,10 @@
         <v>1708</v>
       </c>
       <c r="R164" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T164" t="n">
-        <v>1.723795226819E12</v>
+        <v>1.724209916338E12</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -15665,10 +16467,10 @@
         <v>1709</v>
       </c>
       <c r="R165" t="n">
-        <v>1.7999999999999998</v>
+        <v>1.5899999999999999</v>
       </c>
       <c r="T165" t="n">
-        <v>1.723956592838E12</v>
+        <v>1.724228369729E12</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -15697,10 +16499,10 @@
         <v>1710</v>
       </c>
       <c r="R166" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.0</v>
       </c>
       <c r="T166" t="n">
-        <v>1.722930156439E12</v>
+        <v>1.724210013023E12</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -15729,10 +16531,10 @@
         <v>1711</v>
       </c>
       <c r="R167" t="n">
-        <v>1.7499999999999996</v>
+        <v>1.0399999999999996</v>
       </c>
       <c r="T167" t="n">
-        <v>1.724030441617E12</v>
+        <v>1.724228373132E12</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -15761,10 +16563,10 @@
         <v>1712</v>
       </c>
       <c r="R168" t="n">
-        <v>0.30000000000000004</v>
+        <v>1.09</v>
       </c>
       <c r="T168" t="n">
-        <v>1.722930163494E12</v>
+        <v>1.724228376943E12</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -15793,10 +16595,10 @@
         <v>1713</v>
       </c>
       <c r="R169" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T169" t="n">
-        <v>1.723795261081E12</v>
+        <v>1.724210030447E12</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -15825,10 +16627,10 @@
         <v>1714</v>
       </c>
       <c r="R170" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.0</v>
       </c>
       <c r="T170" t="n">
-        <v>1.722930222462E12</v>
+        <v>1.724210055909E12</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -15860,7 +16662,7 @@
         <v>0.0</v>
       </c>
       <c r="T171" t="n">
-        <v>1.722930241933E12</v>
+        <v>1.724210068778E12</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -15889,10 +16691,10 @@
         <v>1711</v>
       </c>
       <c r="R172" t="n">
-        <v>0.65</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="T172" t="n">
-        <v>1.723077767078E12</v>
+        <v>1.724210073259E12</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -15921,10 +16723,10 @@
         <v>1716</v>
       </c>
       <c r="R173" t="n">
-        <v>1.5999999999999996</v>
+        <v>0.8899999999999997</v>
       </c>
       <c r="T173" t="n">
-        <v>1.723795271066E12</v>
+        <v>1.724228386968E12</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -15956,7 +16758,7 @@
         <v>0.0</v>
       </c>
       <c r="T174" t="n">
-        <v>1.722930279599E12</v>
+        <v>1.72421010473E12</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -15988,7 +16790,7 @@
         <v>0.0</v>
       </c>
       <c r="T175" t="n">
-        <v>1.722930334252E12</v>
+        <v>1.724210124724E12</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -16020,7 +16822,7 @@
         <v>0.0</v>
       </c>
       <c r="T176" t="n">
-        <v>1.72293034339E12</v>
+        <v>1.72421019542E12</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -16049,10 +16851,10 @@
         <v>1720</v>
       </c>
       <c r="R177" t="n">
-        <v>1.4999999999999991</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="T177" t="n">
-        <v>1.723795274116E12</v>
+        <v>1.724210200262E12</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -16084,7 +16886,7 @@
         <v>0.0</v>
       </c>
       <c r="T178" t="n">
-        <v>1.722930353647E12</v>
+        <v>1.724210209209E12</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -16113,10 +16915,10 @@
         <v>1722</v>
       </c>
       <c r="R179" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T179" t="n">
-        <v>1.723077793879E12</v>
+        <v>1.724210212821E12</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -16145,10 +16947,10 @@
         <v>1723</v>
       </c>
       <c r="R180" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.0</v>
       </c>
       <c r="T180" t="n">
-        <v>1.722930368662E12</v>
+        <v>1.724210261336E12</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -16180,7 +16982,7 @@
         <v>0.0</v>
       </c>
       <c r="T181" t="n">
-        <v>1.722930372153E12</v>
+        <v>1.724210265488E12</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -16209,10 +17011,10 @@
         <v>1699</v>
       </c>
       <c r="R182" t="n">
-        <v>1.4999999999999991</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="T182" t="n">
-        <v>1.723795277013E12</v>
+        <v>1.724210269075E12</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -16244,7 +17046,7 @@
         <v>0.0</v>
       </c>
       <c r="T183" t="n">
-        <v>1.722930390945E12</v>
+        <v>1.724210278432E12</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -16273,10 +17075,10 @@
         <v>1726</v>
       </c>
       <c r="R184" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.0</v>
       </c>
       <c r="T184" t="n">
-        <v>1.722930443364E12</v>
+        <v>1.724210289115E12</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -16305,10 +17107,10 @@
         <v>1727</v>
       </c>
       <c r="R185" t="n">
-        <v>1.4999999999999991</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="T185" t="n">
-        <v>1.723795329256E12</v>
+        <v>1.724210372255E12</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -16337,10 +17139,10 @@
         <v>1727</v>
       </c>
       <c r="R186" t="n">
-        <v>0.30000000000000004</v>
+        <v>2.3</v>
       </c>
       <c r="T186" t="n">
-        <v>1.72293045576E12</v>
+        <v>1.724228397896E12</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -16369,10 +17171,10 @@
         <v>1727</v>
       </c>
       <c r="R187" t="n">
-        <v>1.5999999999999996</v>
+        <v>0.8899999999999997</v>
       </c>
       <c r="T187" t="n">
-        <v>1.723795359353E12</v>
+        <v>1.724228405569E12</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -16401,10 +17203,10 @@
         <v>1727</v>
       </c>
       <c r="R188" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="T188" t="n">
-        <v>1.722930470255E12</v>
+        <v>1.724228423661E12</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -16436,7 +17238,7 @@
         <v>0.0</v>
       </c>
       <c r="T189" t="n">
-        <v>1.722930479339E12</v>
+        <v>1.724210852577E12</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -16465,10 +17267,10 @@
         <v>1729</v>
       </c>
       <c r="R190" t="n">
-        <v>1.4999999999999991</v>
+        <v>2.999999999999999</v>
       </c>
       <c r="T190" t="n">
-        <v>1.723795364779E12</v>
+        <v>1.724228434924E12</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -16497,10 +17299,10 @@
         <v>1729</v>
       </c>
       <c r="R191" t="n">
-        <v>1.3000000000000025</v>
+        <v>0.8000000000000025</v>
       </c>
       <c r="T191" t="n">
-        <v>1.723795371909E12</v>
+        <v>1.72421086927E12</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -16529,10 +17331,10 @@
         <v>1385</v>
       </c>
       <c r="R192" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T192" t="n">
-        <v>1.723795374949E12</v>
+        <v>1.724210876143E12</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -16561,10 +17363,10 @@
         <v>1729</v>
       </c>
       <c r="R193" t="n">
-        <v>0.65</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="T193" t="n">
-        <v>1.723077925792E12</v>
+        <v>1.724210886839E12</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -16593,10 +17395,10 @@
         <v>1729</v>
       </c>
       <c r="R194" t="n">
-        <v>1.3000000000000034</v>
+        <v>2.8000000000000034</v>
       </c>
       <c r="T194" t="n">
-        <v>1.72379538234E12</v>
+        <v>1.724228469446E12</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -16625,10 +17427,10 @@
         <v>1729</v>
       </c>
       <c r="R195" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T195" t="n">
-        <v>1.723077936279E12</v>
+        <v>1.724210930494E12</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -16660,7 +17462,7 @@
         <v>0.0</v>
       </c>
       <c r="T196" t="n">
-        <v>1.722930530852E12</v>
+        <v>1.724210935925E12</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -16689,10 +17491,10 @@
         <v>1730</v>
       </c>
       <c r="R197" t="n">
-        <v>0.65</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="T197" t="n">
-        <v>1.723077939777E12</v>
+        <v>1.724210938381E12</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -16724,7 +17526,7 @@
         <v>0.0</v>
       </c>
       <c r="T198" t="n">
-        <v>1.722930564525E12</v>
+        <v>1.724210942722E12</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -16753,10 +17555,10 @@
         <v>1732</v>
       </c>
       <c r="R199" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T199" t="n">
-        <v>1.723077942171E12</v>
+        <v>1.724210946856E12</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -16788,7 +17590,7 @@
         <v>0.0</v>
       </c>
       <c r="T200" t="n">
-        <v>1.722930572484E12</v>
+        <v>1.724210955361E12</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -16817,10 +17619,10 @@
         <v>1729</v>
       </c>
       <c r="R201" t="n">
-        <v>1.4499999999999997</v>
+        <v>0.9499999999999997</v>
       </c>
       <c r="T201" t="n">
-        <v>1.723795386132E12</v>
+        <v>1.724210997524E12</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -16852,7 +17654,7 @@
         <v>0.0</v>
       </c>
       <c r="T202" t="n">
-        <v>1.7229319497E12</v>
+        <v>1.724211114262E12</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -16881,10 +17683,10 @@
         <v>1734</v>
       </c>
       <c r="R203" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.0</v>
       </c>
       <c r="T203" t="n">
-        <v>1.722931955194E12</v>
+        <v>1.724211123478E12</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -16916,7 +17718,7 @@
         <v>0.0</v>
       </c>
       <c r="T204" t="n">
-        <v>1.722932007575E12</v>
+        <v>1.724211130191E12</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -16945,10 +17747,10 @@
         <v>1735</v>
       </c>
       <c r="R205" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T205" t="n">
-        <v>1.723077950887E12</v>
+        <v>1.724211133168E12</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -16980,7 +17782,7 @@
         <v>0.0</v>
       </c>
       <c r="T206" t="n">
-        <v>1.722932019396E12</v>
+        <v>1.724211138081E12</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -17009,10 +17811,10 @@
         <v>1736</v>
       </c>
       <c r="R207" t="n">
-        <v>0.30000000000000004</v>
+        <v>1.09</v>
       </c>
       <c r="T207" t="n">
-        <v>1.722932026222E12</v>
+        <v>1.724228486758E12</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -17044,7 +17846,7 @@
         <v>0.0</v>
       </c>
       <c r="T208" t="n">
-        <v>1.7229320369E12</v>
+        <v>1.72421115111E12</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -17076,7 +17878,7 @@
         <v>0.0</v>
       </c>
       <c r="T209" t="n">
-        <v>1.722932044011E12</v>
+        <v>1.72421115556E12</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -17105,10 +17907,10 @@
         <v>1739</v>
       </c>
       <c r="R210" t="n">
-        <v>0.65</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="T210" t="n">
-        <v>1.723077954118E12</v>
+        <v>1.724211160362E12</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -17137,10 +17939,10 @@
         <v>1740</v>
       </c>
       <c r="R211" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.0</v>
       </c>
       <c r="T211" t="n">
-        <v>1.72293206643E12</v>
+        <v>1.724211178064E12</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -17169,10 +17971,10 @@
         <v>1741</v>
       </c>
       <c r="R212" t="n">
-        <v>0.65</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="T212" t="n">
-        <v>1.723077958253E12</v>
+        <v>1.724211194894E12</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -17204,7 +18006,7 @@
         <v>0.0</v>
       </c>
       <c r="T213" t="n">
-        <v>1.722932086737E12</v>
+        <v>1.724211215372E12</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -17233,10 +18035,10 @@
         <v>1743</v>
       </c>
       <c r="R214" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.0</v>
       </c>
       <c r="T214" t="n">
-        <v>1.722932108312E12</v>
+        <v>1.724211256355E12</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -17268,7 +18070,7 @@
         <v>0.0</v>
       </c>
       <c r="T215" t="n">
-        <v>1.722932110158E12</v>
+        <v>1.724211260122E12</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -17300,7 +18102,7 @@
         <v>0.0</v>
       </c>
       <c r="T216" t="n">
-        <v>1.722932152668E12</v>
+        <v>1.72421126847E12</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -17332,7 +18134,7 @@
         <v>0.0</v>
       </c>
       <c r="T217" t="n">
-        <v>1.722932156675E12</v>
+        <v>1.724211271163E12</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -17361,10 +18163,10 @@
         <v>1747</v>
       </c>
       <c r="R218" t="n">
-        <v>1.450000000000001</v>
+        <v>1.740000000000001</v>
       </c>
       <c r="T218" t="n">
-        <v>1.723795452623E12</v>
+        <v>1.724228489429E12</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -17393,10 +18195,10 @@
         <v>1748</v>
       </c>
       <c r="R219" t="n">
-        <v>0.30000000000000004</v>
+        <v>1.09</v>
       </c>
       <c r="T219" t="n">
-        <v>1.722932182755E12</v>
+        <v>1.724228494647E12</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -17428,7 +18230,7 @@
         <v>0.0</v>
       </c>
       <c r="T220" t="n">
-        <v>1.722932188848E12</v>
+        <v>1.724211306838E12</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -17457,10 +18259,10 @@
         <v>1750</v>
       </c>
       <c r="R221" t="n">
-        <v>1.5</v>
+        <v>0.79</v>
       </c>
       <c r="T221" t="n">
-        <v>1.723795455315E12</v>
+        <v>1.72422853099E12</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -17489,10 +18291,10 @@
         <v>1751</v>
       </c>
       <c r="R222" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.0</v>
       </c>
       <c r="T222" t="n">
-        <v>1.722932199935E12</v>
+        <v>1.724211324028E12</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -17521,10 +18323,10 @@
         <v>669</v>
       </c>
       <c r="R223" t="n">
-        <v>0.0</v>
+        <v>0.79</v>
       </c>
       <c r="T223" t="n">
-        <v>1.722932204956E12</v>
+        <v>1.724228532731E12</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -17553,10 +18355,10 @@
         <v>1752</v>
       </c>
       <c r="R224" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T224" t="n">
-        <v>1.723795460341E12</v>
+        <v>1.724211358455E12</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -17585,10 +18387,10 @@
         <v>1753</v>
       </c>
       <c r="R225" t="n">
-        <v>1.2499999999999996</v>
+        <v>0.7499999999999996</v>
       </c>
       <c r="T225" t="n">
-        <v>1.723795463966E12</v>
+        <v>1.724211372125E12</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -17617,10 +18419,10 @@
         <v>1190</v>
       </c>
       <c r="R226" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.0</v>
       </c>
       <c r="T226" t="n">
-        <v>1.722932327035E12</v>
+        <v>1.724211404657E12</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -17649,10 +18451,10 @@
         <v>1754</v>
       </c>
       <c r="R227" t="n">
-        <v>0.30000000000000004</v>
+        <v>1.09</v>
       </c>
       <c r="T227" t="n">
-        <v>1.722932333598E12</v>
+        <v>1.724228541728E12</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -17681,10 +18483,10 @@
         <v>1755</v>
       </c>
       <c r="R228" t="n">
-        <v>1.4000000000000021</v>
+        <v>0.9000000000000021</v>
       </c>
       <c r="T228" t="n">
-        <v>1.723795465828E12</v>
+        <v>1.724211427844E12</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -17716,7 +18518,7 @@
         <v>0.0</v>
       </c>
       <c r="T229" t="n">
-        <v>1.722932348993E12</v>
+        <v>1.724211435255E12</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -17745,10 +18547,10 @@
         <v>1757</v>
       </c>
       <c r="R230" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.0</v>
       </c>
       <c r="T230" t="n">
-        <v>1.722932353252E12</v>
+        <v>1.724211441861E12</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -17780,7 +18582,7 @@
         <v>0.0</v>
       </c>
       <c r="T231" t="n">
-        <v>1.722932358984E12</v>
+        <v>1.724211444763E12</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -17812,7 +18614,7 @@
         <v>0.0</v>
       </c>
       <c r="T232" t="n">
-        <v>1.722932362665E12</v>
+        <v>1.724211449418E12</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -17841,10 +18643,10 @@
         <v>1760</v>
       </c>
       <c r="R233" t="n">
-        <v>1.5</v>
+        <v>0.79</v>
       </c>
       <c r="T233" t="n">
-        <v>1.723795467126E12</v>
+        <v>1.724228543488E12</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -17873,10 +18675,10 @@
         <v>1761</v>
       </c>
       <c r="R234" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T234" t="n">
-        <v>1.723795471459E12</v>
+        <v>1.724211456084E12</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -17905,10 +18707,10 @@
         <v>1762</v>
       </c>
       <c r="R235" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.0</v>
       </c>
       <c r="T235" t="n">
-        <v>1.722932508747E12</v>
+        <v>1.7242114693E12</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -17940,7 +18742,7 @@
         <v>0.0</v>
       </c>
       <c r="T236" t="n">
-        <v>1.722932512672E12</v>
+        <v>1.724211475804E12</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -17969,10 +18771,10 @@
         <v>1764</v>
       </c>
       <c r="R237" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T237" t="n">
-        <v>1.723078103066E12</v>
+        <v>1.724211493795E12</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -18001,10 +18803,10 @@
         <v>1765</v>
       </c>
       <c r="R238" t="n">
-        <v>0.65</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="T238" t="n">
-        <v>1.723078105871E12</v>
+        <v>1.724211506233E12</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -18033,10 +18835,10 @@
         <v>1766</v>
       </c>
       <c r="R239" t="n">
-        <v>1.5999999999999996</v>
+        <v>0.8899999999999997</v>
       </c>
       <c r="T239" t="n">
-        <v>1.723795478837E12</v>
+        <v>1.724228548028E12</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -18065,10 +18867,10 @@
         <v>1767</v>
       </c>
       <c r="R240" t="n">
-        <v>1.5499999999999994</v>
+        <v>0.8399999999999994</v>
       </c>
       <c r="T240" t="n">
-        <v>1.723795485467E12</v>
+        <v>1.724228565973E12</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -18097,10 +18899,10 @@
         <v>1768</v>
       </c>
       <c r="R241" t="n">
-        <v>1.7999999999999998</v>
+        <v>1.0899999999999999</v>
       </c>
       <c r="T241" t="n">
-        <v>1.724030446939E12</v>
+        <v>1.72422857168E12</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -18129,10 +18931,10 @@
         <v>1769</v>
       </c>
       <c r="R242" t="n">
-        <v>0.65</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="T242" t="n">
-        <v>1.723078147283E12</v>
+        <v>1.724220992454E12</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -18161,10 +18963,10 @@
         <v>1770</v>
       </c>
       <c r="R243" t="n">
-        <v>0.30000000000000004</v>
+        <v>1.09</v>
       </c>
       <c r="T243" t="n">
-        <v>1.722932592774E12</v>
+        <v>1.724228588178E12</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -18196,7 +18998,7 @@
         <v>0.0</v>
       </c>
       <c r="T244" t="n">
-        <v>1.722932601595E12</v>
+        <v>1.724221136486E12</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -18225,10 +19027,10 @@
         <v>1772</v>
       </c>
       <c r="R245" t="n">
-        <v>1.5499999999999994</v>
+        <v>0.8399999999999994</v>
       </c>
       <c r="T245" t="n">
-        <v>1.723795579601E12</v>
+        <v>1.724228591141E12</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -18257,10 +19059,10 @@
         <v>1773</v>
       </c>
       <c r="R246" t="n">
-        <v>1.5499999999999994</v>
+        <v>0.8399999999999994</v>
       </c>
       <c r="T246" t="n">
-        <v>1.723795581369E12</v>
+        <v>1.724228593518E12</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -18292,7 +19094,7 @@
         <v>0.0</v>
       </c>
       <c r="T247" t="n">
-        <v>1.722932633456E12</v>
+        <v>1.724221163685E12</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -18324,7 +19126,7 @@
         <v>0.0</v>
       </c>
       <c r="T248" t="n">
-        <v>1.722932638385E12</v>
+        <v>1.724221204001E12</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -18353,10 +19155,10 @@
         <v>1776</v>
       </c>
       <c r="R249" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T249" t="n">
-        <v>1.723795587561E12</v>
+        <v>1.724221210629E12</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -18385,10 +19187,10 @@
         <v>1777</v>
       </c>
       <c r="R250" t="n">
-        <v>1.5499999999999994</v>
+        <v>0.8399999999999994</v>
       </c>
       <c r="T250" t="n">
-        <v>1.723795589349E12</v>
+        <v>1.724228597588E12</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -18417,10 +19219,10 @@
         <v>825</v>
       </c>
       <c r="R251" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T251" t="n">
-        <v>1.723078261971E12</v>
+        <v>1.724221218646E12</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -18449,10 +19251,10 @@
         <v>1778</v>
       </c>
       <c r="R252" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.0</v>
       </c>
       <c r="T252" t="n">
-        <v>1.722932676292E12</v>
+        <v>1.724221242192E12</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -18481,10 +19283,10 @@
         <v>1779</v>
       </c>
       <c r="R253" t="n">
-        <v>1.7999999999999998</v>
+        <v>1.0899999999999999</v>
       </c>
       <c r="T253" t="n">
-        <v>1.723956620945E12</v>
+        <v>1.724228601522E12</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -18513,10 +19315,10 @@
         <v>1780</v>
       </c>
       <c r="R254" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T254" t="n">
-        <v>1.723796042179E12</v>
+        <v>1.72422144536E12</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -18545,10 +19347,10 @@
         <v>1763</v>
       </c>
       <c r="R255" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.0</v>
       </c>
       <c r="T255" t="n">
-        <v>1.722932708765E12</v>
+        <v>1.724221450221E12</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -18577,10 +19379,10 @@
         <v>1781</v>
       </c>
       <c r="R256" t="n">
-        <v>0.65</v>
+        <v>1.44</v>
       </c>
       <c r="T256" t="n">
-        <v>1.723078276477E12</v>
+        <v>1.724228607252E12</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -18609,10 +19411,10 @@
         <v>1782</v>
       </c>
       <c r="R257" t="n">
-        <v>1.6000000000000045</v>
+        <v>0.8900000000000046</v>
       </c>
       <c r="T257" t="n">
-        <v>1.723796045289E12</v>
+        <v>1.724228610387E12</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -18641,10 +19443,10 @@
         <v>1783</v>
       </c>
       <c r="R258" t="n">
-        <v>4.6</v>
+        <v>1.3899999999999997</v>
       </c>
       <c r="T258" t="n">
-        <v>1.724030449116E12</v>
+        <v>1.724228614747E12</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -18673,7 +19475,7 @@
         <v>0.0</v>
       </c>
       <c r="T259" t="n">
-        <v>1.722932765271E12</v>
+        <v>1.724221528584E12</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -18702,10 +19504,10 @@
         <v>1784</v>
       </c>
       <c r="R260" t="n">
-        <v>1.2999999999999998</v>
+        <v>0.7999999999999998</v>
       </c>
       <c r="T260" t="n">
-        <v>1.723796085957E12</v>
+        <v>1.724221530803E12</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -18734,10 +19536,10 @@
         <v>1785</v>
       </c>
       <c r="R261" t="n">
-        <v>0.0</v>
+        <v>0.79</v>
       </c>
       <c r="T261" t="n">
-        <v>1.722932780668E12</v>
+        <v>1.724228620185E12</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -18766,10 +19568,10 @@
         <v>1786</v>
       </c>
       <c r="R262" t="n">
-        <v>0.65</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="T262" t="n">
-        <v>1.723078301408E12</v>
+        <v>1.724221547959E12</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -18798,10 +19600,10 @@
         <v>1787</v>
       </c>
       <c r="R263" t="n">
-        <v>1.4000000000000012</v>
+        <v>0.9000000000000012</v>
       </c>
       <c r="T263" t="n">
-        <v>1.723796090841E12</v>
+        <v>1.72422155397E12</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -18830,10 +19632,10 @@
         <v>1788</v>
       </c>
       <c r="R264" t="n">
-        <v>1.5499999999999994</v>
+        <v>0.8399999999999994</v>
       </c>
       <c r="T264" t="n">
-        <v>1.723796095957E12</v>
+        <v>1.724228623739E12</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -18862,10 +19664,10 @@
         <v>1789</v>
       </c>
       <c r="R265" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T265" t="n">
-        <v>1.72307834885E12</v>
+        <v>1.724221585308E12</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -18894,10 +19696,10 @@
         <v>1790</v>
       </c>
       <c r="R266" t="n">
-        <v>1.3000000000000105</v>
+        <v>1.5900000000000105</v>
       </c>
       <c r="T266" t="n">
-        <v>1.723796098827E12</v>
+        <v>1.724228634635E12</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -18926,10 +19728,10 @@
         <v>1791</v>
       </c>
       <c r="R267" t="n">
-        <v>1.5499999999999994</v>
+        <v>0.8399999999999994</v>
       </c>
       <c r="T267" t="n">
-        <v>1.72379610023E12</v>
+        <v>1.724228636275E12</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -18958,10 +19760,10 @@
         <v>1792</v>
       </c>
       <c r="R268" t="n">
-        <v>0.30000000000000004</v>
+        <v>1.09</v>
       </c>
       <c r="T268" t="n">
-        <v>1.722932905294E12</v>
+        <v>1.72422863883E12</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -18990,10 +19792,10 @@
         <v>1793</v>
       </c>
       <c r="R269" t="n">
-        <v>1.5999999999999996</v>
+        <v>0.8899999999999997</v>
       </c>
       <c r="T269" t="n">
-        <v>1.723796105223E12</v>
+        <v>1.724228643321E12</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -19022,10 +19824,10 @@
         <v>945</v>
       </c>
       <c r="R270" t="n">
-        <v>1.5999999999999996</v>
+        <v>0.8899999999999997</v>
       </c>
       <c r="T270" t="n">
-        <v>1.723796109474E12</v>
+        <v>1.724228648275E12</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -19054,10 +19856,10 @@
         <v>1383</v>
       </c>
       <c r="R271" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T271" t="n">
-        <v>1.723796114489E12</v>
+        <v>1.724221700064E12</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -19086,10 +19888,10 @@
         <v>1794</v>
       </c>
       <c r="R272" t="n">
-        <v>0.65</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="T272" t="n">
-        <v>1.723078379014E12</v>
+        <v>1.724221708427E12</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -19118,10 +19920,10 @@
         <v>1795</v>
       </c>
       <c r="R273" t="n">
-        <v>1.4499999999999997</v>
+        <v>0.9499999999999997</v>
       </c>
       <c r="T273" t="n">
-        <v>1.723796117707E12</v>
+        <v>1.724221756037E12</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -19150,10 +19952,10 @@
         <v>1796</v>
       </c>
       <c r="R274" t="n">
-        <v>0.30000000000000004</v>
+        <v>1.09</v>
       </c>
       <c r="T274" t="n">
-        <v>1.72293298318E12</v>
+        <v>1.724228652421E12</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -19182,10 +19984,10 @@
         <v>1797</v>
       </c>
       <c r="R275" t="n">
-        <v>1.5999999999999996</v>
+        <v>0.8899999999999997</v>
       </c>
       <c r="T275" t="n">
-        <v>1.72379613895E12</v>
+        <v>1.724228655434E12</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -19214,10 +20016,10 @@
         <v>1798</v>
       </c>
       <c r="R276" t="n">
-        <v>0.65</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="T276" t="n">
-        <v>1.7230784086E12</v>
+        <v>1.72422178505E12</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -19249,7 +20051,7 @@
         <v>0.0</v>
       </c>
       <c r="T277" t="n">
-        <v>1.722933006408E12</v>
+        <v>1.724221791939E12</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -19281,7 +20083,7 @@
         <v>0.0</v>
       </c>
       <c r="T278" t="n">
-        <v>1.722933010478E12</v>
+        <v>1.724221795684E12</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -19310,10 +20112,10 @@
         <v>1801</v>
       </c>
       <c r="R279" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T279" t="n">
-        <v>1.723078413945E12</v>
+        <v>1.724221800137E12</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -19342,10 +20144,10 @@
         <v>1802</v>
       </c>
       <c r="R280" t="n">
-        <v>1.5999999999999996</v>
+        <v>0.8899999999999997</v>
       </c>
       <c r="T280" t="n">
-        <v>1.723796143195E12</v>
+        <v>1.724228657492E12</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -19374,10 +20176,10 @@
         <v>1803</v>
       </c>
       <c r="R281" t="n">
-        <v>0.9499999999999998</v>
+        <v>1.7399999999999998</v>
       </c>
       <c r="T281" t="n">
-        <v>1.723078424215E12</v>
+        <v>1.724228660354E12</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -19406,10 +20208,10 @@
         <v>1804</v>
       </c>
       <c r="R282" t="n">
-        <v>1.5499999999999994</v>
+        <v>0.8399999999999994</v>
       </c>
       <c r="T282" t="n">
-        <v>1.723796147866E12</v>
+        <v>1.72422866506E12</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -19438,10 +20240,10 @@
         <v>1805</v>
       </c>
       <c r="R283" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.0</v>
       </c>
       <c r="T283" t="n">
-        <v>1.722933029443E12</v>
+        <v>1.724221815807E12</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -19470,10 +20272,10 @@
         <v>1806</v>
       </c>
       <c r="R284" t="n">
-        <v>1.4999999999999991</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="T284" t="n">
-        <v>1.723796149614E12</v>
+        <v>1.724221820199E12</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -19502,10 +20304,10 @@
         <v>1807</v>
       </c>
       <c r="R285" t="n">
-        <v>1.3999999999999986</v>
+        <v>0.8999999999999986</v>
       </c>
       <c r="T285" t="n">
-        <v>1.723796152217E12</v>
+        <v>1.724221829828E12</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -19534,10 +20336,10 @@
         <v>1808</v>
       </c>
       <c r="R286" t="n">
-        <v>1.3000000000000043</v>
+        <v>0.8000000000000043</v>
       </c>
       <c r="T286" t="n">
-        <v>1.723796196149E12</v>
+        <v>1.724221832908E12</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -19566,10 +20368,10 @@
         <v>1809</v>
       </c>
       <c r="R287" t="n">
-        <v>1.4000000000000021</v>
+        <v>0.9000000000000021</v>
       </c>
       <c r="T287" t="n">
-        <v>1.72379621459E12</v>
+        <v>1.724221864193E12</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -19598,10 +20400,10 @@
         <v>1810</v>
       </c>
       <c r="R288" t="n">
-        <v>1.5499999999999994</v>
+        <v>0.8399999999999994</v>
       </c>
       <c r="T288" t="n">
-        <v>1.723796231735E12</v>
+        <v>1.72422866794E12</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -19630,10 +20432,10 @@
         <v>1811</v>
       </c>
       <c r="R289" t="n">
-        <v>1.5499999999999994</v>
+        <v>0.8399999999999994</v>
       </c>
       <c r="T289" t="n">
-        <v>1.723796241748E12</v>
+        <v>1.724228670521E12</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -19665,7 +20467,7 @@
         <v>0.0</v>
       </c>
       <c r="T290" t="n">
-        <v>1.722933104729E12</v>
+        <v>1.724221895443E12</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -19694,10 +20496,10 @@
         <v>1813</v>
       </c>
       <c r="R291" t="n">
-        <v>0.0</v>
+        <v>0.79</v>
       </c>
       <c r="T291" t="n">
-        <v>1.722933109872E12</v>
+        <v>1.724228673196E12</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -19726,10 +20528,10 @@
         <v>1814</v>
       </c>
       <c r="R292" t="n">
-        <v>1.3500000000000023</v>
+        <v>0.8500000000000023</v>
       </c>
       <c r="T292" t="n">
-        <v>1.723796259991E12</v>
+        <v>1.724221910428E12</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -19758,10 +20560,10 @@
         <v>1815</v>
       </c>
       <c r="R293" t="n">
-        <v>1.4999999999999991</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="T293" t="n">
-        <v>1.72379628832E12</v>
+        <v>1.724221949084E12</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -19790,10 +20592,10 @@
         <v>1816</v>
       </c>
       <c r="R294" t="n">
-        <v>1.4000000000000021</v>
+        <v>0.9000000000000021</v>
       </c>
       <c r="T294" t="n">
-        <v>1.723796290897E12</v>
+        <v>1.724221955893E12</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -19822,10 +20624,10 @@
         <v>1817</v>
       </c>
       <c r="R295" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T295" t="n">
-        <v>1.723796312608E12</v>
+        <v>1.724221959357E12</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -19854,10 +20656,10 @@
         <v>1818</v>
       </c>
       <c r="R296" t="n">
-        <v>0.65</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="T296" t="n">
-        <v>1.723078525597E12</v>
+        <v>1.724221964683E12</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -19889,7 +20691,7 @@
         <v>0.0</v>
       </c>
       <c r="T297" t="n">
-        <v>1.72293322029E12</v>
+        <v>1.724221971661E12</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -19921,7 +20723,7 @@
         <v>0.0</v>
       </c>
       <c r="T298" t="n">
-        <v>1.722933224652E12</v>
+        <v>1.724221999379E12</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -19953,7 +20755,7 @@
         <v>0.0</v>
       </c>
       <c r="T299" t="n">
-        <v>1.722933227402E12</v>
+        <v>1.724222002813E12</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -19985,7 +20787,7 @@
         <v>0.0</v>
       </c>
       <c r="T300" t="n">
-        <v>1.722933231677E12</v>
+        <v>1.724222008246E12</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -20014,10 +20816,10 @@
         <v>1823</v>
       </c>
       <c r="R301" t="n">
-        <v>1.5499999999999994</v>
+        <v>0.8399999999999994</v>
       </c>
       <c r="T301" t="n">
-        <v>1.723796316361E12</v>
+        <v>1.724228676521E12</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -20046,10 +20848,10 @@
         <v>1824</v>
       </c>
       <c r="R302" t="n">
-        <v>1.5499999999999994</v>
+        <v>0.8399999999999994</v>
       </c>
       <c r="T302" t="n">
-        <v>1.723796323598E12</v>
+        <v>1.724228680177E12</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -20078,10 +20880,10 @@
         <v>1825</v>
       </c>
       <c r="R303" t="n">
-        <v>0.65</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="T303" t="n">
-        <v>1.723078539867E12</v>
+        <v>1.72422266366E12</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -20110,10 +20912,10 @@
         <v>1826</v>
       </c>
       <c r="R304" t="n">
-        <v>0.30000000000000004</v>
+        <v>1.09</v>
       </c>
       <c r="T304" t="n">
-        <v>1.722933520275E12</v>
+        <v>1.72422868367E12</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -20142,10 +20944,10 @@
         <v>1827</v>
       </c>
       <c r="R305" t="n">
-        <v>1.4000000000000004</v>
+        <v>0.9000000000000004</v>
       </c>
       <c r="T305" t="n">
-        <v>1.723796326107E12</v>
+        <v>1.724222677655E12</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -20174,10 +20976,10 @@
         <v>1493</v>
       </c>
       <c r="R306" t="n">
-        <v>0.9499999999999998</v>
+        <v>1.7399999999999998</v>
       </c>
       <c r="T306" t="n">
-        <v>1.72379633498E12</v>
+        <v>1.724228688722E12</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -20209,7 +21011,7 @@
         <v>0.0</v>
       </c>
       <c r="T307" t="n">
-        <v>1.722933638346E12</v>
+        <v>1.724222697679E12</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -20241,7 +21043,7 @@
         <v>0.0</v>
       </c>
       <c r="T308" t="n">
-        <v>1.722933675942E12</v>
+        <v>1.724222709294E12</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -20270,10 +21072,10 @@
         <v>1830</v>
       </c>
       <c r="R309" t="n">
-        <v>1.4000000000000021</v>
+        <v>0.9000000000000021</v>
       </c>
       <c r="T309" t="n">
-        <v>1.72379633684E12</v>
+        <v>1.724222712238E12</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -20302,10 +21104,10 @@
         <v>1831</v>
       </c>
       <c r="R310" t="n">
-        <v>1.4499999999999993</v>
+        <v>1.7399999999999993</v>
       </c>
       <c r="T310" t="n">
-        <v>1.723796340202E12</v>
+        <v>1.724228692233E12</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -20337,7 +21139,7 @@
         <v>0.0</v>
       </c>
       <c r="T311" t="n">
-        <v>1.722933718644E12</v>
+        <v>1.724222735606E12</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -20366,10 +21168,10 @@
         <v>1833</v>
       </c>
       <c r="R312" t="n">
-        <v>1.5999999999999996</v>
+        <v>0.8899999999999997</v>
       </c>
       <c r="T312" t="n">
-        <v>1.723796442971E12</v>
+        <v>1.724228697822E12</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -20398,10 +21200,10 @@
         <v>1834</v>
       </c>
       <c r="R313" t="n">
-        <v>1.5999999999999996</v>
+        <v>0.8899999999999997</v>
       </c>
       <c r="T313" t="n">
-        <v>1.723796447297E12</v>
+        <v>1.724228702663E12</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -20430,10 +21232,10 @@
         <v>1835</v>
       </c>
       <c r="R314" t="n">
-        <v>1.2999999999999998</v>
+        <v>1.5899999999999999</v>
       </c>
       <c r="T314" t="n">
-        <v>1.72379645018E12</v>
+        <v>1.724228704676E12</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -20465,7 +21267,7 @@
         <v>0.0</v>
       </c>
       <c r="T315" t="n">
-        <v>1.722934081441E12</v>
+        <v>1.724222794573E12</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -20494,10 +21296,10 @@
         <v>1837</v>
       </c>
       <c r="R316" t="n">
-        <v>1.5499999999999994</v>
+        <v>0.8399999999999994</v>
       </c>
       <c r="T316" t="n">
-        <v>1.723796452378E12</v>
+        <v>1.72422870655E12</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -20526,10 +21328,10 @@
         <v>1838</v>
       </c>
       <c r="R317" t="n">
-        <v>0.30000000000000004</v>
+        <v>1.09</v>
       </c>
       <c r="T317" t="n">
-        <v>1.722934113728E12</v>
+        <v>1.72422870973E12</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -20558,10 +21360,10 @@
         <v>1173</v>
       </c>
       <c r="R318" t="n">
-        <v>1.450000000000001</v>
+        <v>0.9500000000000011</v>
       </c>
       <c r="T318" t="n">
-        <v>1.723796455145E12</v>
+        <v>1.724222822554E12</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -20590,10 +21392,10 @@
         <v>1839</v>
       </c>
       <c r="R319" t="n">
-        <v>1.2499999999999996</v>
+        <v>0.7499999999999996</v>
       </c>
       <c r="T319" t="n">
-        <v>1.723796457396E12</v>
+        <v>1.724222825521E12</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -20622,10 +21424,10 @@
         <v>1840</v>
       </c>
       <c r="R320" t="n">
-        <v>1.450000000000001</v>
+        <v>0.9500000000000011</v>
       </c>
       <c r="T320" t="n">
-        <v>1.723796459033E12</v>
+        <v>1.724222827627E12</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -20654,10 +21456,10 @@
         <v>1841</v>
       </c>
       <c r="R321" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T321" t="n">
-        <v>1.723796466042E12</v>
+        <v>1.724222833095E12</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -20686,10 +21488,10 @@
         <v>1842</v>
       </c>
       <c r="R322" t="n">
-        <v>1.450000000000001</v>
+        <v>0.9500000000000011</v>
       </c>
       <c r="T322" t="n">
-        <v>1.723796494676E12</v>
+        <v>1.724222838991E12</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -20718,10 +21520,10 @@
         <v>1843</v>
       </c>
       <c r="R323" t="n">
-        <v>0.65</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="T323" t="n">
-        <v>1.72307865403E12</v>
+        <v>1.724222845985E12</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -20750,10 +21552,10 @@
         <v>1844</v>
       </c>
       <c r="R324" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T324" t="n">
-        <v>1.72307865577E12</v>
+        <v>1.724222849786E12</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -20782,10 +21584,10 @@
         <v>1845</v>
       </c>
       <c r="R325" t="n">
-        <v>1.7999999999999998</v>
+        <v>1.0899999999999999</v>
       </c>
       <c r="T325" t="n">
-        <v>1.723956636546E12</v>
+        <v>1.724228712309E12</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -20814,10 +21616,10 @@
         <v>1846</v>
       </c>
       <c r="R326" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T326" t="n">
-        <v>1.723954203317E12</v>
+        <v>1.724222859268E12</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -20846,10 +21648,10 @@
         <v>1847</v>
       </c>
       <c r="R327" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T327" t="n">
-        <v>1.723078672393E12</v>
+        <v>1.724223208534E12</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -20881,7 +21683,7 @@
         <v>0.0</v>
       </c>
       <c r="T328" t="n">
-        <v>1.722934355983E12</v>
+        <v>1.724223223771E12</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -20913,7 +21715,7 @@
         <v>0.0</v>
       </c>
       <c r="T329" t="n">
-        <v>1.722934362488E12</v>
+        <v>1.724223229307E12</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -20942,10 +21744,10 @@
         <v>1850</v>
       </c>
       <c r="R330" t="n">
-        <v>0.65</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="T330" t="n">
-        <v>1.723078674772E12</v>
+        <v>1.724223232158E12</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -20974,10 +21776,10 @@
         <v>1851</v>
       </c>
       <c r="R331" t="n">
-        <v>0.65</v>
+        <v>1.44</v>
       </c>
       <c r="T331" t="n">
-        <v>1.723078684057E12</v>
+        <v>1.724228718061E12</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -21009,7 +21811,7 @@
         <v>0.0</v>
       </c>
       <c r="T332" t="n">
-        <v>1.722934437974E12</v>
+        <v>1.724223250592E12</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -21038,10 +21840,10 @@
         <v>1853</v>
       </c>
       <c r="R333" t="n">
-        <v>0.65</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="T333" t="n">
-        <v>1.723078918179E12</v>
+        <v>1.724223319743E12</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -21070,10 +21872,10 @@
         <v>1527</v>
       </c>
       <c r="R334" t="n">
-        <v>1.3500000000000019</v>
+        <v>0.8500000000000019</v>
       </c>
       <c r="T334" t="n">
-        <v>1.723954209115E12</v>
+        <v>1.724223323495E12</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -21102,10 +21904,10 @@
         <v>1854</v>
       </c>
       <c r="R335" t="n">
-        <v>1.5499999999999994</v>
+        <v>0.8399999999999994</v>
       </c>
       <c r="T335" t="n">
-        <v>1.723954210605E12</v>
+        <v>1.724228721342E12</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -21134,10 +21936,10 @@
         <v>1855</v>
       </c>
       <c r="R336" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T336" t="n">
-        <v>1.723079886972E12</v>
+        <v>1.724223333974E12</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -21166,10 +21968,10 @@
         <v>1856</v>
       </c>
       <c r="R337" t="n">
-        <v>1.2499999999999996</v>
+        <v>0.7499999999999996</v>
       </c>
       <c r="T337" t="n">
-        <v>1.72395421568E12</v>
+        <v>1.724223596872E12</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -21198,10 +22000,10 @@
         <v>1857</v>
       </c>
       <c r="R338" t="n">
-        <v>2.0999999999999996</v>
+        <v>1.3899999999999997</v>
       </c>
       <c r="T338" t="n">
-        <v>1.724030452274E12</v>
+        <v>1.724228728864E12</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -21230,10 +22032,10 @@
         <v>1643</v>
       </c>
       <c r="R339" t="n">
-        <v>1.450000000000001</v>
+        <v>0.9500000000000011</v>
       </c>
       <c r="T339" t="n">
-        <v>1.723954228746E12</v>
+        <v>1.724223603451E12</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -21262,10 +22064,10 @@
         <v>1858</v>
       </c>
       <c r="R340" t="n">
-        <v>1.4000000000000021</v>
+        <v>0.9000000000000021</v>
       </c>
       <c r="T340" t="n">
-        <v>1.72395423193E12</v>
+        <v>1.724223622055E12</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -21294,10 +22096,10 @@
         <v>1859</v>
       </c>
       <c r="R341" t="n">
-        <v>1.500000000000007</v>
+        <v>1.2900000000000071</v>
       </c>
       <c r="T341" t="n">
-        <v>1.723954234462E12</v>
+        <v>1.724228730959E12</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -21326,10 +22128,10 @@
         <v>1860</v>
       </c>
       <c r="R342" t="n">
-        <v>1.6000000000000054</v>
+        <v>0.8900000000000055</v>
       </c>
       <c r="T342" t="n">
-        <v>1.723954236854E12</v>
+        <v>1.724228733744E12</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -21358,10 +22160,10 @@
         <v>1861</v>
       </c>
       <c r="R343" t="n">
-        <v>1.5500000000000065</v>
+        <v>0.8400000000000065</v>
       </c>
       <c r="T343" t="n">
-        <v>1.723954247853E12</v>
+        <v>1.724228736742E12</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -21393,7 +22195,7 @@
         <v>0.0</v>
       </c>
       <c r="T344" t="n">
-        <v>1.72293580765E12</v>
+        <v>1.724223645519E12</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -21425,7 +22227,7 @@
         <v>0.0</v>
       </c>
       <c r="T345" t="n">
-        <v>1.722935811632E12</v>
+        <v>1.72422364974E12</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -21454,10 +22256,10 @@
         <v>1864</v>
       </c>
       <c r="R346" t="n">
-        <v>1.7499999999999996</v>
+        <v>1.0399999999999996</v>
       </c>
       <c r="T346" t="n">
-        <v>1.72403045688E12</v>
+        <v>1.724228738569E12</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -21486,10 +22288,10 @@
         <v>1865</v>
       </c>
       <c r="R347" t="n">
-        <v>1.2999999999999998</v>
+        <v>0.7999999999999998</v>
       </c>
       <c r="T347" t="n">
-        <v>1.72395426013E12</v>
+        <v>1.724223681927E12</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -21518,10 +22320,10 @@
         <v>1866</v>
       </c>
       <c r="R348" t="n">
-        <v>1.5999999999999996</v>
+        <v>2.0999999999999996</v>
       </c>
       <c r="T348" t="n">
-        <v>1.723954264048E12</v>
+        <v>1.724228741862E12</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -21550,10 +22352,10 @@
         <v>1867</v>
       </c>
       <c r="R349" t="n">
-        <v>1.4000000000000012</v>
+        <v>0.9000000000000012</v>
       </c>
       <c r="T349" t="n">
-        <v>1.72395426571E12</v>
+        <v>1.724223691006E12</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -21585,7 +22387,7 @@
         <v>0.0</v>
       </c>
       <c r="T350" t="n">
-        <v>1.722935862905E12</v>
+        <v>1.724223708932E12</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -21614,10 +22416,10 @@
         <v>1536</v>
       </c>
       <c r="R351" t="n">
-        <v>0.30000000000000004</v>
+        <v>2.3</v>
       </c>
       <c r="T351" t="n">
-        <v>1.722935866902E12</v>
+        <v>1.724228749873E12</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -21649,7 +22451,7 @@
         <v>0.0</v>
       </c>
       <c r="T352" t="n">
-        <v>1.722935871894E12</v>
+        <v>1.724223827156E12</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -21678,10 +22480,10 @@
         <v>1869</v>
       </c>
       <c r="R353" t="n">
-        <v>1.3500000000000032</v>
+        <v>2.850000000000003</v>
       </c>
       <c r="T353" t="n">
-        <v>1.723954272264E12</v>
+        <v>1.724228761598E12</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -21710,10 +22512,10 @@
         <v>1870</v>
       </c>
       <c r="R354" t="n">
-        <v>1.450000000000001</v>
+        <v>0.9500000000000011</v>
       </c>
       <c r="T354" t="n">
-        <v>1.72395427474E12</v>
+        <v>1.724223878292E12</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -21742,10 +22544,10 @@
         <v>1871</v>
       </c>
       <c r="R355" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T355" t="n">
-        <v>1.723079981816E12</v>
+        <v>1.724223894085E12</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -21774,10 +22576,10 @@
         <v>1872</v>
       </c>
       <c r="R356" t="n">
-        <v>1.4000000000000004</v>
+        <v>0.9000000000000004</v>
       </c>
       <c r="T356" t="n">
-        <v>1.723954277032E12</v>
+        <v>1.724223903337E12</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -21806,10 +22608,10 @@
         <v>1873</v>
       </c>
       <c r="R357" t="n">
-        <v>0.65</v>
+        <v>2.65</v>
       </c>
       <c r="T357" t="n">
-        <v>1.72308040751E12</v>
+        <v>1.72422876767E12</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -21838,10 +22640,10 @@
         <v>1874</v>
       </c>
       <c r="R358" t="n">
-        <v>1.5499999999999994</v>
+        <v>0.8399999999999994</v>
       </c>
       <c r="T358" t="n">
-        <v>1.72395427885E12</v>
+        <v>1.724228770412E12</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -21870,10 +22672,10 @@
         <v>870</v>
       </c>
       <c r="R359" t="n">
-        <v>0.30000000000000004</v>
+        <v>1.09</v>
       </c>
       <c r="T359" t="n">
-        <v>1.722935929953E12</v>
+        <v>1.724228776519E12</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -21902,10 +22704,10 @@
         <v>1875</v>
       </c>
       <c r="R360" t="n">
-        <v>0.0</v>
+        <v>0.79</v>
       </c>
       <c r="T360" t="n">
-        <v>1.722935933048E12</v>
+        <v>1.724228812619E12</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -21934,10 +22736,10 @@
         <v>1876</v>
       </c>
       <c r="R361" t="n">
-        <v>1.5999999999999996</v>
+        <v>1.3899999999999997</v>
       </c>
       <c r="T361" t="n">
-        <v>1.723954286651E12</v>
+        <v>1.724228815433E12</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -21966,10 +22768,10 @@
         <v>1877</v>
       </c>
       <c r="R362" t="n">
-        <v>0.65</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="T362" t="n">
-        <v>1.72308046996E12</v>
+        <v>1.724224007876E12</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -21998,10 +22800,10 @@
         <v>1878</v>
       </c>
       <c r="R363" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T363" t="n">
-        <v>1.723080472349E12</v>
+        <v>1.724224023978E12</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -22030,10 +22832,10 @@
         <v>1879</v>
       </c>
       <c r="R364" t="n">
-        <v>1.4999999999999991</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="T364" t="n">
-        <v>1.723954288469E12</v>
+        <v>1.724224027669E12</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -22062,10 +22864,10 @@
         <v>1880</v>
       </c>
       <c r="R365" t="n">
-        <v>1.2499999999999996</v>
+        <v>0.7499999999999996</v>
       </c>
       <c r="T365" t="n">
-        <v>1.723954291968E12</v>
+        <v>1.724224033567E12</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -22094,10 +22896,10 @@
         <v>1881</v>
       </c>
       <c r="R366" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T366" t="n">
-        <v>1.723080506279E12</v>
+        <v>1.724224050146E12</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -22126,10 +22928,10 @@
         <v>1882</v>
       </c>
       <c r="R367" t="n">
-        <v>1.3000000000000096</v>
+        <v>0.8000000000000096</v>
       </c>
       <c r="T367" t="n">
-        <v>1.723954297713E12</v>
+        <v>1.724224055611E12</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -22161,7 +22963,7 @@
         <v>0.0</v>
       </c>
       <c r="T368" t="n">
-        <v>1.722936077826E12</v>
+        <v>1.724224112679E12</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -22190,10 +22992,10 @@
         <v>1884</v>
       </c>
       <c r="R369" t="n">
-        <v>1.3000000000000043</v>
+        <v>0.8000000000000043</v>
       </c>
       <c r="T369" t="n">
-        <v>1.72395429952E12</v>
+        <v>1.724224115102E12</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -22222,10 +23024,10 @@
         <v>1885</v>
       </c>
       <c r="R370" t="n">
-        <v>0.65</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="T370" t="n">
-        <v>1.723080516534E12</v>
+        <v>1.724224118365E12</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -22254,10 +23056,10 @@
         <v>1886</v>
       </c>
       <c r="R371" t="n">
-        <v>1.7999999999999998</v>
+        <v>1.0899999999999999</v>
       </c>
       <c r="T371" t="n">
-        <v>1.723956645388E12</v>
+        <v>1.724228818276E12</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -22286,10 +23088,10 @@
         <v>1887</v>
       </c>
       <c r="R372" t="n">
-        <v>1.4500000000000002</v>
+        <v>0.9500000000000002</v>
       </c>
       <c r="T372" t="n">
-        <v>1.723954308736E12</v>
+        <v>1.724224127187E12</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -22321,7 +23123,7 @@
         <v>0.0</v>
       </c>
       <c r="T373" t="n">
-        <v>1.722936126771E12</v>
+        <v>1.724224132072E12</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -22353,7 +23155,7 @@
         <v>0.0</v>
       </c>
       <c r="T374" t="n">
-        <v>1.722936129816E12</v>
+        <v>1.724224135597E12</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -22382,10 +23184,10 @@
         <v>1292</v>
       </c>
       <c r="R375" t="n">
-        <v>1.35</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="T375" t="n">
-        <v>1.723954310458E12</v>
+        <v>1.724224139359E12</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -22417,7 +23219,7 @@
         <v>0.0</v>
       </c>
       <c r="T376" t="n">
-        <v>1.722936138362E12</v>
+        <v>1.724224198455E12</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -22446,10 +23248,10 @@
         <v>1890</v>
       </c>
       <c r="R377" t="n">
-        <v>1.6000000000000054</v>
+        <v>1.3900000000000055</v>
       </c>
       <c r="T377" t="n">
-        <v>1.723954313366E12</v>
+        <v>1.724228824645E12</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -22478,10 +23280,10 @@
         <v>1551</v>
       </c>
       <c r="R378" t="n">
-        <v>1.5499999999999994</v>
+        <v>0.8399999999999994</v>
       </c>
       <c r="T378" t="n">
-        <v>1.723954317931E12</v>
+        <v>1.724228835913E12</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -22510,10 +23312,10 @@
         <v>1891</v>
       </c>
       <c r="R379" t="n">
-        <v>1.6000000000000054</v>
+        <v>0.8900000000000055</v>
       </c>
       <c r="T379" t="n">
-        <v>1.723954319591E12</v>
+        <v>1.724228837487E12</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -22542,10 +23344,10 @@
         <v>1892</v>
       </c>
       <c r="R380" t="n">
-        <v>1.3000000000000043</v>
+        <v>0.8000000000000043</v>
       </c>
       <c r="T380" t="n">
-        <v>1.723954327585E12</v>
+        <v>1.724224260717E12</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -22574,10 +23376,10 @@
         <v>1566</v>
       </c>
       <c r="R381" t="n">
-        <v>1.9000000000000092</v>
+        <v>1.1900000000000093</v>
       </c>
       <c r="T381" t="n">
-        <v>1.724030463828E12</v>
+        <v>1.724228842555E12</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -22606,10 +23408,10 @@
         <v>1893</v>
       </c>
       <c r="R382" t="n">
-        <v>1.450000000000001</v>
+        <v>0.9500000000000011</v>
       </c>
       <c r="T382" t="n">
-        <v>1.723954339272E12</v>
+        <v>1.724224364754E12</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -22638,10 +23440,10 @@
         <v>1894</v>
       </c>
       <c r="R383" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="T383" t="n">
-        <v>1.722936209124E12</v>
+        <v>1.724228845524E12</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -22670,10 +23472,10 @@
         <v>1895</v>
       </c>
       <c r="R384" t="n">
-        <v>1.8999999999999995</v>
+        <v>2.3999999999999995</v>
       </c>
       <c r="T384" t="n">
-        <v>1.72403047116E12</v>
+        <v>1.724228887939E12</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -22702,10 +23504,10 @@
         <v>1218</v>
       </c>
       <c r="R385" t="n">
-        <v>1.4500000000000082</v>
+        <v>0.9500000000000082</v>
       </c>
       <c r="T385" t="n">
-        <v>1.72395435042E12</v>
+        <v>1.724224598959E12</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -22737,7 +23539,7 @@
         <v>0.0</v>
       </c>
       <c r="T386" t="n">
-        <v>1.722936237418E12</v>
+        <v>1.724224614672E12</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -22766,10 +23568,10 @@
         <v>1896</v>
       </c>
       <c r="R387" t="n">
-        <v>1.5499999999999994</v>
+        <v>0.8399999999999994</v>
       </c>
       <c r="T387" t="n">
-        <v>1.723954353236E12</v>
+        <v>1.724228892734E12</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -22798,10 +23600,10 @@
         <v>1897</v>
       </c>
       <c r="R388" t="n">
-        <v>1.450000000000001</v>
+        <v>0.9500000000000011</v>
       </c>
       <c r="T388" t="n">
-        <v>1.723954356638E12</v>
+        <v>1.724224625291E12</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -22830,10 +23632,10 @@
         <v>1898</v>
       </c>
       <c r="R389" t="n">
-        <v>1.3500000000000032</v>
+        <v>0.8500000000000032</v>
       </c>
       <c r="T389" t="n">
-        <v>1.72395435906E12</v>
+        <v>1.724224658211E12</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -22862,10 +23664,10 @@
         <v>1866</v>
       </c>
       <c r="R390" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T390" t="n">
-        <v>1.723954364346E12</v>
+        <v>1.724224670709E12</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -22894,10 +23696,10 @@
         <v>1895</v>
       </c>
       <c r="R391" t="n">
-        <v>1.4000000000000012</v>
+        <v>0.9000000000000012</v>
       </c>
       <c r="T391" t="n">
-        <v>1.723954377559E12</v>
+        <v>1.724224680085E12</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -22926,10 +23728,10 @@
         <v>873</v>
       </c>
       <c r="R392" t="n">
-        <v>1.6000000000000054</v>
+        <v>0.8900000000000055</v>
       </c>
       <c r="T392" t="n">
-        <v>1.7239543811E12</v>
+        <v>1.724228898072E12</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -22958,10 +23760,10 @@
         <v>1895</v>
       </c>
       <c r="R393" t="n">
-        <v>1.3000000000000043</v>
+        <v>0.8000000000000043</v>
       </c>
       <c r="T393" t="n">
-        <v>1.723954386827E12</v>
+        <v>1.724224731753E12</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -22990,10 +23792,10 @@
         <v>1895</v>
       </c>
       <c r="R394" t="n">
-        <v>1.3500000000000032</v>
+        <v>0.8500000000000032</v>
       </c>
       <c r="T394" t="n">
-        <v>1.723954389898E12</v>
+        <v>1.724224733192E12</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -23025,7 +23827,7 @@
         <v>0.0</v>
       </c>
       <c r="T395" t="n">
-        <v>1.722936290132E12</v>
+        <v>1.724224735677E12</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -23054,10 +23856,10 @@
         <v>1900</v>
       </c>
       <c r="R396" t="n">
-        <v>1.450000000000001</v>
+        <v>0.9500000000000011</v>
       </c>
       <c r="T396" t="n">
-        <v>1.723954392128E12</v>
+        <v>1.724224737679E12</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -23074,10 +23876,10 @@
         <v>3</v>
       </c>
       <c r="R397" t="n">
-        <v>0.0</v>
+        <v>0.79</v>
       </c>
       <c r="T397" t="n">
-        <v>1.722936296496E12</v>
+        <v>1.72422890176E12</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -23094,10 +23896,10 @@
         <v>3</v>
       </c>
       <c r="R398" t="n">
-        <v>0.0</v>
+        <v>0.79</v>
       </c>
       <c r="T398" t="n">
-        <v>1.722936300748E12</v>
+        <v>1.724228904899E12</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -23114,10 +23916,10 @@
         <v>4</v>
       </c>
       <c r="R399" t="n">
-        <v>1.7999999999999998</v>
+        <v>1.0899999999999999</v>
       </c>
       <c r="T399" t="n">
-        <v>1.724030479586E12</v>
+        <v>1.724228909368E12</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -23134,10 +23936,10 @@
         <v>4</v>
       </c>
       <c r="R400" t="n">
-        <v>1.5999999999999996</v>
+        <v>1.3899999999999997</v>
       </c>
       <c r="T400" t="n">
-        <v>1.723954401939E12</v>
+        <v>1.724228911657E12</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -23154,10 +23956,10 @@
         <v>4</v>
       </c>
       <c r="R401" t="n">
-        <v>0.9499999999999998</v>
+        <v>1.7399999999999998</v>
       </c>
       <c r="T401" t="n">
-        <v>1.723954403475E12</v>
+        <v>1.724228913629E12</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -23177,7 +23979,7 @@
         <v>0.0</v>
       </c>
       <c r="T402" t="n">
-        <v>1.722990308959E12</v>
+        <v>1.724224867321E12</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -23197,7 +23999,7 @@
         <v>0.0</v>
       </c>
       <c r="T403" t="n">
-        <v>1.722848014541E12</v>
+        <v>1.724224870915E12</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -23217,7 +24019,7 @@
         <v>0.0</v>
       </c>
       <c r="T404" t="n">
-        <v>1.722848017107E12</v>
+        <v>1.724224873985E12</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -23237,7 +24039,7 @@
         <v>0.0</v>
       </c>
       <c r="T405" t="n">
-        <v>1.722848021385E12</v>
+        <v>1.724224877645E12</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -23254,10 +24056,10 @@
         <v>3</v>
       </c>
       <c r="R406" t="n">
-        <v>1.450000000000001</v>
+        <v>0.9500000000000011</v>
       </c>
       <c r="T406" t="n">
-        <v>1.723954405875E12</v>
+        <v>1.724224881036E12</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -23274,10 +24076,10 @@
         <v>4</v>
       </c>
       <c r="R407" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T407" t="n">
-        <v>1.723080709579E12</v>
+        <v>1.724224884346E12</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -23297,7 +24099,7 @@
         <v>0.0</v>
       </c>
       <c r="T408" t="n">
-        <v>1.722990323177E12</v>
+        <v>1.724224888441E12</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -23314,10 +24116,10 @@
         <v>4</v>
       </c>
       <c r="R409" t="n">
-        <v>2.0999999999999996</v>
+        <v>1.3899999999999997</v>
       </c>
       <c r="T409" t="n">
-        <v>1.724030486608E12</v>
+        <v>1.724228917273E12</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -23334,10 +24136,10 @@
         <v>4</v>
       </c>
       <c r="R410" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T410" t="n">
-        <v>1.723080715067E12</v>
+        <v>1.724224893594E12</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -23354,10 +24156,10 @@
         <v>4</v>
       </c>
       <c r="R411" t="n">
-        <v>0.65</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="T411" t="n">
-        <v>1.722990337303E12</v>
+        <v>1.724224898649E12</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -23377,7 +24179,7 @@
         <v>0.0</v>
       </c>
       <c r="T412" t="n">
-        <v>1.722848052438E12</v>
+        <v>1.724224903367E12</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -23397,7 +24199,7 @@
         <v>0.0</v>
       </c>
       <c r="T413" t="n">
-        <v>1.722848070349E12</v>
+        <v>1.724224905803E12</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -23417,7 +24219,7 @@
         <v>0.0</v>
       </c>
       <c r="T414" t="n">
-        <v>1.722848076146E12</v>
+        <v>1.724224947411E12</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -23437,7 +24239,7 @@
         <v>0.0</v>
       </c>
       <c r="T415" t="n">
-        <v>1.722848099748E12</v>
+        <v>1.724224959701E12</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -23454,10 +24256,10 @@
         <v>4</v>
       </c>
       <c r="R416" t="n">
-        <v>3.4499999999999997</v>
+        <v>1.7399999999999998</v>
       </c>
       <c r="T416" t="n">
-        <v>1.724030488834E12</v>
+        <v>1.724228919533E12</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -23474,10 +24276,10 @@
         <v>3</v>
       </c>
       <c r="R417" t="n">
-        <v>1.450000000000001</v>
+        <v>0.9500000000000011</v>
       </c>
       <c r="T417" t="n">
-        <v>1.723954411707E12</v>
+        <v>1.724224965061E12</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -23494,10 +24296,10 @@
         <v>4</v>
       </c>
       <c r="R418" t="n">
-        <v>0.0</v>
+        <v>0.79</v>
       </c>
       <c r="T418" t="n">
-        <v>1.722990351746E12</v>
+        <v>1.724228923141E12</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -23517,7 +24319,7 @@
         <v>0.0</v>
       </c>
       <c r="T419" t="n">
-        <v>1.722848109976E12</v>
+        <v>1.724225002949E12</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -23537,7 +24339,7 @@
         <v>0.0</v>
       </c>
       <c r="T420" t="n">
-        <v>1.722990354486E12</v>
+        <v>1.724225005072E12</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -23557,7 +24359,7 @@
         <v>0.0</v>
       </c>
       <c r="T421" t="n">
-        <v>1.7228481159E12</v>
+        <v>1.72422500744E12</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -23574,10 +24376,10 @@
         <v>4</v>
       </c>
       <c r="R422" t="n">
-        <v>0.9499999999999998</v>
+        <v>2.9499999999999997</v>
       </c>
       <c r="T422" t="n">
-        <v>1.723080721357E12</v>
+        <v>1.724228926008E12</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -23594,10 +24396,10 @@
         <v>3</v>
       </c>
       <c r="R423" t="n">
-        <v>0.0</v>
+        <v>0.79</v>
       </c>
       <c r="T423" t="n">
-        <v>1.722848120157E12</v>
+        <v>1.724228929267E12</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -23617,7 +24419,7 @@
         <v>0.0</v>
       </c>
       <c r="T424" t="n">
-        <v>1.722848124919E12</v>
+        <v>1.724225028153E12</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -23634,10 +24436,10 @@
         <v>4</v>
       </c>
       <c r="R425" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T425" t="n">
-        <v>1.723080723312E12</v>
+        <v>1.724225056809E12</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -23654,10 +24456,10 @@
         <v>4</v>
       </c>
       <c r="R426" t="n">
-        <v>1.5999999999999996</v>
+        <v>0.8899999999999997</v>
       </c>
       <c r="T426" t="n">
-        <v>1.723954415361E12</v>
+        <v>1.72422893148E12</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -23674,10 +24476,10 @@
         <v>3</v>
       </c>
       <c r="R427" t="n">
-        <v>1.5999999999999996</v>
+        <v>0.8899999999999997</v>
       </c>
       <c r="T427" t="n">
-        <v>1.723954417946E12</v>
+        <v>1.72422893314E12</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -23694,10 +24496,10 @@
         <v>4</v>
       </c>
       <c r="R428" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T428" t="n">
-        <v>1.723080730844E12</v>
+        <v>1.724225069272E12</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -23717,7 +24519,7 @@
         <v>0.0</v>
       </c>
       <c r="T429" t="n">
-        <v>1.722848147258E12</v>
+        <v>1.724225071282E12</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -23737,7 +24539,7 @@
         <v>0.0</v>
       </c>
       <c r="T430" t="n">
-        <v>1.722848149591E12</v>
+        <v>1.724225075816E12</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -23754,10 +24556,10 @@
         <v>4</v>
       </c>
       <c r="R431" t="n">
-        <v>0.65</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="T431" t="n">
-        <v>1.722990415452E12</v>
+        <v>1.724225079379E12</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -23777,7 +24579,7 @@
         <v>0.0</v>
       </c>
       <c r="T432" t="n">
-        <v>1.722990417859E12</v>
+        <v>1.724225088653E12</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -23794,10 +24596,10 @@
         <v>4</v>
       </c>
       <c r="R433" t="n">
-        <v>0.8999999999999996</v>
+        <v>0.3999999999999996</v>
       </c>
       <c r="T433" t="n">
-        <v>1.723954421345E12</v>
+        <v>1.72422531798E12</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -23817,7 +24619,7 @@
         <v>0.0</v>
       </c>
       <c r="T434" t="n">
-        <v>1.722848275298E12</v>
+        <v>1.724225320398E12</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -23837,7 +24639,7 @@
         <v>0.0</v>
       </c>
       <c r="T435" t="n">
-        <v>1.722848279533E12</v>
+        <v>1.7242253428E12</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -23854,10 +24656,10 @@
         <v>4</v>
       </c>
       <c r="R436" t="n">
-        <v>0.65</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="T436" t="n">
-        <v>1.722990645107E12</v>
+        <v>1.724225345839E12</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -23874,10 +24676,10 @@
         <v>3</v>
       </c>
       <c r="R437" t="n">
-        <v>1.7999999999999998</v>
+        <v>1.0899999999999999</v>
       </c>
       <c r="T437" t="n">
-        <v>1.724030491778E12</v>
+        <v>1.724228935175E12</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -23897,7 +24699,7 @@
         <v>0.0</v>
       </c>
       <c r="T438" t="n">
-        <v>1.722848287699E12</v>
+        <v>1.724225364559E12</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -23917,7 +24719,7 @@
         <v>0.0</v>
       </c>
       <c r="T439" t="n">
-        <v>1.722848288952E12</v>
+        <v>1.724225421657E12</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -23934,10 +24736,10 @@
         <v>4</v>
       </c>
       <c r="R440" t="n">
-        <v>0.9499999999999998</v>
+        <v>1.7399999999999998</v>
       </c>
       <c r="T440" t="n">
-        <v>1.723080742042E12</v>
+        <v>1.724228936771E12</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -23954,10 +24756,10 @@
         <v>4</v>
       </c>
       <c r="R441" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T441" t="n">
-        <v>1.723080743946E12</v>
+        <v>1.724225446596E12</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -23977,7 +24779,7 @@
         <v>0.0</v>
       </c>
       <c r="T442" t="n">
-        <v>1.722848452689E12</v>
+        <v>1.724225455439E12</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -23997,7 +24799,7 @@
         <v>0.0</v>
       </c>
       <c r="T443" t="n">
-        <v>1.722848454605E12</v>
+        <v>1.724225457255E12</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -24017,7 +24819,7 @@
         <v>0.0</v>
       </c>
       <c r="T444" t="n">
-        <v>1.722848456977E12</v>
+        <v>1.724225465741E12</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -24034,10 +24836,10 @@
         <v>4</v>
       </c>
       <c r="R445" t="n">
-        <v>3.4499999999999997</v>
+        <v>1.7399999999999993</v>
       </c>
       <c r="T445" t="n">
-        <v>1.72403062808E12</v>
+        <v>1.724228939091E12</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -24057,7 +24859,7 @@
         <v>0.0</v>
       </c>
       <c r="T446" t="n">
-        <v>1.722848480901E12</v>
+        <v>1.724225491572E12</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -24077,7 +24879,7 @@
         <v>0.0</v>
       </c>
       <c r="T447" t="n">
-        <v>1.722848482775E12</v>
+        <v>1.724225497194E12</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -24097,7 +24899,7 @@
         <v>0.0</v>
       </c>
       <c r="T448" t="n">
-        <v>1.722848484273E12</v>
+        <v>1.724225501802E12</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -24117,7 +24919,7 @@
         <v>0.0</v>
       </c>
       <c r="T449" t="n">
-        <v>1.722848485957E12</v>
+        <v>1.72422582394E12</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -24134,10 +24936,10 @@
         <v>4</v>
       </c>
       <c r="R450" t="n">
-        <v>1.5999999999999996</v>
+        <v>0.8899999999999997</v>
       </c>
       <c r="T450" t="n">
-        <v>1.723954432251E12</v>
+        <v>1.724228942109E12</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -24154,10 +24956,10 @@
         <v>4</v>
       </c>
       <c r="R451" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T451" t="n">
-        <v>1.72308075367E12</v>
+        <v>1.724225831661E12</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -24174,10 +24976,10 @@
         <v>3</v>
       </c>
       <c r="R452" t="n">
-        <v>0.65</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="T452" t="n">
-        <v>1.722990665644E12</v>
+        <v>1.72422594847E12</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -24197,7 +24999,7 @@
         <v>0.0</v>
       </c>
       <c r="T453" t="n">
-        <v>1.72284849494E12</v>
+        <v>1.724226004749E12</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -24214,10 +25016,10 @@
         <v>4</v>
       </c>
       <c r="R454" t="n">
-        <v>1.4999999999999991</v>
+        <v>1.7899999999999991</v>
       </c>
       <c r="T454" t="n">
-        <v>1.723954434413E12</v>
+        <v>1.724228943952E12</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -24237,7 +25039,7 @@
         <v>0.0</v>
       </c>
       <c r="T455" t="n">
-        <v>1.722848498918E12</v>
+        <v>1.724226033906E12</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -24254,10 +25056,10 @@
         <v>4</v>
       </c>
       <c r="R456" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T456" t="n">
-        <v>1.723080758664E12</v>
+        <v>1.724226040438E12</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -24274,10 +25076,10 @@
         <v>4</v>
       </c>
       <c r="R457" t="n">
-        <v>1.5499999999999994</v>
+        <v>0.8399999999999994</v>
       </c>
       <c r="T457" t="n">
-        <v>1.723954435861E12</v>
+        <v>1.724228945529E12</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -24294,10 +25096,10 @@
         <v>3</v>
       </c>
       <c r="R458" t="n">
-        <v>0.0</v>
+        <v>0.79</v>
       </c>
       <c r="T458" t="n">
-        <v>1.722848578878E12</v>
+        <v>1.724228948372E12</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -24314,10 +25116,10 @@
         <v>3</v>
       </c>
       <c r="R459" t="n">
-        <v>1.4000000000000021</v>
+        <v>0.9000000000000021</v>
       </c>
       <c r="T459" t="n">
-        <v>1.723954437147E12</v>
+        <v>1.724226049899E12</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -24337,7 +25139,7 @@
         <v>0.0</v>
       </c>
       <c r="T460" t="n">
-        <v>1.722848582005E12</v>
+        <v>1.724226053039E12</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -24357,7 +25159,7 @@
         <v>0.0</v>
       </c>
       <c r="T461" t="n">
-        <v>1.722848583427E12</v>
+        <v>1.724226055331E12</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -24374,10 +25176,10 @@
         <v>4</v>
       </c>
       <c r="R462" t="n">
-        <v>0.0</v>
+        <v>0.79</v>
       </c>
       <c r="T462" t="n">
-        <v>1.722990679101E12</v>
+        <v>1.724228950661E12</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -24394,10 +25196,10 @@
         <v>4</v>
       </c>
       <c r="R463" t="n">
-        <v>0.9499999999999998</v>
+        <v>1.7399999999999998</v>
       </c>
       <c r="T463" t="n">
-        <v>1.723080765743E12</v>
+        <v>1.724228952288E12</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -24414,10 +25216,10 @@
         <v>3</v>
       </c>
       <c r="R464" t="n">
-        <v>0.65</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="T464" t="n">
-        <v>1.722990811571E12</v>
+        <v>1.724226283929E12</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -24434,10 +25236,10 @@
         <v>3</v>
       </c>
       <c r="R465" t="n">
-        <v>0.0</v>
+        <v>0.79</v>
       </c>
       <c r="T465" t="n">
-        <v>1.722848601355E12</v>
+        <v>1.724228954074E12</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -24454,10 +25256,10 @@
         <v>4</v>
       </c>
       <c r="R466" t="n">
-        <v>0.0</v>
+        <v>0.79</v>
       </c>
       <c r="T466" t="n">
-        <v>1.722848603246E12</v>
+        <v>1.724228955953E12</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -24474,10 +25276,10 @@
         <v>4</v>
       </c>
       <c r="R467" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T467" t="n">
-        <v>1.723080767955E12</v>
+        <v>1.724226389703E12</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -24494,10 +25296,10 @@
         <v>4</v>
       </c>
       <c r="R468" t="n">
-        <v>0.65</v>
+        <v>1.44</v>
       </c>
       <c r="T468" t="n">
-        <v>1.722990817453E12</v>
+        <v>1.724228957287E12</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -24514,10 +25316,10 @@
         <v>3</v>
       </c>
       <c r="R469" t="n">
-        <v>0.65</v>
+        <v>1.44</v>
       </c>
       <c r="T469" t="n">
-        <v>1.722990820485E12</v>
+        <v>1.724228960521E12</v>
       </c>
     </row>
     <row r="470" spans="1:4">
@@ -24534,10 +25336,10 @@
         <v>3</v>
       </c>
       <c r="R470" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="T470" t="n">
-        <v>1.722848684509E12</v>
+        <v>1.724228964382E12</v>
       </c>
     </row>
     <row r="471" spans="1:4">
@@ -24554,10 +25356,10 @@
         <v>4</v>
       </c>
       <c r="R471" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T471" t="n">
-        <v>1.723080770047E12</v>
+        <v>1.724226415382E12</v>
       </c>
     </row>
     <row r="472" spans="1:4">
@@ -24574,10 +25376,10 @@
         <v>4</v>
       </c>
       <c r="R472" t="n">
-        <v>1.4999999999999991</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="T472" t="n">
-        <v>1.723954446494E12</v>
+        <v>1.724226418158E12</v>
       </c>
     </row>
     <row r="473" spans="1:4">
@@ -24597,7 +25399,7 @@
         <v>0.0</v>
       </c>
       <c r="T473" t="n">
-        <v>1.722848697014E12</v>
+        <v>1.724226421265E12</v>
       </c>
     </row>
     <row r="474" spans="1:4">
@@ -24614,10 +25416,10 @@
         <v>4</v>
       </c>
       <c r="R474" t="n">
-        <v>0.65</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="T474" t="n">
-        <v>1.722990925249E12</v>
+        <v>1.724226425655E12</v>
       </c>
     </row>
     <row r="475" spans="1:4">
@@ -24634,10 +25436,10 @@
         <v>4</v>
       </c>
       <c r="R475" t="n">
-        <v>0.65</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="T475" t="n">
-        <v>1.722990927642E12</v>
+        <v>1.724226427464E12</v>
       </c>
     </row>
     <row r="476" spans="1:4">
@@ -24657,7 +25459,7 @@
         <v>0.0</v>
       </c>
       <c r="T476" t="n">
-        <v>1.722848701693E12</v>
+        <v>1.724226435615E12</v>
       </c>
     </row>
     <row r="477" spans="1:4">
@@ -24674,10 +25476,10 @@
         <v>3</v>
       </c>
       <c r="R477" t="n">
-        <v>1.2999999999999998</v>
+        <v>1.5899999999999999</v>
       </c>
       <c r="T477" t="n">
-        <v>1.72395445696E12</v>
+        <v>1.724228966504E12</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -24697,7 +25499,7 @@
         <v>0.0</v>
       </c>
       <c r="T478" t="n">
-        <v>1.722848706684E12</v>
+        <v>1.724226543983E12</v>
       </c>
     </row>
     <row r="479" spans="1:4">
@@ -24717,7 +25519,7 @@
         <v>0.0</v>
       </c>
       <c r="T479" t="n">
-        <v>1.722848708641E12</v>
+        <v>1.724226634237E12</v>
       </c>
     </row>
     <row r="480" spans="1:4">
@@ -24737,7 +25539,7 @@
         <v>0.0</v>
       </c>
       <c r="T480" t="n">
-        <v>1.722848710411E12</v>
+        <v>1.724226637473E12</v>
       </c>
     </row>
     <row r="481" spans="1:4">
@@ -24757,7 +25559,7 @@
         <v>0.0</v>
       </c>
       <c r="T481" t="n">
-        <v>1.722990933615E12</v>
+        <v>1.724226639633E12</v>
       </c>
     </row>
     <row r="482" spans="1:4">
@@ -24777,7 +25579,7 @@
         <v>0.0</v>
       </c>
       <c r="T482" t="n">
-        <v>1.722848716129E12</v>
+        <v>1.724226641395E12</v>
       </c>
     </row>
     <row r="483" spans="1:4">
@@ -24794,10 +25596,10 @@
         <v>3</v>
       </c>
       <c r="R483" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T483" t="n">
-        <v>1.722990936357E12</v>
+        <v>1.724226643686E12</v>
       </c>
     </row>
     <row r="484" spans="1:4">
@@ -24814,10 +25616,10 @@
         <v>4</v>
       </c>
       <c r="R484" t="n">
-        <v>1.5499999999999994</v>
+        <v>0.8399999999999994</v>
       </c>
       <c r="T484" t="n">
-        <v>1.723954458221E12</v>
+        <v>1.724228967753E12</v>
       </c>
     </row>
     <row r="485" spans="1:4">
@@ -24837,7 +25639,7 @@
         <v>0.0</v>
       </c>
       <c r="T485" t="n">
-        <v>1.722848721505E12</v>
+        <v>1.724226648175E12</v>
       </c>
     </row>
     <row r="486" spans="1:4">
@@ -24854,10 +25656,10 @@
         <v>4</v>
       </c>
       <c r="R486" t="n">
-        <v>0.65</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="T486" t="n">
-        <v>1.722991002658E12</v>
+        <v>1.724226650195E12</v>
       </c>
     </row>
     <row r="487" spans="1:4">
@@ -24877,7 +25679,7 @@
         <v>0.0</v>
       </c>
       <c r="T487" t="n">
-        <v>1.722848725185E12</v>
+        <v>1.724226652402E12</v>
       </c>
     </row>
     <row r="488" spans="1:4">
@@ -24894,10 +25696,10 @@
         <v>4</v>
       </c>
       <c r="R488" t="n">
-        <v>0.65</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="T488" t="n">
-        <v>1.722991004721E12</v>
+        <v>1.724226653709E12</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -24917,7 +25719,7 @@
         <v>0.0</v>
       </c>
       <c r="T489" t="n">
-        <v>1.722991006481E12</v>
+        <v>1.724226659328E12</v>
       </c>
     </row>
     <row r="490" spans="1:4">
@@ -24937,7 +25739,7 @@
         <v>0.0</v>
       </c>
       <c r="T490" t="n">
-        <v>1.72284873342E12</v>
+        <v>1.724226661959E12</v>
       </c>
     </row>
     <row r="491" spans="1:4">
@@ -24954,10 +25756,10 @@
         <v>4</v>
       </c>
       <c r="R491" t="n">
-        <v>1.4999999999999991</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="T491" t="n">
-        <v>1.723954459759E12</v>
+        <v>1.724226664588E12</v>
       </c>
     </row>
     <row r="492" spans="1:4">
@@ -24974,10 +25776,10 @@
         <v>3</v>
       </c>
       <c r="R492" t="n">
-        <v>0.8999999999999996</v>
+        <v>1.6899999999999995</v>
       </c>
       <c r="T492" t="n">
-        <v>1.723954462275E12</v>
+        <v>1.724228969641E12</v>
       </c>
     </row>
     <row r="493" spans="1:4">
@@ -24997,7 +25799,7 @@
         <v>0.0</v>
       </c>
       <c r="T493" t="n">
-        <v>1.722848739786E12</v>
+        <v>1.72422671482E12</v>
       </c>
     </row>
     <row r="494" spans="1:4">
@@ -25014,10 +25816,10 @@
         <v>4</v>
       </c>
       <c r="R494" t="n">
-        <v>0.0</v>
+        <v>0.79</v>
       </c>
       <c r="T494" t="n">
-        <v>1.722848742926E12</v>
+        <v>1.72422897323E12</v>
       </c>
     </row>
     <row r="495" spans="1:4">
@@ -25034,10 +25836,10 @@
         <v>3</v>
       </c>
       <c r="R495" t="n">
-        <v>1.5999999999999996</v>
+        <v>0.8899999999999997</v>
       </c>
       <c r="T495" t="n">
-        <v>1.723954464849E12</v>
+        <v>1.724228975011E12</v>
       </c>
     </row>
     <row r="496" spans="1:4">
@@ -25054,10 +25856,10 @@
         <v>4</v>
       </c>
       <c r="R496" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T496" t="n">
-        <v>1.723080785655E12</v>
+        <v>1.724226725171E12</v>
       </c>
     </row>
     <row r="497" spans="1:4">
@@ -25074,10 +25876,10 @@
         <v>4</v>
       </c>
       <c r="R497" t="n">
-        <v>0.0</v>
+        <v>0.79</v>
       </c>
       <c r="T497" t="n">
-        <v>1.722991026882E12</v>
+        <v>1.724228976592E12</v>
       </c>
     </row>
     <row r="498" spans="1:4">
@@ -25097,7 +25899,7 @@
         <v>0.0</v>
       </c>
       <c r="T498" t="n">
-        <v>1.722848756038E12</v>
+        <v>1.724226734663E12</v>
       </c>
     </row>
     <row r="499" spans="1:4">
@@ -25114,10 +25916,10 @@
         <v>4</v>
       </c>
       <c r="R499" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T499" t="n">
-        <v>1.723080787477E12</v>
+        <v>1.724226737023E12</v>
       </c>
     </row>
     <row r="500" spans="1:4">
@@ -25137,7 +25939,7 @@
         <v>0.0</v>
       </c>
       <c r="T500" t="n">
-        <v>1.722848759364E12</v>
+        <v>1.724226784189E12</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/初级工题库.xlsx
+++ b/src/main/resources/初级工题库.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4226" uniqueCount="2011">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4233" uniqueCount="2015">
   <si>
     <t>题型</t>
   </si>
@@ -6094,6 +6094,18 @@
   </si>
   <si>
     <t>您一共做了: 156题	您的得分： 89.74358974358975	做题时长约为18.766666666666666Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 16题	您的得分： 81.25	做题时长约为2.6666666666666665Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 2题	您的得分： 100.0	做题时长约为0.2833333333333333Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 1题	您的得分： 100.0	做题时长约为0.16666666666666666Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 13题	您的得分： 92.3076923076923	做题时长约为0.7166666666666667Min</t>
   </si>
 </sst>
 </file>
@@ -6153,7 +6165,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4308">
+  <cellXfs count="4345">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -10308,125 +10320,162 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -11665,10 +11714,10 @@
         <v>1592</v>
       </c>
       <c r="R26" t="n">
-        <v>2.3</v>
+        <v>1.88</v>
       </c>
       <c r="T26" t="n">
-        <v>1.724227890808E12</v>
+        <v>1.724229972005E12</v>
       </c>
       <c r="AA26" t="s">
         <v>1927</v>
@@ -12680,10 +12729,10 @@
         <v>1613</v>
       </c>
       <c r="R55" t="n">
-        <v>2.65</v>
+        <v>2.23</v>
       </c>
       <c r="T55" t="n">
-        <v>1.724227939855E12</v>
+        <v>1.72422997331E12</v>
       </c>
       <c r="AA55" t="s">
         <v>1953</v>
@@ -13765,10 +13814,10 @@
         <v>1641</v>
       </c>
       <c r="R86" t="n">
-        <v>2.3</v>
+        <v>1.88</v>
       </c>
       <c r="T86" t="n">
-        <v>1.724227995653E12</v>
+        <v>1.724229974688E12</v>
       </c>
       <c r="AA86" t="s">
         <v>1980</v>
@@ -15585,10 +15634,10 @@
         <v>1685</v>
       </c>
       <c r="R138" t="n">
-        <v>2.9499999999999997</v>
+        <v>2.69</v>
       </c>
       <c r="T138" t="n">
-        <v>1.724228351319E12</v>
+        <v>1.724229975975E12</v>
       </c>
       <c r="AA138" t="s">
         <v>1951</v>
@@ -15800,6 +15849,9 @@
       <c r="T144" t="n">
         <v>1.72420973682E12</v>
       </c>
+      <c r="AA144" t="s">
+        <v>2011</v>
+      </c>
     </row>
     <row r="145" spans="1:8">
       <c r="A145" s="1">
@@ -15832,6 +15884,9 @@
       <c r="T145" t="n">
         <v>1.724209740186E12</v>
       </c>
+      <c r="AA145" t="s">
+        <v>1940</v>
+      </c>
     </row>
     <row r="146" spans="1:8">
       <c r="A146" s="1">
@@ -15864,6 +15919,9 @@
       <c r="T146" t="n">
         <v>1.724209753705E12</v>
       </c>
+      <c r="AA146" t="s">
+        <v>2012</v>
+      </c>
     </row>
     <row r="147" spans="1:8">
       <c r="A147" s="1">
@@ -15896,6 +15954,9 @@
       <c r="T147" t="n">
         <v>1.724209761348E12</v>
       </c>
+      <c r="AA147" t="s">
+        <v>2013</v>
+      </c>
     </row>
     <row r="148" spans="1:8">
       <c r="A148" s="1">
@@ -15928,6 +15989,9 @@
       <c r="T148" t="n">
         <v>1.724209765389E12</v>
       </c>
+      <c r="AA148" t="s">
+        <v>1976</v>
+      </c>
     </row>
     <row r="149" spans="1:8">
       <c r="A149" s="1">
@@ -15960,6 +16024,9 @@
       <c r="T149" t="n">
         <v>1.724209769223E12</v>
       </c>
+      <c r="AA149" t="s">
+        <v>1951</v>
+      </c>
     </row>
     <row r="150" spans="1:8">
       <c r="A150" s="1">
@@ -15992,6 +16059,9 @@
       <c r="T150" t="n">
         <v>1.724209793036E12</v>
       </c>
+      <c r="AA150" t="s">
+        <v>2014</v>
+      </c>
     </row>
     <row r="151" spans="1:8">
       <c r="A151" s="1">
@@ -17139,10 +17209,10 @@
         <v>1727</v>
       </c>
       <c r="R186" t="n">
-        <v>2.3</v>
+        <v>1.88</v>
       </c>
       <c r="T186" t="n">
-        <v>1.724228397896E12</v>
+        <v>1.724229983306E12</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -17203,10 +17273,10 @@
         <v>1727</v>
       </c>
       <c r="R188" t="n">
-        <v>2.0</v>
+        <v>1.79</v>
       </c>
       <c r="T188" t="n">
-        <v>1.724228423661E12</v>
+        <v>1.72422979298E12</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -17267,10 +17337,10 @@
         <v>1729</v>
       </c>
       <c r="R190" t="n">
-        <v>2.999999999999999</v>
+        <v>3.789999999999999</v>
       </c>
       <c r="T190" t="n">
-        <v>1.724228434924E12</v>
+        <v>1.724229991803E12</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -17395,10 +17465,10 @@
         <v>1729</v>
       </c>
       <c r="R194" t="n">
-        <v>2.8000000000000034</v>
+        <v>2.3800000000000034</v>
       </c>
       <c r="T194" t="n">
-        <v>1.724228469446E12</v>
+        <v>1.724229998649E12</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -22320,10 +22390,10 @@
         <v>1866</v>
       </c>
       <c r="R348" t="n">
-        <v>2.0999999999999996</v>
+        <v>1.8899999999999997</v>
       </c>
       <c r="T348" t="n">
-        <v>1.724228741862E12</v>
+        <v>1.724229815923E12</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -22416,10 +22486,10 @@
         <v>1536</v>
       </c>
       <c r="R351" t="n">
-        <v>2.3</v>
+        <v>2.67</v>
       </c>
       <c r="T351" t="n">
-        <v>1.724228749873E12</v>
+        <v>1.72423000078E12</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -22480,10 +22550,10 @@
         <v>1869</v>
       </c>
       <c r="R353" t="n">
-        <v>2.850000000000003</v>
+        <v>2.4300000000000033</v>
       </c>
       <c r="T353" t="n">
-        <v>1.724228761598E12</v>
+        <v>1.724230003582E12</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -22608,10 +22678,10 @@
         <v>1873</v>
       </c>
       <c r="R357" t="n">
-        <v>2.65</v>
+        <v>2.23</v>
       </c>
       <c r="T357" t="n">
-        <v>1.72422876767E12</v>
+        <v>1.724230006492E12</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -23440,10 +23510,10 @@
         <v>1894</v>
       </c>
       <c r="R383" t="n">
-        <v>2.0</v>
+        <v>1.79</v>
       </c>
       <c r="T383" t="n">
-        <v>1.724228845524E12</v>
+        <v>1.724229901935E12</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -23472,10 +23542,10 @@
         <v>1895</v>
       </c>
       <c r="R384" t="n">
-        <v>2.3999999999999995</v>
+        <v>1.9799999999999995</v>
       </c>
       <c r="T384" t="n">
-        <v>1.724228887939E12</v>
+        <v>1.724230008814E12</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -24376,10 +24446,10 @@
         <v>4</v>
       </c>
       <c r="R422" t="n">
-        <v>2.9499999999999997</v>
+        <v>2.53</v>
       </c>
       <c r="T422" t="n">
-        <v>1.724228926008E12</v>
+        <v>1.724230010149E12</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -25336,10 +25406,10 @@
         <v>3</v>
       </c>
       <c r="R470" t="n">
-        <v>2.0</v>
+        <v>2.58</v>
       </c>
       <c r="T470" t="n">
-        <v>1.724228964382E12</v>
+        <v>1.724230012878E12</v>
       </c>
     </row>
     <row r="471" spans="1:4">

--- a/src/main/resources/初级工题库.xlsx
+++ b/src/main/resources/初级工题库.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4233" uniqueCount="2015">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4237" uniqueCount="2018">
   <si>
     <t>题型</t>
   </si>
@@ -6106,6 +6106,15 @@
   </si>
   <si>
     <t>您一共做了: 13题	您的得分： 92.3076923076923	做题时长约为0.7166666666666667Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 9题	您的得分： 88.88888888888889	做题时长约为0.5833333333333334Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 9题	您的得分： 100.0	做题时长约为0.7666666666666667Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 79题	您的得分： 97.46835443037975	做题时长约为12.833333333333334Min</t>
   </si>
 </sst>
 </file>
@@ -6165,7 +6174,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4345">
+  <cellXfs count="4443">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -10476,6 +10485,104 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -10906,10 +11013,10 @@
         <v>1574</v>
       </c>
       <c r="R3" t="n">
-        <v>1.7399999999999998</v>
+        <v>1.5299999999999998</v>
       </c>
       <c r="T3" t="n">
-        <v>1.72422785561E12</v>
+        <v>1.724242602405E12</v>
       </c>
       <c r="AA3" t="s">
         <v>1904</v>
@@ -11714,10 +11821,10 @@
         <v>1592</v>
       </c>
       <c r="R26" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="T26" t="n">
-        <v>1.724229972005E12</v>
+        <v>1.724242608018E12</v>
       </c>
       <c r="AA26" t="s">
         <v>1927</v>
@@ -11819,10 +11926,10 @@
         <v>1594</v>
       </c>
       <c r="R29" t="n">
-        <v>1.0899999999999999</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="T29" t="n">
-        <v>1.72422792079E12</v>
+        <v>1.724242613741E12</v>
       </c>
       <c r="AA29" t="s">
         <v>1930</v>
@@ -12029,10 +12136,10 @@
         <v>1597</v>
       </c>
       <c r="R35" t="n">
-        <v>1.09</v>
+        <v>0.8800000000000001</v>
       </c>
       <c r="T35" t="n">
-        <v>1.724227923862E12</v>
+        <v>1.724242618508E12</v>
       </c>
       <c r="AA35" t="s">
         <v>1936</v>
@@ -12204,10 +12311,10 @@
         <v>1563</v>
       </c>
       <c r="R40" t="n">
-        <v>1.7899999999999991</v>
+        <v>1.5799999999999992</v>
       </c>
       <c r="T40" t="n">
-        <v>1.724227928255E12</v>
+        <v>1.724242625565E12</v>
       </c>
       <c r="AA40" t="s">
         <v>1938</v>
@@ -12449,10 +12556,10 @@
         <v>1605</v>
       </c>
       <c r="R47" t="n">
-        <v>1.5399999999999996</v>
+        <v>1.3299999999999996</v>
       </c>
       <c r="T47" t="n">
-        <v>1.724227929868E12</v>
+        <v>1.724242629899E12</v>
       </c>
       <c r="AA47" t="s">
         <v>1946</v>
@@ -12659,10 +12766,10 @@
         <v>1611</v>
       </c>
       <c r="R53" t="n">
-        <v>1.740000000000001</v>
+        <v>1.5300000000000011</v>
       </c>
       <c r="T53" t="n">
-        <v>1.724227932955E12</v>
+        <v>1.724242632645E12</v>
       </c>
       <c r="AA53" t="s">
         <v>1936</v>
@@ -12729,10 +12836,10 @@
         <v>1613</v>
       </c>
       <c r="R55" t="n">
-        <v>2.23</v>
+        <v>1.6</v>
       </c>
       <c r="T55" t="n">
-        <v>1.72422997331E12</v>
+        <v>1.724242634404E12</v>
       </c>
       <c r="AA55" t="s">
         <v>1953</v>
@@ -12764,10 +12871,10 @@
         <v>1614</v>
       </c>
       <c r="R56" t="n">
-        <v>1.0899999999999999</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="T56" t="n">
-        <v>1.724227942832E12</v>
+        <v>1.724242636928E12</v>
       </c>
       <c r="AA56" t="s">
         <v>1954</v>
@@ -13114,10 +13221,10 @@
         <v>1623</v>
       </c>
       <c r="R66" t="n">
-        <v>1.09</v>
+        <v>0.8800000000000001</v>
       </c>
       <c r="T66" t="n">
-        <v>1.72422794491E12</v>
+        <v>1.724242638986E12</v>
       </c>
       <c r="AA66" t="s">
         <v>1963</v>
@@ -13394,10 +13501,10 @@
         <v>1630</v>
       </c>
       <c r="R74" t="n">
-        <v>1.0899999999999999</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="T74" t="n">
-        <v>1.724227955138E12</v>
+        <v>1.724242641385E12</v>
       </c>
       <c r="AA74" t="s">
         <v>1971</v>
@@ -13464,10 +13571,10 @@
         <v>1632</v>
       </c>
       <c r="R76" t="n">
-        <v>1.639999999999998</v>
+        <v>1.429999999999998</v>
       </c>
       <c r="T76" t="n">
-        <v>1.724227960845E12</v>
+        <v>1.724242665121E12</v>
       </c>
       <c r="AA76" t="s">
         <v>1969</v>
@@ -13674,10 +13781,10 @@
         <v>566</v>
       </c>
       <c r="R82" t="n">
-        <v>1.5899999999999999</v>
+        <v>1.38</v>
       </c>
       <c r="T82" t="n">
-        <v>1.724227980037E12</v>
+        <v>1.724242668633E12</v>
       </c>
       <c r="AA82" t="s">
         <v>1976</v>
@@ -13814,10 +13921,10 @@
         <v>1641</v>
       </c>
       <c r="R86" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="T86" t="n">
-        <v>1.724229974688E12</v>
+        <v>1.724242674673E12</v>
       </c>
       <c r="AA86" t="s">
         <v>1980</v>
@@ -14269,10 +14376,10 @@
         <v>1654</v>
       </c>
       <c r="R99" t="n">
-        <v>1.7399999999999998</v>
+        <v>1.5299999999999998</v>
       </c>
       <c r="T99" t="n">
-        <v>1.724228080444E12</v>
+        <v>1.724242678161E12</v>
       </c>
       <c r="AA99" t="s">
         <v>1976</v>
@@ -14444,10 +14551,10 @@
         <v>1657</v>
       </c>
       <c r="R104" t="n">
-        <v>1.0899999999999999</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="T104" t="n">
-        <v>1.72422808839E12</v>
+        <v>1.724242699329E12</v>
       </c>
       <c r="AA104" t="s">
         <v>1988</v>
@@ -14759,10 +14866,10 @@
         <v>1664</v>
       </c>
       <c r="R113" t="n">
-        <v>1.0899999999999999</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="T113" t="n">
-        <v>1.72422813022E12</v>
+        <v>1.724242704733E12</v>
       </c>
       <c r="AA113" t="s">
         <v>1992</v>
@@ -15354,10 +15461,10 @@
         <v>1679</v>
       </c>
       <c r="R130" t="n">
-        <v>1.3899999999999997</v>
+        <v>1.1799999999999997</v>
       </c>
       <c r="T130" t="n">
-        <v>1.7242282333E12</v>
+        <v>1.72424271709E12</v>
       </c>
       <c r="AA130" t="s">
         <v>2001</v>
@@ -15564,10 +15671,10 @@
         <v>1684</v>
       </c>
       <c r="R136" t="n">
-        <v>1.0899999999999999</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="T136" t="n">
-        <v>1.724228278715E12</v>
+        <v>1.724242719187E12</v>
       </c>
       <c r="AA136" t="s">
         <v>1976</v>
@@ -15634,10 +15741,10 @@
         <v>1685</v>
       </c>
       <c r="R138" t="n">
-        <v>2.69</v>
+        <v>2.06</v>
       </c>
       <c r="T138" t="n">
-        <v>1.724229975975E12</v>
+        <v>1.724242731884E12</v>
       </c>
       <c r="AA138" t="s">
         <v>1951</v>
@@ -15704,10 +15811,10 @@
         <v>1687</v>
       </c>
       <c r="R140" t="n">
-        <v>1.44</v>
+        <v>1.23</v>
       </c>
       <c r="T140" t="n">
-        <v>1.724228354927E12</v>
+        <v>1.724242735147E12</v>
       </c>
       <c r="AA140" t="s">
         <v>1917</v>
@@ -16094,6 +16201,9 @@
       <c r="T151" t="n">
         <v>1.724209831846E12</v>
       </c>
+      <c r="AA151" t="s">
+        <v>1916</v>
+      </c>
     </row>
     <row r="152" spans="1:8">
       <c r="A152" s="1">
@@ -16126,6 +16236,9 @@
       <c r="T152" t="n">
         <v>1.724209844496E12</v>
       </c>
+      <c r="AA152" t="s">
+        <v>2015</v>
+      </c>
     </row>
     <row r="153" spans="1:8">
       <c r="A153" s="1">
@@ -16158,6 +16271,9 @@
       <c r="T153" t="n">
         <v>1.72420984924E12</v>
       </c>
+      <c r="AA153" t="s">
+        <v>2016</v>
+      </c>
     </row>
     <row r="154" spans="1:8">
       <c r="A154" s="1">
@@ -16190,6 +16306,9 @@
       <c r="T154" t="n">
         <v>1.72420985173E12</v>
       </c>
+      <c r="AA154" t="s">
+        <v>2017</v>
+      </c>
     </row>
     <row r="155" spans="1:8">
       <c r="A155" s="1">
@@ -16345,10 +16464,10 @@
         <v>1703</v>
       </c>
       <c r="R159" t="n">
-        <v>1.7399999999999998</v>
+        <v>1.5299999999999998</v>
       </c>
       <c r="T159" t="n">
-        <v>1.724228363887E12</v>
+        <v>1.724242738948E12</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -16537,10 +16656,10 @@
         <v>1709</v>
       </c>
       <c r="R165" t="n">
-        <v>1.5899999999999999</v>
+        <v>1.38</v>
       </c>
       <c r="T165" t="n">
-        <v>1.724228369729E12</v>
+        <v>1.724242746692E12</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -16601,10 +16720,10 @@
         <v>1711</v>
       </c>
       <c r="R167" t="n">
-        <v>1.0399999999999996</v>
+        <v>0.8299999999999996</v>
       </c>
       <c r="T167" t="n">
-        <v>1.724228373132E12</v>
+        <v>1.724242751601E12</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -16633,10 +16752,10 @@
         <v>1712</v>
       </c>
       <c r="R168" t="n">
-        <v>1.09</v>
+        <v>0.8800000000000001</v>
       </c>
       <c r="T168" t="n">
-        <v>1.724228376943E12</v>
+        <v>1.724242755805E12</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -17209,10 +17328,10 @@
         <v>1727</v>
       </c>
       <c r="R186" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="T186" t="n">
-        <v>1.724229983306E12</v>
+        <v>1.724242772237E12</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -17273,10 +17392,10 @@
         <v>1727</v>
       </c>
       <c r="R188" t="n">
-        <v>1.79</v>
+        <v>1.58</v>
       </c>
       <c r="T188" t="n">
-        <v>1.72422979298E12</v>
+        <v>1.724242813779E12</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -17337,10 +17456,10 @@
         <v>1729</v>
       </c>
       <c r="R190" t="n">
-        <v>3.789999999999999</v>
+        <v>2.9499999999999993</v>
       </c>
       <c r="T190" t="n">
-        <v>1.724229991803E12</v>
+        <v>1.72424282195E12</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -17465,10 +17584,10 @@
         <v>1729</v>
       </c>
       <c r="R194" t="n">
-        <v>2.3800000000000034</v>
+        <v>2.9600000000000035</v>
       </c>
       <c r="T194" t="n">
-        <v>1.724229998649E12</v>
+        <v>1.724242825359E12</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -17881,10 +18000,10 @@
         <v>1736</v>
       </c>
       <c r="R207" t="n">
-        <v>1.09</v>
+        <v>0.8800000000000001</v>
       </c>
       <c r="T207" t="n">
-        <v>1.724228486758E12</v>
+        <v>1.724242826566E12</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -18233,10 +18352,10 @@
         <v>1747</v>
       </c>
       <c r="R218" t="n">
-        <v>1.740000000000001</v>
+        <v>1.5300000000000011</v>
       </c>
       <c r="T218" t="n">
-        <v>1.724228489429E12</v>
+        <v>1.7242428284E12</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -18265,10 +18384,10 @@
         <v>1748</v>
       </c>
       <c r="R219" t="n">
-        <v>1.09</v>
+        <v>0.8800000000000001</v>
       </c>
       <c r="T219" t="n">
-        <v>1.724228494647E12</v>
+        <v>1.724242833693E12</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -18521,10 +18640,10 @@
         <v>1754</v>
       </c>
       <c r="R227" t="n">
-        <v>1.09</v>
+        <v>0.8800000000000001</v>
       </c>
       <c r="T227" t="n">
-        <v>1.724228541728E12</v>
+        <v>1.724242902845E12</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -18969,10 +19088,10 @@
         <v>1768</v>
       </c>
       <c r="R241" t="n">
-        <v>1.0899999999999999</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="T241" t="n">
-        <v>1.72422857168E12</v>
+        <v>1.724242906829E12</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -19033,10 +19152,10 @@
         <v>1770</v>
       </c>
       <c r="R243" t="n">
-        <v>1.09</v>
+        <v>0.8800000000000001</v>
       </c>
       <c r="T243" t="n">
-        <v>1.724228588178E12</v>
+        <v>1.72424292813E12</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -19353,10 +19472,10 @@
         <v>1779</v>
       </c>
       <c r="R253" t="n">
-        <v>1.0899999999999999</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="T253" t="n">
-        <v>1.724228601522E12</v>
+        <v>1.724242955134E12</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -19449,10 +19568,10 @@
         <v>1781</v>
       </c>
       <c r="R256" t="n">
-        <v>1.44</v>
+        <v>1.23</v>
       </c>
       <c r="T256" t="n">
-        <v>1.724228607252E12</v>
+        <v>1.724242960151E12</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -19513,10 +19632,10 @@
         <v>1783</v>
       </c>
       <c r="R258" t="n">
-        <v>1.3899999999999997</v>
+        <v>1.1799999999999997</v>
       </c>
       <c r="T258" t="n">
-        <v>1.724228614747E12</v>
+        <v>1.724242998836E12</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -19766,10 +19885,10 @@
         <v>1790</v>
       </c>
       <c r="R266" t="n">
-        <v>1.5900000000000105</v>
+        <v>1.3800000000000106</v>
       </c>
       <c r="T266" t="n">
-        <v>1.724228634635E12</v>
+        <v>1.724243017297E12</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -19830,10 +19949,10 @@
         <v>1792</v>
       </c>
       <c r="R268" t="n">
-        <v>1.09</v>
+        <v>0.8800000000000001</v>
       </c>
       <c r="T268" t="n">
-        <v>1.72422863883E12</v>
+        <v>1.724243027963E12</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -20022,10 +20141,10 @@
         <v>1796</v>
       </c>
       <c r="R274" t="n">
-        <v>1.09</v>
+        <v>0.8800000000000001</v>
       </c>
       <c r="T274" t="n">
-        <v>1.724228652421E12</v>
+        <v>1.724243031045E12</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -20246,10 +20365,10 @@
         <v>1803</v>
       </c>
       <c r="R281" t="n">
-        <v>1.7399999999999998</v>
+        <v>1.5299999999999998</v>
       </c>
       <c r="T281" t="n">
-        <v>1.724228660354E12</v>
+        <v>1.724243035243E12</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -20982,10 +21101,10 @@
         <v>1826</v>
       </c>
       <c r="R304" t="n">
-        <v>1.09</v>
+        <v>0.8800000000000001</v>
       </c>
       <c r="T304" t="n">
-        <v>1.72422868367E12</v>
+        <v>1.724243049323E12</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -21046,10 +21165,10 @@
         <v>1493</v>
       </c>
       <c r="R306" t="n">
-        <v>1.7399999999999998</v>
+        <v>1.5299999999999998</v>
       </c>
       <c r="T306" t="n">
-        <v>1.724228688722E12</v>
+        <v>1.724243074107E12</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -21174,10 +21293,10 @@
         <v>1831</v>
       </c>
       <c r="R310" t="n">
-        <v>1.7399999999999993</v>
+        <v>1.5299999999999994</v>
       </c>
       <c r="T310" t="n">
-        <v>1.724228692233E12</v>
+        <v>1.72424309626E12</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -21302,10 +21421,10 @@
         <v>1835</v>
       </c>
       <c r="R314" t="n">
-        <v>1.5899999999999999</v>
+        <v>1.38</v>
       </c>
       <c r="T314" t="n">
-        <v>1.724228704676E12</v>
+        <v>1.724243101834E12</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -21398,10 +21517,10 @@
         <v>1838</v>
       </c>
       <c r="R317" t="n">
-        <v>1.09</v>
+        <v>0.8800000000000001</v>
       </c>
       <c r="T317" t="n">
-        <v>1.72422870973E12</v>
+        <v>1.724243105301E12</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -21654,10 +21773,10 @@
         <v>1845</v>
       </c>
       <c r="R325" t="n">
-        <v>1.0899999999999999</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="T325" t="n">
-        <v>1.724228712309E12</v>
+        <v>1.724243113192E12</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -21846,10 +21965,10 @@
         <v>1851</v>
       </c>
       <c r="R331" t="n">
-        <v>1.44</v>
+        <v>1.23</v>
       </c>
       <c r="T331" t="n">
-        <v>1.724228718061E12</v>
+        <v>1.724243115688E12</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -22070,10 +22189,10 @@
         <v>1857</v>
       </c>
       <c r="R338" t="n">
-        <v>1.3899999999999997</v>
+        <v>1.1799999999999997</v>
       </c>
       <c r="T338" t="n">
-        <v>1.724228728864E12</v>
+        <v>1.724243245119E12</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -22166,10 +22285,10 @@
         <v>1859</v>
       </c>
       <c r="R341" t="n">
-        <v>1.2900000000000071</v>
+        <v>1.0800000000000072</v>
       </c>
       <c r="T341" t="n">
-        <v>1.724228730959E12</v>
+        <v>1.72424325347E12</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -22326,10 +22445,10 @@
         <v>1864</v>
       </c>
       <c r="R346" t="n">
-        <v>1.0399999999999996</v>
+        <v>0.8299999999999996</v>
       </c>
       <c r="T346" t="n">
-        <v>1.724228738569E12</v>
+        <v>1.724243256929E12</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -22390,10 +22509,10 @@
         <v>1866</v>
       </c>
       <c r="R348" t="n">
-        <v>1.8899999999999997</v>
+        <v>1.6799999999999997</v>
       </c>
       <c r="T348" t="n">
-        <v>1.724229815923E12</v>
+        <v>1.724243260572E12</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -22486,10 +22605,10 @@
         <v>1536</v>
       </c>
       <c r="R351" t="n">
-        <v>2.67</v>
+        <v>2.04</v>
       </c>
       <c r="T351" t="n">
-        <v>1.72423000078E12</v>
+        <v>1.72424326211E12</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -22550,10 +22669,10 @@
         <v>1869</v>
       </c>
       <c r="R353" t="n">
-        <v>2.4300000000000033</v>
+        <v>1.8000000000000034</v>
       </c>
       <c r="T353" t="n">
-        <v>1.724230003582E12</v>
+        <v>1.724243277968E12</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -22678,10 +22797,10 @@
         <v>1873</v>
       </c>
       <c r="R357" t="n">
-        <v>2.23</v>
+        <v>1.6</v>
       </c>
       <c r="T357" t="n">
-        <v>1.724230006492E12</v>
+        <v>1.724243281363E12</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -22742,10 +22861,10 @@
         <v>870</v>
       </c>
       <c r="R359" t="n">
-        <v>1.09</v>
+        <v>2.09</v>
       </c>
       <c r="T359" t="n">
-        <v>1.724228776519E12</v>
+        <v>1.724243284923E12</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -22806,10 +22925,10 @@
         <v>1876</v>
       </c>
       <c r="R361" t="n">
-        <v>1.3899999999999997</v>
+        <v>1.1799999999999997</v>
       </c>
       <c r="T361" t="n">
-        <v>1.724228815433E12</v>
+        <v>1.724243298172E12</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -23126,10 +23245,10 @@
         <v>1886</v>
       </c>
       <c r="R371" t="n">
-        <v>1.0899999999999999</v>
+        <v>2.09</v>
       </c>
       <c r="T371" t="n">
-        <v>1.724228818276E12</v>
+        <v>1.724243298182E12</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -23318,10 +23437,10 @@
         <v>1890</v>
       </c>
       <c r="R377" t="n">
-        <v>1.3900000000000055</v>
+        <v>1.1800000000000055</v>
       </c>
       <c r="T377" t="n">
-        <v>1.724228824645E12</v>
+        <v>1.724243309664E12</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -23446,10 +23565,10 @@
         <v>1566</v>
       </c>
       <c r="R381" t="n">
-        <v>1.1900000000000093</v>
+        <v>0.9800000000000093</v>
       </c>
       <c r="T381" t="n">
-        <v>1.724228842555E12</v>
+        <v>1.724243312726E12</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -23510,10 +23629,10 @@
         <v>1894</v>
       </c>
       <c r="R383" t="n">
-        <v>1.79</v>
+        <v>1.58</v>
       </c>
       <c r="T383" t="n">
-        <v>1.724229901935E12</v>
+        <v>1.724243330108E12</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -23542,10 +23661,10 @@
         <v>1895</v>
       </c>
       <c r="R384" t="n">
-        <v>1.9799999999999995</v>
+        <v>1.7699999999999996</v>
       </c>
       <c r="T384" t="n">
-        <v>1.724230008814E12</v>
+        <v>1.724243332962E12</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -23986,10 +24105,10 @@
         <v>4</v>
       </c>
       <c r="R399" t="n">
-        <v>1.0899999999999999</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="T399" t="n">
-        <v>1.724228909368E12</v>
+        <v>1.724243336938E12</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -24006,10 +24125,10 @@
         <v>4</v>
       </c>
       <c r="R400" t="n">
-        <v>1.3899999999999997</v>
+        <v>1.1799999999999997</v>
       </c>
       <c r="T400" t="n">
-        <v>1.724228911657E12</v>
+        <v>1.724243338671E12</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -24026,10 +24145,10 @@
         <v>4</v>
       </c>
       <c r="R401" t="n">
-        <v>1.7399999999999998</v>
+        <v>1.5299999999999998</v>
       </c>
       <c r="T401" t="n">
-        <v>1.724228913629E12</v>
+        <v>1.724243340772E12</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -24186,10 +24305,10 @@
         <v>4</v>
       </c>
       <c r="R409" t="n">
-        <v>1.3899999999999997</v>
+        <v>1.1799999999999997</v>
       </c>
       <c r="T409" t="n">
-        <v>1.724228917273E12</v>
+        <v>1.72424334246E12</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -24326,10 +24445,10 @@
         <v>4</v>
       </c>
       <c r="R416" t="n">
-        <v>1.7399999999999998</v>
+        <v>1.5299999999999998</v>
       </c>
       <c r="T416" t="n">
-        <v>1.724228919533E12</v>
+        <v>1.724243344887E12</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -24446,10 +24565,10 @@
         <v>4</v>
       </c>
       <c r="R422" t="n">
-        <v>2.53</v>
+        <v>1.9</v>
       </c>
       <c r="T422" t="n">
-        <v>1.724230010149E12</v>
+        <v>1.724243345949E12</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -24746,10 +24865,10 @@
         <v>3</v>
       </c>
       <c r="R437" t="n">
-        <v>1.0899999999999999</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="T437" t="n">
-        <v>1.724228935175E12</v>
+        <v>1.724243347676E12</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -24806,10 +24925,10 @@
         <v>4</v>
       </c>
       <c r="R440" t="n">
-        <v>1.7399999999999998</v>
+        <v>1.5299999999999998</v>
       </c>
       <c r="T440" t="n">
-        <v>1.724228936771E12</v>
+        <v>1.724243348938E12</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -24906,10 +25025,10 @@
         <v>4</v>
       </c>
       <c r="R445" t="n">
-        <v>1.7399999999999993</v>
+        <v>1.5299999999999994</v>
       </c>
       <c r="T445" t="n">
-        <v>1.724228939091E12</v>
+        <v>1.724243350435E12</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -25086,10 +25205,10 @@
         <v>4</v>
       </c>
       <c r="R454" t="n">
-        <v>1.7899999999999991</v>
+        <v>1.5799999999999992</v>
       </c>
       <c r="T454" t="n">
-        <v>1.724228943952E12</v>
+        <v>1.724243352152E12</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -25266,10 +25385,10 @@
         <v>4</v>
       </c>
       <c r="R463" t="n">
-        <v>1.7399999999999998</v>
+        <v>1.5299999999999998</v>
       </c>
       <c r="T463" t="n">
-        <v>1.724228952288E12</v>
+        <v>1.724243354461E12</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -25366,10 +25485,10 @@
         <v>4</v>
       </c>
       <c r="R468" t="n">
-        <v>1.44</v>
+        <v>1.23</v>
       </c>
       <c r="T468" t="n">
-        <v>1.724228957287E12</v>
+        <v>1.724243356251E12</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -25386,10 +25505,10 @@
         <v>3</v>
       </c>
       <c r="R469" t="n">
-        <v>1.44</v>
+        <v>1.23</v>
       </c>
       <c r="T469" t="n">
-        <v>1.724228960521E12</v>
+        <v>1.724243360882E12</v>
       </c>
     </row>
     <row r="470" spans="1:4">
@@ -25406,10 +25525,10 @@
         <v>3</v>
       </c>
       <c r="R470" t="n">
-        <v>2.58</v>
+        <v>1.9500000000000002</v>
       </c>
       <c r="T470" t="n">
-        <v>1.724230012878E12</v>
+        <v>1.724243362715E12</v>
       </c>
     </row>
     <row r="471" spans="1:4">
@@ -25546,10 +25665,10 @@
         <v>3</v>
       </c>
       <c r="R477" t="n">
-        <v>1.5899999999999999</v>
+        <v>1.38</v>
       </c>
       <c r="T477" t="n">
-        <v>1.724228966504E12</v>
+        <v>1.72424336735E12</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -25846,10 +25965,10 @@
         <v>3</v>
       </c>
       <c r="R492" t="n">
-        <v>1.6899999999999995</v>
+        <v>1.4799999999999995</v>
       </c>
       <c r="T492" t="n">
-        <v>1.724228969641E12</v>
+        <v>1.724243369701E12</v>
       </c>
     </row>
     <row r="493" spans="1:4">

--- a/src/main/resources/初级工题库.xlsx
+++ b/src/main/resources/初级工题库.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4237" uniqueCount="2018">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4252" uniqueCount="2028">
   <si>
     <t>题型</t>
   </si>
@@ -6115,6 +6115,36 @@
   </si>
   <si>
     <t>您一共做了: 79题	您的得分： 97.46835443037975	做题时长约为12.833333333333334Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 6题	您的得分： 100.0	做题时长约为1.2166666666666666Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 53题	您的得分： 86.79245283018868	做题时长约为6.5Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 7题	您的得分： 100.0	做题时长约为0.65Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 3题	您的得分： 100.0	做题时长约为0.08333333333333333Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 8题	您的得分： 100.0	做题时长约为0.35Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 155题	您的得分： 91.61290322580645	做题时长约为24.566666666666666Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 13题	您的得分： 76.92307692307693	做题时长约为1.05Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 3题	您的得分： 66.66666666666666	做题时长约为0.2833333333333333Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 13题	您的得分： 100.0	做题时长约为0.6Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 3题	您的得分： 100.0	做题时长约为0.55Min</t>
   </si>
 </sst>
 </file>
@@ -6174,7 +6204,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4443">
+  <cellXfs count="4713">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -10522,6 +10552,276 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -11013,10 +11313,10 @@
         <v>1574</v>
       </c>
       <c r="R3" t="n">
-        <v>1.5299999999999998</v>
+        <v>0.1299999999999999</v>
       </c>
       <c r="T3" t="n">
-        <v>1.724242602405E12</v>
+        <v>1.724293481904E12</v>
       </c>
       <c r="AA3" t="s">
         <v>1904</v>
@@ -11048,10 +11348,10 @@
         <v>1575</v>
       </c>
       <c r="R4" t="n">
-        <v>0.8999999999999995</v>
+        <v>0.1999999999999995</v>
       </c>
       <c r="T4" t="n">
-        <v>1.724205674324E12</v>
+        <v>1.724293876985E12</v>
       </c>
       <c r="AA4" t="s">
         <v>1905</v>
@@ -11086,10 +11386,10 @@
         <v>1576</v>
       </c>
       <c r="R5" t="n">
-        <v>0.8899999999999997</v>
+        <v>0.18999999999999972</v>
       </c>
       <c r="T5" t="n">
-        <v>1.724227868271E12</v>
+        <v>1.724293895458E12</v>
       </c>
       <c r="AA5" t="s">
         <v>1906</v>
@@ -11191,10 +11491,10 @@
         <v>1296</v>
       </c>
       <c r="R8" t="n">
-        <v>0.8899999999999997</v>
+        <v>0.18999999999999972</v>
       </c>
       <c r="T8" t="n">
-        <v>1.724227871202E12</v>
+        <v>1.724293897432E12</v>
       </c>
       <c r="AA8" t="s">
         <v>1909</v>
@@ -11611,10 +11911,10 @@
         <v>1587</v>
       </c>
       <c r="R20" t="n">
-        <v>0.8899999999999997</v>
+        <v>0.18999999999999972</v>
       </c>
       <c r="T20" t="n">
-        <v>1.72422787458E12</v>
+        <v>1.724293899851E12</v>
       </c>
       <c r="AA20" t="s">
         <v>1921</v>
@@ -11716,10 +12016,10 @@
         <v>1590</v>
       </c>
       <c r="R23" t="n">
-        <v>0.8899999999999997</v>
+        <v>0.18999999999999972</v>
       </c>
       <c r="T23" t="n">
-        <v>1.724227878973E12</v>
+        <v>1.724293910025E12</v>
       </c>
       <c r="AA23" t="s">
         <v>1924</v>
@@ -11821,10 +12121,10 @@
         <v>1592</v>
       </c>
       <c r="R26" t="n">
-        <v>1.67</v>
+        <v>0.27</v>
       </c>
       <c r="T26" t="n">
-        <v>1.724242608018E12</v>
+        <v>1.724293914825E12</v>
       </c>
       <c r="AA26" t="s">
         <v>1927</v>
@@ -11856,10 +12156,10 @@
         <v>1592</v>
       </c>
       <c r="R27" t="n">
-        <v>0.9499999999999988</v>
+        <v>0.2499999999999989</v>
       </c>
       <c r="T27" t="n">
-        <v>1.724206564663E12</v>
+        <v>1.724293920786E12</v>
       </c>
       <c r="AA27" t="s">
         <v>1928</v>
@@ -11926,10 +12226,10 @@
         <v>1594</v>
       </c>
       <c r="R29" t="n">
-        <v>0.8799999999999999</v>
+        <v>0.17999999999999994</v>
       </c>
       <c r="T29" t="n">
-        <v>1.724242613741E12</v>
+        <v>1.724293923461E12</v>
       </c>
       <c r="AA29" t="s">
         <v>1930</v>
@@ -12136,10 +12436,10 @@
         <v>1597</v>
       </c>
       <c r="R35" t="n">
-        <v>0.8800000000000001</v>
+        <v>0.18000000000000016</v>
       </c>
       <c r="T35" t="n">
-        <v>1.724242618508E12</v>
+        <v>1.724293929187E12</v>
       </c>
       <c r="AA35" t="s">
         <v>1936</v>
@@ -12206,10 +12506,10 @@
         <v>1599</v>
       </c>
       <c r="R37" t="n">
-        <v>0.9500000000000011</v>
+        <v>0.2500000000000011</v>
       </c>
       <c r="T37" t="n">
-        <v>1.724206820291E12</v>
+        <v>1.724293930962E12</v>
       </c>
       <c r="AA37" t="s">
         <v>1937</v>
@@ -12311,10 +12611,10 @@
         <v>1563</v>
       </c>
       <c r="R40" t="n">
-        <v>1.5799999999999992</v>
+        <v>0.17999999999999927</v>
       </c>
       <c r="T40" t="n">
-        <v>1.724242625565E12</v>
+        <v>1.724293934612E12</v>
       </c>
       <c r="AA40" t="s">
         <v>1938</v>
@@ -12556,10 +12856,10 @@
         <v>1605</v>
       </c>
       <c r="R47" t="n">
-        <v>1.3299999999999996</v>
+        <v>0.6299999999999997</v>
       </c>
       <c r="T47" t="n">
-        <v>1.724242629899E12</v>
+        <v>1.72429270759E12</v>
       </c>
       <c r="AA47" t="s">
         <v>1946</v>
@@ -12766,10 +13066,10 @@
         <v>1611</v>
       </c>
       <c r="R53" t="n">
-        <v>1.5300000000000011</v>
+        <v>0.13000000000000123</v>
       </c>
       <c r="T53" t="n">
-        <v>1.724242632645E12</v>
+        <v>1.724293938007E12</v>
       </c>
       <c r="AA53" t="s">
         <v>1936</v>
@@ -12836,10 +13136,10 @@
         <v>1613</v>
       </c>
       <c r="R55" t="n">
-        <v>1.6</v>
+        <v>0.20000000000000018</v>
       </c>
       <c r="T55" t="n">
-        <v>1.724242634404E12</v>
+        <v>1.724293939909E12</v>
       </c>
       <c r="AA55" t="s">
         <v>1953</v>
@@ -12871,10 +13171,10 @@
         <v>1614</v>
       </c>
       <c r="R56" t="n">
-        <v>0.8799999999999999</v>
+        <v>0.17999999999999994</v>
       </c>
       <c r="T56" t="n">
-        <v>1.724242636928E12</v>
+        <v>1.724293941742E12</v>
       </c>
       <c r="AA56" t="s">
         <v>1954</v>
@@ -13221,10 +13521,10 @@
         <v>1623</v>
       </c>
       <c r="R66" t="n">
-        <v>0.8800000000000001</v>
+        <v>0.18000000000000016</v>
       </c>
       <c r="T66" t="n">
-        <v>1.724242638986E12</v>
+        <v>1.72429394319E12</v>
       </c>
       <c r="AA66" t="s">
         <v>1963</v>
@@ -13431,10 +13731,10 @@
         <v>1628</v>
       </c>
       <c r="R72" t="n">
-        <v>0.8899999999999997</v>
+        <v>0.18999999999999972</v>
       </c>
       <c r="T72" t="n">
-        <v>1.724227950059E12</v>
+        <v>1.724293944656E12</v>
       </c>
       <c r="AA72" t="s">
         <v>1969</v>
@@ -13501,10 +13801,10 @@
         <v>1630</v>
       </c>
       <c r="R74" t="n">
-        <v>0.8799999999999999</v>
+        <v>0.17999999999999994</v>
       </c>
       <c r="T74" t="n">
-        <v>1.724242641385E12</v>
+        <v>1.724293946319E12</v>
       </c>
       <c r="AA74" t="s">
         <v>1971</v>
@@ -13571,10 +13871,10 @@
         <v>1632</v>
       </c>
       <c r="R76" t="n">
-        <v>1.429999999999998</v>
+        <v>0.729999999999998</v>
       </c>
       <c r="T76" t="n">
-        <v>1.724242665121E12</v>
+        <v>1.724292723654E12</v>
       </c>
       <c r="AA76" t="s">
         <v>1969</v>
@@ -13711,10 +14011,10 @@
         <v>1636</v>
       </c>
       <c r="R80" t="n">
-        <v>0.8399999999999994</v>
+        <v>0.13999999999999946</v>
       </c>
       <c r="T80" t="n">
-        <v>1.724227971245E12</v>
+        <v>1.724293951217E12</v>
       </c>
       <c r="AA80" t="s">
         <v>1975</v>
@@ -13781,10 +14081,10 @@
         <v>566</v>
       </c>
       <c r="R82" t="n">
-        <v>1.38</v>
+        <v>0.28</v>
       </c>
       <c r="T82" t="n">
-        <v>1.724242668633E12</v>
+        <v>1.724293962785E12</v>
       </c>
       <c r="AA82" t="s">
         <v>1976</v>
@@ -13816,10 +14116,10 @@
         <v>1638</v>
       </c>
       <c r="R83" t="n">
-        <v>0.8399999999999994</v>
+        <v>0.13999999999999946</v>
       </c>
       <c r="T83" t="n">
-        <v>1.72422798316E12</v>
+        <v>1.724293966237E12</v>
       </c>
       <c r="AA83" t="s">
         <v>1977</v>
@@ -13921,10 +14221,10 @@
         <v>1641</v>
       </c>
       <c r="R86" t="n">
-        <v>1.67</v>
+        <v>0.27</v>
       </c>
       <c r="T86" t="n">
-        <v>1.724242674673E12</v>
+        <v>1.724293969986E12</v>
       </c>
       <c r="AA86" t="s">
         <v>1980</v>
@@ -14131,10 +14431,10 @@
         <v>1647</v>
       </c>
       <c r="R92" t="n">
-        <v>0.8899999999999997</v>
+        <v>0.18999999999999972</v>
       </c>
       <c r="T92" t="n">
-        <v>1.72422805812E12</v>
+        <v>1.724293972255E12</v>
       </c>
       <c r="AA92" t="s">
         <v>1983</v>
@@ -14341,10 +14641,10 @@
         <v>1653</v>
       </c>
       <c r="R98" t="n">
-        <v>0.8399999999999994</v>
+        <v>0.13999999999999946</v>
       </c>
       <c r="T98" t="n">
-        <v>1.72422807481E12</v>
+        <v>1.724294010591E12</v>
       </c>
       <c r="AA98" t="s">
         <v>1951</v>
@@ -14376,10 +14676,10 @@
         <v>1654</v>
       </c>
       <c r="R99" t="n">
-        <v>1.5299999999999998</v>
+        <v>0.1299999999999999</v>
       </c>
       <c r="T99" t="n">
-        <v>1.724242678161E12</v>
+        <v>1.724294012879E12</v>
       </c>
       <c r="AA99" t="s">
         <v>1976</v>
@@ -14411,10 +14711,10 @@
         <v>1655</v>
       </c>
       <c r="R100" t="n">
-        <v>0.9999999999999991</v>
+        <v>0.29999999999999916</v>
       </c>
       <c r="T100" t="n">
-        <v>1.724208549007E12</v>
+        <v>1.724294017978E12</v>
       </c>
       <c r="AA100" t="s">
         <v>1985</v>
@@ -14516,10 +14816,10 @@
         <v>607</v>
       </c>
       <c r="R103" t="n">
-        <v>0.8399999999999994</v>
+        <v>0.13999999999999946</v>
       </c>
       <c r="T103" t="n">
-        <v>1.724228084501E12</v>
+        <v>1.724294021627E12</v>
       </c>
       <c r="AA103" t="s">
         <v>1987</v>
@@ -14551,10 +14851,10 @@
         <v>1657</v>
       </c>
       <c r="R104" t="n">
-        <v>0.8799999999999999</v>
+        <v>0.17999999999999994</v>
       </c>
       <c r="T104" t="n">
-        <v>1.724242699329E12</v>
+        <v>1.724294026626E12</v>
       </c>
       <c r="AA104" t="s">
         <v>1988</v>
@@ -14586,10 +14886,10 @@
         <v>1658</v>
       </c>
       <c r="R105" t="n">
-        <v>0.8899999999999997</v>
+        <v>0.7899999999999996</v>
       </c>
       <c r="T105" t="n">
-        <v>1.724228127247E12</v>
+        <v>1.724295100436E12</v>
       </c>
       <c r="AA105" t="s">
         <v>1989</v>
@@ -14866,10 +15166,10 @@
         <v>1664</v>
       </c>
       <c r="R113" t="n">
-        <v>0.8799999999999999</v>
+        <v>0.17999999999999994</v>
       </c>
       <c r="T113" t="n">
-        <v>1.724242704733E12</v>
+        <v>1.724294043337E12</v>
       </c>
       <c r="AA113" t="s">
         <v>1992</v>
@@ -14901,10 +15201,10 @@
         <v>1665</v>
       </c>
       <c r="R114" t="n">
-        <v>0.8899999999999997</v>
+        <v>0.18999999999999972</v>
       </c>
       <c r="T114" t="n">
-        <v>1.724228159473E12</v>
+        <v>1.724294047494E12</v>
       </c>
       <c r="AA114" t="s">
         <v>1975</v>
@@ -15146,10 +15446,10 @@
         <v>1671</v>
       </c>
       <c r="R121" t="n">
-        <v>0.8899999999999997</v>
+        <v>0.18999999999999972</v>
       </c>
       <c r="T121" t="n">
-        <v>1.724228165263E12</v>
+        <v>1.724294049247E12</v>
       </c>
       <c r="AA121" t="s">
         <v>1986</v>
@@ -15181,10 +15481,10 @@
         <v>1672</v>
       </c>
       <c r="R122" t="n">
-        <v>0.9500000000000011</v>
+        <v>0.5500000000000012</v>
       </c>
       <c r="T122" t="n">
-        <v>1.724209373516E12</v>
+        <v>1.724295064005E12</v>
       </c>
       <c r="AA122" t="s">
         <v>1976</v>
@@ -15356,10 +15656,10 @@
         <v>1676</v>
       </c>
       <c r="R127" t="n">
-        <v>0.8500000000000032</v>
+        <v>0.15000000000000324</v>
       </c>
       <c r="T127" t="n">
-        <v>1.724209507082E12</v>
+        <v>1.724294061302E12</v>
       </c>
       <c r="AA127" t="s">
         <v>1998</v>
@@ -15461,10 +15761,10 @@
         <v>1679</v>
       </c>
       <c r="R130" t="n">
-        <v>1.1799999999999997</v>
+        <v>0.47999999999999976</v>
       </c>
       <c r="T130" t="n">
-        <v>1.72424271709E12</v>
+        <v>1.724292745876E12</v>
       </c>
       <c r="AA130" t="s">
         <v>2001</v>
@@ -15496,10 +15796,10 @@
         <v>1680</v>
       </c>
       <c r="R131" t="n">
-        <v>0.8399999999999994</v>
+        <v>0.13999999999999946</v>
       </c>
       <c r="T131" t="n">
-        <v>1.724228252486E12</v>
+        <v>1.72429410806E12</v>
       </c>
       <c r="AA131" t="s">
         <v>2002</v>
@@ -15671,10 +15971,10 @@
         <v>1684</v>
       </c>
       <c r="R136" t="n">
-        <v>0.8799999999999999</v>
+        <v>0.17999999999999994</v>
       </c>
       <c r="T136" t="n">
-        <v>1.724242719187E12</v>
+        <v>1.724294111378E12</v>
       </c>
       <c r="AA136" t="s">
         <v>1976</v>
@@ -15741,10 +16041,10 @@
         <v>1685</v>
       </c>
       <c r="R138" t="n">
-        <v>2.06</v>
+        <v>0.6600000000000001</v>
       </c>
       <c r="T138" t="n">
-        <v>1.724242731884E12</v>
+        <v>1.724292748011E12</v>
       </c>
       <c r="AA138" t="s">
         <v>1951</v>
@@ -15811,10 +16111,10 @@
         <v>1687</v>
       </c>
       <c r="R140" t="n">
-        <v>1.23</v>
+        <v>0.53</v>
       </c>
       <c r="T140" t="n">
-        <v>1.724242735147E12</v>
+        <v>1.724292749495E12</v>
       </c>
       <c r="AA140" t="s">
         <v>1917</v>
@@ -16341,6 +16641,9 @@
       <c r="T155" t="n">
         <v>1.724209855277E12</v>
       </c>
+      <c r="AA155" t="s">
+        <v>2018</v>
+      </c>
     </row>
     <row r="156" spans="1:8">
       <c r="A156" s="1">
@@ -16373,6 +16676,9 @@
       <c r="T156" t="n">
         <v>1.724209857578E12</v>
       </c>
+      <c r="AA156" t="s">
+        <v>1972</v>
+      </c>
     </row>
     <row r="157" spans="1:8">
       <c r="A157" s="1">
@@ -16405,6 +16711,9 @@
       <c r="T157" t="n">
         <v>1.724209859299E12</v>
       </c>
+      <c r="AA157" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="158" spans="1:8">
       <c r="A158" s="1">
@@ -16437,6 +16746,9 @@
       <c r="T158" t="n">
         <v>1.724209867752E12</v>
       </c>
+      <c r="AA158" t="s">
+        <v>2020</v>
+      </c>
     </row>
     <row r="159" spans="1:8">
       <c r="A159" s="1">
@@ -16464,10 +16776,13 @@
         <v>1703</v>
       </c>
       <c r="R159" t="n">
-        <v>1.5299999999999998</v>
+        <v>0.1299999999999999</v>
       </c>
       <c r="T159" t="n">
-        <v>1.724242738948E12</v>
+        <v>1.724294113264E12</v>
+      </c>
+      <c r="AA159" t="s">
+        <v>2021</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -16501,6 +16816,9 @@
       <c r="T160" t="n">
         <v>1.724209883231E12</v>
       </c>
+      <c r="AA160" t="s">
+        <v>2022</v>
+      </c>
     </row>
     <row r="161" spans="1:8">
       <c r="A161" s="1">
@@ -16533,6 +16851,9 @@
       <c r="T161" t="n">
         <v>1.724209890109E12</v>
       </c>
+      <c r="AA161" t="s">
+        <v>1916</v>
+      </c>
     </row>
     <row r="162" spans="1:8">
       <c r="A162" s="1">
@@ -16560,10 +16881,13 @@
         <v>1706</v>
       </c>
       <c r="R162" t="n">
-        <v>0.9999999999999991</v>
+        <v>0.29999999999999916</v>
       </c>
       <c r="T162" t="n">
-        <v>1.724209904618E12</v>
+        <v>1.724294121691E12</v>
+      </c>
+      <c r="AA162" t="s">
+        <v>2023</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -16597,6 +16921,9 @@
       <c r="T163" t="n">
         <v>1.724209909822E12</v>
       </c>
+      <c r="AA163" t="s">
+        <v>2024</v>
+      </c>
     </row>
     <row r="164" spans="1:8">
       <c r="A164" s="1">
@@ -16629,6 +16956,9 @@
       <c r="T164" t="n">
         <v>1.724209916338E12</v>
       </c>
+      <c r="AA164" t="s">
+        <v>2025</v>
+      </c>
     </row>
     <row r="165" spans="1:8">
       <c r="A165" s="1">
@@ -16656,10 +16986,13 @@
         <v>1709</v>
       </c>
       <c r="R165" t="n">
-        <v>1.38</v>
+        <v>0.28</v>
       </c>
       <c r="T165" t="n">
-        <v>1.724242746692E12</v>
+        <v>1.724294128069E12</v>
+      </c>
+      <c r="AA165" t="s">
+        <v>1917</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -16693,6 +17026,9 @@
       <c r="T166" t="n">
         <v>1.724210013023E12</v>
       </c>
+      <c r="AA166" t="s">
+        <v>1951</v>
+      </c>
     </row>
     <row r="167" spans="1:8">
       <c r="A167" s="1">
@@ -16720,10 +17056,13 @@
         <v>1711</v>
       </c>
       <c r="R167" t="n">
-        <v>0.8299999999999996</v>
+        <v>0.12999999999999967</v>
       </c>
       <c r="T167" t="n">
-        <v>1.724242751601E12</v>
+        <v>1.724294132497E12</v>
+      </c>
+      <c r="AA167" t="s">
+        <v>2026</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -16752,10 +17091,13 @@
         <v>1712</v>
       </c>
       <c r="R168" t="n">
-        <v>0.8800000000000001</v>
+        <v>0.18000000000000016</v>
       </c>
       <c r="T168" t="n">
-        <v>1.724242755805E12</v>
+        <v>1.724294134678E12</v>
+      </c>
+      <c r="AA168" t="s">
+        <v>2027</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -16789,6 +17131,9 @@
       <c r="T169" t="n">
         <v>1.724210030447E12</v>
       </c>
+      <c r="AA169" t="s">
+        <v>2013</v>
+      </c>
     </row>
     <row r="170" spans="1:8">
       <c r="A170" s="1">
@@ -16912,10 +17257,10 @@
         <v>1716</v>
       </c>
       <c r="R173" t="n">
-        <v>0.8899999999999997</v>
+        <v>0.18999999999999972</v>
       </c>
       <c r="T173" t="n">
-        <v>1.724228386968E12</v>
+        <v>1.724294142345E12</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -17040,10 +17385,10 @@
         <v>1720</v>
       </c>
       <c r="R177" t="n">
-        <v>0.9999999999999991</v>
+        <v>0.29999999999999916</v>
       </c>
       <c r="T177" t="n">
-        <v>1.724210200262E12</v>
+        <v>1.72429414486E12</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -17200,10 +17545,10 @@
         <v>1699</v>
       </c>
       <c r="R182" t="n">
-        <v>0.9999999999999991</v>
+        <v>0.5999999999999992</v>
       </c>
       <c r="T182" t="n">
-        <v>1.724210269075E12</v>
+        <v>1.724295065913E12</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -17296,10 +17641,10 @@
         <v>1727</v>
       </c>
       <c r="R185" t="n">
-        <v>0.9999999999999991</v>
+        <v>0.5999999999999992</v>
       </c>
       <c r="T185" t="n">
-        <v>1.724210372255E12</v>
+        <v>1.724295068194E12</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -17328,10 +17673,10 @@
         <v>1727</v>
       </c>
       <c r="R186" t="n">
-        <v>1.67</v>
+        <v>0.27</v>
       </c>
       <c r="T186" t="n">
-        <v>1.724242772237E12</v>
+        <v>1.72429416325E12</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -17360,10 +17705,10 @@
         <v>1727</v>
       </c>
       <c r="R187" t="n">
-        <v>0.8899999999999997</v>
+        <v>0.18999999999999972</v>
       </c>
       <c r="T187" t="n">
-        <v>1.724228405569E12</v>
+        <v>1.724294173174E12</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -17392,10 +17737,10 @@
         <v>1727</v>
       </c>
       <c r="R188" t="n">
-        <v>1.58</v>
+        <v>0.18000000000000016</v>
       </c>
       <c r="T188" t="n">
-        <v>1.724242813779E12</v>
+        <v>1.724294176457E12</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -17456,10 +17801,10 @@
         <v>1729</v>
       </c>
       <c r="R190" t="n">
-        <v>2.9499999999999993</v>
+        <v>0.14999999999999925</v>
       </c>
       <c r="T190" t="n">
-        <v>1.72424282195E12</v>
+        <v>1.724294178685E12</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -17488,10 +17833,10 @@
         <v>1729</v>
       </c>
       <c r="R191" t="n">
-        <v>0.8000000000000025</v>
+        <v>0.10000000000000253</v>
       </c>
       <c r="T191" t="n">
-        <v>1.72421086927E12</v>
+        <v>1.724294183865E12</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -17584,10 +17929,10 @@
         <v>1729</v>
       </c>
       <c r="R194" t="n">
-        <v>2.9600000000000035</v>
+        <v>0.16000000000000347</v>
       </c>
       <c r="T194" t="n">
-        <v>1.724242825359E12</v>
+        <v>1.724294188559E12</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -17808,10 +18153,10 @@
         <v>1729</v>
       </c>
       <c r="R201" t="n">
-        <v>0.9499999999999997</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="T201" t="n">
-        <v>1.724210997524E12</v>
+        <v>1.724295126118E12</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -18000,10 +18345,10 @@
         <v>1736</v>
       </c>
       <c r="R207" t="n">
-        <v>0.8800000000000001</v>
+        <v>0.18000000000000016</v>
       </c>
       <c r="T207" t="n">
-        <v>1.724242826566E12</v>
+        <v>1.724294235194E12</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -18352,10 +18697,10 @@
         <v>1747</v>
       </c>
       <c r="R218" t="n">
-        <v>1.5300000000000011</v>
+        <v>0.13000000000000123</v>
       </c>
       <c r="T218" t="n">
-        <v>1.7242428284E12</v>
+        <v>1.724294248784E12</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -18384,10 +18729,10 @@
         <v>1748</v>
       </c>
       <c r="R219" t="n">
-        <v>0.8800000000000001</v>
+        <v>0.18000000000000016</v>
       </c>
       <c r="T219" t="n">
-        <v>1.724242833693E12</v>
+        <v>1.724294254124E12</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -18640,10 +18985,10 @@
         <v>1754</v>
       </c>
       <c r="R227" t="n">
-        <v>0.8800000000000001</v>
+        <v>0.18000000000000016</v>
       </c>
       <c r="T227" t="n">
-        <v>1.724242902845E12</v>
+        <v>1.724294261027E12</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -18672,10 +19017,10 @@
         <v>1755</v>
       </c>
       <c r="R228" t="n">
-        <v>0.9000000000000021</v>
+        <v>0.20000000000000218</v>
       </c>
       <c r="T228" t="n">
-        <v>1.724211427844E12</v>
+        <v>1.724294263139E12</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -19024,10 +19369,10 @@
         <v>1766</v>
       </c>
       <c r="R239" t="n">
-        <v>0.8899999999999997</v>
+        <v>0.18999999999999972</v>
       </c>
       <c r="T239" t="n">
-        <v>1.724228548028E12</v>
+        <v>1.724294280598E12</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -19056,10 +19401,10 @@
         <v>1767</v>
       </c>
       <c r="R240" t="n">
-        <v>0.8399999999999994</v>
+        <v>0.13999999999999946</v>
       </c>
       <c r="T240" t="n">
-        <v>1.724228565973E12</v>
+        <v>1.724294286693E12</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -19088,10 +19433,10 @@
         <v>1768</v>
       </c>
       <c r="R241" t="n">
-        <v>0.8799999999999999</v>
+        <v>0.17999999999999994</v>
       </c>
       <c r="T241" t="n">
-        <v>1.724242906829E12</v>
+        <v>1.724294300317E12</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -19152,10 +19497,10 @@
         <v>1770</v>
       </c>
       <c r="R243" t="n">
-        <v>0.8800000000000001</v>
+        <v>0.18000000000000016</v>
       </c>
       <c r="T243" t="n">
-        <v>1.72424292813E12</v>
+        <v>1.724294314711E12</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -19216,10 +19561,10 @@
         <v>1772</v>
       </c>
       <c r="R245" t="n">
-        <v>0.8399999999999994</v>
+        <v>0.13999999999999946</v>
       </c>
       <c r="T245" t="n">
-        <v>1.724228591141E12</v>
+        <v>1.7242943179E12</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -19248,10 +19593,10 @@
         <v>1773</v>
       </c>
       <c r="R246" t="n">
-        <v>0.8399999999999994</v>
+        <v>0.13999999999999946</v>
       </c>
       <c r="T246" t="n">
-        <v>1.724228593518E12</v>
+        <v>1.724294323178E12</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -19376,10 +19721,10 @@
         <v>1777</v>
       </c>
       <c r="R250" t="n">
-        <v>0.8399999999999994</v>
+        <v>0.13999999999999946</v>
       </c>
       <c r="T250" t="n">
-        <v>1.724228597588E12</v>
+        <v>1.72429432824E12</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -19472,10 +19817,10 @@
         <v>1779</v>
       </c>
       <c r="R253" t="n">
-        <v>0.8799999999999999</v>
+        <v>0.17999999999999994</v>
       </c>
       <c r="T253" t="n">
-        <v>1.724242955134E12</v>
+        <v>1.724294331487E12</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -19568,10 +19913,10 @@
         <v>1781</v>
       </c>
       <c r="R256" t="n">
-        <v>1.23</v>
+        <v>0.53</v>
       </c>
       <c r="T256" t="n">
-        <v>1.724242960151E12</v>
+        <v>1.724292824642E12</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -19600,10 +19945,10 @@
         <v>1782</v>
       </c>
       <c r="R257" t="n">
-        <v>0.8900000000000046</v>
+        <v>0.1900000000000046</v>
       </c>
       <c r="T257" t="n">
-        <v>1.724228610387E12</v>
+        <v>1.724294334029E12</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -19632,10 +19977,10 @@
         <v>1783</v>
       </c>
       <c r="R258" t="n">
-        <v>1.1799999999999997</v>
+        <v>0.47999999999999976</v>
       </c>
       <c r="T258" t="n">
-        <v>1.724242998836E12</v>
+        <v>1.724292828039E12</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -19789,10 +20134,10 @@
         <v>1787</v>
       </c>
       <c r="R263" t="n">
-        <v>0.9000000000000012</v>
+        <v>0.2000000000000013</v>
       </c>
       <c r="T263" t="n">
-        <v>1.72422155397E12</v>
+        <v>1.724294359582E12</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -19821,10 +20166,10 @@
         <v>1788</v>
       </c>
       <c r="R264" t="n">
-        <v>0.8399999999999994</v>
+        <v>0.13999999999999946</v>
       </c>
       <c r="T264" t="n">
-        <v>1.724228623739E12</v>
+        <v>1.724294362007E12</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -19885,10 +20230,10 @@
         <v>1790</v>
       </c>
       <c r="R266" t="n">
-        <v>1.3800000000000106</v>
+        <v>0.6800000000000106</v>
       </c>
       <c r="T266" t="n">
-        <v>1.724243017297E12</v>
+        <v>1.724292831086E12</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -19917,10 +20262,10 @@
         <v>1791</v>
       </c>
       <c r="R267" t="n">
-        <v>0.8399999999999994</v>
+        <v>0.13999999999999946</v>
       </c>
       <c r="T267" t="n">
-        <v>1.724228636275E12</v>
+        <v>1.724294363544E12</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -19949,10 +20294,10 @@
         <v>1792</v>
       </c>
       <c r="R268" t="n">
-        <v>0.8800000000000001</v>
+        <v>0.18000000000000016</v>
       </c>
       <c r="T268" t="n">
-        <v>1.724243027963E12</v>
+        <v>1.72429437052E12</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -19981,10 +20326,10 @@
         <v>1793</v>
       </c>
       <c r="R269" t="n">
-        <v>0.8899999999999997</v>
+        <v>0.18999999999999972</v>
       </c>
       <c r="T269" t="n">
-        <v>1.724228643321E12</v>
+        <v>1.72429437384E12</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -20013,10 +20358,10 @@
         <v>945</v>
       </c>
       <c r="R270" t="n">
-        <v>0.8899999999999997</v>
+        <v>0.18999999999999972</v>
       </c>
       <c r="T270" t="n">
-        <v>1.724228648275E12</v>
+        <v>1.724294380345E12</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -20109,10 +20454,10 @@
         <v>1795</v>
       </c>
       <c r="R273" t="n">
-        <v>0.9499999999999997</v>
+        <v>0.24999999999999978</v>
       </c>
       <c r="T273" t="n">
-        <v>1.724221756037E12</v>
+        <v>1.7242943845E12</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -20141,10 +20486,10 @@
         <v>1796</v>
       </c>
       <c r="R274" t="n">
-        <v>0.8800000000000001</v>
+        <v>0.18000000000000016</v>
       </c>
       <c r="T274" t="n">
-        <v>1.724243031045E12</v>
+        <v>1.724294390341E12</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -20173,10 +20518,10 @@
         <v>1797</v>
       </c>
       <c r="R275" t="n">
-        <v>0.8899999999999997</v>
+        <v>0.18999999999999972</v>
       </c>
       <c r="T275" t="n">
-        <v>1.724228655434E12</v>
+        <v>1.724294393294E12</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -20333,10 +20678,10 @@
         <v>1802</v>
       </c>
       <c r="R280" t="n">
-        <v>0.8899999999999997</v>
+        <v>0.18999999999999972</v>
       </c>
       <c r="T280" t="n">
-        <v>1.724228657492E12</v>
+        <v>1.724294409019E12</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -20365,10 +20710,10 @@
         <v>1803</v>
       </c>
       <c r="R281" t="n">
-        <v>1.5299999999999998</v>
+        <v>0.1299999999999999</v>
       </c>
       <c r="T281" t="n">
-        <v>1.724243035243E12</v>
+        <v>1.724294412207E12</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -20397,10 +20742,10 @@
         <v>1804</v>
       </c>
       <c r="R282" t="n">
-        <v>0.8399999999999994</v>
+        <v>0.13999999999999946</v>
       </c>
       <c r="T282" t="n">
-        <v>1.72422866506E12</v>
+        <v>1.724294416712E12</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -20461,10 +20806,10 @@
         <v>1806</v>
       </c>
       <c r="R284" t="n">
-        <v>0.9999999999999991</v>
+        <v>0.29999999999999916</v>
       </c>
       <c r="T284" t="n">
-        <v>1.724221820199E12</v>
+        <v>1.7242944206E12</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -20493,10 +20838,10 @@
         <v>1807</v>
       </c>
       <c r="R285" t="n">
-        <v>0.8999999999999986</v>
+        <v>0.19999999999999862</v>
       </c>
       <c r="T285" t="n">
-        <v>1.724221829828E12</v>
+        <v>1.724294434281E12</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -20525,10 +20870,10 @@
         <v>1808</v>
       </c>
       <c r="R286" t="n">
-        <v>0.8000000000000043</v>
+        <v>0.10000000000000431</v>
       </c>
       <c r="T286" t="n">
-        <v>1.724221832908E12</v>
+        <v>1.724294439697E12</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -20557,10 +20902,10 @@
         <v>1809</v>
       </c>
       <c r="R287" t="n">
-        <v>0.9000000000000021</v>
+        <v>0.20000000000000218</v>
       </c>
       <c r="T287" t="n">
-        <v>1.724221864193E12</v>
+        <v>1.724294442934E12</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -20589,10 +20934,10 @@
         <v>1810</v>
       </c>
       <c r="R288" t="n">
-        <v>0.8399999999999994</v>
+        <v>0.13999999999999946</v>
       </c>
       <c r="T288" t="n">
-        <v>1.72422866794E12</v>
+        <v>1.72429444604E12</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -20621,10 +20966,10 @@
         <v>1811</v>
       </c>
       <c r="R289" t="n">
-        <v>0.8399999999999994</v>
+        <v>0.13999999999999946</v>
       </c>
       <c r="T289" t="n">
-        <v>1.724228670521E12</v>
+        <v>1.724294449271E12</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -20717,10 +21062,10 @@
         <v>1814</v>
       </c>
       <c r="R292" t="n">
-        <v>0.8500000000000023</v>
+        <v>0.15000000000000235</v>
       </c>
       <c r="T292" t="n">
-        <v>1.724221910428E12</v>
+        <v>1.724294453241E12</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -20749,10 +21094,10 @@
         <v>1815</v>
       </c>
       <c r="R293" t="n">
-        <v>0.9999999999999991</v>
+        <v>0.29999999999999916</v>
       </c>
       <c r="T293" t="n">
-        <v>1.724221949084E12</v>
+        <v>1.724294455988E12</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -20781,10 +21126,10 @@
         <v>1816</v>
       </c>
       <c r="R294" t="n">
-        <v>0.9000000000000021</v>
+        <v>0.20000000000000218</v>
       </c>
       <c r="T294" t="n">
-        <v>1.724221955893E12</v>
+        <v>1.724294457841E12</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -21005,10 +21350,10 @@
         <v>1823</v>
       </c>
       <c r="R301" t="n">
-        <v>0.8399999999999994</v>
+        <v>0.4399999999999995</v>
       </c>
       <c r="T301" t="n">
-        <v>1.724228676521E12</v>
+        <v>1.724295074978E12</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -21037,10 +21382,10 @@
         <v>1824</v>
       </c>
       <c r="R302" t="n">
-        <v>0.8399999999999994</v>
+        <v>0.4399999999999995</v>
       </c>
       <c r="T302" t="n">
-        <v>1.724228680177E12</v>
+        <v>1.72429507771E12</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -21101,10 +21446,10 @@
         <v>1826</v>
       </c>
       <c r="R304" t="n">
-        <v>0.8800000000000001</v>
+        <v>0.18000000000000016</v>
       </c>
       <c r="T304" t="n">
-        <v>1.724243049323E12</v>
+        <v>1.724294484518E12</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -21133,10 +21478,10 @@
         <v>1827</v>
       </c>
       <c r="R305" t="n">
-        <v>0.9000000000000004</v>
+        <v>0.5000000000000004</v>
       </c>
       <c r="T305" t="n">
-        <v>1.724222677655E12</v>
+        <v>1.724295080253E12</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -21165,10 +21510,10 @@
         <v>1493</v>
       </c>
       <c r="R306" t="n">
-        <v>1.5299999999999998</v>
+        <v>0.1299999999999999</v>
       </c>
       <c r="T306" t="n">
-        <v>1.724243074107E12</v>
+        <v>1.724294503032E12</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -21261,10 +21606,10 @@
         <v>1830</v>
       </c>
       <c r="R309" t="n">
-        <v>0.9000000000000021</v>
+        <v>0.20000000000000218</v>
       </c>
       <c r="T309" t="n">
-        <v>1.724222712238E12</v>
+        <v>1.724294505652E12</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -21293,10 +21638,10 @@
         <v>1831</v>
       </c>
       <c r="R310" t="n">
-        <v>1.5299999999999994</v>
+        <v>0.12999999999999945</v>
       </c>
       <c r="T310" t="n">
-        <v>1.72424309626E12</v>
+        <v>1.724294518829E12</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -21357,10 +21702,10 @@
         <v>1833</v>
       </c>
       <c r="R312" t="n">
-        <v>0.8899999999999997</v>
+        <v>0.18999999999999972</v>
       </c>
       <c r="T312" t="n">
-        <v>1.724228697822E12</v>
+        <v>1.724294523974E12</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -21389,10 +21734,10 @@
         <v>1834</v>
       </c>
       <c r="R313" t="n">
-        <v>0.8899999999999997</v>
+        <v>0.48999999999999977</v>
       </c>
       <c r="T313" t="n">
-        <v>1.724228702663E12</v>
+        <v>1.724295082357E12</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -21421,10 +21766,10 @@
         <v>1835</v>
       </c>
       <c r="R314" t="n">
-        <v>1.38</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="T314" t="n">
-        <v>1.724243101834E12</v>
+        <v>1.724292845922E12</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -21485,10 +21830,10 @@
         <v>1837</v>
       </c>
       <c r="R316" t="n">
-        <v>0.8399999999999994</v>
+        <v>0.13999999999999946</v>
       </c>
       <c r="T316" t="n">
-        <v>1.72422870655E12</v>
+        <v>1.724294544504E12</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -21517,10 +21862,10 @@
         <v>1838</v>
       </c>
       <c r="R317" t="n">
-        <v>0.8800000000000001</v>
+        <v>0.18000000000000016</v>
       </c>
       <c r="T317" t="n">
-        <v>1.724243105301E12</v>
+        <v>1.724294546271E12</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -21549,10 +21894,10 @@
         <v>1173</v>
       </c>
       <c r="R318" t="n">
-        <v>0.9500000000000011</v>
+        <v>0.5500000000000012</v>
       </c>
       <c r="T318" t="n">
-        <v>1.724222822554E12</v>
+        <v>1.724295084786E12</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -21613,10 +21958,10 @@
         <v>1840</v>
       </c>
       <c r="R320" t="n">
-        <v>0.9500000000000011</v>
+        <v>0.2500000000000011</v>
       </c>
       <c r="T320" t="n">
-        <v>1.724222827627E12</v>
+        <v>1.72429457515E12</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -21677,10 +22022,10 @@
         <v>1842</v>
       </c>
       <c r="R322" t="n">
-        <v>0.9500000000000011</v>
+        <v>0.2500000000000011</v>
       </c>
       <c r="T322" t="n">
-        <v>1.724222838991E12</v>
+        <v>1.724294579042E12</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -21773,10 +22118,10 @@
         <v>1845</v>
       </c>
       <c r="R325" t="n">
-        <v>0.8799999999999999</v>
+        <v>0.17999999999999994</v>
       </c>
       <c r="T325" t="n">
-        <v>1.724243113192E12</v>
+        <v>1.724294583591E12</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -21965,10 +22310,10 @@
         <v>1851</v>
       </c>
       <c r="R331" t="n">
-        <v>1.23</v>
+        <v>0.53</v>
       </c>
       <c r="T331" t="n">
-        <v>1.724243115688E12</v>
+        <v>1.724292849303E12</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -22061,10 +22406,10 @@
         <v>1527</v>
       </c>
       <c r="R334" t="n">
-        <v>0.8500000000000019</v>
+        <v>0.1500000000000019</v>
       </c>
       <c r="T334" t="n">
-        <v>1.724223323495E12</v>
+        <v>1.724294587909E12</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -22093,10 +22438,10 @@
         <v>1854</v>
       </c>
       <c r="R335" t="n">
-        <v>0.8399999999999994</v>
+        <v>0.13999999999999946</v>
       </c>
       <c r="T335" t="n">
-        <v>1.724228721342E12</v>
+        <v>1.724294590279E12</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -22189,10 +22534,10 @@
         <v>1857</v>
       </c>
       <c r="R338" t="n">
-        <v>1.1799999999999997</v>
+        <v>0.47999999999999976</v>
       </c>
       <c r="T338" t="n">
-        <v>1.724243245119E12</v>
+        <v>1.724292851388E12</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -22221,10 +22566,10 @@
         <v>1643</v>
       </c>
       <c r="R339" t="n">
-        <v>0.9500000000000011</v>
+        <v>0.2500000000000011</v>
       </c>
       <c r="T339" t="n">
-        <v>1.724223603451E12</v>
+        <v>1.724294594038E12</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -22253,10 +22598,10 @@
         <v>1858</v>
       </c>
       <c r="R340" t="n">
-        <v>0.9000000000000021</v>
+        <v>0.20000000000000218</v>
       </c>
       <c r="T340" t="n">
-        <v>1.724223622055E12</v>
+        <v>1.724294597348E12</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -22285,10 +22630,10 @@
         <v>1859</v>
       </c>
       <c r="R341" t="n">
-        <v>1.0800000000000072</v>
+        <v>0.3800000000000072</v>
       </c>
       <c r="T341" t="n">
-        <v>1.72424325347E12</v>
+        <v>1.724292855914E12</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -22317,10 +22662,10 @@
         <v>1860</v>
       </c>
       <c r="R342" t="n">
-        <v>0.8900000000000055</v>
+        <v>0.1900000000000055</v>
       </c>
       <c r="T342" t="n">
-        <v>1.724228733744E12</v>
+        <v>1.724294621304E12</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -22349,10 +22694,10 @@
         <v>1861</v>
       </c>
       <c r="R343" t="n">
-        <v>0.8400000000000065</v>
+        <v>0.14000000000000656</v>
       </c>
       <c r="T343" t="n">
-        <v>1.724228736742E12</v>
+        <v>1.724294625673E12</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -22445,10 +22790,10 @@
         <v>1864</v>
       </c>
       <c r="R346" t="n">
-        <v>0.8299999999999996</v>
+        <v>0.12999999999999967</v>
       </c>
       <c r="T346" t="n">
-        <v>1.724243256929E12</v>
+        <v>1.724294629153E12</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -22509,10 +22854,10 @@
         <v>1866</v>
       </c>
       <c r="R348" t="n">
-        <v>1.6799999999999997</v>
+        <v>0.2799999999999998</v>
       </c>
       <c r="T348" t="n">
-        <v>1.724243260572E12</v>
+        <v>1.724294647922E12</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -22541,10 +22886,10 @@
         <v>1867</v>
       </c>
       <c r="R349" t="n">
-        <v>0.9000000000000012</v>
+        <v>0.2000000000000013</v>
       </c>
       <c r="T349" t="n">
-        <v>1.724223691006E12</v>
+        <v>1.724294650908E12</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -22605,10 +22950,10 @@
         <v>1536</v>
       </c>
       <c r="R351" t="n">
-        <v>2.04</v>
+        <v>0.6400000000000001</v>
       </c>
       <c r="T351" t="n">
-        <v>1.72424326211E12</v>
+        <v>1.724292862697E12</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -22669,10 +23014,10 @@
         <v>1869</v>
       </c>
       <c r="R353" t="n">
-        <v>1.8000000000000034</v>
+        <v>0.7000000000000033</v>
       </c>
       <c r="T353" t="n">
-        <v>1.724243277968E12</v>
+        <v>1.724293432958E12</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -22701,10 +23046,10 @@
         <v>1870</v>
       </c>
       <c r="R354" t="n">
-        <v>0.9500000000000011</v>
+        <v>0.2500000000000011</v>
       </c>
       <c r="T354" t="n">
-        <v>1.724223878292E12</v>
+        <v>1.724294654905E12</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -22765,10 +23110,10 @@
         <v>1872</v>
       </c>
       <c r="R356" t="n">
-        <v>0.9000000000000004</v>
+        <v>0.2000000000000004</v>
       </c>
       <c r="T356" t="n">
-        <v>1.724223903337E12</v>
+        <v>1.724294662429E12</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -22797,10 +23142,10 @@
         <v>1873</v>
       </c>
       <c r="R357" t="n">
-        <v>1.6</v>
+        <v>0.5000000000000002</v>
       </c>
       <c r="T357" t="n">
-        <v>1.724243281363E12</v>
+        <v>1.724295086723E12</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -22829,10 +23174,10 @@
         <v>1874</v>
       </c>
       <c r="R358" t="n">
-        <v>0.8399999999999994</v>
+        <v>0.13999999999999946</v>
       </c>
       <c r="T358" t="n">
-        <v>1.724228770412E12</v>
+        <v>1.724294676449E12</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -22861,10 +23206,10 @@
         <v>870</v>
       </c>
       <c r="R359" t="n">
-        <v>2.09</v>
+        <v>0.69</v>
       </c>
       <c r="T359" t="n">
-        <v>1.724243284923E12</v>
+        <v>1.72429294139E12</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -22925,10 +23270,10 @@
         <v>1876</v>
       </c>
       <c r="R361" t="n">
-        <v>1.1799999999999997</v>
+        <v>0.47999999999999976</v>
       </c>
       <c r="T361" t="n">
-        <v>1.724243298172E12</v>
+        <v>1.724292943818E12</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -23021,10 +23366,10 @@
         <v>1879</v>
       </c>
       <c r="R364" t="n">
-        <v>0.9999999999999991</v>
+        <v>0.29999999999999916</v>
       </c>
       <c r="T364" t="n">
-        <v>1.724224027669E12</v>
+        <v>1.724294680639E12</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -23117,10 +23462,10 @@
         <v>1882</v>
       </c>
       <c r="R367" t="n">
-        <v>0.8000000000000096</v>
+        <v>0.10000000000000964</v>
       </c>
       <c r="T367" t="n">
-        <v>1.724224055611E12</v>
+        <v>1.724294687332E12</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -23181,10 +23526,10 @@
         <v>1884</v>
       </c>
       <c r="R369" t="n">
-        <v>0.8000000000000043</v>
+        <v>0.10000000000000431</v>
       </c>
       <c r="T369" t="n">
-        <v>1.724224115102E12</v>
+        <v>1.724294689989E12</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -23245,10 +23590,10 @@
         <v>1886</v>
       </c>
       <c r="R371" t="n">
-        <v>2.09</v>
+        <v>0.0</v>
       </c>
       <c r="T371" t="n">
-        <v>1.724243298182E12</v>
+        <v>1.724292671325E12</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -23277,10 +23622,10 @@
         <v>1887</v>
       </c>
       <c r="R372" t="n">
-        <v>0.9500000000000002</v>
+        <v>0.2500000000000002</v>
       </c>
       <c r="T372" t="n">
-        <v>1.724224127187E12</v>
+        <v>1.724294695074E12</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -23373,10 +23718,10 @@
         <v>1292</v>
       </c>
       <c r="R375" t="n">
-        <v>0.8500000000000001</v>
+        <v>0.15000000000000013</v>
       </c>
       <c r="T375" t="n">
-        <v>1.724224139359E12</v>
+        <v>1.724294697776E12</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -23437,10 +23782,10 @@
         <v>1890</v>
       </c>
       <c r="R377" t="n">
-        <v>1.1800000000000055</v>
+        <v>0.48000000000000553</v>
       </c>
       <c r="T377" t="n">
-        <v>1.724243309664E12</v>
+        <v>1.72429295283E12</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -23469,10 +23814,10 @@
         <v>1551</v>
       </c>
       <c r="R378" t="n">
-        <v>0.8399999999999994</v>
+        <v>0.13999999999999946</v>
       </c>
       <c r="T378" t="n">
-        <v>1.724228835913E12</v>
+        <v>1.724294737476E12</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -23501,10 +23846,10 @@
         <v>1891</v>
       </c>
       <c r="R379" t="n">
-        <v>0.8900000000000055</v>
+        <v>0.1900000000000055</v>
       </c>
       <c r="T379" t="n">
-        <v>1.724228837487E12</v>
+        <v>1.72429474376E12</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -23533,10 +23878,10 @@
         <v>1892</v>
       </c>
       <c r="R380" t="n">
-        <v>0.8000000000000043</v>
+        <v>0.10000000000000431</v>
       </c>
       <c r="T380" t="n">
-        <v>1.724224260717E12</v>
+        <v>1.724294767046E12</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -23565,10 +23910,10 @@
         <v>1566</v>
       </c>
       <c r="R381" t="n">
-        <v>0.9800000000000093</v>
+        <v>0.28000000000000935</v>
       </c>
       <c r="T381" t="n">
-        <v>1.724243312726E12</v>
+        <v>1.724294773545E12</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -23597,10 +23942,10 @@
         <v>1893</v>
       </c>
       <c r="R382" t="n">
-        <v>0.9500000000000011</v>
+        <v>0.2500000000000011</v>
       </c>
       <c r="T382" t="n">
-        <v>1.724224364754E12</v>
+        <v>1.724294778083E12</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -23629,10 +23974,10 @@
         <v>1894</v>
       </c>
       <c r="R383" t="n">
-        <v>1.58</v>
+        <v>0.4800000000000002</v>
       </c>
       <c r="T383" t="n">
-        <v>1.724243330108E12</v>
+        <v>1.7242934546E12</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -23661,10 +24006,10 @@
         <v>1895</v>
       </c>
       <c r="R384" t="n">
-        <v>1.7699999999999996</v>
+        <v>0.6699999999999995</v>
       </c>
       <c r="T384" t="n">
-        <v>1.724243332962E12</v>
+        <v>1.724293437467E12</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -23693,10 +24038,10 @@
         <v>1218</v>
       </c>
       <c r="R385" t="n">
-        <v>0.9500000000000082</v>
+        <v>0.45000000000000795</v>
       </c>
       <c r="T385" t="n">
-        <v>1.724224598959E12</v>
+        <v>1.72429514556E12</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -23757,10 +24102,10 @@
         <v>1896</v>
       </c>
       <c r="R387" t="n">
-        <v>0.8399999999999994</v>
+        <v>0.13999999999999946</v>
       </c>
       <c r="T387" t="n">
-        <v>1.724228892734E12</v>
+        <v>1.724294847642E12</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -23789,10 +24134,10 @@
         <v>1897</v>
       </c>
       <c r="R388" t="n">
-        <v>0.9500000000000011</v>
+        <v>0.2500000000000011</v>
       </c>
       <c r="T388" t="n">
-        <v>1.724224625291E12</v>
+        <v>1.724294854218E12</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -23821,10 +24166,10 @@
         <v>1898</v>
       </c>
       <c r="R389" t="n">
-        <v>0.8500000000000032</v>
+        <v>0.15000000000000324</v>
       </c>
       <c r="T389" t="n">
-        <v>1.724224658211E12</v>
+        <v>1.724294870518E12</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -23885,10 +24230,10 @@
         <v>1895</v>
       </c>
       <c r="R391" t="n">
-        <v>0.9000000000000012</v>
+        <v>0.2000000000000013</v>
       </c>
       <c r="T391" t="n">
-        <v>1.724224680085E12</v>
+        <v>1.724294877022E12</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -23917,10 +24262,10 @@
         <v>873</v>
       </c>
       <c r="R392" t="n">
-        <v>0.8900000000000055</v>
+        <v>0.1900000000000055</v>
       </c>
       <c r="T392" t="n">
-        <v>1.724228898072E12</v>
+        <v>1.724294883501E12</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -23949,10 +24294,10 @@
         <v>1895</v>
       </c>
       <c r="R393" t="n">
-        <v>0.8000000000000043</v>
+        <v>0.10000000000000431</v>
       </c>
       <c r="T393" t="n">
-        <v>1.724224731753E12</v>
+        <v>1.724294889286E12</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -23981,10 +24326,10 @@
         <v>1895</v>
       </c>
       <c r="R394" t="n">
-        <v>0.8500000000000032</v>
+        <v>0.15000000000000324</v>
       </c>
       <c r="T394" t="n">
-        <v>1.724224733192E12</v>
+        <v>1.724294898032E12</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -24045,10 +24390,10 @@
         <v>1900</v>
       </c>
       <c r="R396" t="n">
-        <v>0.9500000000000011</v>
+        <v>0.2500000000000011</v>
       </c>
       <c r="T396" t="n">
-        <v>1.724224737679E12</v>
+        <v>1.724294900547E12</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -24105,10 +24450,10 @@
         <v>4</v>
       </c>
       <c r="R399" t="n">
-        <v>0.8799999999999999</v>
+        <v>0.17999999999999994</v>
       </c>
       <c r="T399" t="n">
-        <v>1.724243336938E12</v>
+        <v>1.724294905014E12</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -24125,10 +24470,10 @@
         <v>4</v>
       </c>
       <c r="R400" t="n">
-        <v>1.1799999999999997</v>
+        <v>0.47999999999999976</v>
       </c>
       <c r="T400" t="n">
-        <v>1.724243338671E12</v>
+        <v>1.72429304443E12</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -24145,10 +24490,10 @@
         <v>4</v>
       </c>
       <c r="R401" t="n">
-        <v>1.5299999999999998</v>
+        <v>0.1299999999999999</v>
       </c>
       <c r="T401" t="n">
-        <v>1.724243340772E12</v>
+        <v>1.724294907804E12</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -24245,10 +24590,10 @@
         <v>3</v>
       </c>
       <c r="R406" t="n">
-        <v>0.9500000000000011</v>
+        <v>0.5500000000000012</v>
       </c>
       <c r="T406" t="n">
-        <v>1.724224881036E12</v>
+        <v>1.724295095436E12</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -24305,10 +24650,10 @@
         <v>4</v>
       </c>
       <c r="R409" t="n">
-        <v>1.1799999999999997</v>
+        <v>0.47999999999999976</v>
       </c>
       <c r="T409" t="n">
-        <v>1.72424334246E12</v>
+        <v>1.724293048782E12</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -24445,10 +24790,10 @@
         <v>4</v>
       </c>
       <c r="R416" t="n">
-        <v>1.5299999999999998</v>
+        <v>0.1299999999999999</v>
       </c>
       <c r="T416" t="n">
-        <v>1.724243344887E12</v>
+        <v>1.724294912655E12</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -24465,10 +24810,10 @@
         <v>3</v>
       </c>
       <c r="R417" t="n">
-        <v>0.9500000000000011</v>
+        <v>0.2500000000000011</v>
       </c>
       <c r="T417" t="n">
-        <v>1.724224965061E12</v>
+        <v>1.724294917756E12</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -24565,10 +24910,10 @@
         <v>4</v>
       </c>
       <c r="R422" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="T422" t="n">
-        <v>1.724243345949E12</v>
+        <v>1.724293439158E12</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -24645,10 +24990,10 @@
         <v>4</v>
       </c>
       <c r="R426" t="n">
-        <v>0.8899999999999997</v>
+        <v>0.18999999999999972</v>
       </c>
       <c r="T426" t="n">
-        <v>1.72422893148E12</v>
+        <v>1.724294919833E12</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -24665,10 +25010,10 @@
         <v>3</v>
       </c>
       <c r="R427" t="n">
-        <v>0.8899999999999997</v>
+        <v>0.18999999999999972</v>
       </c>
       <c r="T427" t="n">
-        <v>1.72422893314E12</v>
+        <v>1.724294921532E12</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -24865,10 +25210,10 @@
         <v>3</v>
       </c>
       <c r="R437" t="n">
-        <v>0.8799999999999999</v>
+        <v>0.17999999999999994</v>
       </c>
       <c r="T437" t="n">
-        <v>1.724243347676E12</v>
+        <v>1.724294923183E12</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -24925,10 +25270,10 @@
         <v>4</v>
       </c>
       <c r="R440" t="n">
-        <v>1.5299999999999998</v>
+        <v>0.1299999999999999</v>
       </c>
       <c r="T440" t="n">
-        <v>1.724243348938E12</v>
+        <v>1.724294924654E12</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -25025,10 +25370,10 @@
         <v>4</v>
       </c>
       <c r="R445" t="n">
-        <v>1.5299999999999994</v>
+        <v>0.12999999999999945</v>
       </c>
       <c r="T445" t="n">
-        <v>1.724243350435E12</v>
+        <v>1.72429492627E12</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -25125,10 +25470,10 @@
         <v>4</v>
       </c>
       <c r="R450" t="n">
-        <v>0.8899999999999997</v>
+        <v>0.18999999999999972</v>
       </c>
       <c r="T450" t="n">
-        <v>1.724228942109E12</v>
+        <v>1.724294928052E12</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -25205,10 +25550,10 @@
         <v>4</v>
       </c>
       <c r="R454" t="n">
-        <v>1.5799999999999992</v>
+        <v>0.17999999999999927</v>
       </c>
       <c r="T454" t="n">
-        <v>1.724243352152E12</v>
+        <v>1.724294929922E12</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -25265,10 +25610,10 @@
         <v>4</v>
       </c>
       <c r="R457" t="n">
-        <v>0.8399999999999994</v>
+        <v>0.13999999999999946</v>
       </c>
       <c r="T457" t="n">
-        <v>1.724228945529E12</v>
+        <v>1.724294931616E12</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -25305,10 +25650,10 @@
         <v>3</v>
       </c>
       <c r="R459" t="n">
-        <v>0.9000000000000021</v>
+        <v>0.20000000000000218</v>
       </c>
       <c r="T459" t="n">
-        <v>1.724226049899E12</v>
+        <v>1.724294932979E12</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -25385,10 +25730,10 @@
         <v>4</v>
       </c>
       <c r="R463" t="n">
-        <v>1.5299999999999998</v>
+        <v>0.1299999999999999</v>
       </c>
       <c r="T463" t="n">
-        <v>1.724243354461E12</v>
+        <v>1.724294934914E12</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -25485,10 +25830,10 @@
         <v>4</v>
       </c>
       <c r="R468" t="n">
-        <v>1.23</v>
+        <v>0.53</v>
       </c>
       <c r="T468" t="n">
-        <v>1.724243356251E12</v>
+        <v>1.724293061321E12</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -25505,10 +25850,10 @@
         <v>3</v>
       </c>
       <c r="R469" t="n">
-        <v>1.23</v>
+        <v>0.13000000000000012</v>
       </c>
       <c r="T469" t="n">
-        <v>1.724243360882E12</v>
+        <v>1.724294936602E12</v>
       </c>
     </row>
     <row r="470" spans="1:4">
@@ -25525,10 +25870,10 @@
         <v>3</v>
       </c>
       <c r="R470" t="n">
-        <v>1.9500000000000002</v>
+        <v>0.15000000000000013</v>
       </c>
       <c r="T470" t="n">
-        <v>1.724243362715E12</v>
+        <v>1.724294938559E12</v>
       </c>
     </row>
     <row r="471" spans="1:4">
@@ -25565,10 +25910,10 @@
         <v>4</v>
       </c>
       <c r="R472" t="n">
-        <v>0.9999999999999991</v>
+        <v>0.29999999999999916</v>
       </c>
       <c r="T472" t="n">
-        <v>1.724226418158E12</v>
+        <v>1.724294945127E12</v>
       </c>
     </row>
     <row r="473" spans="1:4">
@@ -25665,10 +26010,10 @@
         <v>3</v>
       </c>
       <c r="R477" t="n">
-        <v>1.38</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="T477" t="n">
-        <v>1.72424336735E12</v>
+        <v>1.724293076309E12</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -25805,10 +26150,10 @@
         <v>4</v>
       </c>
       <c r="R484" t="n">
-        <v>0.8399999999999994</v>
+        <v>0.13999999999999946</v>
       </c>
       <c r="T484" t="n">
-        <v>1.724228967753E12</v>
+        <v>1.72429494747E12</v>
       </c>
     </row>
     <row r="485" spans="1:4">
@@ -25945,10 +26290,10 @@
         <v>4</v>
       </c>
       <c r="R491" t="n">
-        <v>0.9999999999999991</v>
+        <v>0.29999999999999916</v>
       </c>
       <c r="T491" t="n">
-        <v>1.724226664588E12</v>
+        <v>1.724294950313E12</v>
       </c>
     </row>
     <row r="492" spans="1:4">
@@ -25965,10 +26310,10 @@
         <v>3</v>
       </c>
       <c r="R492" t="n">
-        <v>1.4799999999999995</v>
+        <v>0.7799999999999996</v>
       </c>
       <c r="T492" t="n">
-        <v>1.724243369701E12</v>
+        <v>1.724293080705E12</v>
       </c>
     </row>
     <row r="493" spans="1:4">
@@ -26025,10 +26370,10 @@
         <v>3</v>
       </c>
       <c r="R495" t="n">
-        <v>0.8899999999999997</v>
+        <v>0.18999999999999972</v>
       </c>
       <c r="T495" t="n">
-        <v>1.724228975011E12</v>
+        <v>1.72429495284E12</v>
       </c>
     </row>
     <row r="496" spans="1:4">

--- a/src/main/resources/初级工题库.xlsx
+++ b/src/main/resources/初级工题库.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView windowHeight="9660" windowWidth="16095" xWindow="240" yWindow="15"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3277" uniqueCount="2050">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3287" uniqueCount="2058">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -6211,12 +6211,37 @@
   </si>
   <si>
     <t>您一共做了: 99题	您的得分： 90.9090909090909	做题时长约为8.483333333333333Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 1题	您的得分： 0.0	做题时长约为0.13333333333333333Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 1题	您的得分： 100.0	做题时长约为0.1Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 8题	您的得分： 87.5	做题时长约为1.3833333333333333Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 19题	您的得分： 78.94736842105263	做题时长约为2.283333333333333Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 10题	您的得分： 100.0	做题时长约为0.4666666666666667Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 18题	您的得分： 100.0	做题时长约为0.8333333333333334Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 2题	您的得分： 100.0	做题时长约为0.05Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 16题	您的得分： 100.0	做题时长约为0.7666666666666667Min</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -6267,19 +6292,97 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="80">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -6288,10 +6391,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -6447,7 +6550,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -6456,13 +6559,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -6472,7 +6575,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -6481,7 +6584,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -6490,7 +6593,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -6500,12 +6603,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -6536,7 +6639,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -6555,7 +6658,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -7528,11 +7631,11 @@
       <c r="H26" t="s">
         <v>1611</v>
       </c>
-      <c r="R26">
-        <v>6.35</v>
-      </c>
-      <c r="T26">
-        <v>1724375416246</v>
+      <c r="R26" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.724405315061E12</v>
       </c>
       <c r="AA26" t="s">
         <v>1944</v>
@@ -7948,11 +8051,11 @@
       <c r="H38" t="s">
         <v>1619</v>
       </c>
-      <c r="R38">
-        <v>7.249999999999998</v>
-      </c>
-      <c r="T38">
-        <v>1724375756901</v>
+      <c r="R38" t="n">
+        <v>6.229999999999999</v>
+      </c>
+      <c r="T38" t="n">
+        <v>1.724405379931E12</v>
       </c>
       <c r="AA38" t="s">
         <v>1955</v>
@@ -8263,11 +8366,11 @@
       <c r="H47" t="s">
         <v>1624</v>
       </c>
-      <c r="R47">
-        <v>8.149999999999999</v>
-      </c>
-      <c r="T47">
-        <v>1724375819769</v>
+      <c r="R47" t="n">
+        <v>6.789999999999999</v>
+      </c>
+      <c r="T47" t="n">
+        <v>1.724405381108E12</v>
       </c>
       <c r="AA47" t="s">
         <v>1963</v>
@@ -10293,11 +10396,11 @@
       <c r="H105" t="s">
         <v>1677</v>
       </c>
-      <c r="R105">
-        <v>8.949999999999998</v>
-      </c>
-      <c r="T105">
-        <v>1724378974113</v>
+      <c r="R105" t="n">
+        <v>7.5699999999999985</v>
+      </c>
+      <c r="T105" t="n">
+        <v>1.724405384821E12</v>
       </c>
       <c r="AA105" t="s">
         <v>2006</v>
@@ -10923,11 +11026,11 @@
       <c r="H123" t="s">
         <v>1692</v>
       </c>
-      <c r="R123">
-        <v>8.749999999999998</v>
-      </c>
-      <c r="T123">
-        <v>1724379410043</v>
+      <c r="R123" t="n">
+        <v>7.049999999999999</v>
+      </c>
+      <c r="T123" t="n">
+        <v>1.724405386646E12</v>
       </c>
       <c r="AA123" t="s">
         <v>1968</v>
@@ -11308,11 +11411,11 @@
       <c r="H134" t="s">
         <v>1702</v>
       </c>
-      <c r="R134">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="T134">
-        <v>1724379564221</v>
+      <c r="R134" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="T134" t="n">
+        <v>1.724405388528E12</v>
       </c>
       <c r="AA134" t="s">
         <v>2022</v>
@@ -12749,6 +12852,9 @@
       <c r="T175">
         <v>1724380263761</v>
       </c>
+      <c r="AA175" t="s">
+        <v>2050</v>
+      </c>
     </row>
     <row r="176" spans="1:27">
       <c r="A176">
@@ -12781,6 +12887,9 @@
       <c r="T176">
         <v>1724380297212</v>
       </c>
+      <c r="AA176" t="s">
+        <v>2051</v>
+      </c>
     </row>
     <row r="177" spans="1:20">
       <c r="A177">
@@ -12813,6 +12922,9 @@
       <c r="T177">
         <v>1724380298917</v>
       </c>
+      <c r="AA177" t="s">
+        <v>2052</v>
+      </c>
     </row>
     <row r="178" spans="1:20">
       <c r="A178">
@@ -12845,6 +12957,9 @@
       <c r="T178">
         <v>1724380302245</v>
       </c>
+      <c r="AA178" t="s">
+        <v>2053</v>
+      </c>
     </row>
     <row r="179" spans="1:20">
       <c r="A179">
@@ -12877,6 +12992,9 @@
       <c r="T179">
         <v>1724380306547</v>
       </c>
+      <c r="AA179" t="s">
+        <v>1943</v>
+      </c>
     </row>
     <row r="180" spans="1:20">
       <c r="A180">
@@ -12909,6 +13027,9 @@
       <c r="T180">
         <v>1724380335620</v>
       </c>
+      <c r="AA180" t="s">
+        <v>2054</v>
+      </c>
     </row>
     <row r="181" spans="1:20">
       <c r="A181">
@@ -12941,6 +13062,9 @@
       <c r="T181">
         <v>1724380357891</v>
       </c>
+      <c r="AA181" t="s">
+        <v>2055</v>
+      </c>
     </row>
     <row r="182" spans="1:20">
       <c r="A182">
@@ -12973,6 +13097,9 @@
       <c r="T182">
         <v>1724380361018</v>
       </c>
+      <c r="AA182" t="s">
+        <v>2056</v>
+      </c>
     </row>
     <row r="183" spans="1:20">
       <c r="A183">
@@ -13005,6 +13132,9 @@
       <c r="T183">
         <v>1724380365277</v>
       </c>
+      <c r="AA183" t="s">
+        <v>1968</v>
+      </c>
     </row>
     <row r="184" spans="1:20">
       <c r="A184">
@@ -13037,6 +13167,9 @@
       <c r="T184">
         <v>1724380368099</v>
       </c>
+      <c r="AA184" t="s">
+        <v>2057</v>
+      </c>
     </row>
     <row r="185" spans="1:20">
       <c r="A185">
@@ -13575,11 +13708,11 @@
       <c r="H201" t="s">
         <v>1748</v>
       </c>
-      <c r="R201">
-        <v>9.25</v>
-      </c>
-      <c r="T201">
-        <v>1724380494910</v>
+      <c r="R201" t="n">
+        <v>7.530000000000001</v>
+      </c>
+      <c r="T201" t="n">
+        <v>1.724405390808E12</v>
       </c>
     </row>
     <row r="202" spans="1:20">
@@ -15492,11 +15625,11 @@
       <c r="H261" t="s">
         <v>1804</v>
       </c>
-      <c r="R261">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="T261">
-        <v>1724381101237</v>
+      <c r="R261" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="T261" t="n">
+        <v>1.724405396475E12</v>
       </c>
     </row>
     <row r="262" spans="1:20">
@@ -15620,11 +15753,11 @@
       <c r="H265" t="s">
         <v>1808</v>
       </c>
-      <c r="R265">
-        <v>7.249999999999998</v>
-      </c>
-      <c r="T265">
-        <v>1724381183258</v>
+      <c r="R265" t="n">
+        <v>6.229999999999999</v>
+      </c>
+      <c r="T265" t="n">
+        <v>1.72440539984E12</v>
       </c>
     </row>
     <row r="266" spans="1:20">
@@ -16580,11 +16713,11 @@
       <c r="H295" t="s">
         <v>1836</v>
       </c>
-      <c r="R295">
-        <v>7.249999999999998</v>
-      </c>
-      <c r="T295">
-        <v>1724381614670</v>
+      <c r="R295" t="n">
+        <v>6.229999999999999</v>
+      </c>
+      <c r="T295" t="n">
+        <v>1.724405401729E12</v>
       </c>
     </row>
     <row r="296" spans="1:20">
@@ -16804,11 +16937,11 @@
       <c r="H302" t="s">
         <v>1843</v>
       </c>
-      <c r="R302">
-        <v>7.199999999999998</v>
-      </c>
-      <c r="T302">
-        <v>1724381739906</v>
+      <c r="R302" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="T302" t="n">
+        <v>1.724405403438E12</v>
       </c>
     </row>
     <row r="303" spans="1:20">
@@ -17156,11 +17289,11 @@
       <c r="H313" t="s">
         <v>1853</v>
       </c>
-      <c r="R313">
-        <v>7.449999999999999</v>
-      </c>
-      <c r="T313">
-        <v>1724381875386</v>
+      <c r="R313" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="T313" t="n">
+        <v>1.72440540539E12</v>
       </c>
     </row>
     <row r="314" spans="1:20">
@@ -17316,11 +17449,11 @@
       <c r="H318" t="s">
         <v>1192</v>
       </c>
-      <c r="R318">
-        <v>7.750000000000005</v>
-      </c>
-      <c r="T318">
-        <v>1724381893527</v>
+      <c r="R318" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T318" t="n">
+        <v>1.724405301101E12</v>
       </c>
     </row>
     <row r="319" spans="1:20">
@@ -18500,11 +18633,11 @@
       <c r="H355" t="s">
         <v>1890</v>
       </c>
-      <c r="R355">
-        <v>7.249999999999998</v>
-      </c>
-      <c r="T355">
-        <v>1724382131695</v>
+      <c r="R355" t="n">
+        <v>6.229999999999999</v>
+      </c>
+      <c r="T355" t="n">
+        <v>1.724405409287E12</v>
       </c>
     </row>
     <row r="356" spans="1:20">
@@ -18628,11 +18761,11 @@
       <c r="H359" t="s">
         <v>889</v>
       </c>
-      <c r="R359">
-        <v>8.449999999999999</v>
-      </c>
-      <c r="T359">
-        <v>1724382151796</v>
+      <c r="R359" t="n">
+        <v>7.09</v>
+      </c>
+      <c r="T359" t="n">
+        <v>1.724405411068E12</v>
       </c>
     </row>
     <row r="360" spans="1:20">
@@ -19204,11 +19337,11 @@
       <c r="H377" t="s">
         <v>1909</v>
       </c>
-      <c r="R377">
-        <v>7.400000000000028</v>
-      </c>
-      <c r="T377">
-        <v>1724382330568</v>
+      <c r="R377" t="n">
+        <v>6.380000000000028</v>
+      </c>
+      <c r="T377" t="n">
+        <v>1.72440542088E12</v>
       </c>
     </row>
     <row r="378" spans="1:20">
@@ -20352,11 +20485,11 @@
       <c r="D423" t="s">
         <v>4</v>
       </c>
-      <c r="R423">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="T423">
-        <v>1724382618451</v>
+      <c r="R423" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="T423" t="n">
+        <v>1.724405422286E12</v>
       </c>
     </row>
     <row r="424" spans="1:20">
@@ -21232,11 +21365,11 @@
       <c r="D467" t="s">
         <v>5</v>
       </c>
-      <c r="R467">
-        <v>7.249999999999998</v>
-      </c>
-      <c r="T467">
-        <v>1724382746355</v>
+      <c r="R467" t="n">
+        <v>7.229999999999999</v>
+      </c>
+      <c r="T467" t="n">
+        <v>1.724405423812E12</v>
       </c>
     </row>
     <row r="468" spans="1:20">
@@ -21332,11 +21465,11 @@
       <c r="D472" t="s">
         <v>5</v>
       </c>
-      <c r="R472">
-        <v>6.499999999999996</v>
-      </c>
-      <c r="T472">
-        <v>1724382949414</v>
+      <c r="R472" t="n">
+        <v>5.819999999999996</v>
+      </c>
+      <c r="T472" t="n">
+        <v>1.724405361339E12</v>
       </c>
     </row>
     <row r="473" spans="1:20">
@@ -21900,6 +22033,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/src/main/resources/初级工题库.xlsx
+++ b/src/main/resources/初级工题库.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3287" uniqueCount="2058">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3301" uniqueCount="2069">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -6235,6 +6235,39 @@
   </si>
   <si>
     <t>您一共做了: 16题	您的得分： 100.0	做题时长约为0.7666666666666667Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 10题	您的得分： 100.0	做题时长约为0.7166666666666667Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 50题	您的得分： 88.0	做题时长约为6.783333333333333Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 18题	您的得分： 100.0	做题时长约为1.0166666666666666Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 13题	您的得分： 92.3076923076923	做题时长约为1.3833333333333333Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 35题	您的得分： 100.0	做题时长约为2.8833333333333333Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 50题	您的得分： 98.0	做题时长约为6.0Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 2题	您的得分： 100.0	做题时长约为0.1Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 19题	您的得分： 100.0	做题时长约为1.0666666666666667Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 6题	您的得分： 100.0	做题时长约为0.3333333333333333Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 50题	您的得分： 100.0	做题时长约为3.8Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 50题	您的得分： 100.0	做题时长约为13.05Min</t>
   </si>
 </sst>
 </file>
@@ -6294,11 +6327,317 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="386">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -7036,11 +7375,11 @@
       <c r="H9" t="s">
         <v>570</v>
       </c>
-      <c r="R9">
-        <v>5</v>
-      </c>
-      <c r="T9">
-        <v>1724374703582</v>
+      <c r="R9" t="n">
+        <v>3.9800000000000004</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.724415737881E12</v>
       </c>
       <c r="AA9" t="s">
         <v>1927</v>
@@ -7421,11 +7760,11 @@
       <c r="H20" t="s">
         <v>1606</v>
       </c>
-      <c r="R20">
-        <v>5.949999999999998</v>
-      </c>
-      <c r="T20">
-        <v>1724375095844</v>
+      <c r="R20" t="n">
+        <v>3.929999999999999</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.724415740792E12</v>
       </c>
       <c r="AA20" t="s">
         <v>1938</v>
@@ -7632,10 +7971,10 @@
         <v>1611</v>
       </c>
       <c r="R26" t="n">
-        <v>5.67</v>
+        <v>3.6500000000000004</v>
       </c>
       <c r="T26" t="n">
-        <v>1.724405315061E12</v>
+        <v>1.724415743166E12</v>
       </c>
       <c r="AA26" t="s">
         <v>1944</v>
@@ -8052,10 +8391,10 @@
         <v>1619</v>
       </c>
       <c r="R38" t="n">
-        <v>6.229999999999999</v>
+        <v>3.869999999999999</v>
       </c>
       <c r="T38" t="n">
-        <v>1.724405379931E12</v>
+        <v>1.724415746794E12</v>
       </c>
       <c r="AA38" t="s">
         <v>1955</v>
@@ -8367,10 +8706,10 @@
         <v>1624</v>
       </c>
       <c r="R47" t="n">
-        <v>6.789999999999999</v>
+        <v>3.75</v>
       </c>
       <c r="T47" t="n">
-        <v>1.724405381108E12</v>
+        <v>1.724415748098E12</v>
       </c>
       <c r="AA47" t="s">
         <v>1963</v>
@@ -8506,11 +8845,11 @@
       <c r="H51" t="s">
         <v>1628</v>
       </c>
-      <c r="R51">
-        <v>5.75</v>
-      </c>
-      <c r="T51">
-        <v>1724375852883</v>
+      <c r="R51" t="n">
+        <v>3.7300000000000004</v>
+      </c>
+      <c r="T51" t="n">
+        <v>1.724415789303E12</v>
       </c>
       <c r="AA51" t="s">
         <v>1967</v>
@@ -8961,11 +9300,11 @@
       <c r="H64" t="s">
         <v>1640</v>
       </c>
-      <c r="R64">
-        <v>5</v>
-      </c>
-      <c r="T64">
-        <v>1724375986297</v>
+      <c r="R64" t="n">
+        <v>3.3200000000000003</v>
+      </c>
+      <c r="T64" t="n">
+        <v>1.724415793191E12</v>
       </c>
       <c r="AA64" t="s">
         <v>1968</v>
@@ -9031,11 +9370,11 @@
       <c r="H66" t="s">
         <v>1642</v>
       </c>
-      <c r="R66">
-        <v>5.9</v>
-      </c>
-      <c r="T66">
-        <v>1724376064272</v>
+      <c r="R66" t="n">
+        <v>3.880000000000001</v>
+      </c>
+      <c r="T66" t="n">
+        <v>1.724415794197E12</v>
       </c>
       <c r="AA66" t="s">
         <v>1980</v>
@@ -10151,11 +10490,11 @@
       <c r="H98" t="s">
         <v>1672</v>
       </c>
-      <c r="R98">
-        <v>5.699999999999998</v>
-      </c>
-      <c r="T98">
-        <v>1724378848198</v>
+      <c r="R98" t="n">
+        <v>3.679999999999999</v>
+      </c>
+      <c r="T98" t="n">
+        <v>1.724415797062E12</v>
       </c>
       <c r="AA98" t="s">
         <v>1968</v>
@@ -10397,10 +10736,10 @@
         <v>1677</v>
       </c>
       <c r="R105" t="n">
-        <v>7.5699999999999985</v>
+        <v>3.6899999999999995</v>
       </c>
       <c r="T105" t="n">
-        <v>1.724405384821E12</v>
+        <v>1.724416323159E12</v>
       </c>
       <c r="AA105" t="s">
         <v>2006</v>
@@ -10571,11 +10910,11 @@
       <c r="H110" t="s">
         <v>1682</v>
       </c>
-      <c r="R110">
-        <v>5</v>
-      </c>
-      <c r="T110">
-        <v>1724379105361</v>
+      <c r="R110" t="n">
+        <v>3.3200000000000003</v>
+      </c>
+      <c r="T110" t="n">
+        <v>1.724416326823E12</v>
       </c>
       <c r="AA110" t="s">
         <v>1993</v>
@@ -10816,11 +11155,11 @@
       <c r="H117" t="s">
         <v>1687</v>
       </c>
-      <c r="R117">
-        <v>5</v>
-      </c>
-      <c r="T117">
-        <v>1724379364134</v>
+      <c r="R117" t="n">
+        <v>3.3200000000000003</v>
+      </c>
+      <c r="T117" t="n">
+        <v>1.724416329107E12</v>
       </c>
       <c r="AA117" t="s">
         <v>1934</v>
@@ -10851,11 +11190,11 @@
       <c r="H118" t="s">
         <v>1688</v>
       </c>
-      <c r="R118">
-        <v>5</v>
-      </c>
-      <c r="T118">
-        <v>1724379372707</v>
+      <c r="R118" t="n">
+        <v>3.3200000000000003</v>
+      </c>
+      <c r="T118" t="n">
+        <v>1.724416341965E12</v>
       </c>
       <c r="AA118" t="s">
         <v>1993</v>
@@ -11027,10 +11366,10 @@
         <v>1692</v>
       </c>
       <c r="R123" t="n">
-        <v>7.049999999999999</v>
+        <v>3.67</v>
       </c>
       <c r="T123" t="n">
-        <v>1.724405386646E12</v>
+        <v>1.724416345453E12</v>
       </c>
       <c r="AA123" t="s">
         <v>1968</v>
@@ -11412,10 +11751,10 @@
         <v>1702</v>
       </c>
       <c r="R134" t="n">
-        <v>7.25</v>
+        <v>3.870000000000001</v>
       </c>
       <c r="T134" t="n">
-        <v>1.724405388528E12</v>
+        <v>1.724416349054E12</v>
       </c>
       <c r="AA134" t="s">
         <v>2022</v>
@@ -12041,11 +12380,11 @@
       <c r="H152" t="s">
         <v>1716</v>
       </c>
-      <c r="R152">
-        <v>5</v>
-      </c>
-      <c r="T152">
-        <v>1724379928293</v>
+      <c r="R152" t="n">
+        <v>3.3200000000000003</v>
+      </c>
+      <c r="T152" t="n">
+        <v>1.724416353446E12</v>
       </c>
       <c r="AA152" t="s">
         <v>2032</v>
@@ -12531,11 +12870,11 @@
       <c r="H166" t="s">
         <v>1729</v>
       </c>
-      <c r="R166">
-        <v>5</v>
-      </c>
-      <c r="T166">
-        <v>1724380161089</v>
+      <c r="R166" t="n">
+        <v>3.9800000000000004</v>
+      </c>
+      <c r="T166" t="n">
+        <v>1.724416356148E12</v>
       </c>
       <c r="AA166" t="s">
         <v>1968</v>
@@ -12706,11 +13045,11 @@
       <c r="H171" t="s">
         <v>1734</v>
       </c>
-      <c r="R171">
-        <v>5</v>
-      </c>
-      <c r="T171">
-        <v>1724380206729</v>
+      <c r="R171" t="n">
+        <v>3.3200000000000003</v>
+      </c>
+      <c r="T171" t="n">
+        <v>1.724416365885E12</v>
       </c>
       <c r="AA171" t="s">
         <v>2046</v>
@@ -12811,11 +13150,11 @@
       <c r="H174" t="s">
         <v>1736</v>
       </c>
-      <c r="R174">
-        <v>5</v>
-      </c>
-      <c r="T174">
-        <v>1724380249053</v>
+      <c r="R174" t="n">
+        <v>3.3200000000000003</v>
+      </c>
+      <c r="T174" t="n">
+        <v>1.724416372253E12</v>
       </c>
       <c r="AA174" t="s">
         <v>2049</v>
@@ -13202,6 +13541,9 @@
       <c r="T185">
         <v>1724380370698</v>
       </c>
+      <c r="AA185" t="s">
+        <v>2058</v>
+      </c>
     </row>
     <row r="186" spans="1:20">
       <c r="A186">
@@ -13234,6 +13576,9 @@
       <c r="T186">
         <v>1724380376528</v>
       </c>
+      <c r="AA186" t="s">
+        <v>2059</v>
+      </c>
     </row>
     <row r="187" spans="1:20">
       <c r="A187">
@@ -13266,6 +13611,9 @@
       <c r="T187">
         <v>1724380382031</v>
       </c>
+      <c r="AA187" t="s">
+        <v>2060</v>
+      </c>
     </row>
     <row r="188" spans="1:20">
       <c r="A188">
@@ -13298,6 +13646,9 @@
       <c r="T188">
         <v>1724380386416</v>
       </c>
+      <c r="AA188" t="s">
+        <v>2061</v>
+      </c>
     </row>
     <row r="189" spans="1:20">
       <c r="A189">
@@ -13330,6 +13681,9 @@
       <c r="T189">
         <v>1724380390515</v>
       </c>
+      <c r="AA189" t="s">
+        <v>2021</v>
+      </c>
     </row>
     <row r="190" spans="1:20">
       <c r="A190">
@@ -13362,6 +13716,9 @@
       <c r="T190">
         <v>1724380399627</v>
       </c>
+      <c r="AA190" t="s">
+        <v>2062</v>
+      </c>
     </row>
     <row r="191" spans="1:20">
       <c r="A191">
@@ -13394,6 +13751,9 @@
       <c r="T191">
         <v>1724380407088</v>
       </c>
+      <c r="AA191" t="s">
+        <v>1968</v>
+      </c>
     </row>
     <row r="192" spans="1:20">
       <c r="A192">
@@ -13426,6 +13786,9 @@
       <c r="T192">
         <v>1724380411733</v>
       </c>
+      <c r="AA192" t="s">
+        <v>2063</v>
+      </c>
     </row>
     <row r="193" spans="1:20">
       <c r="A193">
@@ -13458,6 +13821,9 @@
       <c r="T193">
         <v>1724380417203</v>
       </c>
+      <c r="AA193" t="s">
+        <v>2064</v>
+      </c>
     </row>
     <row r="194" spans="1:20">
       <c r="A194">
@@ -13490,6 +13856,9 @@
       <c r="T194">
         <v>1724380421188</v>
       </c>
+      <c r="AA194" t="s">
+        <v>2065</v>
+      </c>
     </row>
     <row r="195" spans="1:20">
       <c r="A195">
@@ -13522,6 +13891,9 @@
       <c r="T195">
         <v>1724380425436</v>
       </c>
+      <c r="AA195" t="s">
+        <v>2066</v>
+      </c>
     </row>
     <row r="196" spans="1:20">
       <c r="A196">
@@ -13554,6 +13926,9 @@
       <c r="T196">
         <v>1724380430867</v>
       </c>
+      <c r="AA196" t="s">
+        <v>1968</v>
+      </c>
     </row>
     <row r="197" spans="1:20">
       <c r="A197">
@@ -13586,6 +13961,9 @@
       <c r="T197">
         <v>1724380434303</v>
       </c>
+      <c r="AA197" t="s">
+        <v>2067</v>
+      </c>
     </row>
     <row r="198" spans="1:20">
       <c r="A198">
@@ -13612,11 +13990,14 @@
       <c r="H198" t="s">
         <v>1750</v>
       </c>
-      <c r="R198">
-        <v>5</v>
-      </c>
-      <c r="T198">
-        <v>1724380474542</v>
+      <c r="R198" t="n">
+        <v>3.3200000000000003</v>
+      </c>
+      <c r="T198" t="n">
+        <v>1.72441637428E12</v>
+      </c>
+      <c r="AA198" t="s">
+        <v>2068</v>
       </c>
     </row>
     <row r="199" spans="1:20">
@@ -13709,10 +14090,10 @@
         <v>1748</v>
       </c>
       <c r="R201" t="n">
-        <v>7.530000000000001</v>
+        <v>3.9700000000000024</v>
       </c>
       <c r="T201" t="n">
-        <v>1.724405390808E12</v>
+        <v>1.724416378296E12</v>
       </c>
     </row>
     <row r="202" spans="1:20">
@@ -13772,11 +14153,11 @@
       <c r="H203" t="s">
         <v>1753</v>
       </c>
-      <c r="R203">
-        <v>5</v>
-      </c>
-      <c r="T203">
-        <v>1724380597959</v>
+      <c r="R203" t="n">
+        <v>3.3200000000000003</v>
+      </c>
+      <c r="T203" t="n">
+        <v>1.724416382118E12</v>
       </c>
     </row>
     <row r="204" spans="1:20">
@@ -14540,11 +14921,11 @@
       <c r="H227" t="s">
         <v>1773</v>
       </c>
-      <c r="R227">
-        <v>5.9</v>
-      </c>
-      <c r="T227">
-        <v>1724380854843</v>
+      <c r="R227" t="n">
+        <v>3.540000000000001</v>
+      </c>
+      <c r="T227" t="n">
+        <v>1.724416385529E12</v>
       </c>
     </row>
     <row r="228" spans="1:20">
@@ -15340,11 +15721,11 @@
       <c r="H252" t="s">
         <v>1797</v>
       </c>
-      <c r="R252">
-        <v>5</v>
-      </c>
-      <c r="T252">
-        <v>1724381069652</v>
+      <c r="R252" t="n">
+        <v>3.3200000000000003</v>
+      </c>
+      <c r="T252" t="n">
+        <v>1.724416391157E12</v>
       </c>
     </row>
     <row r="253" spans="1:20">
@@ -15626,10 +16007,10 @@
         <v>1804</v>
       </c>
       <c r="R261" t="n">
-        <v>7.25</v>
+        <v>3.870000000000001</v>
       </c>
       <c r="T261" t="n">
-        <v>1.724405396475E12</v>
+        <v>1.724416393356E12</v>
       </c>
     </row>
     <row r="262" spans="1:20">
@@ -15657,11 +16038,11 @@
       <c r="H262" t="s">
         <v>1805</v>
       </c>
-      <c r="R262">
-        <v>5.75</v>
-      </c>
-      <c r="T262">
-        <v>1724381164578</v>
+      <c r="R262" t="n">
+        <v>3.7300000000000004</v>
+      </c>
+      <c r="T262" t="n">
+        <v>1.724416402106E12</v>
       </c>
     </row>
     <row r="263" spans="1:20">
@@ -15754,10 +16135,10 @@
         <v>1808</v>
       </c>
       <c r="R265" t="n">
-        <v>6.229999999999999</v>
+        <v>3.869999999999999</v>
       </c>
       <c r="T265" t="n">
-        <v>1.72440539984E12</v>
+        <v>1.724416404645E12</v>
       </c>
     </row>
     <row r="266" spans="1:20">
@@ -16329,11 +16710,11 @@
       <c r="H283" t="s">
         <v>1824</v>
       </c>
-      <c r="R283">
-        <v>5</v>
-      </c>
-      <c r="T283">
-        <v>1724381480425</v>
+      <c r="R283" t="n">
+        <v>3.3200000000000003</v>
+      </c>
+      <c r="T283" t="n">
+        <v>1.724416415477E12</v>
       </c>
     </row>
     <row r="284" spans="1:20">
@@ -16714,10 +17095,10 @@
         <v>1836</v>
       </c>
       <c r="R295" t="n">
-        <v>6.229999999999999</v>
+        <v>3.869999999999999</v>
       </c>
       <c r="T295" t="n">
-        <v>1.724405401729E12</v>
+        <v>1.724416417231E12</v>
       </c>
     </row>
     <row r="296" spans="1:20">
@@ -16938,10 +17319,10 @@
         <v>1843</v>
       </c>
       <c r="R302" t="n">
-        <v>7.18</v>
+        <v>3.8000000000000007</v>
       </c>
       <c r="T302" t="n">
-        <v>1.724405403438E12</v>
+        <v>1.724416418849E12</v>
       </c>
     </row>
     <row r="303" spans="1:20">
@@ -17193,11 +17574,11 @@
       <c r="H310" t="s">
         <v>1850</v>
       </c>
-      <c r="R310">
-        <v>5.649999999999997</v>
-      </c>
-      <c r="T310">
-        <v>1724381821410</v>
+      <c r="R310" t="n">
+        <v>3.6299999999999972</v>
+      </c>
+      <c r="T310" t="n">
+        <v>1.724416423718E12</v>
       </c>
     </row>
     <row r="311" spans="1:20">
@@ -17290,10 +17671,10 @@
         <v>1853</v>
       </c>
       <c r="R313" t="n">
-        <v>7.43</v>
+        <v>3.5500000000000007</v>
       </c>
       <c r="T313" t="n">
-        <v>1.72440540539E12</v>
+        <v>1.724416426246E12</v>
       </c>
     </row>
     <row r="314" spans="1:20">
@@ -17609,11 +17990,11 @@
       <c r="H323" t="s">
         <v>1862</v>
       </c>
-      <c r="R323">
-        <v>5.75</v>
-      </c>
-      <c r="T323">
-        <v>1724381917036</v>
+      <c r="R323" t="n">
+        <v>3.5500000000000007</v>
+      </c>
+      <c r="T323" t="n">
+        <v>1.724416429121E12</v>
       </c>
     </row>
     <row r="324" spans="1:20">
@@ -17897,11 +18278,11 @@
       <c r="H332" t="s">
         <v>1871</v>
       </c>
-      <c r="R332">
-        <v>5</v>
-      </c>
-      <c r="T332">
-        <v>1724381962252</v>
+      <c r="R332" t="n">
+        <v>3.3200000000000003</v>
+      </c>
+      <c r="T332" t="n">
+        <v>1.724416432186E12</v>
       </c>
     </row>
     <row r="333" spans="1:20">
@@ -17929,11 +18310,11 @@
       <c r="H333" t="s">
         <v>1872</v>
       </c>
-      <c r="R333">
-        <v>5.75</v>
-      </c>
-      <c r="T333">
-        <v>1724381977622</v>
+      <c r="R333" t="n">
+        <v>3.5500000000000007</v>
+      </c>
+      <c r="T333" t="n">
+        <v>1.724416433919E12</v>
       </c>
     </row>
     <row r="334" spans="1:20">
@@ -18217,11 +18598,11 @@
       <c r="H342" t="s">
         <v>1879</v>
       </c>
-      <c r="R342">
-        <v>5.950000000000028</v>
-      </c>
-      <c r="T342">
-        <v>1724382037499</v>
+      <c r="R342" t="n">
+        <v>3.930000000000028</v>
+      </c>
+      <c r="T342" t="n">
+        <v>1.724416443861E12</v>
       </c>
     </row>
     <row r="343" spans="1:20">
@@ -18634,10 +19015,10 @@
         <v>1890</v>
       </c>
       <c r="R355" t="n">
-        <v>6.229999999999999</v>
+        <v>3.869999999999999</v>
       </c>
       <c r="T355" t="n">
-        <v>1.724405409287E12</v>
+        <v>1.724416456553E12</v>
       </c>
     </row>
     <row r="356" spans="1:20">
@@ -18762,10 +19143,10 @@
         <v>889</v>
       </c>
       <c r="R359" t="n">
-        <v>7.09</v>
+        <v>3.710000000000001</v>
       </c>
       <c r="T359" t="n">
-        <v>1.724405411068E12</v>
+        <v>1.724416457888E12</v>
       </c>
     </row>
     <row r="360" spans="1:20">
@@ -19338,10 +19719,10 @@
         <v>1909</v>
       </c>
       <c r="R377" t="n">
-        <v>6.380000000000028</v>
+        <v>3.680000000000029</v>
       </c>
       <c r="T377" t="n">
-        <v>1.72440542088E12</v>
+        <v>1.724416461655E12</v>
       </c>
     </row>
     <row r="378" spans="1:20">
@@ -19401,11 +19782,11 @@
       <c r="H379" t="s">
         <v>1910</v>
       </c>
-      <c r="R379">
-        <v>5.950000000000028</v>
-      </c>
-      <c r="T379">
-        <v>1724382350411</v>
+      <c r="R379" t="n">
+        <v>3.930000000000028</v>
+      </c>
+      <c r="T379" t="n">
+        <v>1.724416464515E12</v>
       </c>
     </row>
     <row r="380" spans="1:20">
@@ -19433,11 +19814,11 @@
       <c r="H380" t="s">
         <v>1911</v>
       </c>
-      <c r="R380">
-        <v>5.500000000000021</v>
-      </c>
-      <c r="T380">
-        <v>1724382363533</v>
+      <c r="R380" t="n">
+        <v>3.4800000000000217</v>
+      </c>
+      <c r="T380" t="n">
+        <v>1.724416470296E12</v>
       </c>
     </row>
     <row r="381" spans="1:20">
@@ -20125,11 +20506,11 @@
       <c r="D405" t="s">
         <v>4</v>
       </c>
-      <c r="R405">
-        <v>5</v>
-      </c>
-      <c r="T405">
-        <v>1724382529778</v>
+      <c r="R405" t="n">
+        <v>3.9800000000000004</v>
+      </c>
+      <c r="T405" t="n">
+        <v>1.724416471616E12</v>
       </c>
     </row>
     <row r="406" spans="1:20">
@@ -20245,11 +20626,11 @@
       <c r="D411" t="s">
         <v>5</v>
       </c>
-      <c r="R411">
-        <v>5.75</v>
-      </c>
-      <c r="T411">
-        <v>1724382588685</v>
+      <c r="R411" t="n">
+        <v>3.7300000000000004</v>
+      </c>
+      <c r="T411" t="n">
+        <v>1.724416473358E12</v>
       </c>
     </row>
     <row r="412" spans="1:20">
@@ -20486,10 +20867,10 @@
         <v>4</v>
       </c>
       <c r="R423" t="n">
-        <v>7.25</v>
+        <v>3.870000000000001</v>
       </c>
       <c r="T423" t="n">
-        <v>1.724405422286E12</v>
+        <v>1.724416474162E12</v>
       </c>
     </row>
     <row r="424" spans="1:20">
@@ -20725,11 +21106,11 @@
       <c r="D435" t="s">
         <v>4</v>
       </c>
-      <c r="R435">
-        <v>5</v>
-      </c>
-      <c r="T435">
-        <v>1724382652257</v>
+      <c r="R435" t="n">
+        <v>3.3200000000000003</v>
+      </c>
+      <c r="T435" t="n">
+        <v>1.724416478113E12</v>
       </c>
     </row>
     <row r="436" spans="1:20">
@@ -20985,11 +21366,11 @@
       <c r="D448" t="s">
         <v>4</v>
       </c>
-      <c r="R448">
-        <v>5</v>
-      </c>
-      <c r="T448">
-        <v>1724382690782</v>
+      <c r="R448" t="n">
+        <v>3.9800000000000004</v>
+      </c>
+      <c r="T448" t="n">
+        <v>1.724416481009E12</v>
       </c>
     </row>
     <row r="449" spans="1:20">
@@ -21366,10 +21747,10 @@
         <v>5</v>
       </c>
       <c r="R467" t="n">
-        <v>7.229999999999999</v>
+        <v>3.8499999999999996</v>
       </c>
       <c r="T467" t="n">
-        <v>1.724405423812E12</v>
+        <v>1.724416482624E12</v>
       </c>
     </row>
     <row r="468" spans="1:20">
@@ -21466,10 +21847,10 @@
         <v>5</v>
       </c>
       <c r="R472" t="n">
-        <v>5.819999999999996</v>
+        <v>3.7999999999999963</v>
       </c>
       <c r="T472" t="n">
-        <v>1.724405361339E12</v>
+        <v>1.724416485672E12</v>
       </c>
     </row>
     <row r="473" spans="1:20">
@@ -21625,11 +22006,11 @@
       <c r="D480" t="s">
         <v>5</v>
       </c>
-      <c r="R480">
-        <v>5</v>
-      </c>
-      <c r="T480">
-        <v>1724382969652</v>
+      <c r="R480" t="n">
+        <v>3.3200000000000003</v>
+      </c>
+      <c r="T480" t="n">
+        <v>1.724416487874E12</v>
       </c>
     </row>
     <row r="481" spans="1:20">
@@ -21645,11 +22026,11 @@
       <c r="D481" t="s">
         <v>5</v>
       </c>
-      <c r="R481">
-        <v>5</v>
-      </c>
-      <c r="T481">
-        <v>1724382974449</v>
+      <c r="R481" t="n">
+        <v>3.3200000000000003</v>
+      </c>
+      <c r="T481" t="n">
+        <v>1.724416489267E12</v>
       </c>
     </row>
     <row r="482" spans="1:20">
